--- a/04_Output/rC_k600_edited.xlsx
+++ b/04_Output/rC_k600_edited.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Howley_Bradford_Streams\Howley_Bradford_Streams\04_Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samanthahowley\Desktop\Howley_Bradford_Streams\04_Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48D20EE-CF5B-45A9-8C07-BAD79F6EA033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531CECF0-F0BE-45BB-B39F-6A29ECAF7F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,15 +20,15 @@
     <sheet name="5a" sheetId="6" r:id="rId5"/>
     <sheet name="6" sheetId="7" r:id="rId6"/>
     <sheet name="6a" sheetId="8" r:id="rId7"/>
-    <sheet name="9" sheetId="10" r:id="rId8"/>
-    <sheet name="7" sheetId="9" r:id="rId9"/>
+    <sheet name="7" sheetId="9" r:id="rId8"/>
+    <sheet name="9" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="18">
   <si>
     <t>day</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Temp</t>
+  </si>
+  <si>
+    <t>KCO2_1d</t>
   </si>
   <si>
     <t>k600_1d</t>
@@ -197,7 +200,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'3'!$H$1</c:f>
+              <c:f>'13'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -230,48 +233,42 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'3'!$E$2:$E$7</c:f>
+              <c:f>'13'!$F$2:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.41422688193861201</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.32268700082854701</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.86567996287507698</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.39402693623569102</c:v>
+                  <c:v>2.9805640124349799</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.39668660064592898</c:v>
+                  <c:v>1.26148301458118</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'3'!$H$2:$H$7</c:f>
+              <c:f>'13'!$H$2:$H$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7.3504151522309297E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2090623667874398E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1088768075705602</c:v>
+                  <c:v>35.562043667287597</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.30027814258265201</c:v>
+                  <c:v>21.156596996786899</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.95616784071764405</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -279,7 +276,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2047-4838-B63C-FB3DF3BDA1D1}"/>
+              <c16:uniqueId val="{00000000-2C35-493E-B596-0F62CB3DA963}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -291,11 +288,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1158569808"/>
-        <c:axId val="1158563088"/>
+        <c:axId val="1049957567"/>
+        <c:axId val="1049959007"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1158569808"/>
+        <c:axId val="1049957567"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -352,12 +349,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1158563088"/>
+        <c:crossAx val="1049959007"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1158563088"/>
+        <c:axId val="1049959007"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -414,7 +411,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1158569808"/>
+        <c:crossAx val="1049957567"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -525,7 +522,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'5'!$H$1</c:f>
+              <c:f>'15'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -556,106 +553,47 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'5'!$F$2:$F$9</c:f>
+              <c:f>'15'!$F$2:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>189.01863412147799</c:v>
+                  <c:v>34.390505339251298</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>167.71454998426699</c:v>
+                  <c:v>47.514255157747101</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>108.790470773255</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>476.23054296243299</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>163.543313114093</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>296.02736580758602</c:v>
+                <c:pt idx="5">
+                  <c:v>58.262776767551102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'5'!$H$2:$H$9</c:f>
+              <c:f>'15'!$H$2:$H$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4.2370344976545704</c:v>
+                  <c:v>0.42592403459915501</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4646393125211601</c:v>
+                  <c:v>15.6852075034425</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.88496209448095</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.95810841249484902</c:v>
+                  <c:v>10.0849792289545</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.3923482049197098</c:v>
+                  <c:v>3.5937360235842899</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.58077950286943</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>36.912859552156597</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -663,7 +601,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AB9E-45EF-AA70-537DF22BB4AB}"/>
+              <c16:uniqueId val="{00000000-17E8-4BC4-90C0-64D33A923A6C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -675,11 +613,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1261410512"/>
-        <c:axId val="1261400912"/>
+        <c:axId val="749990639"/>
+        <c:axId val="840423215"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1261410512"/>
+        <c:axId val="749990639"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -736,12 +674,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1261400912"/>
+        <c:crossAx val="840423215"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1261400912"/>
+        <c:axId val="840423215"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -798,7 +736,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1261410512"/>
+        <c:crossAx val="749990639"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -909,7 +847,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'5a'!$H$1</c:f>
+              <c:f>'3'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -942,33 +880,48 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'5a'!$F$2:$F$4</c:f>
+              <c:f>'3'!$E$2:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>13.0695248584331</c:v>
+                  <c:v>0.41422688193861201</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.6989815209433896</c:v>
+                <c:pt idx="2">
+                  <c:v>0.32268700082854701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.86567996287507698</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.39723668915869298</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.38487369823224499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'5a'!$H$2:$H$4</c:f>
+              <c:f>'3'!$H$2:$H$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.772252348942841</c:v>
+                  <c:v>5.5558661720727098E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33977184565730401</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.11332013024744E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.73058886604297</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33865857049369802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -976,7 +929,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-88A7-418C-99F8-F71C4F0CA683}"/>
+              <c16:uniqueId val="{00000000-DAE5-4094-B599-9B0F6CAB7BCF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -988,11 +941,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1261410032"/>
-        <c:axId val="1261391792"/>
+        <c:axId val="1043799471"/>
+        <c:axId val="1043798991"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1261410032"/>
+        <c:axId val="1043799471"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1049,12 +1002,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1261391792"/>
+        <c:crossAx val="1043798991"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1261391792"/>
+        <c:axId val="1043798991"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1111,7 +1064,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1261410032"/>
+        <c:crossAx val="1043799471"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1222,7 +1175,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'6'!$H$1</c:f>
+              <c:f>'5'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1253,94 +1206,62 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'6'!$F$2:$F$8</c:f>
+              <c:f>'5'!$F$2:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>161.004527140063</c:v>
+                <c:ptCount val="9"/>
+                <c:pt idx="1">
+                  <c:v>183.58876694917501</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32.711449100850999</c:v>
+                  <c:v>1.5389269136462</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.344306013367198</c:v>
+                  <c:v>162.66603244559099</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>92.170930544258496</c:v>
+                  <c:v>105.61236663593399</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>66.099393657811405</c:v>
+                  <c:v>460.07362929256902</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>105.53100859400401</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>286.87479906384101</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55.534940409272103</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'6'!$H$2:$H$8</c:f>
+              <c:f>'5'!$H$2:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="2">
-                  <c:v>0.96858747431625403</c:v>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.27670885500044</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.3609082256960097</c:v>
+                  <c:v>0.425674054587034</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.3914080356234</c:v>
+                  <c:v>0.79918461724656098</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.58933237308338704</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.65114613390860798</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.33165288386252301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1348,7 +1269,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F1AF-47D7-B409-F02B13EDFAE5}"/>
+              <c16:uniqueId val="{00000000-4ECE-450F-8BEE-17B5B6E072D1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1360,11 +1281,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1261386992"/>
-        <c:axId val="1261387472"/>
+        <c:axId val="972408735"/>
+        <c:axId val="972405855"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1261386992"/>
+        <c:axId val="972408735"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1421,12 +1342,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1261387472"/>
+        <c:crossAx val="972405855"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1261387472"/>
+        <c:axId val="972405855"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1483,7 +1404,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1261386992"/>
+        <c:crossAx val="972408735"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1594,7 +1515,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'9'!$H$1</c:f>
+              <c:f>'5a'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1625,47 +1546,55 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'9'!$E$2:$E$6</c:f>
+              <c:f>'5a'!$F$2:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.304619300450722</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.102308668556731</c:v>
+                  <c:v>13.0695248584331</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.3214142791922097E-2</c:v>
+                  <c:v>7.6989815209433896</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.14918451988419101</c:v>
+                  <c:v>9.4859257207413101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'9'!$H$2:$H$6</c:f>
+              <c:f>'5a'!$H$2:$H$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.82328254299512</c:v>
+                  <c:v>0.59619442027784597</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.8174516706708399</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.77561821208123705</c:v>
+                  <c:v>0.32657792786206402</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.5689915421025997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.0342626178979999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1673,7 +1602,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-16E7-4C80-A1D0-349938170C36}"/>
+              <c16:uniqueId val="{00000000-65A8-43E9-ACD3-55C3EA556563}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1685,11 +1614,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1261403312"/>
-        <c:axId val="1261412432"/>
+        <c:axId val="846323231"/>
+        <c:axId val="678265983"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1261403312"/>
+        <c:axId val="846323231"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1746,12 +1675,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1261412432"/>
+        <c:crossAx val="678265983"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1261412432"/>
+        <c:axId val="678265983"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1808,7 +1737,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1261403312"/>
+        <c:crossAx val="846323231"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1919,7 +1848,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'7'!$H$1</c:f>
+              <c:f>'6'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1950,50 +1879,76 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'7'!$E$2:$E$6</c:f>
+              <c:f>'6'!$E$2:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.242821714885854</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.13086204126953699</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.73138680186451299</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.26609524628140202</c:v>
+                  <c:v>0.28772677954446901</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>8.2976287770757301E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.4268725880109507E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.18695286733230901</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.142858205716412</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.26756115791951901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'7'!$H$2:$H$6</c:f>
+              <c:f>'6'!$H$2:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.91295210968335505</c:v>
-                </c:pt>
+                <c:ptCount val="9"/>
                 <c:pt idx="1">
-                  <c:v>1.41403824357145</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.27708508441848401</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5799703294369398</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.33341510601558799</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.38300537388112299</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.1700820436274597</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.1427883479316296</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.681988691739299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2001,7 +1956,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0573-4E19-BF66-AA3652C4302B}"/>
+              <c16:uniqueId val="{00000000-4FC7-4BE8-891C-C4622FCC7432}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2013,11 +1968,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1134106192"/>
-        <c:axId val="1134103792"/>
+        <c:axId val="840421775"/>
+        <c:axId val="840422735"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1134106192"/>
+        <c:axId val="840421775"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2074,12 +2029,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1134103792"/>
+        <c:crossAx val="840422735"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1134103792"/>
+        <c:axId val="840422735"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2136,7 +2091,976 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1134106192"/>
+        <c:crossAx val="840421775"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'6a'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>k600_1d</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'6a'!$F$2:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>0.37326337992833297</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0884150388744702</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'6a'!$H$2:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.36213642925469</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.47263363728687002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1870162654264998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9840-4F43-A409-CEF09DF35B1D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="761647343"/>
+        <c:axId val="761913983"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="761647343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="761913983"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="761913983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="761647343"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'7'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>k600_1d</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'7'!$F$2:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>26.1500989699855</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.070620539330598</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33.5601796390159</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'7'!$H$2:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.24390358452308999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.46872140092199499</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23444114467744401</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0239547132744997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6424089665535599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-076B-4C3B-BFA5-ECCAD44E1AE0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="749953359"/>
+        <c:axId val="845488111"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="749953359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="845488111"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="845488111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="749953359"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'9'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>k600_1d</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'9'!$F$2:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>165.823972739732</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.054074208547597</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.6815348320814</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>134.504322807786</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61.617676426121797</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>88.194470217674905</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'9'!$H$2:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.3297639505519001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21060279927259001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.488676963637731</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EF9B-43B6-8C5B-5548F33B4184}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="758572239"/>
+        <c:axId val="758570319"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="758572239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="758570319"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="758570319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="758572239"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2432,6 +3356,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5528,27 +6572,1575 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>700087</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>700087</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2950D56-E707-F3CF-9A36-507118371E21}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B84C845F-5D3A-2E69-5F6B-73346B00E2A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5573,23 +8165,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>700087</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>700087</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BF84BF8-2D8D-D21D-D9A9-EA9A2554AAF2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B07ACEED-5D52-F97A-ED62-D2D73B88983F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5614,23 +8206,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>204787</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>700087</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>433387</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>700087</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B26D5E27-6221-484A-EF61-4B681C74FB11}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64501E84-D922-5B2F-C596-24A226E20AC0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5655,23 +8247,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>204787</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>700087</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>433387</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>700087</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC80492D-DDCC-B081-F34E-D43857831729}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB96335E-8657-E5A8-D0FD-1A735FF774D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5696,23 +8288,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>204787</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>700087</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>433387</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>700087</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4897896E-BCDB-77B4-4FD5-4FD62C491074}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F3C466D-C54B-F61A-8F93-09FF6CBB58FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5737,23 +8329,146 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D37A9FB9-3F4F-0D8C-9B0F-16F706CD9B21}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F6F5BF0-43E8-074F-85A8-B32BCC1EE300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2729A135-F053-DF5F-8137-A829553A3FE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4260EF00-EA0F-735C-3670-1B0515B23FCF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA947931-7250-342F-CA57-2996235ED2DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6053,15 +8768,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6086,13 +8801,16 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45442</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>737.67287999999996</v>
@@ -6100,114 +8818,143 @@
       <c r="H2" t="e">
         <v>#NUM!</v>
       </c>
+      <c r="I2" t="e">
+        <v>#NUM!</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
+        <v>45590</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>365.64864</v>
+      </c>
+      <c r="H3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I3" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>45331</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
         <v>609.13812959999996</v>
       </c>
-      <c r="D3">
-        <v>4695.2049999999999</v>
-      </c>
-      <c r="E3">
-        <v>5.3765027984601498E-2</v>
-      </c>
-      <c r="F3">
-        <v>3.0302199792588298</v>
-      </c>
-      <c r="G3">
+      <c r="D4">
+        <v>2525.2719999999999</v>
+      </c>
+      <c r="E4">
+        <v>5.3458550098918499E-2</v>
+      </c>
+      <c r="F4">
+        <v>2.9805640124349799</v>
+      </c>
+      <c r="G4">
         <v>58.711833333333303</v>
       </c>
-      <c r="H3">
-        <v>219.84200997706799</v>
+      <c r="H4">
+        <v>35.562043667287597</v>
+      </c>
+      <c r="I4">
+        <v>43.1766535663998</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>45569</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
         <v>410.61864000000003</v>
       </c>
-      <c r="H4" t="e">
+      <c r="H5" t="e">
         <v>#NUM!</v>
       </c>
+      <c r="I5" t="e">
+        <v>#NUM!</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>45231</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
         <v>840.86069999999995</v>
       </c>
-      <c r="D5">
-        <v>4695.2049999999999</v>
-      </c>
-      <c r="E5">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>3.67414206545583E-2</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>1.26148301458118</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>68.241833333333304</v>
       </c>
-      <c r="H5">
-        <v>6.0722722181405597</v>
+      <c r="H6">
+        <v>21.156596996786899</v>
+      </c>
+      <c r="I6">
+        <v>21.6571527601944</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>45279</v>
       </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
         <v>654.34670000000006</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>4360.4979999999996</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>0.33558506980650299</v>
       </c>
-      <c r="F6">
-        <v>197.52387140350299</v>
-      </c>
-      <c r="G6">
+      <c r="G7">
         <v>58.136791666666703</v>
       </c>
-      <c r="H6">
-        <v>1.1733888577156899</v>
+      <c r="H7">
+        <v>0.95616784071764405</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6232,13 +8979,16 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45296</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>655.34429999999998</v>
@@ -6247,24 +8997,27 @@
         <v>3992.6460000000002</v>
       </c>
       <c r="E2">
-        <v>0.21615168048517899</v>
+        <v>0.215852248068133</v>
       </c>
       <c r="F2">
-        <v>34.563340438245902</v>
+        <v>34.390505339251298</v>
       </c>
       <c r="G2">
         <v>53.767708333333303</v>
       </c>
       <c r="H2">
-        <v>2.8329074184835799</v>
+        <v>0.42592403459915501</v>
+      </c>
+      <c r="I2">
+        <v>0.56756507410637702</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45484</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>779.41542000000004</v>
@@ -6273,76 +9026,67 @@
         <v>8306.5229999999992</v>
       </c>
       <c r="E3">
-        <v>0.23526251416139199</v>
+        <v>0.23609790544256401</v>
       </c>
       <c r="F3">
-        <v>46.911351019177999</v>
+        <v>47.514255157747101</v>
       </c>
       <c r="G3">
         <v>76.441249999999997</v>
       </c>
       <c r="H3">
-        <v>14.0442862758361</v>
+        <v>15.6852075034425</v>
+      </c>
+      <c r="I3">
+        <v>13.9945930170877</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
+        <v>45590</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>532.55862000000002</v>
+      </c>
+      <c r="H4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I4" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>45279</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
         <v>699.4171</v>
-      </c>
-      <c r="D4">
-        <v>3992.6460000000002</v>
-      </c>
-      <c r="E4">
-        <v>0.52826006985347296</v>
-      </c>
-      <c r="F4">
-        <v>855.51132713685695</v>
-      </c>
-      <c r="G4">
-        <v>57.950125</v>
-      </c>
-      <c r="H4">
-        <v>12.417608085285099</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>45330</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>637.20216000000005</v>
       </c>
       <c r="D5">
         <v>3992.6460000000002</v>
       </c>
       <c r="E5">
-        <v>0.22990208677387</v>
-      </c>
-      <c r="F5">
-        <v>43.206392204918302</v>
+        <v>0.52826006985347296</v>
       </c>
       <c r="G5">
-        <v>54.891249999999999</v>
+        <v>57.950125</v>
       </c>
       <c r="H5">
-        <v>6.5002496527615099</v>
+        <v>10.0849792289545</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45502</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>801.76949999999999</v>
@@ -6351,24 +9095,21 @@
         <v>13061.48</v>
       </c>
       <c r="E6">
-        <v>0.31316191238443097</v>
-      </c>
-      <c r="F6">
-        <v>130.82813105629199</v>
+        <v>0.31201786247728303</v>
       </c>
       <c r="G6">
         <v>76.383166666666696</v>
       </c>
       <c r="H6">
-        <v>9.5922034080040603</v>
+        <v>3.5937360235842899</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45569</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>547.61717999999996</v>
@@ -6376,36 +9117,40 @@
       <c r="D7">
         <v>6443.8360000000002</v>
       </c>
-      <c r="E7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F7" t="e">
-        <v>#NUM!</v>
+      <c r="E7">
+        <v>0.24996315545078601</v>
+      </c>
+      <c r="F7">
+        <v>58.262776767551102</v>
       </c>
       <c r="G7">
-        <v>76.180181818181794</v>
-      </c>
-      <c r="H7" t="e">
-        <v>#NUM!</v>
+        <v>76.3036666666667</v>
+      </c>
+      <c r="H7">
+        <v>36.912859552156597</v>
+      </c>
+      <c r="I7">
+        <v>33.0116836786571</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6430,13 +9175,16 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45296</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>473.84879999999998</v>
@@ -6448,96 +9196,99 @@
         <v>0.41422688193861201</v>
       </c>
       <c r="F2">
-        <v>40.071556819423897</v>
+        <v>39.2335750636623</v>
       </c>
       <c r="G2">
         <v>54.145791666666703</v>
       </c>
       <c r="H2">
+        <v>5.5558661720727098E-2</v>
+      </c>
+      <c r="I2">
         <v>7.3504151522309297E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
+        <v>45590</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>411.06707999999998</v>
+      </c>
+      <c r="H3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I3" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>45231</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
         <v>730.71659999999997</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>6744.4539999999997</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>0.32268700082854701</v>
       </c>
-      <c r="F3">
-        <v>19.639034765957501</v>
-      </c>
-      <c r="G3">
+      <c r="F4">
+        <v>18.5265754025319</v>
+      </c>
+      <c r="G4">
         <v>67.036416666666696</v>
       </c>
-      <c r="H3">
+      <c r="H4">
+        <v>2.11332013024744E-2</v>
+      </c>
+      <c r="I4">
         <v>2.2090623667874398E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>45279</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
         <v>699.4171</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>8053.1170000000002</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>0.86567996287507698</v>
       </c>
-      <c r="F4">
-        <v>330.06382455594598</v>
-      </c>
-      <c r="G4">
+      <c r="F5">
+        <v>360.82578389464197</v>
+      </c>
+      <c r="G5">
         <v>58.517166666666697</v>
       </c>
-      <c r="H4">
+      <c r="H5">
+        <v>1.73058886604297</v>
+      </c>
+      <c r="I5">
         <v>2.1088768075705602</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>45330</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>532.64693999999997</v>
-      </c>
-      <c r="D5">
-        <v>2838.85</v>
-      </c>
-      <c r="E5">
-        <v>0.39402693623569102</v>
-      </c>
-      <c r="F5">
-        <v>34.738135803701702</v>
-      </c>
-      <c r="G5">
-        <v>55.036708333333301</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45505</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>752.10996</v>
@@ -6546,30 +9297,42 @@
         <v>9327.6489999999994</v>
       </c>
       <c r="E6">
-        <v>0.39668660064592898</v>
+        <v>0.39723668915869298</v>
       </c>
       <c r="F6">
-        <v>35.509688723200199</v>
+        <v>34.6942253975892</v>
       </c>
       <c r="G6">
         <v>76.912333333333294</v>
       </c>
       <c r="H6">
-        <v>0.30027814258265201</v>
+        <v>0.33865857049369802</v>
+      </c>
+      <c r="I6">
+        <v>0.29986232108031602</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45569</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>395.73576000000003</v>
       </c>
-      <c r="H7" t="e">
-        <v>#NUM!</v>
+      <c r="D7">
+        <v>3225.154</v>
+      </c>
+      <c r="E7">
+        <v>0.38487369823224499</v>
+      </c>
+      <c r="F7">
+        <v>31.475139594695701</v>
+      </c>
+      <c r="G7">
+        <v>75.441000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -6581,15 +9344,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6614,189 +9377,239 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
+        <v>45442</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>688.71222</v>
+      </c>
+      <c r="H2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I2" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>45484</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
         <v>690.81389999999999</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>6961.3969999999999</v>
       </c>
-      <c r="E2">
-        <v>0.25592561957851201</v>
-      </c>
-      <c r="F2">
-        <v>189.01863412147799</v>
-      </c>
-      <c r="G2">
+      <c r="E3">
+        <v>0.25670942796431001</v>
+      </c>
+      <c r="F3">
+        <v>183.58876694917501</v>
+      </c>
+      <c r="G3">
         <v>76.579041666666697</v>
       </c>
-      <c r="H2">
-        <v>4.2370344976545704</v>
-      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45590</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>548.14409999999998</v>
+      </c>
+      <c r="D4">
+        <v>8635.2430000000004</v>
+      </c>
+      <c r="E4">
+        <v>1.4553017535786799E-3</v>
+      </c>
+      <c r="F4">
+        <v>1.5389269136462</v>
+      </c>
+      <c r="G4">
+        <v>69.716999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>45296</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
         <v>429.05880000000002</v>
       </c>
-      <c r="D3">
+      <c r="D5">
         <v>3375.2420000000002</v>
       </c>
-      <c r="E3">
-        <v>0.22474942086247801</v>
-      </c>
-      <c r="F3">
-        <v>167.71454998426699</v>
-      </c>
-      <c r="G3">
+      <c r="E5">
+        <v>0.225012367816944</v>
+      </c>
+      <c r="F5">
+        <v>162.66603244559099</v>
+      </c>
+      <c r="G5">
         <v>54.871041666666699</v>
       </c>
-      <c r="H3">
-        <v>2.4646393125211601</v>
+      <c r="H5">
+        <v>0.425674054587034</v>
+      </c>
+      <c r="I5">
+        <v>0.55533520106256995</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>45266</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
         <v>409.7124</v>
       </c>
-      <c r="D4">
+      <c r="D6">
         <v>4325.9719999999998</v>
       </c>
-      <c r="E4">
-        <v>0.14059423361271001</v>
-      </c>
-      <c r="F4">
-        <v>108.790470773255</v>
-      </c>
-      <c r="G4">
+      <c r="E6">
+        <v>0.14071662604863699</v>
+      </c>
+      <c r="F6">
+        <v>105.61236663593399</v>
+      </c>
+      <c r="G6">
         <v>62.968666666666699</v>
       </c>
-      <c r="H4">
-        <v>2.88496209448095</v>
-      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>45279</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
         <v>444.28</v>
       </c>
-      <c r="D5">
+      <c r="D7">
         <v>3363.2</v>
       </c>
-      <c r="E5">
+      <c r="E7">
         <v>0.69658739105357004</v>
       </c>
-      <c r="F5">
-        <v>476.23054296243299</v>
-      </c>
-      <c r="G5">
+      <c r="F7">
+        <v>460.07362929256902</v>
+      </c>
+      <c r="G7">
         <v>59.392708333333303</v>
       </c>
-      <c r="H5">
+      <c r="H7">
+        <v>0.79918461724656098</v>
+      </c>
+      <c r="I7">
         <v>0.95810841249484902</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>45330</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>511.99932000000001</v>
-      </c>
-      <c r="D6">
-        <v>3088.7840000000001</v>
-      </c>
-      <c r="E6">
-        <v>0.218696189059045</v>
-      </c>
-      <c r="F6">
-        <v>163.543313114093</v>
-      </c>
-      <c r="G6">
-        <v>55.760291666666703</v>
-      </c>
-      <c r="H6">
-        <v>5.3923482049197098</v>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>545.70809999999994</v>
+      </c>
+      <c r="D8">
+        <v>4021.9380000000001</v>
+      </c>
+      <c r="E8">
+        <v>0.140700754388522</v>
+      </c>
+      <c r="F8">
+        <v>105.53100859400401</v>
+      </c>
+      <c r="G8">
+        <v>62.832791666666701</v>
+      </c>
+      <c r="H8">
+        <v>0.58933237308338704</v>
+      </c>
+      <c r="I8">
+        <v>0.66357904524141798</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>45376</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>545.70809999999994</v>
-      </c>
-      <c r="H7" t="e">
-        <v>#NUM!</v>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>45502</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>776.96429999999998</v>
+      </c>
+      <c r="D9">
+        <v>6713.1440000000002</v>
+      </c>
+      <c r="E9">
+        <v>0.41694777291652502</v>
+      </c>
+      <c r="F9">
+        <v>286.87479906384101</v>
+      </c>
+      <c r="G9">
+        <v>76.361791666666704</v>
+      </c>
+      <c r="H9">
+        <v>0.65114613390860798</v>
+      </c>
+      <c r="I9">
+        <v>0.58164549937857801</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>45502</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8">
-        <v>776.96429999999998</v>
-      </c>
-      <c r="D8">
-        <v>6713.1440000000002</v>
-      </c>
-      <c r="E8">
-        <v>0.41613664075813001</v>
-      </c>
-      <c r="F8">
-        <v>296.02736580758602</v>
-      </c>
-      <c r="G8">
-        <v>76.361791666666704</v>
-      </c>
-      <c r="H8">
-        <v>1.58077950286943</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>45569</v>
       </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
         <v>395.84652</v>
       </c>
-      <c r="H9" t="e">
-        <v>#NUM!</v>
+      <c r="D10">
+        <v>8379.9380000000001</v>
+      </c>
+      <c r="E10">
+        <v>7.0018058078074194E-2</v>
+      </c>
+      <c r="F10">
+        <v>55.534940409272103</v>
+      </c>
+      <c r="G10">
+        <v>75.600666666666697</v>
+      </c>
+      <c r="H10">
+        <v>0.33165288386252301</v>
+      </c>
+      <c r="I10">
+        <v>0.30002456976414499</v>
       </c>
     </row>
   </sheetData>
@@ -6808,15 +9621,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="I1" activeCellId="1" sqref="F1:F1048576 I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6841,13 +9654,16 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45296</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>650.67600000000004</v>
@@ -6865,47 +9681,85 @@
         <v>55.262291666666698</v>
       </c>
       <c r="H2">
+        <v>0.59619442027784597</v>
+      </c>
+      <c r="I2">
         <v>0.772252348942841</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
+        <v>45590</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>835.77359999999999</v>
+      </c>
+      <c r="H3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I3" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>45231</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
         <v>402.31270000000001</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>17383.669999999998</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>0.36326953896331998</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>7.6989815209433896</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>67.299833333333297</v>
       </c>
-      <c r="H3">
+      <c r="H4">
+        <v>0.32657792786206402</v>
+      </c>
+      <c r="I4">
         <v>0.33977184565730401</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>45569</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4">
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
         <v>547.30542000000003</v>
       </c>
-      <c r="H4" t="e">
-        <v>#NUM!</v>
+      <c r="D5">
+        <v>14306.2</v>
+      </c>
+      <c r="E5">
+        <v>0.386909393539067</v>
+      </c>
+      <c r="F5">
+        <v>9.4859257207413101</v>
+      </c>
+      <c r="G5">
+        <v>75.319166666666703</v>
+      </c>
+      <c r="H5">
+        <v>1.0342626178979999</v>
+      </c>
+      <c r="I5">
+        <v>0.93977831967298397</v>
       </c>
     </row>
   </sheetData>
@@ -6917,15 +9771,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6950,13 +9804,16 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45296</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>644.81269999999995</v>
@@ -6974,133 +9831,200 @@
         <v>57.347416666666703</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45442</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>645.07506000000001</v>
       </c>
+      <c r="H3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I3" t="e">
+        <v>#NUM!</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
+        <v>45484</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>20605.830000000002</v>
+      </c>
+      <c r="H4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I4" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>45590</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>502.29234000000002</v>
+      </c>
+      <c r="H5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I5" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>45231</v>
       </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
         <v>698.6585</v>
       </c>
-      <c r="D4">
+      <c r="D6">
         <v>11130.56</v>
       </c>
-      <c r="E4">
-        <v>8.3348043454980203E-2</v>
-      </c>
-      <c r="F4">
-        <v>32.711449100850999</v>
-      </c>
-      <c r="G4">
+      <c r="E6">
+        <v>8.2976287770757301E-2</v>
+      </c>
+      <c r="F6">
+        <v>32.522982093317097</v>
+      </c>
+      <c r="G6">
         <v>68.278565217391304</v>
       </c>
-      <c r="H4">
-        <v>0.96858747431625403</v>
+      <c r="H6">
+        <v>0.33341510601558799</v>
+      </c>
+      <c r="I6">
+        <v>0.34109151672638899</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>45266</v>
       </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
         <v>595.43700000000001</v>
       </c>
-      <c r="D5">
+      <c r="D7">
         <v>10319.43</v>
       </c>
-      <c r="E5">
-        <v>7.4604288905547905E-2</v>
-      </c>
-      <c r="F5">
-        <v>28.344306013367198</v>
-      </c>
-      <c r="G5">
+      <c r="E7">
+        <v>7.4268725880109507E-2</v>
+      </c>
+      <c r="F7">
+        <v>28.181122381291299</v>
+      </c>
+      <c r="G7">
         <v>63.182749999999999</v>
       </c>
-      <c r="H5">
-        <v>1.27670885500044</v>
+      <c r="H7">
+        <v>0.38300537388112299</v>
+      </c>
+      <c r="I7">
+        <v>0.42861234858122599</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>45331</v>
       </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6">
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
         <v>433.461546</v>
       </c>
-      <c r="D6">
-        <v>12721.81</v>
-      </c>
-      <c r="E6">
-        <v>0.18646284595599499</v>
-      </c>
-      <c r="F6">
-        <v>92.170930544258496</v>
-      </c>
-      <c r="G6">
+      <c r="D8">
+        <v>10290.9</v>
+      </c>
+      <c r="E8">
+        <v>0.18695286733230901</v>
+      </c>
+      <c r="F8">
+        <v>92.480351387484305</v>
+      </c>
+      <c r="G8">
         <v>56.771625</v>
       </c>
-      <c r="H6">
-        <v>5.3609082256960097</v>
+      <c r="H8">
+        <v>5.1700820436274597</v>
+      </c>
+      <c r="I8">
+        <v>6.5088333933078397</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>45502</v>
       </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
         <v>667.35563999999999</v>
       </c>
-      <c r="D7">
+      <c r="D9">
         <v>1573.1279999999999</v>
       </c>
-      <c r="E7">
-        <v>0.14396514073660599</v>
-      </c>
-      <c r="F7">
-        <v>66.099393657811405</v>
-      </c>
-      <c r="G7">
+      <c r="E9">
+        <v>0.142858205716412</v>
+      </c>
+      <c r="F9">
+        <v>65.450197871718402</v>
+      </c>
+      <c r="G9">
         <v>74.173434782608695</v>
       </c>
-      <c r="H7">
-        <v>10.3914080356234</v>
+      <c r="H9">
+        <v>8.1427883479316296</v>
+      </c>
+      <c r="I9">
+        <v>7.5405072928701502</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>45569</v>
       </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
         <v>395.63819999999998</v>
       </c>
-      <c r="H8" t="e">
-        <v>#NUM!</v>
+      <c r="D10">
+        <v>1740.903</v>
+      </c>
+      <c r="E10">
+        <v>0.26756115791951901</v>
+      </c>
+      <c r="F10">
+        <v>146.747643377652</v>
+      </c>
+      <c r="G10">
+        <v>75.326458333333306</v>
+      </c>
+      <c r="H10">
+        <v>12.681988691739299</v>
+      </c>
+      <c r="I10">
+        <v>11.523434973466101</v>
       </c>
     </row>
   </sheetData>
@@ -7112,13 +10036,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7143,102 +10069,126 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
+        <v>45590</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>411.13853999999998</v>
+      </c>
+      <c r="H2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I2" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>45296</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
         <v>637.03409999999997</v>
       </c>
-      <c r="D2">
-        <v>1245.8230000000001</v>
-      </c>
-      <c r="E2">
-        <v>3.9515558273540703E-2</v>
-      </c>
-      <c r="F2">
-        <v>0.37657966305853302</v>
-      </c>
-      <c r="G2">
+      <c r="D3">
+        <v>9416.6620000000003</v>
+      </c>
+      <c r="E3">
+        <v>3.9374423084510397E-2</v>
+      </c>
+      <c r="F3">
+        <v>0.37326337992833297</v>
+      </c>
+      <c r="G3">
         <v>52.158749999999998</v>
       </c>
-      <c r="H2">
-        <v>139.19184053193899</v>
+      <c r="H3">
+        <v>4.36213642925469</v>
+      </c>
+      <c r="I3">
+        <v>5.99346173557774</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>45502</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3">
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
         <v>647.25275999999997</v>
       </c>
-      <c r="D3">
-        <v>21211.78</v>
-      </c>
-      <c r="E3">
-        <v>9.2779301164663E-2</v>
-      </c>
-      <c r="F3">
-        <v>3.1257828218373702</v>
-      </c>
-      <c r="G3">
+      <c r="D4">
+        <v>20938.13</v>
+      </c>
+      <c r="E4">
+        <v>9.2340088456400696E-2</v>
+      </c>
+      <c r="F4">
+        <v>3.0884150388744702</v>
+      </c>
+      <c r="G4">
         <v>76.433750000000003</v>
       </c>
-      <c r="H3">
-        <v>1.24154746668876</v>
+      <c r="H4">
+        <v>0.47263363728687002</v>
+      </c>
+      <c r="I4">
+        <v>0.42169129089072499</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>45279</v>
       </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
         <v>801.09990000000005</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>7747.7939999999999</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>0.38613206590049598</v>
       </c>
-      <c r="F4">
-        <v>104.63127357915801</v>
-      </c>
-      <c r="G4">
+      <c r="G5">
         <v>57.410541666666703</v>
       </c>
-      <c r="H4">
-        <v>2.7201304818480699E-2</v>
+      <c r="H5">
+        <v>2.1870162654264998E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7263,8 +10213,11 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45296</v>
       </c>
@@ -7272,114 +10225,149 @@
         <v>16</v>
       </c>
       <c r="C2">
-        <v>699.58140000000003</v>
+        <v>679.72839999999997</v>
       </c>
       <c r="D2">
-        <v>4167.0529999999999</v>
+        <v>8812.9509999999991</v>
       </c>
       <c r="E2">
-        <v>0.304619300450722</v>
+        <v>0.242294433819637</v>
       </c>
       <c r="F2">
-        <v>166.62502050085101</v>
+        <v>26.1500989699855</v>
       </c>
       <c r="G2">
-        <v>52.267458333333302</v>
+        <v>57.088374999999999</v>
       </c>
       <c r="H2">
-        <v>1.82328254299512</v>
+        <v>0.24390358452308999</v>
+      </c>
+      <c r="I2">
+        <v>0.30520205545490398</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45231</v>
+        <v>45590</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
       </c>
       <c r="C3">
-        <v>721.23059999999998</v>
-      </c>
-      <c r="D3">
-        <v>2687.3130000000001</v>
-      </c>
-      <c r="E3">
-        <v>0.102308668556731</v>
-      </c>
-      <c r="F3">
-        <v>36.321461455311301</v>
-      </c>
-      <c r="G3">
-        <v>65.837708333333296</v>
-      </c>
-      <c r="H3">
-        <v>5.8174516706708399</v>
+        <v>441.74369999999999</v>
+      </c>
+      <c r="H3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I3" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45266</v>
+        <v>45231</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
       <c r="C4">
-        <v>739.46839999999997</v>
+        <v>719.91600000000005</v>
       </c>
       <c r="D4">
-        <v>3986.5630000000001</v>
+        <v>4485.2950000000001</v>
       </c>
       <c r="E4">
-        <v>9.3214142791922097E-2</v>
-      </c>
-      <c r="F4">
-        <v>31.8969539395837</v>
+        <v>0.13055244711888001</v>
       </c>
       <c r="G4">
-        <v>57.605125000000001</v>
+        <v>68.842375000000004</v>
       </c>
       <c r="H4">
-        <v>0.77561821208123705</v>
+        <v>0.46872140092199499</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45502</v>
+        <v>45279</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
       <c r="C5">
-        <v>719.93502000000001</v>
+        <v>418.92230000000001</v>
       </c>
       <c r="D5">
-        <v>5518.3209999999999</v>
+        <v>9377.6460000000006</v>
       </c>
       <c r="E5">
-        <v>0.14918451988419101</v>
-      </c>
-      <c r="F5">
-        <v>61.547924324742297</v>
+        <v>0.73138680186451299</v>
       </c>
       <c r="G5">
-        <v>77.678708333333304</v>
+        <v>60.173708333333302</v>
       </c>
       <c r="H5">
-        <v>6.5689915421025997</v>
+        <v>0.23444114467744401</v>
+      </c>
+      <c r="I5">
+        <v>0.27708508441848401</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45569</v>
+        <v>45505</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
       <c r="C6">
-        <v>396.4812</v>
-      </c>
-      <c r="H6" t="e">
-        <v>#NUM!</v>
+        <v>642.23753999999997</v>
+      </c>
+      <c r="D6">
+        <v>3474.2550000000001</v>
+      </c>
+      <c r="E6">
+        <v>0.26661213979770598</v>
+      </c>
+      <c r="F6">
+        <v>35.070620539330598</v>
+      </c>
+      <c r="G6">
+        <v>76.782291666666694</v>
+      </c>
+      <c r="H6">
+        <v>4.0239547132744997</v>
+      </c>
+      <c r="I6">
+        <v>3.5702893922979699</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>45569</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>365.72465999999997</v>
+      </c>
+      <c r="D7">
+        <v>1201.4880000000001</v>
+      </c>
+      <c r="E7">
+        <v>0.26345251809384701</v>
+      </c>
+      <c r="F7">
+        <v>33.5601796390159</v>
+      </c>
+      <c r="G7">
+        <v>76.006291666666698</v>
+      </c>
+      <c r="H7">
+        <v>2.6424089665535599</v>
+      </c>
+      <c r="I7">
+        <v>2.3742812408469902</v>
       </c>
     </row>
   </sheetData>
@@ -7390,16 +10378,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7424,135 +10412,181 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45296</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C2">
-        <v>679.72839999999997</v>
+        <v>699.58140000000003</v>
       </c>
       <c r="D2">
-        <v>8812.9509999999991</v>
+        <v>4167.0529999999999</v>
       </c>
       <c r="E2">
-        <v>0.242821714885854</v>
+        <v>0.304619300450722</v>
       </c>
       <c r="F2">
-        <v>26.325433434691899</v>
+        <v>165.823972739732</v>
       </c>
       <c r="G2">
-        <v>57.088374999999999</v>
+        <v>52.267458333333302</v>
       </c>
       <c r="H2">
-        <v>0.91295210968335505</v>
+        <v>1.3297639505519001</v>
+      </c>
+      <c r="I2">
+        <v>1.82328254299512</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
+        <v>45590</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <v>380.19384000000002</v>
+      </c>
+      <c r="H3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I3" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>45231</v>
       </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3">
-        <v>719.91600000000005</v>
-      </c>
-      <c r="D3">
-        <v>4485.2950000000001</v>
-      </c>
-      <c r="E3">
-        <v>0.13086204126953699</v>
-      </c>
-      <c r="F3">
-        <v>4.0711685430953697</v>
-      </c>
-      <c r="G3">
-        <v>68.842375000000004</v>
-      </c>
-      <c r="H3">
-        <v>1.41403824357145</v>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>721.23059999999998</v>
+      </c>
+      <c r="D4">
+        <v>2687.3130000000001</v>
+      </c>
+      <c r="E4">
+        <v>0.1019830414486</v>
+      </c>
+      <c r="F4">
+        <v>36.054074208547597</v>
+      </c>
+      <c r="G4">
+        <v>65.837708333333296</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>45279</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4">
-        <v>418.92230000000001</v>
-      </c>
-      <c r="D4">
-        <v>9377.6460000000006</v>
-      </c>
-      <c r="E4">
-        <v>0.73138680186451299</v>
-      </c>
-      <c r="F4">
-        <v>728.91156257831699</v>
-      </c>
-      <c r="G4">
-        <v>60.173708333333302</v>
-      </c>
-      <c r="H4">
-        <v>0.27708508441848401</v>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>45266</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>739.46839999999997</v>
+      </c>
+      <c r="D5">
+        <v>3986.5630000000001</v>
+      </c>
+      <c r="E5">
+        <v>9.2948582820242806E-2</v>
+      </c>
+      <c r="F5">
+        <v>31.6815348320814</v>
+      </c>
+      <c r="G5">
+        <v>57.605125000000001</v>
+      </c>
+      <c r="H5">
+        <v>0.21060279927259001</v>
+      </c>
+      <c r="I5">
+        <v>0.26097334154129898</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>45505</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5">
-        <v>642.23753999999997</v>
-      </c>
-      <c r="D5">
-        <v>3474.2550000000001</v>
-      </c>
-      <c r="E5">
-        <v>0.26609524628140202</v>
-      </c>
-      <c r="F5">
-        <v>34.889648340832998</v>
-      </c>
-      <c r="G5">
-        <v>76.782291666666694</v>
-      </c>
-      <c r="H5">
-        <v>3.5799703294369398</v>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>45331</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>447.77111400000001</v>
+      </c>
+      <c r="D6">
+        <v>3393.52</v>
+      </c>
+      <c r="E6">
+        <v>0.26214009253193299</v>
+      </c>
+      <c r="F6">
+        <v>134.504322807786</v>
+      </c>
+      <c r="G6">
+        <v>55.680374999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>45502</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>719.93502000000001</v>
+      </c>
+      <c r="D7">
+        <v>5518.3209999999999</v>
+      </c>
+      <c r="E7">
+        <v>0.14969712289074899</v>
+      </c>
+      <c r="F7">
+        <v>61.617676426121797</v>
+      </c>
+      <c r="G7">
+        <v>77.678708333333304</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>45569</v>
       </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6">
-        <v>365.72465999999997</v>
-      </c>
-      <c r="D6">
-        <v>982.30460000000005</v>
-      </c>
-      <c r="E6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G6">
-        <v>75.974999999999994</v>
-      </c>
-      <c r="H6" t="e">
-        <v>#NUM!</v>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>396.4812</v>
+      </c>
+      <c r="D8">
+        <v>8222.7630000000008</v>
+      </c>
+      <c r="E8">
+        <v>0.19368252554686899</v>
+      </c>
+      <c r="F8">
+        <v>88.194470217674905</v>
+      </c>
+      <c r="G8">
+        <v>76.782666666666699</v>
+      </c>
+      <c r="H8">
+        <v>0.488676963637731</v>
+      </c>
+      <c r="I8">
+        <v>0.43358295603590602</v>
       </c>
     </row>
   </sheetData>

--- a/04_Output/rC_k600_edited.xlsx
+++ b/04_Output/rC_k600_edited.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samanthahowley\Desktop\Howley_Bradford_Streams\04_Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531CECF0-F0BE-45BB-B39F-6A29ECAF7F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEC8F28B-1F29-402B-8317-8493A916F424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="13" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="19">
   <si>
     <t>day</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>k600_1d</t>
+  </si>
+  <si>
+    <t>logQ</t>
   </si>
   <si>
     <t>13</t>
@@ -200,7 +203,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'13'!$I$1</c:f>
+              <c:f>'13'!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -233,22 +236,25 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'13'!$F$2:$F$7</c:f>
+              <c:f>'13'!$G$2:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="2">
-                  <c:v>2.9805640124349799</c:v>
+                  <c:v>0.47429845344238097</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.26148301458118</c:v>
+                  <c:v>0.100881407272675</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2956195890375901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'13'!$H$2:$H$7</c:f>
+              <c:f>'13'!$J$2:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -259,16 +265,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.562043667287597</c:v>
+                  <c:v>43.1766535663998</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.156596996786899</c:v>
+                  <c:v>21.6571527601944</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.95616784071764405</c:v>
+                  <c:v>1.1733888577156899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -276,7 +282,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2C35-493E-B596-0F62CB3DA963}"/>
+              <c16:uniqueId val="{00000000-A891-4C0A-AA93-A0735F03DB65}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -288,11 +294,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1049957567"/>
-        <c:axId val="1049959007"/>
+        <c:axId val="898283423"/>
+        <c:axId val="898289183"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1049957567"/>
+        <c:axId val="898283423"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -349,12 +355,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1049959007"/>
+        <c:crossAx val="898289183"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1049959007"/>
+        <c:axId val="898289183"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -411,7 +417,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1049957567"/>
+        <c:crossAx val="898283423"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -522,7 +528,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'15'!$I$1</c:f>
+              <c:f>'15'!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -553,47 +559,61 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'15'!$F$2:$F$7</c:f>
+              <c:f>'15'!$G$2:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>34.390505339251298</c:v>
+                  <c:v>1.5364385574572501</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47.514255157747101</c:v>
+                  <c:v>1.6768239255734401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9322257640588401</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1111055589692098</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>58.262776767551102</c:v>
+                  <c:v>1.7653911789886501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'15'!$H$2:$H$7</c:f>
+              <c:f>'15'!$J$2:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.42592403459915501</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15.6852075034425</c:v>
+                  <c:v>0.56756507410637702</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.0849792289545</c:v>
+                  <c:v>12.417608085285099</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.5937360235842899</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>36.912859552156597</c:v>
+                  <c:v>3.2092133252536899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -601,7 +621,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-17E8-4BC4-90C0-64D33A923A6C}"/>
+              <c16:uniqueId val="{00000000-D742-4263-BB55-203503E1982F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -613,11 +633,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="749990639"/>
-        <c:axId val="840423215"/>
+        <c:axId val="1055748367"/>
+        <c:axId val="1055757007"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="749990639"/>
+        <c:axId val="1055748367"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -674,12 +694,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="840423215"/>
+        <c:crossAx val="1055757007"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="840423215"/>
+        <c:axId val="1055757007"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -736,7 +756,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="749990639"/>
+        <c:crossAx val="1055748367"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -847,7 +867,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'3'!$I$1</c:f>
+              <c:f>'3'!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -880,48 +900,48 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'3'!$E$2:$E$7</c:f>
+              <c:f>'3'!$G$2:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.41422688193861201</c:v>
+                  <c:v>1.5936578839561699</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.32268700082854701</c:v>
+                  <c:v>1.2677951483401999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.86567996287507698</c:v>
+                  <c:v>2.5572975638008</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.39723668915869298</c:v>
+                  <c:v>1.5402571956364199</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.38487369823224499</c:v>
+                  <c:v>1.4979676649140301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'3'!$H$2:$H$7</c:f>
+              <c:f>'3'!$J$2:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5.5558661720727098E-2</c:v>
+                  <c:v>7.3504151522309297E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.11332013024744E-2</c:v>
+                  <c:v>2.2090623667874398E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.73058886604297</c:v>
+                  <c:v>2.1088768075705602</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.33865857049369802</c:v>
+                  <c:v>0.29986232108031602</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -929,7 +949,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DAE5-4094-B599-9B0F6CAB7BCF}"/>
+              <c16:uniqueId val="{00000000-04E0-460A-BD8E-B9C3B050900C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -941,11 +961,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1043799471"/>
-        <c:axId val="1043798991"/>
+        <c:axId val="1055757487"/>
+        <c:axId val="1055750767"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1043799471"/>
+        <c:axId val="1055757487"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1002,12 +1022,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1043798991"/>
+        <c:crossAx val="1055750767"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1043798991"/>
+        <c:axId val="1055750767"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1064,7 +1084,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1043799471"/>
+        <c:crossAx val="1055757487"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1175,7 +1195,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'5'!$I$1</c:f>
+              <c:f>'5'!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1208,40 +1228,40 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'5'!$F$2:$F$10</c:f>
+              <c:f>'5'!$G$2:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="1">
-                  <c:v>183.58876694917501</c:v>
+                  <c:v>2.2638461049630898</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5389269136462</c:v>
+                  <c:v>0.18721799491019001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>162.66603244559099</c:v>
+                  <c:v>2.21129687400897</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>105.61236663593399</c:v>
+                  <c:v>2.0237147747062201</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>460.07362929256902</c:v>
+                  <c:v>2.6628273408915302</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>105.53100859400401</c:v>
+                  <c:v>2.0233800888523201</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>286.87479906384101</c:v>
+                  <c:v>2.45769239868789</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>55.534940409272103</c:v>
+                  <c:v>1.7445663101922899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'5'!$H$2:$H$10</c:f>
+              <c:f>'5'!$J$2:$J$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1249,19 +1269,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.425674054587034</c:v>
+                  <c:v>0.55533520106256995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.79918461724656098</c:v>
+                  <c:v>0.95810841249484902</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.58933237308338704</c:v>
+                  <c:v>0.66357904524141798</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.65114613390860798</c:v>
+                  <c:v>0.58164549937857801</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.33165288386252301</c:v>
+                  <c:v>0.30002456976414499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1269,7 +1289,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4ECE-450F-8BEE-17B5B6E072D1}"/>
+              <c16:uniqueId val="{00000000-6FF7-4BBC-8760-42DB92DAE1EE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1281,11 +1301,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="972408735"/>
-        <c:axId val="972405855"/>
+        <c:axId val="1068959023"/>
+        <c:axId val="1068960463"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="972408735"/>
+        <c:axId val="1068959023"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1342,12 +1362,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="972405855"/>
+        <c:crossAx val="1068960463"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="972405855"/>
+        <c:axId val="1068960463"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1404,7 +1424,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="972408735"/>
+        <c:crossAx val="1068959023"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1515,7 +1535,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'5a'!$I$1</c:f>
+              <c:f>'5a'!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1546,55 +1566,41 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'5a'!$F$2:$F$5</c:f>
+              <c:f>'5a'!$G$2:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>13.0695248584331</c:v>
+                  <c:v>1.1162597991251899</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.6989815209433896</c:v>
+                  <c:v>0.88643327723876397</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.4859257207413101</c:v>
+                  <c:v>0.97707971959916795</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'5a'!$H$2:$H$5</c:f>
+              <c:f>'5a'!$J$2:$J$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.59619442027784597</c:v>
+                  <c:v>0.772252348942841</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.32657792786206402</c:v>
+                  <c:v>0.33977184565730401</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0342626178979999</c:v>
+                  <c:v>0.93977831967298397</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1602,7 +1608,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-65A8-43E9-ACD3-55C3EA556563}"/>
+              <c16:uniqueId val="{00000000-3460-415D-871F-94EE7EDE6106}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1614,11 +1620,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="846323231"/>
-        <c:axId val="678265983"/>
+        <c:axId val="1068956623"/>
+        <c:axId val="1068973903"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="846323231"/>
+        <c:axId val="1068956623"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1675,12 +1681,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="678265983"/>
+        <c:crossAx val="1068973903"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="678265983"/>
+        <c:axId val="1068973903"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1737,7 +1743,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="846323231"/>
+        <c:crossAx val="1068956623"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1848,7 +1854,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'6'!$I$1</c:f>
+              <c:f>'6'!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1879,50 +1885,36 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'6'!$E$2:$E$10</c:f>
+              <c:f>'6'!$G$2:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.28772677954446901</c:v>
+                  <c:v>2.20683808773562</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.2976287770757301E-2</c:v>
+                  <c:v>1.5121903600245801</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.4268725880109507E-2</c:v>
+                  <c:v>1.4499582859448901</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.18695286733230901</c:v>
+                  <c:v>1.96604947122087</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.142858205716412</c:v>
+                  <c:v>1.8159109638656199</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.26756115791951901</c:v>
+                  <c:v>2.1665711356348201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'6'!$H$2:$H$10</c:f>
+              <c:f>'6'!$J$2:$J$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1936,19 +1928,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.33341510601558799</c:v>
+                  <c:v>0.34109151672638899</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.38300537388112299</c:v>
+                  <c:v>0.42861234858122599</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.1700820436274597</c:v>
+                  <c:v>6.5088333933078397</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.1427883479316296</c:v>
+                  <c:v>7.5405072928701502</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.681988691739299</c:v>
+                  <c:v>11.523434973466101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1956,7 +1948,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4FC7-4BE8-891C-C4622FCC7432}"/>
+              <c16:uniqueId val="{00000000-7876-4D47-A0B3-E36C3D53FC85}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1968,11 +1960,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="840421775"/>
-        <c:axId val="840422735"/>
+        <c:axId val="1068967183"/>
+        <c:axId val="1068952303"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="840421775"/>
+        <c:axId val="1068967183"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2029,12 +2021,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="840422735"/>
+        <c:crossAx val="1068952303"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="840422735"/>
+        <c:axId val="1068952303"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2091,7 +2083,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="840421775"/>
+        <c:crossAx val="1068967183"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2202,7 +2194,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'6a'!$I$1</c:f>
+              <c:f>'6a'!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2235,22 +2227,25 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'6a'!$F$2:$F$5</c:f>
+              <c:f>'6a'!$G$2:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="1">
-                  <c:v>0.37326337992833297</c:v>
+                  <c:v>-0.427984615686272</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0884150388744702</c:v>
+                  <c:v>0.489735658561678</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.01966151161424</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'6a'!$H$2:$H$5</c:f>
+              <c:f>'6a'!$J$2:$J$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2258,13 +2253,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.36213642925469</c:v>
+                  <c:v>5.99346173557774</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.47263363728687002</c:v>
+                  <c:v>0.42169129089072499</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1870162654264998E-2</c:v>
+                  <c:v>2.7201304818480699E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2272,7 +2267,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9840-4F43-A409-CEF09DF35B1D}"/>
+              <c16:uniqueId val="{00000000-F9A6-423D-9BDF-318D3BC27BA5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2284,11 +2279,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="761647343"/>
-        <c:axId val="761913983"/>
+        <c:axId val="1068974863"/>
+        <c:axId val="1068959983"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="761647343"/>
+        <c:axId val="1068974863"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2345,12 +2340,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="761913983"/>
+        <c:crossAx val="1068959983"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="761913983"/>
+        <c:axId val="1068959983"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2407,7 +2402,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="761647343"/>
+        <c:crossAx val="1068974863"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2518,7 +2513,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'7'!$I$1</c:f>
+              <c:f>'7'!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2551,45 +2546,48 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'7'!$F$2:$F$7</c:f>
+              <c:f>'7'!$G$2:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>26.1500989699855</c:v>
+                  <c:v>1.4174733368758401</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.60666256556119902</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8626748394097299</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.070620539330598</c:v>
+                  <c:v>1.54494345035321</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33.5601796390159</c:v>
+                  <c:v>1.52582427682962</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'7'!$H$2:$H$7</c:f>
+              <c:f>'7'!$J$2:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.24390358452308999</c:v>
+                  <c:v>0.30520205545490398</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.46872140092199499</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.23444114467744401</c:v>
+                  <c:v>0.47478024802958502</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0239547132744997</c:v>
+                  <c:v>3.5702893922979699</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.6424089665535599</c:v>
+                  <c:v>2.3742812408469902</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2597,7 +2595,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-076B-4C3B-BFA5-ECCAD44E1AE0}"/>
+              <c16:uniqueId val="{00000000-4D82-4171-AF91-401BC38DF704}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2609,11 +2607,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="749953359"/>
-        <c:axId val="845488111"/>
+        <c:axId val="1068949423"/>
+        <c:axId val="1068949903"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="749953359"/>
+        <c:axId val="1068949423"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2670,12 +2668,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="845488111"/>
+        <c:crossAx val="1068949903"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="845488111"/>
+        <c:axId val="1068949903"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2732,7 +2730,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="749953359"/>
+        <c:crossAx val="1068949423"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2843,7 +2841,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'9'!$I$1</c:f>
+              <c:f>'9'!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2874,50 +2872,67 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'9'!$F$2:$F$8</c:f>
+              <c:f>'9'!$G$2:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>165.823972739732</c:v>
+                  <c:v>2.21964731557483</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.054074208547597</c:v>
+                  <c:v>1.55695434828742</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31.6815348320814</c:v>
+                  <c:v>1.5008062130991799</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>134.504322807786</c:v>
+                  <c:v>2.1287362422670499</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>61.617676426121797</c:v>
+                  <c:v>1.78970531724707</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>88.194470217674905</c:v>
+                  <c:v>1.94544135577539</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'9'!$H$2:$H$8</c:f>
+              <c:f>'9'!$J$2:$J$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.3297639505519001</c:v>
+                  <c:v>1.82328254299512</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.21060279927259001</c:v>
+                  <c:v>0.26097334154129898</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2231410310497299</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.488676963637731</c:v>
+                  <c:v>0.43358295603590602</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2925,7 +2940,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EF9B-43B6-8C5B-5548F33B4184}"/>
+              <c16:uniqueId val="{00000000-FF89-4223-95F6-CFFA2A2A46CB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2937,11 +2952,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="758572239"/>
-        <c:axId val="758570319"/>
+        <c:axId val="1068971983"/>
+        <c:axId val="1068945583"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="758572239"/>
+        <c:axId val="1068971983"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2998,12 +3013,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="758570319"/>
+        <c:crossAx val="1068945583"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="758570319"/>
+        <c:axId val="1068945583"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3060,7 +3075,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="758572239"/>
+        <c:crossAx val="1068971983"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8124,23 +8139,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>700087</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>700087</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B84C845F-5D3A-2E69-5F6B-73346B00E2A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D289C21B-24CB-73C1-B476-5F3377F28F83}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8165,23 +8180,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>700087</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>700087</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B07ACEED-5D52-F97A-ED62-D2D73B88983F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38DB0941-1CF5-2B80-53D2-BBD8160F4A7B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8206,23 +8221,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>700087</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>319087</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>700087</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>319087</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64501E84-D922-5B2F-C596-24A226E20AC0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FC2FEAF-0271-270E-9A9F-2B501A1C4A7E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8247,23 +8262,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>700087</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>471487</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>700087</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>471487</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB96335E-8657-E5A8-D0FD-1A735FF774D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{179CEEF1-184F-B7B7-CC12-9A624DA1F36C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8288,23 +8303,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>700087</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>319087</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>700087</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>319087</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F3C466D-C54B-F61A-8F93-09FF6CBB58FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8313FFAD-BC7A-EE81-D8AC-FF9CF21A7306}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8329,23 +8344,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>633412</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>633412</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F6F5BF0-43E8-074F-85A8-B32BCC1EE300}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{127969F6-C59D-5B2F-ECF5-72B73A478DEB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8370,23 +8385,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2729A135-F053-DF5F-8137-A829553A3FE0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B39EF9A-B8D0-B260-66B7-5A75FB2BCA0A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8411,23 +8426,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>557212</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>557212</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4260EF00-EA0F-735C-3670-1B0515B23FCF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C0CAF1D-E15A-F5B6-464B-8D1F714C959C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8452,23 +8467,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>319087</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>319087</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA947931-7250-342F-CA57-2996235ED2DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{106ED7FA-840E-8325-B5BC-7BA5B1C4B065}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8768,15 +8783,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8796,55 +8811,58 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45442</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>737.67287999999996</v>
       </c>
-      <c r="H2" t="e">
-        <v>#NUM!</v>
-      </c>
       <c r="I2" t="e">
         <v>#NUM!</v>
       </c>
+      <c r="J2" t="e">
+        <v>#NUM!</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45590</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>365.64864</v>
       </c>
-      <c r="H3" t="e">
-        <v>#NUM!</v>
-      </c>
       <c r="I3" t="e">
         <v>#NUM!</v>
       </c>
+      <c r="J3" t="e">
+        <v>#NUM!</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45331</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>609.13812959999996</v>
@@ -8859,38 +8877,41 @@
         <v>2.9805640124349799</v>
       </c>
       <c r="G4">
+        <v>0.47429845344238097</v>
+      </c>
+      <c r="H4">
         <v>58.711833333333303</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>35.562043667287597</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>43.1766535663998</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45569</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>410.61864000000003</v>
       </c>
-      <c r="H5" t="e">
-        <v>#NUM!</v>
-      </c>
       <c r="I5" t="e">
         <v>#NUM!</v>
       </c>
+      <c r="J5" t="e">
+        <v>#NUM!</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45231</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>840.86069999999995</v>
@@ -8905,21 +8926,24 @@
         <v>1.26148301458118</v>
       </c>
       <c r="G6">
+        <v>0.100881407272675</v>
+      </c>
+      <c r="H6">
         <v>68.241833333333304</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>21.156596996786899</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>21.6571527601944</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45279</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>654.34670000000006</v>
@@ -8930,11 +8954,20 @@
       <c r="E7">
         <v>0.33558506980650299</v>
       </c>
+      <c r="F7">
+        <v>197.52387140350299</v>
+      </c>
       <c r="G7">
+        <v>2.2956195890375901</v>
+      </c>
+      <c r="H7">
         <v>58.136791666666703</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0.95616784071764405</v>
+      </c>
+      <c r="J7">
+        <v>1.1733888577156899</v>
       </c>
     </row>
   </sheetData>
@@ -8946,15 +8979,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8974,21 +9007,24 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45296</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>655.34429999999998</v>
@@ -9003,21 +9039,24 @@
         <v>34.390505339251298</v>
       </c>
       <c r="G2">
+        <v>1.5364385574572501</v>
+      </c>
+      <c r="H2">
         <v>53.767708333333303</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0.42592403459915501</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.56756507410637702</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45484</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>779.41542000000004</v>
@@ -9032,38 +9071,38 @@
         <v>47.514255157747101</v>
       </c>
       <c r="G3">
+        <v>1.6768239255734401</v>
+      </c>
+      <c r="H3">
         <v>76.441249999999997</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>15.6852075034425</v>
       </c>
-      <c r="I3">
-        <v>13.9945930170877</v>
-      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45590</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>532.55862000000002</v>
       </c>
-      <c r="H4" t="e">
-        <v>#NUM!</v>
-      </c>
       <c r="I4" t="e">
         <v>#NUM!</v>
       </c>
+      <c r="J4" t="e">
+        <v>#NUM!</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45279</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>699.4171</v>
@@ -9074,19 +9113,28 @@
       <c r="E5">
         <v>0.52826006985347296</v>
       </c>
+      <c r="F5">
+        <v>855.51132713685695</v>
+      </c>
       <c r="G5">
+        <v>2.9322257640588401</v>
+      </c>
+      <c r="H5">
         <v>57.950125</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>10.0849792289545</v>
       </c>
+      <c r="J5">
+        <v>12.417608085285099</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45502</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>801.76949999999999</v>
@@ -9097,19 +9145,28 @@
       <c r="E6">
         <v>0.31201786247728303</v>
       </c>
+      <c r="F6">
+        <v>129.15331535889499</v>
+      </c>
       <c r="G6">
+        <v>2.1111055589692098</v>
+      </c>
+      <c r="H6">
         <v>76.383166666666696</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>3.5937360235842899</v>
       </c>
+      <c r="J6">
+        <v>3.2092133252536899</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45569</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>547.61717999999996</v>
@@ -9124,13 +9181,13 @@
         <v>58.262776767551102</v>
       </c>
       <c r="G7">
+        <v>1.7653911789886501</v>
+      </c>
+      <c r="H7">
         <v>76.3036666666667</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>36.912859552156597</v>
-      </c>
-      <c r="I7">
-        <v>33.0116836786571</v>
       </c>
     </row>
   </sheetData>
@@ -9142,15 +9199,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9170,21 +9227,24 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45296</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>473.84879999999998</v>
@@ -9199,38 +9259,41 @@
         <v>39.2335750636623</v>
       </c>
       <c r="G2">
+        <v>1.5936578839561699</v>
+      </c>
+      <c r="H2">
         <v>54.145791666666703</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>5.5558661720727098E-2</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>7.3504151522309297E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45590</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>411.06707999999998</v>
       </c>
-      <c r="H3" t="e">
-        <v>#NUM!</v>
-      </c>
       <c r="I3" t="e">
         <v>#NUM!</v>
       </c>
+      <c r="J3" t="e">
+        <v>#NUM!</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45231</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>730.71659999999997</v>
@@ -9245,21 +9308,24 @@
         <v>18.5265754025319</v>
       </c>
       <c r="G4">
+        <v>1.2677951483401999</v>
+      </c>
+      <c r="H4">
         <v>67.036416666666696</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>2.11332013024744E-2</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>2.2090623667874398E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45279</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>699.4171</v>
@@ -9274,21 +9340,24 @@
         <v>360.82578389464197</v>
       </c>
       <c r="G5">
+        <v>2.5572975638008</v>
+      </c>
+      <c r="H5">
         <v>58.517166666666697</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1.73058886604297</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>2.1088768075705602</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45505</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>752.10996</v>
@@ -9303,21 +9372,24 @@
         <v>34.6942253975892</v>
       </c>
       <c r="G6">
+        <v>1.5402571956364199</v>
+      </c>
+      <c r="H6">
         <v>76.912333333333294</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0.33865857049369802</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.29986232108031602</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45569</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>395.73576000000003</v>
@@ -9332,7 +9404,13 @@
         <v>31.475139594695701</v>
       </c>
       <c r="G7">
+        <v>1.4979676649140301</v>
+      </c>
+      <c r="H7">
         <v>75.441000000000003</v>
+      </c>
+      <c r="I7">
+        <v>6.3222902982053197</v>
       </c>
     </row>
   </sheetData>
@@ -9344,15 +9422,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9372,38 +9450,41 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45442</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>688.71222</v>
       </c>
-      <c r="H2" t="e">
-        <v>#NUM!</v>
-      </c>
       <c r="I2" t="e">
         <v>#NUM!</v>
       </c>
+      <c r="J2" t="e">
+        <v>#NUM!</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45484</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>690.81389999999999</v>
@@ -9418,15 +9499,21 @@
         <v>183.58876694917501</v>
       </c>
       <c r="G3">
+        <v>2.2638461049630898</v>
+      </c>
+      <c r="H3">
         <v>76.579041666666697</v>
       </c>
+      <c r="I3">
+        <v>4.7455135401012898</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45590</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>548.14409999999998</v>
@@ -9441,15 +9528,21 @@
         <v>1.5389269136462</v>
       </c>
       <c r="G4">
+        <v>0.18721799491019001</v>
+      </c>
+      <c r="H4">
         <v>69.716999999999999</v>
       </c>
+      <c r="I4">
+        <v>47.996062389961097</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45296</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>429.05880000000002</v>
@@ -9464,21 +9557,24 @@
         <v>162.66603244559099</v>
       </c>
       <c r="G5">
+        <v>2.21129687400897</v>
+      </c>
+      <c r="H5">
         <v>54.871041666666699</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.425674054587034</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.55533520106256995</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45266</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>409.7124</v>
@@ -9493,15 +9589,21 @@
         <v>105.61236663593399</v>
       </c>
       <c r="G6">
+        <v>2.0237147747062201</v>
+      </c>
+      <c r="H6">
         <v>62.968666666666699</v>
       </c>
+      <c r="I6">
+        <v>1.9954189154176001</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45279</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>444.28</v>
@@ -9516,21 +9618,24 @@
         <v>460.07362929256902</v>
       </c>
       <c r="G7">
+        <v>2.6628273408915302</v>
+      </c>
+      <c r="H7">
         <v>59.392708333333303</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0.79918461724656098</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.95810841249484902</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45376</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>545.70809999999994</v>
@@ -9545,21 +9650,24 @@
         <v>105.53100859400401</v>
       </c>
       <c r="G8">
+        <v>2.0233800888523201</v>
+      </c>
+      <c r="H8">
         <v>62.832791666666701</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.58933237308338704</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.66357904524141798</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45502</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>776.96429999999998</v>
@@ -9574,21 +9682,24 @@
         <v>286.87479906384101</v>
       </c>
       <c r="G9">
+        <v>2.45769239868789</v>
+      </c>
+      <c r="H9">
         <v>76.361791666666704</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.65114613390860798</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.58164549937857801</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45569</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <v>395.84652</v>
@@ -9603,12 +9714,15 @@
         <v>55.534940409272103</v>
       </c>
       <c r="G10">
+        <v>1.7445663101922899</v>
+      </c>
+      <c r="H10">
         <v>75.600666666666697</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>0.33165288386252301</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.30002456976414499</v>
       </c>
     </row>
@@ -9621,15 +9735,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" activeCellId="1" sqref="F1:F1048576 I1:I1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9649,21 +9763,24 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45296</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>650.67600000000004</v>
@@ -9678,38 +9795,41 @@
         <v>13.0695248584331</v>
       </c>
       <c r="G2">
+        <v>1.1162597991251899</v>
+      </c>
+      <c r="H2">
         <v>55.262291666666698</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0.59619442027784597</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.772252348942841</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45590</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>835.77359999999999</v>
       </c>
-      <c r="H3" t="e">
-        <v>#NUM!</v>
-      </c>
       <c r="I3" t="e">
         <v>#NUM!</v>
       </c>
+      <c r="J3" t="e">
+        <v>#NUM!</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45231</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>402.31270000000001</v>
@@ -9724,21 +9844,24 @@
         <v>7.6989815209433896</v>
       </c>
       <c r="G4">
+        <v>0.88643327723876397</v>
+      </c>
+      <c r="H4">
         <v>67.299833333333297</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.32657792786206402</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.33977184565730401</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45569</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>547.30542000000003</v>
@@ -9753,12 +9876,15 @@
         <v>9.4859257207413101</v>
       </c>
       <c r="G5">
+        <v>0.97707971959916795</v>
+      </c>
+      <c r="H5">
         <v>75.319166666666703</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1.0342626178979999</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.93977831967298397</v>
       </c>
     </row>
@@ -9771,15 +9897,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9799,21 +9925,24 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45296</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>644.81269999999995</v>
@@ -9828,66 +9957,72 @@
         <v>161.004527140063</v>
       </c>
       <c r="G2">
+        <v>2.20683808773562</v>
+      </c>
+      <c r="H2">
         <v>57.347416666666703</v>
       </c>
+      <c r="I2">
+        <v>203.66771770116301</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45442</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>645.07506000000001</v>
       </c>
-      <c r="H3" t="e">
-        <v>#NUM!</v>
-      </c>
       <c r="I3" t="e">
         <v>#NUM!</v>
       </c>
+      <c r="J3" t="e">
+        <v>#NUM!</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45484</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>20605.830000000002</v>
       </c>
-      <c r="H4" t="e">
-        <v>#NUM!</v>
-      </c>
       <c r="I4" t="e">
         <v>#NUM!</v>
       </c>
+      <c r="J4" t="e">
+        <v>#NUM!</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45590</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>502.29234000000002</v>
       </c>
-      <c r="H5" t="e">
-        <v>#NUM!</v>
-      </c>
       <c r="I5" t="e">
         <v>#NUM!</v>
       </c>
+      <c r="J5" t="e">
+        <v>#NUM!</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45231</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>698.6585</v>
@@ -9902,21 +10037,24 @@
         <v>32.522982093317097</v>
       </c>
       <c r="G6">
+        <v>1.5121903600245801</v>
+      </c>
+      <c r="H6">
         <v>68.278565217391304</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0.33341510601558799</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.34109151672638899</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45266</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>595.43700000000001</v>
@@ -9931,21 +10069,24 @@
         <v>28.181122381291299</v>
       </c>
       <c r="G7">
+        <v>1.4499582859448901</v>
+      </c>
+      <c r="H7">
         <v>63.182749999999999</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0.38300537388112299</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.42861234858122599</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45331</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>433.461546</v>
@@ -9960,21 +10101,24 @@
         <v>92.480351387484305</v>
       </c>
       <c r="G8">
+        <v>1.96604947122087</v>
+      </c>
+      <c r="H8">
         <v>56.771625</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>5.1700820436274597</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>6.5088333933078397</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45502</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <v>667.35563999999999</v>
@@ -9989,21 +10133,24 @@
         <v>65.450197871718402</v>
       </c>
       <c r="G9">
+        <v>1.8159109638656199</v>
+      </c>
+      <c r="H9">
         <v>74.173434782608695</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>8.1427883479316296</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>7.5405072928701502</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45569</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>395.63819999999998</v>
@@ -10018,12 +10165,15 @@
         <v>146.747643377652</v>
       </c>
       <c r="G10">
+        <v>2.1665711356348201</v>
+      </c>
+      <c r="H10">
         <v>75.326458333333306</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>12.681988691739299</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>11.523434973466101</v>
       </c>
     </row>
@@ -10036,15 +10186,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10064,38 +10214,44 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45590</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>411.13853999999998</v>
       </c>
-      <c r="H2" t="e">
-        <v>#NUM!</v>
-      </c>
       <c r="I2" t="e">
         <v>#NUM!</v>
       </c>
+      <c r="J2" t="e">
+        <v>#NUM!</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45296</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>637.03409999999997</v>
@@ -10110,21 +10266,27 @@
         <v>0.37326337992833297</v>
       </c>
       <c r="G3">
+        <v>-0.427984615686272</v>
+      </c>
+      <c r="H3">
         <v>52.158749999999998</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>4.36213642925469</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>5.99346173557774</v>
       </c>
+      <c r="K3">
+        <v>-0.427984615686272</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45502</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>647.25275999999997</v>
@@ -10139,21 +10301,27 @@
         <v>3.0884150388744702</v>
       </c>
       <c r="G4">
+        <v>0.489735658561678</v>
+      </c>
+      <c r="H4">
         <v>76.433750000000003</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.47263363728687002</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.42169129089072499</v>
       </c>
+      <c r="K4">
+        <v>0.489735658561678</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45279</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>801.09990000000005</v>
@@ -10164,11 +10332,23 @@
       <c r="E5">
         <v>0.38613206590049598</v>
       </c>
+      <c r="F5">
+        <v>104.63127357915801</v>
+      </c>
       <c r="G5">
+        <v>2.01966151161424</v>
+      </c>
+      <c r="H5">
         <v>57.410541666666703</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>2.1870162654264998E-2</v>
+      </c>
+      <c r="J5">
+        <v>2.7201304818480699E-2</v>
+      </c>
+      <c r="K5">
+        <v>2.01966151161424</v>
       </c>
     </row>
   </sheetData>
@@ -10180,15 +10360,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10208,21 +10388,24 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45296</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>679.72839999999997</v>
@@ -10237,38 +10420,41 @@
         <v>26.1500989699855</v>
       </c>
       <c r="G2">
+        <v>1.4174733368758401</v>
+      </c>
+      <c r="H2">
         <v>57.088374999999999</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0.24390358452308999</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.30520205545490398</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45590</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>441.74369999999999</v>
       </c>
-      <c r="H3" t="e">
-        <v>#NUM!</v>
-      </c>
       <c r="I3" t="e">
         <v>#NUM!</v>
       </c>
+      <c r="J3" t="e">
+        <v>#NUM!</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45231</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>719.91600000000005</v>
@@ -10279,19 +10465,28 @@
       <c r="E4">
         <v>0.13055244711888001</v>
       </c>
+      <c r="F4">
+        <v>4.0426166984303</v>
+      </c>
       <c r="G4">
+        <v>0.60666256556119902</v>
+      </c>
+      <c r="H4">
         <v>68.842375000000004</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.46872140092199499</v>
       </c>
+      <c r="J4">
+        <v>0.47478024802958502</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45279</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>418.92230000000001</v>
@@ -10302,22 +10497,25 @@
       <c r="E5">
         <v>0.73138680186451299</v>
       </c>
+      <c r="F5">
+        <v>728.91156257831699</v>
+      </c>
       <c r="G5">
+        <v>2.8626748394097299</v>
+      </c>
+      <c r="H5">
         <v>60.173708333333302</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.23444114467744401</v>
       </c>
-      <c r="I5">
-        <v>0.27708508441848401</v>
-      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45505</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>642.23753999999997</v>
@@ -10332,21 +10530,24 @@
         <v>35.070620539330598</v>
       </c>
       <c r="G6">
+        <v>1.54494345035321</v>
+      </c>
+      <c r="H6">
         <v>76.782291666666694</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>4.0239547132744997</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>3.5702893922979699</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45569</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>365.72465999999997</v>
@@ -10361,12 +10562,15 @@
         <v>33.5601796390159</v>
       </c>
       <c r="G7">
+        <v>1.52582427682962</v>
+      </c>
+      <c r="H7">
         <v>76.006291666666698</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>2.6424089665535599</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>2.3742812408469902</v>
       </c>
     </row>
@@ -10379,15 +10583,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10407,21 +10611,24 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45296</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>699.58140000000003</v>
@@ -10436,38 +10643,41 @@
         <v>165.823972739732</v>
       </c>
       <c r="G2">
+        <v>2.21964731557483</v>
+      </c>
+      <c r="H2">
         <v>52.267458333333302</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1.3297639505519001</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1.82328254299512</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45590</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>380.19384000000002</v>
       </c>
-      <c r="H3" t="e">
-        <v>#NUM!</v>
-      </c>
       <c r="I3" t="e">
         <v>#NUM!</v>
       </c>
+      <c r="J3" t="e">
+        <v>#NUM!</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45231</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>721.23059999999998</v>
@@ -10482,15 +10692,21 @@
         <v>36.054074208547597</v>
       </c>
       <c r="G4">
+        <v>1.55695434828742</v>
+      </c>
+      <c r="H4">
         <v>65.837708333333296</v>
       </c>
+      <c r="I4">
+        <v>1.82495889091172</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45266</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>739.46839999999997</v>
@@ -10505,21 +10721,24 @@
         <v>31.6815348320814</v>
       </c>
       <c r="G5">
+        <v>1.5008062130991799</v>
+      </c>
+      <c r="H5">
         <v>57.605125000000001</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.21060279927259001</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.26097334154129898</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45331</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>447.77111400000001</v>
@@ -10534,15 +10753,21 @@
         <v>134.504322807786</v>
       </c>
       <c r="G6">
+        <v>2.1287362422670499</v>
+      </c>
+      <c r="H6">
         <v>55.680374999999998</v>
       </c>
+      <c r="I6">
+        <v>36.698976971219601</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45502</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>719.93502000000001</v>
@@ -10557,15 +10782,24 @@
         <v>61.617676426121797</v>
       </c>
       <c r="G7">
+        <v>1.78970531724707</v>
+      </c>
+      <c r="H7">
         <v>77.678708333333304</v>
       </c>
+      <c r="I7">
+        <v>2.54253644329191</v>
+      </c>
+      <c r="J7">
+        <v>2.2231410310497299</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45569</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>396.4812</v>
@@ -10580,12 +10814,15 @@
         <v>88.194470217674905</v>
       </c>
       <c r="G8">
+        <v>1.94544135577539</v>
+      </c>
+      <c r="H8">
         <v>76.782666666666699</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.488676963637731</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.43358295603590602</v>
       </c>
     </row>

--- a/04_Output/rC_k600_edited.xlsx
+++ b/04_Output/rC_k600_edited.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samanthahowley\Desktop\Howley_Bradford_Streams\04_Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Howley_Bradford_Streams\Howley_Bradford_Streams\04_Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEC8F28B-1F29-402B-8317-8493A916F424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98BA9D9-6732-4078-A2FD-E962ACADBDB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5" yWindow="5" windowWidth="19190" windowHeight="10070" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="13" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="19">
   <si>
     <t>day</t>
   </si>
@@ -201,19 +201,8 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'13'!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>k600_1d</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -236,25 +225,25 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'13'!$G$2:$G$7</c:f>
+              <c:f>'13'!$E$2:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="2">
-                  <c:v>0.47429845344238097</c:v>
+                  <c:v>5.3458550098918499E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.100881407272675</c:v>
+                  <c:v>3.67414206545583E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.2956195890375901</c:v>
+                  <c:v>0.33558506980650299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'13'!$J$2:$J$7</c:f>
+              <c:f>'13'!$I$2:$I$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -271,7 +260,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.6571527601944</c:v>
+                  <c:v>4.9458937661225804</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.1733888577156899</c:v>
@@ -282,7 +271,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A891-4C0A-AA93-A0735F03DB65}"/>
+              <c16:uniqueId val="{00000000-741B-4804-93DD-D9286BABFDEB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -294,11 +283,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="898283423"/>
-        <c:axId val="898289183"/>
+        <c:axId val="1548816031"/>
+        <c:axId val="1548817471"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="898283423"/>
+        <c:axId val="1548816031"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -355,12 +344,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="898289183"/>
+        <c:crossAx val="1548817471"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="898289183"/>
+        <c:axId val="1548817471"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -417,7 +406,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="898283423"/>
+        <c:crossAx val="1548816031"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -519,7 +508,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.6580927384076991E-2"/>
+          <c:y val="0.17171296296296298"/>
+          <c:w val="0.88386351706036748"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -528,7 +527,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'15'!$J$1</c:f>
+              <c:f>'15'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -559,61 +558,56 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'15'!$G$2:$G$7</c:f>
+              <c:f>'15'!$E$2:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.5364385574572501</c:v>
+                  <c:v>0.215852248068133</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6768239255734401</c:v>
+                  <c:v>0.23609790544256401</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16324969531057901</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.9322257640588401</c:v>
+                  <c:v>0.52826006985347296</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1111055589692098</c:v>
+                  <c:v>0.31201786247728303</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7653911789886501</c:v>
+                  <c:v>0.24996315545078601</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'15'!$J$2:$J$7</c:f>
+              <c:f>'15'!$I$2:$I$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.56756507410637702</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.9945930170877</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>19.9019208028636</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>12.417608085285099</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.2092133252536899</c:v>
+                  <c:v>12.7553315960599</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33.0116836786571</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -621,7 +615,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D742-4263-BB55-203503E1982F}"/>
+              <c16:uniqueId val="{00000000-41F3-4348-82E3-78DBD9C3D429}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -633,11 +627,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1055748367"/>
-        <c:axId val="1055757007"/>
+        <c:axId val="147369391"/>
+        <c:axId val="147370831"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1055748367"/>
+        <c:axId val="147369391"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -694,12 +688,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1055757007"/>
+        <c:crossAx val="147370831"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1055757007"/>
+        <c:axId val="147370831"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -756,7 +750,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1055748367"/>
+        <c:crossAx val="147369391"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -827,6 +821,14 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.56782633420822393"/>
+          <c:y val="2.7898874269439419E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -865,19 +867,8 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'3'!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>k600_1d</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -900,31 +891,34 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'3'!$G$2:$G$7</c:f>
+              <c:f>'3'!$E$2:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.5936578839561699</c:v>
+                  <c:v>0.41422688193861201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35358594626280099</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2677951483401999</c:v>
+                  <c:v>0.32268700082854701</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5572975638008</c:v>
+                  <c:v>0.86567996287507698</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5402571956364199</c:v>
+                  <c:v>0.39723668915869298</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4979676649140301</c:v>
+                  <c:v>0.38487369823224499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'3'!$J$2:$J$7</c:f>
+              <c:f>'3'!$I$2:$I$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -932,7 +926,7 @@
                   <c:v>7.3504151522309297E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.31419620586510399</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.2090623667874398E-2</c:v>
@@ -949,7 +943,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-04E0-460A-BD8E-B9C3B050900C}"/>
+              <c16:uniqueId val="{00000000-68CC-4B5E-9936-0967286338BC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -961,11 +955,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1055757487"/>
-        <c:axId val="1055750767"/>
+        <c:axId val="1207103871"/>
+        <c:axId val="1207106751"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1055757487"/>
+        <c:axId val="1207103871"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1022,12 +1016,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1055750767"/>
+        <c:crossAx val="1207106751"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1055750767"/>
+        <c:axId val="1207106751"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1084,7 +1078,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1055757487"/>
+        <c:crossAx val="1207103871"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1193,19 +1187,8 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'5'!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>k600_1d</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -1228,32 +1211,32 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'5'!$G$2:$G$10</c:f>
+              <c:f>'5'!$J$2:$J$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="1">
                   <c:v>2.2638461049630898</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.18721799491019001</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>2.21129687400897</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2.0237147747062201</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>2.6628273408915302</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>2.0233800888523201</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>2.45769239868789</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>1.7445663101922899</c:v>
                 </c:pt>
               </c:numCache>
@@ -1261,26 +1244,35 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'5'!$J$2:$J$10</c:f>
+              <c:f>'5'!$I$2:$I$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2240976016608602</c:v>
+                </c:pt>
                 <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.55533520106256995</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>2.2417182470070598</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.95810841249484902</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.66357904524141798</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.58164549937857801</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0.30002456976414499</c:v>
                 </c:pt>
               </c:numCache>
@@ -1289,7 +1281,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6FF7-4BBC-8760-42DB92DAE1EE}"/>
+              <c16:uniqueId val="{00000000-E415-48C2-AFF2-E9DBD812E96B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1301,11 +1293,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1068959023"/>
-        <c:axId val="1068960463"/>
+        <c:axId val="1706706079"/>
+        <c:axId val="1706703199"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1068959023"/>
+        <c:axId val="1706706079"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1362,12 +1354,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1068960463"/>
+        <c:crossAx val="1706703199"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1068960463"/>
+        <c:axId val="1706703199"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1424,7 +1416,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1068959023"/>
+        <c:crossAx val="1706706079"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1533,19 +1525,8 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'5a'!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>k600_1d</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -1568,12 +1549,15 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'5a'!$G$2:$G$5</c:f>
+              <c:f>'5a'!$J$2:$J$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1.1162597991251899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83364298367996603</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.88643327723876397</c:v>
@@ -1586,7 +1570,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'5a'!$J$2:$J$5</c:f>
+              <c:f>'5a'!$I$2:$I$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1594,7 +1578,7 @@
                   <c:v>0.772252348942841</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.22687990873807</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.33977184565730401</c:v>
@@ -1608,7 +1592,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3460-415D-871F-94EE7EDE6106}"/>
+              <c16:uniqueId val="{00000000-4655-4F94-99BC-9B076D6511C3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1620,11 +1604,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1068956623"/>
-        <c:axId val="1068973903"/>
+        <c:axId val="64709231"/>
+        <c:axId val="64706351"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1068956623"/>
+        <c:axId val="64709231"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1681,12 +1665,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1068973903"/>
+        <c:crossAx val="64706351"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1068973903"/>
+        <c:axId val="64706351"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1743,7 +1727,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1068956623"/>
+        <c:crossAx val="64709231"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1852,19 +1836,8 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'6'!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>k600_1d</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -1887,26 +1860,32 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'6'!$G$2:$G$10</c:f>
+              <c:f>'6'!$J$2:$J$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2.20683808773562</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0309945857151401</c:v>
+                </c:pt>
                 <c:pt idx="4">
+                  <c:v>1.8044538113953601</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1.5121903600245801</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>1.4499582859448901</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>1.96604947122087</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>1.8159109638656199</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>2.1665711356348201</c:v>
                 </c:pt>
               </c:numCache>
@@ -1914,10 +1893,13 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'6'!$J$2:$J$10</c:f>
+              <c:f>'6'!$I$2:$I$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.1610877322831099</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1925,22 +1907,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3.0365221508306601</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.34109151672638899</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.42861234858122599</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>6.5088333933078397</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.5405072928701502</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11.523434973466101</c:v>
+                <c:pt idx="9">
+                  <c:v>0.93487253220809396</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1948,7 +1927,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7876-4D47-A0B3-E36C3D53FC85}"/>
+              <c16:uniqueId val="{00000001-F848-48BF-BB03-D2BF6B79784A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1960,11 +1939,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1068967183"/>
-        <c:axId val="1068952303"/>
+        <c:axId val="152015151"/>
+        <c:axId val="64707791"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1068967183"/>
+        <c:axId val="152015151"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2021,12 +2000,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1068952303"/>
+        <c:crossAx val="64707791"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1068952303"/>
+        <c:axId val="64707791"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2083,7 +2062,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1068967183"/>
+        <c:crossAx val="152015151"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2192,19 +2171,8 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'6a'!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>k600_1d</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -2227,17 +2195,14 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'6a'!$G$2:$G$5</c:f>
+              <c:f>'6a'!$J$4:$J$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="1">
-                  <c:v>-0.427984615686272</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
                   <c:v>0.489735658561678</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="1">
                   <c:v>2.01966151161424</c:v>
                 </c:pt>
               </c:numCache>
@@ -2245,20 +2210,14 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'6a'!$J$2:$J$5</c:f>
+              <c:f>'6a'!$I$4:$I$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.42169129089072499</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.99346173557774</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.42169129089072499</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>2.7201304818480699E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -2267,7 +2226,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F9A6-423D-9BDF-318D3BC27BA5}"/>
+              <c16:uniqueId val="{00000000-E4D2-4A0C-BDC1-2F9A19C94941}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2279,11 +2238,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1068974863"/>
-        <c:axId val="1068959983"/>
+        <c:axId val="1706827247"/>
+        <c:axId val="1706828207"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1068974863"/>
+        <c:axId val="1706827247"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2340,12 +2299,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1068959983"/>
+        <c:crossAx val="1706828207"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1068959983"/>
+        <c:axId val="1706828207"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2402,7 +2361,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1068974863"/>
+        <c:crossAx val="1706827247"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2511,19 +2470,8 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'7'!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>k600_1d</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -2546,12 +2494,15 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'7'!$G$2:$G$7</c:f>
+              <c:f>'7'!$J$2:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1.4174733368758401</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.27952656840493</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.60666256556119902</c:v>
@@ -2570,7 +2521,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'7'!$J$2:$J$7</c:f>
+              <c:f>'7'!$I$2:$I$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2578,10 +2529,13 @@
                   <c:v>0.30520205545490398</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.99799058223319</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.47478024802958502</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.27708508441848401</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3.5702893922979699</c:v>
@@ -2595,7 +2549,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4D82-4171-AF91-401BC38DF704}"/>
+              <c16:uniqueId val="{00000000-00A9-4D50-B012-198707371CD9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2607,11 +2561,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1068949423"/>
-        <c:axId val="1068949903"/>
+        <c:axId val="1115115967"/>
+        <c:axId val="57939583"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1068949423"/>
+        <c:axId val="1115115967"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2668,12 +2622,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1068949903"/>
+        <c:crossAx val="57939583"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1068949903"/>
+        <c:axId val="57939583"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2730,7 +2684,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1068949423"/>
+        <c:crossAx val="1115115967"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2832,26 +2786,25 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.2692038495188102E-2"/>
+          <c:y val="0.19486111111111112"/>
+          <c:w val="0.88704418197725288"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'9'!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>k600_1d</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -2872,42 +2825,34 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'9'!$G$2:$G$8</c:f>
+              <c:f>'9'!$J$2:$J$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>2.21964731557483</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.93082107397803</c:v>
+                </c:pt>
                 <c:pt idx="2">
+                  <c:v>1.7498332898101401</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1.55695434828742</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>1.5008062130991799</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2.1287362422670499</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>1.78970531724707</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>1.94544135577539</c:v>
                 </c:pt>
               </c:numCache>
@@ -2915,23 +2860,23 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'9'!$J$2:$J$8</c:f>
+              <c:f>'9'!$I$2:$I$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1.82328254299512</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
+                <c:pt idx="3">
+                  <c:v>1.9477536276551799</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.26097334154129898</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>2.2231410310497299</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.43358295603590602</c:v>
                 </c:pt>
               </c:numCache>
@@ -2940,7 +2885,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FF89-4223-95F6-CFFA2A2A46CB}"/>
+              <c16:uniqueId val="{00000000-7A20-447B-817F-929B5F2997BC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2952,11 +2897,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1068971983"/>
-        <c:axId val="1068945583"/>
+        <c:axId val="1352187631"/>
+        <c:axId val="1200346191"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1068971983"/>
+        <c:axId val="1352187631"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3013,12 +2958,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1068945583"/>
+        <c:crossAx val="1200346191"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1068945583"/>
+        <c:axId val="1200346191"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3075,7 +3020,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1068971983"/>
+        <c:crossAx val="1352187631"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8139,23 +8084,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>334962</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>39007</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>334962</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>159657</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D289C21B-24CB-73C1-B476-5F3377F28F83}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D12B9B65-B5CD-C0F1-E235-FDF4939082CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8180,23 +8125,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38DB0941-1CF5-2B80-53D2-BBD8160F4A7B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6997D22E-B54A-CF6C-7341-28CB6E1F5AFD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8221,23 +8166,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>319087</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>592930</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>42070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>319087</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>592930</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FC2FEAF-0271-270E-9A9F-2B501A1C4A7E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A16818CB-81E2-F1C3-4167-B37BCAFA6D96}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8262,23 +8207,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>471487</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>544512</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>471487</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>544512</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{179CEEF1-184F-B7B7-CC12-9A624DA1F36C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6A516B4-A732-8EBD-E230-4920E7FF1F88}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8303,23 +8248,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>319087</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>668337</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>319087</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>668337</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8313FFAD-BC7A-EE81-D8AC-FF9CF21A7306}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D973A02-9C69-481B-8E3B-452E5B386C2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8344,23 +8289,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>633412</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>633412</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{127969F6-C59D-5B2F-ECF5-72B73A478DEB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26D64D33-AD73-F614-0BD5-2B226587D0DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8385,23 +8330,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>500062</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>500062</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B39EF9A-B8D0-B260-66B7-5A75FB2BCA0A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70E5C96D-36CD-08F2-7627-D2487D9394F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8426,23 +8371,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>557212</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>204787</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>557212</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>204787</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C0CAF1D-E15A-F5B6-464B-8D1F714C959C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6392EC2B-0DED-F19B-7A60-564B55BC754F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8467,23 +8412,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>319087</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>503237</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>319087</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>503237</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{106ED7FA-840E-8325-B5BC-7BA5B1C4B065}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12685800-BBDC-90BA-C0A1-F8EFB51BC511}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8785,13 +8730,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8811,19 +8756,19 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A2" s="1">
         <v>45442</v>
       </c>
@@ -8833,14 +8778,14 @@
       <c r="C2">
         <v>737.67287999999996</v>
       </c>
+      <c r="H2" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="I2" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="J2" t="e">
-        <v>#NUM!</v>
-      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A3" s="1">
         <v>45590</v>
       </c>
@@ -8850,14 +8795,14 @@
       <c r="C3">
         <v>365.64864</v>
       </c>
+      <c r="H3" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="I3" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="J3" t="e">
-        <v>#NUM!</v>
-      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A4" s="1">
         <v>45331</v>
       </c>
@@ -8877,19 +8822,19 @@
         <v>2.9805640124349799</v>
       </c>
       <c r="G4">
+        <v>58.711833333333303</v>
+      </c>
+      <c r="H4">
+        <v>35.562043667287597</v>
+      </c>
+      <c r="I4">
+        <v>43.1766535663998</v>
+      </c>
+      <c r="J4">
         <v>0.47429845344238097</v>
       </c>
-      <c r="H4">
-        <v>58.711833333333303</v>
-      </c>
-      <c r="I4">
-        <v>35.562043667287597</v>
-      </c>
-      <c r="J4">
-        <v>43.1766535663998</v>
-      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A5" s="1">
         <v>45569</v>
       </c>
@@ -8899,14 +8844,14 @@
       <c r="C5">
         <v>410.61864000000003</v>
       </c>
+      <c r="H5" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="I5" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="J5" t="e">
-        <v>#NUM!</v>
-      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A6" s="1">
         <v>45231</v>
       </c>
@@ -8917,7 +8862,7 @@
         <v>840.86069999999995</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>5530.3360000000002</v>
       </c>
       <c r="E6">
         <v>3.67414206545583E-2</v>
@@ -8926,19 +8871,19 @@
         <v>1.26148301458118</v>
       </c>
       <c r="G6">
+        <v>68.241833333333304</v>
+      </c>
+      <c r="H6">
+        <v>4.8315806956443499</v>
+      </c>
+      <c r="I6">
+        <v>4.9458937661225804</v>
+      </c>
+      <c r="J6">
         <v>0.100881407272675</v>
       </c>
-      <c r="H6">
-        <v>68.241833333333304</v>
-      </c>
-      <c r="I6">
-        <v>21.156596996786899</v>
-      </c>
-      <c r="J6">
-        <v>21.6571527601944</v>
-      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A7" s="1">
         <v>45279</v>
       </c>
@@ -8958,16 +8903,16 @@
         <v>197.52387140350299</v>
       </c>
       <c r="G7">
+        <v>58.136791666666703</v>
+      </c>
+      <c r="H7">
+        <v>0.95616784071764405</v>
+      </c>
+      <c r="I7">
+        <v>1.1733888577156899</v>
+      </c>
+      <c r="J7">
         <v>2.2956195890375901</v>
-      </c>
-      <c r="H7">
-        <v>58.136791666666703</v>
-      </c>
-      <c r="I7">
-        <v>0.95616784071764405</v>
-      </c>
-      <c r="J7">
-        <v>1.1733888577156899</v>
       </c>
     </row>
   </sheetData>
@@ -8981,13 +8926,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9007,19 +8952,19 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A2" s="1">
         <v>45296</v>
       </c>
@@ -9039,19 +8984,19 @@
         <v>34.390505339251298</v>
       </c>
       <c r="G2">
+        <v>53.767708333333303</v>
+      </c>
+      <c r="H2">
+        <v>0.42592403459915501</v>
+      </c>
+      <c r="I2">
+        <v>0.56756507410637702</v>
+      </c>
+      <c r="J2">
         <v>1.5364385574572501</v>
       </c>
-      <c r="H2">
-        <v>53.767708333333303</v>
-      </c>
-      <c r="I2">
-        <v>0.42592403459915501</v>
-      </c>
-      <c r="J2">
-        <v>0.56756507410637702</v>
-      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A3" s="1">
         <v>45484</v>
       </c>
@@ -9071,16 +9016,19 @@
         <v>47.514255157747101</v>
       </c>
       <c r="G3">
+        <v>76.441249999999997</v>
+      </c>
+      <c r="H3">
+        <v>15.6852075034425</v>
+      </c>
+      <c r="I3">
+        <v>13.9945930170877</v>
+      </c>
+      <c r="J3">
         <v>1.6768239255734401</v>
       </c>
-      <c r="H3">
-        <v>76.441249999999997</v>
-      </c>
-      <c r="I3">
-        <v>15.6852075034425</v>
-      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A4" s="1">
         <v>45590</v>
       </c>
@@ -9090,14 +9038,29 @@
       <c r="C4">
         <v>532.55862000000002</v>
       </c>
-      <c r="I4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J4" t="e">
-        <v>#NUM!</v>
+      <c r="D4">
+        <v>1052.144</v>
+      </c>
+      <c r="E4">
+        <v>0.16324969531057901</v>
+      </c>
+      <c r="F4">
+        <v>12.671592764002201</v>
+      </c>
+      <c r="G4">
+        <v>69.349500000000006</v>
+      </c>
+      <c r="H4">
+        <v>19.818470739973201</v>
+      </c>
+      <c r="I4">
+        <v>19.9019208028636</v>
+      </c>
+      <c r="J4">
+        <v>1.1028312072387401</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A5" s="1">
         <v>45279</v>
       </c>
@@ -9117,19 +9080,19 @@
         <v>855.51132713685695</v>
       </c>
       <c r="G5">
+        <v>57.950125</v>
+      </c>
+      <c r="H5">
+        <v>10.0849792289545</v>
+      </c>
+      <c r="I5">
+        <v>12.417608085285099</v>
+      </c>
+      <c r="J5">
         <v>2.9322257640588401</v>
       </c>
-      <c r="H5">
-        <v>57.950125</v>
-      </c>
-      <c r="I5">
-        <v>10.0849792289545</v>
-      </c>
-      <c r="J5">
-        <v>12.417608085285099</v>
-      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A6" s="1">
         <v>45502</v>
       </c>
@@ -9140,7 +9103,7 @@
         <v>801.76949999999999</v>
       </c>
       <c r="D6">
-        <v>13061.48</v>
+        <v>4010.9160000000002</v>
       </c>
       <c r="E6">
         <v>0.31201786247728303</v>
@@ -9149,19 +9112,19 @@
         <v>129.15331535889499</v>
       </c>
       <c r="G6">
+        <v>76.383166666666696</v>
+      </c>
+      <c r="H6">
+        <v>14.2836545918616</v>
+      </c>
+      <c r="I6">
+        <v>12.7553315960599</v>
+      </c>
+      <c r="J6">
         <v>2.1111055589692098</v>
       </c>
-      <c r="H6">
-        <v>76.383166666666696</v>
-      </c>
-      <c r="I6">
-        <v>3.5937360235842899</v>
-      </c>
-      <c r="J6">
-        <v>3.2092133252536899</v>
-      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A7" s="1">
         <v>45569</v>
       </c>
@@ -9181,13 +9144,16 @@
         <v>58.262776767551102</v>
       </c>
       <c r="G7">
+        <v>76.3036666666667</v>
+      </c>
+      <c r="H7">
+        <v>36.912859552156597</v>
+      </c>
+      <c r="I7">
+        <v>33.0116836786571</v>
+      </c>
+      <c r="J7">
         <v>1.7653911789886501</v>
-      </c>
-      <c r="H7">
-        <v>76.3036666666667</v>
-      </c>
-      <c r="I7">
-        <v>36.912859552156597</v>
       </c>
     </row>
   </sheetData>
@@ -9201,13 +9167,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9227,19 +9193,19 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A2" s="1">
         <v>45296</v>
       </c>
@@ -9259,19 +9225,19 @@
         <v>39.2335750636623</v>
       </c>
       <c r="G2">
+        <v>54.145791666666703</v>
+      </c>
+      <c r="H2">
+        <v>5.5558661720727098E-2</v>
+      </c>
+      <c r="I2">
+        <v>7.3504151522309297E-2</v>
+      </c>
+      <c r="J2">
         <v>1.5936578839561699</v>
       </c>
-      <c r="H2">
-        <v>54.145791666666703</v>
-      </c>
-      <c r="I2">
-        <v>5.5558661720727098E-2</v>
-      </c>
-      <c r="J2">
-        <v>7.3504151522309297E-2</v>
-      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A3" s="1">
         <v>45590</v>
       </c>
@@ -9281,14 +9247,29 @@
       <c r="C3">
         <v>411.06707999999998</v>
       </c>
-      <c r="I3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J3" t="e">
-        <v>#NUM!</v>
+      <c r="D3">
+        <v>3344.355</v>
+      </c>
+      <c r="E3">
+        <v>0.35358594626280099</v>
+      </c>
+      <c r="F3">
+        <v>24.383175083471102</v>
+      </c>
+      <c r="G3">
+        <v>68.4775833333333</v>
+      </c>
+      <c r="H3">
+        <v>0.30827126972012397</v>
+      </c>
+      <c r="I3">
+        <v>0.31419620586510399</v>
+      </c>
+      <c r="J3">
+        <v>1.3870902571252</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A4" s="1">
         <v>45231</v>
       </c>
@@ -9308,19 +9289,19 @@
         <v>18.5265754025319</v>
       </c>
       <c r="G4">
+        <v>67.036416666666696</v>
+      </c>
+      <c r="H4">
+        <v>2.11332013024744E-2</v>
+      </c>
+      <c r="I4">
+        <v>2.2090623667874398E-2</v>
+      </c>
+      <c r="J4">
         <v>1.2677951483401999</v>
       </c>
-      <c r="H4">
-        <v>67.036416666666696</v>
-      </c>
-      <c r="I4">
-        <v>2.11332013024744E-2</v>
-      </c>
-      <c r="J4">
-        <v>2.2090623667874398E-2</v>
-      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A5" s="1">
         <v>45279</v>
       </c>
@@ -9340,19 +9321,19 @@
         <v>360.82578389464197</v>
       </c>
       <c r="G5">
+        <v>58.517166666666697</v>
+      </c>
+      <c r="H5">
+        <v>1.73058886604297</v>
+      </c>
+      <c r="I5">
+        <v>2.1088768075705602</v>
+      </c>
+      <c r="J5">
         <v>2.5572975638008</v>
       </c>
-      <c r="H5">
-        <v>58.517166666666697</v>
-      </c>
-      <c r="I5">
-        <v>1.73058886604297</v>
-      </c>
-      <c r="J5">
-        <v>2.1088768075705602</v>
-      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A6" s="1">
         <v>45505</v>
       </c>
@@ -9372,19 +9353,19 @@
         <v>34.6942253975892</v>
       </c>
       <c r="G6">
+        <v>76.912333333333294</v>
+      </c>
+      <c r="H6">
+        <v>0.33865857049369802</v>
+      </c>
+      <c r="I6">
+        <v>0.29986232108031602</v>
+      </c>
+      <c r="J6">
         <v>1.5402571956364199</v>
       </c>
-      <c r="H6">
-        <v>76.912333333333294</v>
-      </c>
-      <c r="I6">
-        <v>0.33865857049369802</v>
-      </c>
-      <c r="J6">
-        <v>0.29986232108031602</v>
-      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A7" s="1">
         <v>45569</v>
       </c>
@@ -9404,13 +9385,13 @@
         <v>31.475139594695701</v>
       </c>
       <c r="G7">
+        <v>75.441000000000003</v>
+      </c>
+      <c r="H7">
+        <v>6.3222902982053197</v>
+      </c>
+      <c r="J7">
         <v>1.4979676649140301</v>
-      </c>
-      <c r="H7">
-        <v>75.441000000000003</v>
-      </c>
-      <c r="I7">
-        <v>6.3222902982053197</v>
       </c>
     </row>
   </sheetData>
@@ -9422,15 +9403,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9450,19 +9431,19 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A2" s="1">
         <v>45442</v>
       </c>
@@ -9472,14 +9453,14 @@
       <c r="C2">
         <v>688.71222</v>
       </c>
+      <c r="H2" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="I2" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="J2" t="e">
-        <v>#NUM!</v>
-      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A3" s="1">
         <v>45484</v>
       </c>
@@ -9499,16 +9480,19 @@
         <v>183.58876694917501</v>
       </c>
       <c r="G3">
+        <v>76.579041666666697</v>
+      </c>
+      <c r="H3">
+        <v>4.7455135401012898</v>
+      </c>
+      <c r="I3">
+        <v>4.2240976016608602</v>
+      </c>
+      <c r="J3">
         <v>2.2638461049630898</v>
       </c>
-      <c r="H3">
-        <v>76.579041666666697</v>
-      </c>
-      <c r="I3">
-        <v>4.7455135401012898</v>
-      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A4" s="1">
         <v>45590</v>
       </c>
@@ -9528,202 +9512,222 @@
         <v>1.5389269136462</v>
       </c>
       <c r="G4">
+        <v>69.716999999999999</v>
+      </c>
+      <c r="H4">
+        <v>47.996062389961097</v>
+      </c>
+      <c r="J4">
         <v>0.18721799491019001</v>
       </c>
-      <c r="H4">
-        <v>69.716999999999999</v>
-      </c>
-      <c r="I4">
-        <v>47.996062389961097</v>
-      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A5" s="1">
-        <v>45296</v>
+        <v>45597</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
       <c r="C5">
-        <v>429.05880000000002</v>
-      </c>
-      <c r="D5">
-        <v>3375.2420000000002</v>
-      </c>
-      <c r="E5">
-        <v>0.225012367816944</v>
-      </c>
-      <c r="F5">
-        <v>162.66603244559099</v>
-      </c>
-      <c r="G5">
-        <v>2.21129687400897</v>
-      </c>
-      <c r="H5">
-        <v>54.871041666666699</v>
-      </c>
-      <c r="I5">
-        <v>0.425674054587034</v>
-      </c>
-      <c r="J5">
-        <v>0.55533520106256995</v>
+        <v>563.09195999999997</v>
+      </c>
+      <c r="H5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I5" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A6" s="1">
-        <v>45266</v>
+        <v>45296</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
       <c r="C6">
-        <v>409.7124</v>
+        <v>429.05880000000002</v>
       </c>
       <c r="D6">
-        <v>4325.9719999999998</v>
+        <v>3375.2420000000002</v>
       </c>
       <c r="E6">
-        <v>0.14071662604863699</v>
+        <v>0.225012367816944</v>
       </c>
       <c r="F6">
-        <v>105.61236663593399</v>
+        <v>162.66603244559099</v>
       </c>
       <c r="G6">
-        <v>2.0237147747062201</v>
+        <v>54.871041666666699</v>
       </c>
       <c r="H6">
-        <v>62.968666666666699</v>
+        <v>0.425674054587034</v>
       </c>
       <c r="I6">
-        <v>1.9954189154176001</v>
+        <v>0.55533520106256995</v>
+      </c>
+      <c r="J6">
+        <v>2.21129687400897</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A7" s="1">
-        <v>45279</v>
+        <v>45266</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
       <c r="C7">
-        <v>444.28</v>
+        <v>409.7124</v>
       </c>
       <c r="D7">
-        <v>3363.2</v>
+        <v>4325.9719999999998</v>
       </c>
       <c r="E7">
-        <v>0.69658739105357004</v>
+        <v>0.14071662604863699</v>
       </c>
       <c r="F7">
-        <v>460.07362929256902</v>
+        <v>105.61236663593399</v>
       </c>
       <c r="G7">
-        <v>2.6628273408915302</v>
+        <v>62.968666666666699</v>
       </c>
       <c r="H7">
-        <v>59.392708333333303</v>
+        <v>1.9954189154176001</v>
       </c>
       <c r="I7">
-        <v>0.79918461724656098</v>
+        <v>2.2417182470070598</v>
       </c>
       <c r="J7">
-        <v>0.95810841249484902</v>
+        <v>2.0237147747062201</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A8" s="1">
-        <v>45376</v>
+        <v>45279</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
       <c r="C8">
-        <v>545.70809999999994</v>
+        <v>444.28</v>
       </c>
       <c r="D8">
-        <v>4021.9380000000001</v>
+        <v>3363.2</v>
       </c>
       <c r="E8">
-        <v>0.140700754388522</v>
+        <v>0.69658739105357004</v>
       </c>
       <c r="F8">
-        <v>105.53100859400401</v>
+        <v>460.07362929256902</v>
       </c>
       <c r="G8">
-        <v>2.0233800888523201</v>
+        <v>59.392708333333303</v>
       </c>
       <c r="H8">
-        <v>62.832791666666701</v>
+        <v>0.79918461724656098</v>
       </c>
       <c r="I8">
-        <v>0.58933237308338704</v>
+        <v>0.95810841249484902</v>
       </c>
       <c r="J8">
-        <v>0.66357904524141798</v>
+        <v>2.6628273408915302</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A9" s="1">
-        <v>45502</v>
+        <v>45376</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
       <c r="C9">
-        <v>776.96429999999998</v>
+        <v>545.70809999999994</v>
       </c>
       <c r="D9">
-        <v>6713.1440000000002</v>
+        <v>4021.9380000000001</v>
       </c>
       <c r="E9">
-        <v>0.41694777291652502</v>
+        <v>0.140700754388522</v>
       </c>
       <c r="F9">
-        <v>286.87479906384101</v>
+        <v>105.53100859400401</v>
       </c>
       <c r="G9">
-        <v>2.45769239868789</v>
+        <v>62.832791666666701</v>
       </c>
       <c r="H9">
-        <v>76.361791666666704</v>
+        <v>0.58933237308338704</v>
       </c>
       <c r="I9">
-        <v>0.65114613390860798</v>
+        <v>0.66357904524141798</v>
       </c>
       <c r="J9">
-        <v>0.58164549937857801</v>
+        <v>2.0233800888523201</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A10" s="1">
-        <v>45569</v>
+        <v>45502</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
       <c r="C10">
+        <v>776.96429999999998</v>
+      </c>
+      <c r="D10">
+        <v>6713.1440000000002</v>
+      </c>
+      <c r="E10">
+        <v>0.41694777291652502</v>
+      </c>
+      <c r="F10">
+        <v>286.87479906384101</v>
+      </c>
+      <c r="G10">
+        <v>76.361791666666704</v>
+      </c>
+      <c r="H10">
+        <v>0.65114613390860798</v>
+      </c>
+      <c r="I10">
+        <v>0.58164549937857801</v>
+      </c>
+      <c r="J10">
+        <v>2.45769239868789</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A11" s="1">
+        <v>45569</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
         <v>395.84652</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>8379.9380000000001</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>7.0018058078074194E-2</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>55.534940409272103</v>
       </c>
-      <c r="G10">
+      <c r="G11">
+        <v>75.600666666666697</v>
+      </c>
+      <c r="H11">
+        <v>0.33165288386252301</v>
+      </c>
+      <c r="I11">
+        <v>0.30002456976414499</v>
+      </c>
+      <c r="J11">
         <v>1.7445663101922899</v>
-      </c>
-      <c r="H10">
-        <v>75.600666666666697</v>
-      </c>
-      <c r="I10">
-        <v>0.33165288386252301</v>
-      </c>
-      <c r="J10">
-        <v>0.30002456976414499</v>
       </c>
     </row>
   </sheetData>
@@ -9737,13 +9741,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9763,19 +9767,19 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A2" s="1">
         <v>45296</v>
       </c>
@@ -9795,19 +9799,19 @@
         <v>13.0695248584331</v>
       </c>
       <c r="G2">
+        <v>55.262291666666698</v>
+      </c>
+      <c r="H2">
+        <v>0.59619442027784597</v>
+      </c>
+      <c r="I2">
+        <v>0.772252348942841</v>
+      </c>
+      <c r="J2">
         <v>1.1162597991251899</v>
       </c>
-      <c r="H2">
-        <v>55.262291666666698</v>
-      </c>
-      <c r="I2">
-        <v>0.59619442027784597</v>
-      </c>
-      <c r="J2">
-        <v>0.772252348942841</v>
-      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A3" s="1">
         <v>45590</v>
       </c>
@@ -9817,14 +9821,29 @@
       <c r="C3">
         <v>835.77359999999999</v>
       </c>
-      <c r="I3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J3" t="e">
-        <v>#NUM!</v>
+      <c r="D3">
+        <v>7282.4489999999996</v>
+      </c>
+      <c r="E3">
+        <v>0.35046535211951502</v>
+      </c>
+      <c r="F3">
+        <v>6.8177800097671497</v>
+      </c>
+      <c r="G3">
+        <v>68.263083333333299</v>
+      </c>
+      <c r="H3">
+        <v>2.1767630223752299</v>
+      </c>
+      <c r="I3">
+        <v>2.22687990873807</v>
+      </c>
+      <c r="J3">
+        <v>0.83364298367996603</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A4" s="1">
         <v>45231</v>
       </c>
@@ -9844,19 +9863,19 @@
         <v>7.6989815209433896</v>
       </c>
       <c r="G4">
+        <v>67.299833333333297</v>
+      </c>
+      <c r="H4">
+        <v>0.32657792786206402</v>
+      </c>
+      <c r="I4">
+        <v>0.33977184565730401</v>
+      </c>
+      <c r="J4">
         <v>0.88643327723876397</v>
       </c>
-      <c r="H4">
-        <v>67.299833333333297</v>
-      </c>
-      <c r="I4">
-        <v>0.32657792786206402</v>
-      </c>
-      <c r="J4">
-        <v>0.33977184565730401</v>
-      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A5" s="1">
         <v>45569</v>
       </c>
@@ -9876,16 +9895,16 @@
         <v>9.4859257207413101</v>
       </c>
       <c r="G5">
+        <v>75.319166666666703</v>
+      </c>
+      <c r="H5">
+        <v>1.0342626178979999</v>
+      </c>
+      <c r="I5">
+        <v>0.93977831967298397</v>
+      </c>
+      <c r="J5">
         <v>0.97707971959916795</v>
-      </c>
-      <c r="H5">
-        <v>75.319166666666703</v>
-      </c>
-      <c r="I5">
-        <v>1.0342626178979999</v>
-      </c>
-      <c r="J5">
-        <v>0.93977831967298397</v>
       </c>
     </row>
   </sheetData>
@@ -9897,15 +9916,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9925,19 +9944,19 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A2" s="1">
         <v>45296</v>
       </c>
@@ -9948,7 +9967,7 @@
         <v>644.81269999999995</v>
       </c>
       <c r="D2">
-        <v>850.99109999999996</v>
+        <v>7115.5159999999996</v>
       </c>
       <c r="E2">
         <v>0.28772677954446901</v>
@@ -9957,16 +9976,19 @@
         <v>161.004527140063</v>
       </c>
       <c r="G2">
+        <v>57.347416666666703</v>
+      </c>
+      <c r="H2">
+        <v>0.93227266845144696</v>
+      </c>
+      <c r="I2">
+        <v>1.1610877322831099</v>
+      </c>
+      <c r="J2">
         <v>2.20683808773562</v>
       </c>
-      <c r="H2">
-        <v>57.347416666666703</v>
-      </c>
-      <c r="I2">
-        <v>203.66771770116301</v>
-      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A3" s="1">
         <v>45442</v>
       </c>
@@ -9976,14 +9998,14 @@
       <c r="C3">
         <v>645.07506000000001</v>
       </c>
+      <c r="H3" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="I3" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="J3" t="e">
-        <v>#NUM!</v>
-      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A4" s="1">
         <v>45484</v>
       </c>
@@ -9993,14 +10015,14 @@
       <c r="C4">
         <v>20605.830000000002</v>
       </c>
+      <c r="H4" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="I4" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="J4" t="e">
-        <v>#NUM!</v>
-      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A5" s="1">
         <v>45590</v>
       </c>
@@ -10010,171 +10032,212 @@
       <c r="C5">
         <v>502.29234000000002</v>
       </c>
-      <c r="I5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J5" t="e">
-        <v>#NUM!</v>
+      <c r="D5">
+        <v>11548.536</v>
+      </c>
+      <c r="E5">
+        <v>0.21002135752523299</v>
+      </c>
+      <c r="F5">
+        <v>107.397602315806</v>
+      </c>
+      <c r="G5">
+        <v>68.863500000000002</v>
+      </c>
+      <c r="H5">
+        <v>2.9986991093865498</v>
+      </c>
+      <c r="I5">
+        <v>3.0365221508306601</v>
+      </c>
+      <c r="J5">
+        <v>2.0309945857151401</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A6" s="1">
-        <v>45231</v>
+        <v>45597</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="C6">
-        <v>698.6585</v>
+        <v>608.31299999999999</v>
       </c>
       <c r="D6">
-        <v>11130.56</v>
+        <v>9416.6620000000003</v>
       </c>
       <c r="E6">
-        <v>8.2976287770757301E-2</v>
+        <v>0.14001852958251401</v>
       </c>
       <c r="F6">
-        <v>32.522982093317097</v>
+        <v>63.7461281387246</v>
       </c>
       <c r="G6">
-        <v>1.5121903600245801</v>
+        <v>69.199291666666696</v>
       </c>
       <c r="H6">
-        <v>68.278565217391304</v>
-      </c>
-      <c r="I6">
-        <v>0.33341510601558799</v>
+        <v>2256.79613620903</v>
       </c>
       <c r="J6">
-        <v>0.34109151672638899</v>
+        <v>1.8044538113953601</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A7" s="1">
-        <v>45266</v>
+        <v>45231</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="C7">
-        <v>595.43700000000001</v>
+        <v>698.6585</v>
       </c>
       <c r="D7">
-        <v>10319.43</v>
+        <v>11130.56</v>
       </c>
       <c r="E7">
-        <v>7.4268725880109507E-2</v>
+        <v>8.2976287770757301E-2</v>
       </c>
       <c r="F7">
-        <v>28.181122381291299</v>
+        <v>32.522982093317097</v>
       </c>
       <c r="G7">
-        <v>1.4499582859448901</v>
+        <v>68.278565217391304</v>
       </c>
       <c r="H7">
-        <v>63.182749999999999</v>
+        <v>0.33341510601558799</v>
       </c>
       <c r="I7">
-        <v>0.38300537388112299</v>
+        <v>0.34109151672638899</v>
       </c>
       <c r="J7">
-        <v>0.42861234858122599</v>
+        <v>1.5121903600245801</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A8" s="1">
-        <v>45331</v>
+        <v>45266</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8">
-        <v>433.461546</v>
+        <v>595.43700000000001</v>
       </c>
       <c r="D8">
-        <v>10290.9</v>
+        <v>10319.43</v>
       </c>
       <c r="E8">
-        <v>0.18695286733230901</v>
+        <v>7.4268725880109507E-2</v>
       </c>
       <c r="F8">
-        <v>92.480351387484305</v>
+        <v>28.181122381291299</v>
       </c>
       <c r="G8">
-        <v>1.96604947122087</v>
+        <v>63.182749999999999</v>
       </c>
       <c r="H8">
-        <v>56.771625</v>
+        <v>0.38300537388112299</v>
       </c>
       <c r="I8">
-        <v>5.1700820436274597</v>
+        <v>0.42861234858122599</v>
       </c>
       <c r="J8">
-        <v>6.5088333933078397</v>
+        <v>1.4499582859448901</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A9" s="1">
-        <v>45502</v>
+        <v>45331</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9">
-        <v>667.35563999999999</v>
+        <v>433.461546</v>
       </c>
       <c r="D9">
-        <v>1573.1279999999999</v>
+        <v>10290.9</v>
       </c>
       <c r="E9">
-        <v>0.142858205716412</v>
+        <v>0.18695286733230901</v>
       </c>
       <c r="F9">
-        <v>65.450197871718402</v>
+        <v>92.480351387484305</v>
       </c>
       <c r="G9">
-        <v>1.8159109638656199</v>
+        <v>56.771625</v>
       </c>
       <c r="H9">
-        <v>74.173434782608695</v>
+        <v>5.1700820436274597</v>
       </c>
       <c r="I9">
-        <v>8.1427883479316296</v>
+        <v>6.5088333933078397</v>
       </c>
       <c r="J9">
-        <v>7.5405072928701502</v>
+        <v>1.96604947122087</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A10" s="1">
-        <v>45569</v>
+        <v>45502</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="C10">
+        <v>667.35563999999999</v>
+      </c>
+      <c r="D10">
+        <v>9438.768</v>
+      </c>
+      <c r="E10">
+        <v>0.142858205716412</v>
+      </c>
+      <c r="F10">
+        <v>65.450197871718402</v>
+      </c>
+      <c r="G10">
+        <v>74.173434782608695</v>
+      </c>
+      <c r="H10">
+        <v>23.488344169076299</v>
+      </c>
+      <c r="J10">
+        <v>1.8159109638656199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A11" s="1">
+        <v>45569</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
         <v>395.63819999999998</v>
       </c>
-      <c r="D10">
-        <v>1740.903</v>
-      </c>
-      <c r="E10">
+      <c r="D11">
+        <v>10445.418</v>
+      </c>
+      <c r="E11">
         <v>0.26756115791951901</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>146.747643377652</v>
       </c>
-      <c r="G10">
+      <c r="G11">
+        <v>75.326458333333306</v>
+      </c>
+      <c r="H11">
+        <v>1.0288636078548099</v>
+      </c>
+      <c r="I11">
+        <v>0.93487253220809396</v>
+      </c>
+      <c r="J11">
         <v>2.1665711356348201</v>
-      </c>
-      <c r="H10">
-        <v>75.326458333333306</v>
-      </c>
-      <c r="I10">
-        <v>12.681988691739299</v>
-      </c>
-      <c r="J10">
-        <v>11.523434973466101</v>
       </c>
     </row>
   </sheetData>
@@ -10186,15 +10249,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10214,22 +10277,19 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A2" s="1">
         <v>45590</v>
       </c>
@@ -10239,14 +10299,26 @@
       <c r="C2">
         <v>411.13853999999998</v>
       </c>
-      <c r="I2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J2" t="e">
-        <v>#NUM!</v>
+      <c r="D2">
+        <v>19886.63</v>
+      </c>
+      <c r="E2">
+        <v>3.0144859170837299E-2</v>
+      </c>
+      <c r="F2">
+        <v>0.19749457616861299</v>
+      </c>
+      <c r="G2">
+        <v>67.998583333333301</v>
+      </c>
+      <c r="H2">
+        <v>16.1343103460324</v>
+      </c>
+      <c r="I2">
+        <v>16.5829663340247</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A3" s="1">
         <v>45296</v>
       </c>
@@ -10266,22 +10338,16 @@
         <v>0.37326337992833297</v>
       </c>
       <c r="G3">
-        <v>-0.427984615686272</v>
+        <v>52.158749999999998</v>
       </c>
       <c r="H3">
-        <v>52.158749999999998</v>
+        <v>4.36213642925469</v>
       </c>
       <c r="I3">
-        <v>4.36213642925469</v>
-      </c>
-      <c r="J3">
         <v>5.99346173557774</v>
       </c>
-      <c r="K3">
-        <v>-0.427984615686272</v>
-      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A4" s="1">
         <v>45502</v>
       </c>
@@ -10301,22 +10367,19 @@
         <v>3.0884150388744702</v>
       </c>
       <c r="G4">
+        <v>76.433750000000003</v>
+      </c>
+      <c r="H4">
+        <v>0.47263363728687002</v>
+      </c>
+      <c r="I4">
+        <v>0.42169129089072499</v>
+      </c>
+      <c r="J4">
         <v>0.489735658561678</v>
       </c>
-      <c r="H4">
-        <v>76.433750000000003</v>
-      </c>
-      <c r="I4">
-        <v>0.47263363728687002</v>
-      </c>
-      <c r="J4">
-        <v>0.42169129089072499</v>
-      </c>
-      <c r="K4">
-        <v>0.489735658561678</v>
-      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A5" s="1">
         <v>45279</v>
       </c>
@@ -10336,18 +10399,15 @@
         <v>104.63127357915801</v>
       </c>
       <c r="G5">
-        <v>2.01966151161424</v>
+        <v>57.410541666666703</v>
       </c>
       <c r="H5">
-        <v>57.410541666666703</v>
+        <v>2.1870162654264998E-2</v>
       </c>
       <c r="I5">
-        <v>2.1870162654264998E-2</v>
+        <v>2.7201304818480699E-2</v>
       </c>
       <c r="J5">
-        <v>2.7201304818480699E-2</v>
-      </c>
-      <c r="K5">
         <v>2.01966151161424</v>
       </c>
     </row>
@@ -10362,13 +10422,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10388,19 +10448,19 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A2" s="1">
         <v>45296</v>
       </c>
@@ -10420,19 +10480,19 @@
         <v>26.1500989699855</v>
       </c>
       <c r="G2">
+        <v>57.088374999999999</v>
+      </c>
+      <c r="H2">
+        <v>0.24390358452308999</v>
+      </c>
+      <c r="I2">
+        <v>0.30520205545490398</v>
+      </c>
+      <c r="J2">
         <v>1.4174733368758401</v>
       </c>
-      <c r="H2">
-        <v>57.088374999999999</v>
-      </c>
-      <c r="I2">
-        <v>0.24390358452308999</v>
-      </c>
-      <c r="J2">
-        <v>0.30520205545490398</v>
-      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A3" s="1">
         <v>45590</v>
       </c>
@@ -10442,14 +10502,29 @@
       <c r="C3">
         <v>441.74369999999999</v>
       </c>
-      <c r="I3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J3" t="e">
-        <v>#NUM!</v>
+      <c r="D3">
+        <v>2526.8760000000002</v>
+      </c>
+      <c r="E3">
+        <v>0.218316630467253</v>
+      </c>
+      <c r="F3">
+        <v>19.033846755006099</v>
+      </c>
+      <c r="G3">
+        <v>69.479695652173902</v>
+      </c>
+      <c r="H3">
+        <v>1.9939050567780701</v>
+      </c>
+      <c r="I3">
+        <v>1.99799058223319</v>
+      </c>
+      <c r="J3">
+        <v>1.27952656840493</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A4" s="1">
         <v>45231</v>
       </c>
@@ -10469,19 +10544,19 @@
         <v>4.0426166984303</v>
       </c>
       <c r="G4">
+        <v>68.842375000000004</v>
+      </c>
+      <c r="H4">
+        <v>0.46872140092199499</v>
+      </c>
+      <c r="I4">
+        <v>0.47478024802958502</v>
+      </c>
+      <c r="J4">
         <v>0.60666256556119902</v>
       </c>
-      <c r="H4">
-        <v>68.842375000000004</v>
-      </c>
-      <c r="I4">
-        <v>0.46872140092199499</v>
-      </c>
-      <c r="J4">
-        <v>0.47478024802958502</v>
-      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A5" s="1">
         <v>45279</v>
       </c>
@@ -10501,16 +10576,19 @@
         <v>728.91156257831699</v>
       </c>
       <c r="G5">
+        <v>60.173708333333302</v>
+      </c>
+      <c r="H5">
+        <v>0.23444114467744401</v>
+      </c>
+      <c r="I5">
+        <v>0.27708508441848401</v>
+      </c>
+      <c r="J5">
         <v>2.8626748394097299</v>
       </c>
-      <c r="H5">
-        <v>60.173708333333302</v>
-      </c>
-      <c r="I5">
-        <v>0.23444114467744401</v>
-      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A6" s="1">
         <v>45505</v>
       </c>
@@ -10530,19 +10608,19 @@
         <v>35.070620539330598</v>
       </c>
       <c r="G6">
+        <v>76.782291666666694</v>
+      </c>
+      <c r="H6">
+        <v>4.0239547132744997</v>
+      </c>
+      <c r="I6">
+        <v>3.5702893922979699</v>
+      </c>
+      <c r="J6">
         <v>1.54494345035321</v>
       </c>
-      <c r="H6">
-        <v>76.782291666666694</v>
-      </c>
-      <c r="I6">
-        <v>4.0239547132744997</v>
-      </c>
-      <c r="J6">
-        <v>3.5702893922979699</v>
-      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A7" s="1">
         <v>45569</v>
       </c>
@@ -10562,16 +10640,16 @@
         <v>33.5601796390159</v>
       </c>
       <c r="G7">
+        <v>76.006291666666698</v>
+      </c>
+      <c r="H7">
+        <v>2.6424089665535599</v>
+      </c>
+      <c r="I7">
+        <v>2.3742812408469902</v>
+      </c>
+      <c r="J7">
         <v>1.52582427682962</v>
-      </c>
-      <c r="H7">
-        <v>76.006291666666698</v>
-      </c>
-      <c r="I7">
-        <v>2.6424089665535599</v>
-      </c>
-      <c r="J7">
-        <v>2.3742812408469902</v>
       </c>
     </row>
   </sheetData>
@@ -10583,15 +10661,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10611,19 +10689,19 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A2" s="1">
         <v>45296</v>
       </c>
@@ -10643,19 +10721,19 @@
         <v>165.823972739732</v>
       </c>
       <c r="G2">
+        <v>52.267458333333302</v>
+      </c>
+      <c r="H2">
+        <v>1.3297639505519001</v>
+      </c>
+      <c r="I2">
+        <v>1.82328254299512</v>
+      </c>
+      <c r="J2">
         <v>2.21964731557483</v>
       </c>
-      <c r="H2">
-        <v>52.267458333333302</v>
-      </c>
-      <c r="I2">
-        <v>1.3297639505519001</v>
-      </c>
-      <c r="J2">
-        <v>1.82328254299512</v>
-      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A3" s="1">
         <v>45590</v>
       </c>
@@ -10665,165 +10743,197 @@
       <c r="C3">
         <v>380.19384000000002</v>
       </c>
-      <c r="I3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J3" t="e">
-        <v>#NUM!</v>
+      <c r="E3">
+        <v>0.189070453385662</v>
+      </c>
+      <c r="F3">
+        <v>85.274871565359604</v>
+      </c>
+      <c r="G3">
+        <v>67.770875000000004</v>
+      </c>
+      <c r="J3">
+        <v>1.93082107397803</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A4" s="1">
-        <v>45231</v>
+        <v>45597</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
       </c>
       <c r="C4">
-        <v>721.23059999999998</v>
-      </c>
-      <c r="D4">
-        <v>2687.3130000000001</v>
+        <v>365.95895999999999</v>
       </c>
       <c r="E4">
-        <v>0.1019830414486</v>
+        <v>0.14022503226824601</v>
       </c>
       <c r="F4">
-        <v>36.054074208547597</v>
+        <v>56.212550380179103</v>
       </c>
       <c r="G4">
-        <v>1.55695434828742</v>
-      </c>
-      <c r="H4">
-        <v>65.837708333333296</v>
-      </c>
-      <c r="I4">
-        <v>1.82495889091172</v>
+        <v>68.742208333333295</v>
+      </c>
+      <c r="J4">
+        <v>1.7498332898101401</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A5" s="1">
-        <v>45266</v>
+        <v>45231</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
       </c>
       <c r="C5">
-        <v>739.46839999999997</v>
+        <v>721.23059999999998</v>
       </c>
       <c r="D5">
-        <v>3986.5630000000001</v>
+        <v>2687.3130000000001</v>
       </c>
       <c r="E5">
-        <v>9.2948582820242806E-2</v>
+        <v>0.1019830414486</v>
       </c>
       <c r="F5">
-        <v>31.6815348320814</v>
+        <v>36.054074208547597</v>
       </c>
       <c r="G5">
-        <v>1.5008062130991799</v>
+        <v>65.837708333333296</v>
       </c>
       <c r="H5">
-        <v>57.605125000000001</v>
+        <v>1.82495889091172</v>
       </c>
       <c r="I5">
-        <v>0.21060279927259001</v>
+        <v>1.9477536276551799</v>
       </c>
       <c r="J5">
-        <v>0.26097334154129898</v>
+        <v>1.55695434828742</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A6" s="1">
-        <v>45331</v>
+        <v>45266</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
       </c>
       <c r="C6">
-        <v>447.77111400000001</v>
+        <v>739.46839999999997</v>
       </c>
       <c r="D6">
-        <v>3393.52</v>
+        <v>3986.5630000000001</v>
       </c>
       <c r="E6">
-        <v>0.26214009253193299</v>
+        <v>9.2948582820242806E-2</v>
       </c>
       <c r="F6">
-        <v>134.504322807786</v>
+        <v>31.6815348320814</v>
       </c>
       <c r="G6">
-        <v>2.1287362422670499</v>
+        <v>57.605125000000001</v>
       </c>
       <c r="H6">
-        <v>55.680374999999998</v>
+        <v>0.21060279927259001</v>
       </c>
       <c r="I6">
-        <v>36.698976971219601</v>
+        <v>0.26097334154129898</v>
+      </c>
+      <c r="J6">
+        <v>1.5008062130991799</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A7" s="1">
-        <v>45502</v>
+        <v>45331</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
       </c>
       <c r="C7">
-        <v>719.93502000000001</v>
+        <v>447.77111400000001</v>
       </c>
       <c r="D7">
-        <v>5518.3209999999999</v>
+        <v>3393.52</v>
       </c>
       <c r="E7">
-        <v>0.14969712289074899</v>
+        <v>0.26214009253193299</v>
       </c>
       <c r="F7">
-        <v>61.617676426121797</v>
+        <v>134.504322807786</v>
       </c>
       <c r="G7">
-        <v>1.78970531724707</v>
+        <v>55.680374999999998</v>
       </c>
       <c r="H7">
-        <v>77.678708333333304</v>
-      </c>
-      <c r="I7">
-        <v>2.54253644329191</v>
+        <v>36.698976971219601</v>
       </c>
       <c r="J7">
-        <v>2.2231410310497299</v>
+        <v>2.1287362422670499</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A8" s="1">
-        <v>45569</v>
+        <v>45502</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
       <c r="C8">
+        <v>719.93502000000001</v>
+      </c>
+      <c r="D8">
+        <v>5518.3209999999999</v>
+      </c>
+      <c r="E8">
+        <v>0.14969712289074899</v>
+      </c>
+      <c r="F8">
+        <v>61.617676426121797</v>
+      </c>
+      <c r="G8">
+        <v>77.678708333333304</v>
+      </c>
+      <c r="H8">
+        <v>2.54253644329191</v>
+      </c>
+      <c r="I8">
+        <v>2.2231410310497299</v>
+      </c>
+      <c r="J8">
+        <v>1.78970531724707</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A9" s="1">
+        <v>45569</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
         <v>396.4812</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>8222.7630000000008</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>0.19368252554686899</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>88.194470217674905</v>
       </c>
-      <c r="G8">
+      <c r="G9">
+        <v>76.782666666666699</v>
+      </c>
+      <c r="H9">
+        <v>0.488676963637731</v>
+      </c>
+      <c r="I9">
+        <v>0.43358295603590602</v>
+      </c>
+      <c r="J9">
         <v>1.94544135577539</v>
-      </c>
-      <c r="H8">
-        <v>76.782666666666699</v>
-      </c>
-      <c r="I8">
-        <v>0.488676963637731</v>
-      </c>
-      <c r="J8">
-        <v>0.43358295603590602</v>
       </c>
     </row>
   </sheetData>

--- a/04_Output/rC_k600_edited.xlsx
+++ b/04_Output/rC_k600_edited.xlsx
@@ -8,29 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Howley_Bradford_Streams\Howley_Bradford_Streams\04_Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98BA9D9-6732-4078-A2FD-E962ACADBDB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4F5157-8968-46A8-86BA-FC6CF7258591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5" yWindow="5" windowWidth="19190" windowHeight="10070" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="105" yWindow="10" windowWidth="19095" windowHeight="10070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="13" sheetId="1" r:id="rId1"/>
-    <sheet name="15" sheetId="3" r:id="rId2"/>
-    <sheet name="3" sheetId="4" r:id="rId3"/>
-    <sheet name="5" sheetId="5" r:id="rId4"/>
-    <sheet name="5a" sheetId="6" r:id="rId5"/>
-    <sheet name="6" sheetId="7" r:id="rId6"/>
-    <sheet name="6a" sheetId="8" r:id="rId7"/>
-    <sheet name="7" sheetId="9" r:id="rId8"/>
-    <sheet name="9" sheetId="10" r:id="rId9"/>
+    <sheet name="15" sheetId="2" r:id="rId2"/>
+    <sheet name="3" sheetId="3" r:id="rId3"/>
+    <sheet name="5" sheetId="4" r:id="rId4"/>
+    <sheet name="5a" sheetId="5" r:id="rId5"/>
+    <sheet name="6" sheetId="6" r:id="rId6"/>
+    <sheet name="6a" sheetId="7" r:id="rId7"/>
+    <sheet name="7" sheetId="8" r:id="rId8"/>
+    <sheet name="9" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="20">
   <si>
-    <t>day</t>
+    <t>logQ</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
   <si>
     <t>ID</t>
@@ -57,7 +60,7 @@
     <t>k600_1d</t>
   </si>
   <si>
-    <t>logQ</t>
+    <t>log_K600</t>
   </si>
   <si>
     <t>13</t>
@@ -92,7 +95,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -201,8 +204,19 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'13'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>log_K600</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -223,47 +237,52 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'13'!$E$2:$E$7</c:f>
+              <c:f>'13'!$A$2:$A$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.47429845344238097</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.100881407272675</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.3458550098918499E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.67414206545583E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.33558506980650299</c:v>
+                  <c:v>2.2956195890375901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'13'!$I$2:$I$7</c:f>
+              <c:f>'13'!$K$2:$K$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3.4720682359536399</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.19247311371887</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43.1766535663998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.9458937661225804</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.1733888577156899</c:v>
+                  <c:v>0.47387400561080101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -271,7 +290,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-741B-4804-93DD-D9286BABFDEB}"/>
+              <c16:uniqueId val="{00000000-4367-4226-B2CE-D6F83FC215CE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -283,11 +302,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1548816031"/>
-        <c:axId val="1548817471"/>
+        <c:axId val="1452312607"/>
+        <c:axId val="1452313087"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1548816031"/>
+        <c:axId val="1452312607"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -344,12 +363,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1548817471"/>
+        <c:crossAx val="1452313087"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1548817471"/>
+        <c:axId val="1452313087"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -406,7 +425,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1548816031"/>
+        <c:crossAx val="1452312607"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -508,17 +527,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="6.6580927384076991E-2"/>
-          <c:y val="0.17171296296296298"/>
-          <c:w val="0.88386351706036748"/>
-          <c:h val="0.72088764946048411"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -527,11 +536,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'15'!$I$1</c:f>
+              <c:f>'15'!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>k600_1d</c:v>
+                  <c:v>log_K600</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -560,54 +569,51 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'15'!$E$2:$E$7</c:f>
+              <c:f>'15'!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.215852248068133</c:v>
+                  <c:v>1.5364385574572501</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.23609790544256401</c:v>
+                  <c:v>1.6768239255734401</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16324969531057901</c:v>
+                  <c:v>1.1028312072387401</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.52826006985347296</c:v>
+                  <c:v>2.9322257640588401</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.31201786247728303</c:v>
+                  <c:v>2.1111055589692098</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.24996315545078601</c:v>
+                  <c:v>1.7653911789886501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'15'!$I$2:$I$7</c:f>
+              <c:f>'15'!$K$2:$K$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.56756507410637702</c:v>
-                </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.9945930170877</c:v>
+                  <c:v>1.52962388841246</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.9019208028636</c:v>
+                  <c:v>2.1261592525806399</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.417608085285099</c:v>
+                  <c:v>1.48120094839522</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.7553315960599</c:v>
+                  <c:v>1.97991814613576</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33.0116836786571</c:v>
+                  <c:v>2.3699845090321801</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -615,7 +621,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-41F3-4348-82E3-78DBD9C3D429}"/>
+              <c16:uniqueId val="{00000000-FF8C-4C0F-9996-4425D376B47F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -627,11 +633,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="147369391"/>
-        <c:axId val="147370831"/>
+        <c:axId val="1660840591"/>
+        <c:axId val="1452299167"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="147369391"/>
+        <c:axId val="1660840591"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -688,12 +694,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147370831"/>
+        <c:crossAx val="1452299167"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="147370831"/>
+        <c:axId val="1452299167"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -750,7 +756,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147369391"/>
+        <c:crossAx val="1660840591"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -821,14 +827,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.56782633420822393"/>
-          <c:y val="2.7898874269439419E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -860,15 +858,36 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.0539370078740152E-2"/>
+          <c:y val="0.16708333333333336"/>
+          <c:w val="0.8825717410323709"/>
+          <c:h val="0.77736111111111106"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>log_K600</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -891,51 +910,42 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'3'!$E$2:$E$7</c:f>
+              <c:f>'3'!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.41422688193861201</c:v>
+                  <c:v>1.5901312641124601</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35358594626280099</c:v>
+                  <c:v>1.3870902571252</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.32268700082854701</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.86567996287507698</c:v>
+                  <c:v>1.2690811021975701</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.39723668915869298</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.38487369823224499</c:v>
+                  <c:v>1.4983746072415201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'3'!$I$2:$I$7</c:f>
+              <c:f>'3'!$K$2:$K$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>7.3504151522309297E-2</c:v>
+                  <c:v>-1.0336055520613401</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.31419620586510399</c:v>
+                  <c:v>0.33046359994212099</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2090623667874398E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.1088768075705602</c:v>
+                  <c:v>-1.1198634405211101</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.29986232108031602</c:v>
+                  <c:v>1.12727027775397</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -943,7 +953,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-68CC-4B5E-9936-0967286338BC}"/>
+              <c16:uniqueId val="{00000000-BFFC-4A28-9A71-0FBE058ECBA4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -955,11 +965,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1207103871"/>
-        <c:axId val="1207106751"/>
+        <c:axId val="656774592"/>
+        <c:axId val="656780352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1207103871"/>
+        <c:axId val="656774592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1016,12 +1026,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1207106751"/>
+        <c:crossAx val="656780352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1207106751"/>
+        <c:axId val="656780352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1078,7 +1088,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1207103871"/>
+        <c:crossAx val="656774592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1187,8 +1197,19 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>log_K600</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -1209,34 +1230,42 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'5'!$J$2:$J$11</c:f>
+              <c:f>'5'!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="1">
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
                   <c:v>2.2638461049630898</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.21129687400897</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.18721799491019001</c:v>
+                  <c:v>2.0237147747062201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6628273408915302</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.21129687400897</c:v>
+                  <c:v>2.45769239868789</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0237147747062201</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.6628273408915302</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.0233800888523201</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.45769239868789</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>1.7445663101922899</c:v>
                 </c:pt>
               </c:numCache>
@@ -1244,36 +1273,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'5'!$I$2:$I$11</c:f>
+              <c:f>'5'!$K$2:$K$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.668476072734428</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.2240976016608602</c:v>
+                  <c:v>0.77854869405477301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81087624729699004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.36288571204037201</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.55533520106256995</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.2417182470070598</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.95810841249484902</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.66357904524141798</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.58164549937857801</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.30002456976414499</c:v>
+                  <c:v>0.130357159032578</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1281,7 +1298,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E415-48C2-AFF2-E9DBD812E96B}"/>
+              <c16:uniqueId val="{00000000-5C4A-49F4-82FF-2314A56BD659}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1293,11 +1310,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1706706079"/>
-        <c:axId val="1706703199"/>
+        <c:axId val="1594994287"/>
+        <c:axId val="1666648751"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1706706079"/>
+        <c:axId val="1594994287"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1354,12 +1371,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1706703199"/>
+        <c:crossAx val="1666648751"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1706703199"/>
+        <c:axId val="1666648751"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1416,7 +1433,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1706706079"/>
+        <c:crossAx val="1594994287"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1525,8 +1542,19 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5a'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>log_K600</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -1549,7 +1577,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'5a'!$J$2:$J$5</c:f>
+              <c:f>'5a'!$A$2:$A$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1570,21 +1598,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'5a'!$I$2:$I$5</c:f>
+              <c:f>'5a'!$K$2:$K$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.772252348942841</c:v>
+                  <c:v>0.275765685014141</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.22687990873807</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.33977184565730401</c:v>
+                  <c:v>1.6422222231553301</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.93977831967298397</c:v>
+                  <c:v>0.85258190192095995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1592,7 +1617,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4655-4F94-99BC-9B076D6511C3}"/>
+              <c16:uniqueId val="{00000000-513F-4586-9D8E-27EDF04981B9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1604,11 +1629,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="64709231"/>
-        <c:axId val="64706351"/>
+        <c:axId val="1666637231"/>
+        <c:axId val="1666644431"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="64709231"/>
+        <c:axId val="1666637231"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1665,12 +1690,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64706351"/>
+        <c:crossAx val="1666644431"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="64706351"/>
+        <c:axId val="1666644431"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1727,7 +1752,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64709231"/>
+        <c:crossAx val="1666637231"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1836,8 +1861,19 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'6'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>log_K600</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -1858,34 +1894,48 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'6'!$J$2:$J$11</c:f>
+              <c:f>'6'!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>2.20683808773562</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="1">
                   <c:v>2.0309945857151401</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="2">
                   <c:v>1.8044538113953601</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1421668183018401</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4499582859448901</c:v>
+                </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5121903600245801</c:v>
+                  <c:v>1.96604947122087</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4499582859448901</c:v>
+                  <c:v>1.8159109638656199</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.96604947122087</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.8159109638656199</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>2.1665711356348201</c:v>
                 </c:pt>
               </c:numCache>
@@ -1893,33 +1943,30 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'6'!$I$2:$I$11</c:f>
+              <c:f>'6'!$K$2:$K$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.1610877322831099</c:v>
+                  <c:v>0.45660363252434699</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.46730739347396</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4.12293103678092</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0365221508306601</c:v>
+                  <c:v>2.5673865013158799</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.34109151672638899</c:v>
+                  <c:v>1.10532903433306</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.42861234858122599</c:v>
+                  <c:v>1.6450230509194299</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.5088333933078397</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.93487253220809396</c:v>
+                  <c:v>0.51532489814205995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1927,7 +1974,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F848-48BF-BB03-D2BF6B79784A}"/>
+              <c16:uniqueId val="{00000000-CDC2-416B-A158-81B77391BDE7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1939,11 +1986,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="152015151"/>
-        <c:axId val="64707791"/>
+        <c:axId val="1666636271"/>
+        <c:axId val="1666658831"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="152015151"/>
+        <c:axId val="1666636271"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2000,12 +2047,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64707791"/>
+        <c:crossAx val="1666658831"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="64707791"/>
+        <c:axId val="1666658831"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2062,7 +2109,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152015151"/>
+        <c:crossAx val="1666636271"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2171,8 +2218,19 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'6a'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>log_K600</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -2193,16 +2251,36 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'6a'!$J$4:$J$5</c:f>
+              <c:f>'6a'!$A$2:$A$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>-0.70444482698631605</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.427984615686272</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.489735658561678</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>2.01966151161424</c:v>
                 </c:pt>
               </c:numCache>
@@ -2210,15 +2288,21 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'6a'!$I$4:$I$5</c:f>
+              <c:f>'6a'!$K$2:$K$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.42169129089072499</c:v>
+                  <c:v>2.3224106793333701</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7201304818480699E-2</c:v>
+                  <c:v>1.1238182847190901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.49886052133811898</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.93371932197318797</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2226,7 +2310,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E4D2-4A0C-BDC1-2F9A19C94941}"/>
+              <c16:uniqueId val="{00000000-7A7D-4CE3-821E-3DB0F37F1119}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2238,11 +2322,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1706827247"/>
-        <c:axId val="1706828207"/>
+        <c:axId val="1666663631"/>
+        <c:axId val="1666661231"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1706827247"/>
+        <c:axId val="1666663631"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2299,12 +2383,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1706828207"/>
+        <c:crossAx val="1666661231"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1706828207"/>
+        <c:axId val="1666661231"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2361,7 +2445,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1706827247"/>
+        <c:crossAx val="1666663631"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2470,8 +2554,19 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'7'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>log_K600</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -2494,10 +2589,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'7'!$J$2:$J$7</c:f>
+              <c:f>'7'!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1.4174733368758401</c:v>
                 </c:pt>
@@ -2511,9 +2606,6 @@
                   <c:v>2.8626748394097299</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.54494345035321</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>1.52582427682962</c:v>
                 </c:pt>
               </c:numCache>
@@ -2521,27 +2613,21 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'7'!$I$2:$I$7</c:f>
+              <c:f>'7'!$K$2:$K$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.30520205545490398</c:v>
+                  <c:v>0.34046807582660699</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.99799058223319</c:v>
+                  <c:v>0.88678515178480999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.47478024802958502</c:v>
+                  <c:v>0.57113352431083098</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.27708508441848401</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.5702893922979699</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.3742812408469902</c:v>
+                  <c:v>-0.15928632428432901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2549,7 +2635,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-00A9-4D50-B012-198707371CD9}"/>
+              <c16:uniqueId val="{00000000-DF21-4B0C-9D22-2B89C64B5268}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2561,11 +2647,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1115115967"/>
-        <c:axId val="57939583"/>
+        <c:axId val="1661088671"/>
+        <c:axId val="1661088191"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1115115967"/>
+        <c:axId val="1661088671"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2622,12 +2708,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57939583"/>
+        <c:crossAx val="1661088191"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="57939583"/>
+        <c:axId val="1661088191"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2684,7 +2770,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1115115967"/>
+        <c:crossAx val="1661088671"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2786,25 +2872,26 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="5.2692038495188102E-2"/>
-          <c:y val="0.19486111111111112"/>
-          <c:w val="0.88704418197725288"/>
-          <c:h val="0.72088764946048411"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'9'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>log_K600</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -2827,7 +2914,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'9'!$J$2:$J$9</c:f>
+              <c:f>'9'!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2841,7 +2928,7 @@
                   <c:v>1.7498332898101401</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.55695434828742</c:v>
+                  <c:v>1.41438658720066</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.5008062130991799</c:v>
@@ -2860,24 +2947,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'9'!$I$2:$I$9</c:f>
+              <c:f>'9'!$K$2:$K$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.82328254299512</c:v>
+                  <c:v>0.64794522995038195</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.9477536276551799</c:v>
+                <c:pt idx="1">
+                  <c:v>0.36575537475554798</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.26097334154129898</c:v>
+                <c:pt idx="2">
+                  <c:v>0.78359871795927805</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.2231410310497299</c:v>
+                  <c:v>1.2073581606603301</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.43358295603590602</c:v>
+                  <c:v>0.49568526267976798</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2885,7 +2972,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7A20-447B-817F-929B5F2997BC}"/>
+              <c16:uniqueId val="{00000000-6446-4082-96AC-804B3FDD3254}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2897,11 +2984,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1352187631"/>
-        <c:axId val="1200346191"/>
+        <c:axId val="654426720"/>
+        <c:axId val="654426240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1352187631"/>
+        <c:axId val="654426720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2958,12 +3045,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1200346191"/>
+        <c:crossAx val="654426240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1200346191"/>
+        <c:axId val="654426240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3020,7 +3107,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1352187631"/>
+        <c:crossAx val="654426720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8084,23 +8171,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>334962</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>39007</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>53975</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>60325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>334962</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>159657</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>53975</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D12B9B65-B5CD-C0F1-E235-FDF4939082CD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FACEF18-7CAD-8B4A-1CAD-0CFFC3468D12}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8125,23 +8212,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>117475</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>11112</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>11112</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6997D22E-B54A-CF6C-7341-28CB6E1F5AFD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2CF58A4-FC84-5703-806B-FA3FC56D86B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8166,23 +8253,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>592930</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>42070</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>592930</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A16818CB-81E2-F1C3-4167-B37BCAFA6D96}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69937280-4E9A-78CF-9685-D9CB385D6F98}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8207,23 +8294,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>544512</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>73025</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>544512</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>73025</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6A516B4-A732-8EBD-E230-4920E7FF1F88}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25D16480-95EB-30E7-821A-215637D84512}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8248,23 +8335,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>668337</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>174625</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>46037</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>668337</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>46037</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D973A02-9C69-481B-8E3B-452E5B386C2A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD954EF3-8186-5186-A6EF-1636373915FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8289,23 +8376,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>46037</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>46037</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26D64D33-AD73-F614-0BD5-2B226587D0DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8DEFB90-887B-27B9-65AA-8CFBE62DE0E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8330,23 +8417,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>500062</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>500062</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>73025</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70E5C96D-36CD-08F2-7627-D2487D9394F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C1BE5C9-8856-0082-A461-D50A9A57B909}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8371,23 +8458,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>204787</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>568325</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>204787</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>568325</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6392EC2B-0DED-F19B-7A60-564B55BC754F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEECE9C2-6001-4309-BF7E-5BEF1AA70642}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8412,23 +8499,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>503237</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>34925</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:rowOff>168275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>503237</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>34925</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>73025</xdr:rowOff>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12685800-BBDC-90BA-C0A1-F8EFB51BC511}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15880E42-38B9-A88F-B5F8-C541BA36B06B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8728,15 +8815,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8767,152 +8854,113 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A2" s="1">
-        <v>45442</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>737.67287999999996</v>
-      </c>
-      <c r="H2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I2" t="e">
-        <v>#NUM!</v>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A2">
+        <v>0.47429845344238097</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45331.546296296299</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>841.73281919999999</v>
+      </c>
+      <c r="E2">
+        <v>2525.2719999999999</v>
+      </c>
+      <c r="F2">
+        <v>5.3458550098918499E-2</v>
+      </c>
+      <c r="G2">
+        <v>2.9805640124349799</v>
+      </c>
+      <c r="H2">
+        <v>58.711833333333303</v>
+      </c>
+      <c r="I2">
+        <v>2442.33913134876</v>
+      </c>
+      <c r="J2">
+        <v>2965.2972577307</v>
+      </c>
+      <c r="K2">
+        <v>3.4720682359536399</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A3" s="1">
-        <v>45590</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>365.64864</v>
-      </c>
-      <c r="H3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I3" t="e">
-        <v>#NUM!</v>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A3">
+        <v>0.100881407272675</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45231.643750000003</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>861.60841666666704</v>
+      </c>
+      <c r="E3">
+        <v>4695.2049999999999</v>
+      </c>
+      <c r="F3">
+        <v>3.67414206545583E-2</v>
+      </c>
+      <c r="G3">
+        <v>1.26148301458118</v>
+      </c>
+      <c r="H3">
+        <v>68.241833333333304</v>
+      </c>
+      <c r="I3">
+        <v>15.2165979978598</v>
+      </c>
+      <c r="J3">
+        <v>15.5766160020993</v>
+      </c>
+      <c r="K3">
+        <v>1.19247311371887</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A4" s="1">
-        <v>45331</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>609.13812959999996</v>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A4">
+        <v>2.2956195890375901</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45279.638888888898</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>2525.2719999999999</v>
+        <v>682.46505000000002</v>
       </c>
       <c r="E4">
-        <v>5.3458550098918499E-2</v>
+        <v>4360.4979999999996</v>
       </c>
       <c r="F4">
-        <v>2.9805640124349799</v>
+        <v>0.33558506980650299</v>
       </c>
       <c r="G4">
-        <v>58.711833333333303</v>
+        <v>197.52387140350299</v>
       </c>
       <c r="H4">
-        <v>35.562043667287597</v>
+        <v>58.136791666666703</v>
       </c>
       <c r="I4">
-        <v>43.1766535663998</v>
+        <v>2.4264211253232499</v>
       </c>
       <c r="J4">
-        <v>0.47429845344238097</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A5" s="1">
-        <v>45569</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>410.61864000000003</v>
-      </c>
-      <c r="H5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I5" t="e">
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A6" s="1">
-        <v>45231</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>840.86069999999995</v>
-      </c>
-      <c r="D6">
-        <v>5530.3360000000002</v>
-      </c>
-      <c r="E6">
-        <v>3.67414206545583E-2</v>
-      </c>
-      <c r="F6">
-        <v>1.26148301458118</v>
-      </c>
-      <c r="G6">
-        <v>68.241833333333304</v>
-      </c>
-      <c r="H6">
-        <v>4.8315806956443499</v>
-      </c>
-      <c r="I6">
-        <v>4.9458937661225804</v>
-      </c>
-      <c r="J6">
-        <v>0.100881407272675</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A7" s="1">
-        <v>45279</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>654.34670000000006</v>
-      </c>
-      <c r="D7">
-        <v>4360.4979999999996</v>
-      </c>
-      <c r="E7">
-        <v>0.33558506980650299</v>
-      </c>
-      <c r="F7">
-        <v>197.52387140350299</v>
-      </c>
-      <c r="G7">
-        <v>58.136791666666703</v>
-      </c>
-      <c r="H7">
-        <v>0.95616784071764405</v>
-      </c>
-      <c r="I7">
-        <v>1.1733888577156899</v>
-      </c>
-      <c r="J7">
-        <v>2.2956195890375901</v>
+        <v>2.9776524490128899</v>
+      </c>
+      <c r="K4">
+        <v>0.47387400561080101</v>
       </c>
     </row>
   </sheetData>
@@ -8923,16 +8971,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8963,197 +9014,215 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A2" s="1">
-        <v>45296</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2">
-        <v>655.34429999999998</v>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A2">
+        <v>1.5364385574572501</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45296.476041666698</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
       </c>
       <c r="D2">
+        <v>638.45846666666705</v>
+      </c>
+      <c r="E2">
         <v>3992.6460000000002</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.215852248068133</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>34.390505339251298</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>53.767708333333303</v>
       </c>
-      <c r="H2">
-        <v>0.42592403459915501</v>
-      </c>
       <c r="I2">
-        <v>0.56756507410637702</v>
+        <v>5.2289212652668198</v>
       </c>
       <c r="J2">
-        <v>1.5364385574572501</v>
+        <v>6.9677990541449004</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A3" s="1">
-        <v>45484</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>779.41542000000004</v>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A3">
+        <v>1.6768239255734401</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45484.508796296301</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
       </c>
       <c r="D3">
+        <v>792.39509999999996</v>
+      </c>
+      <c r="E3">
         <v>8306.5229999999992</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.23609790544256401</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>47.514255157747101</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>76.441249999999997</v>
       </c>
-      <c r="H3">
-        <v>15.6852075034425</v>
-      </c>
       <c r="I3">
-        <v>13.9945930170877</v>
+        <v>37.9449411668583</v>
       </c>
       <c r="J3">
-        <v>1.6768239255734401</v>
+        <v>33.855083432652698</v>
+      </c>
+      <c r="K3">
+        <v>1.52962388841246</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A4" s="1">
-        <v>45590</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4">
-        <v>532.55862000000002</v>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A4">
+        <v>1.1028312072387401</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45590.410069444399</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>1052.144</v>
+        <v>546.66366000000005</v>
       </c>
       <c r="E4">
+        <v>1413.367</v>
+      </c>
+      <c r="F4">
         <v>0.16324969531057901</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>12.671592764002201</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>69.349500000000006</v>
       </c>
-      <c r="H4">
-        <v>19.818470739973201</v>
-      </c>
       <c r="I4">
-        <v>19.9019208028636</v>
+        <v>133.14792377377401</v>
       </c>
       <c r="J4">
-        <v>1.1028312072387401</v>
+        <v>133.70857261285099</v>
+      </c>
+      <c r="K4">
+        <v>2.1261592525806399</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A5" s="1">
-        <v>45279</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>699.4171</v>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A5">
+        <v>2.9322257640588401</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45279.458796296298</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
       </c>
       <c r="D5">
+        <v>743.79520000000002</v>
+      </c>
+      <c r="E5">
         <v>3992.6460000000002</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.52826006985347296</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>855.51132713685695</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>57.950125</v>
       </c>
-      <c r="H5">
-        <v>10.0849792289545</v>
-      </c>
       <c r="I5">
-        <v>12.417608085285099</v>
+        <v>24.594500550219902</v>
       </c>
       <c r="J5">
-        <v>2.9322257640588401</v>
+        <v>30.283143073723501</v>
+      </c>
+      <c r="K5">
+        <v>1.48120094839522</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A6" s="1">
-        <v>45502</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A6">
+        <v>2.1111055589692098</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45502.467245370397</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
         <v>801.76949999999999</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>4010.9160000000002</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.31201786247728303</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>129.15331535889499</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>76.383166666666696</v>
       </c>
-      <c r="H6">
-        <v>14.2836545918616</v>
-      </c>
       <c r="I6">
-        <v>12.7553315960599</v>
+        <v>106.92166975523401</v>
       </c>
       <c r="J6">
-        <v>2.1111055589692098</v>
+        <v>95.481261028916606</v>
+      </c>
+      <c r="K6">
+        <v>1.97991814613576</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A7" s="1">
-        <v>45569</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>547.61717999999996</v>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A7">
+        <v>1.7653911789886501</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45569.420833333301</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
       </c>
       <c r="D7">
+        <v>693.87467000000004</v>
+      </c>
+      <c r="E7">
         <v>6443.8360000000002</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.24996315545078601</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>58.262776767551102</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>76.3036666666667</v>
       </c>
-      <c r="H7">
-        <v>36.912859552156597</v>
-      </c>
       <c r="I7">
-        <v>33.0116836786571</v>
+        <v>262.11659900540798</v>
       </c>
       <c r="J7">
-        <v>1.7653911789886501</v>
+        <v>234.41451998769301</v>
+      </c>
+      <c r="K7">
+        <v>2.3699845090321801</v>
       </c>
     </row>
   </sheetData>
@@ -9164,16 +9233,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9204,194 +9273,177 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A2" s="1">
-        <v>45296</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2">
-        <v>473.84879999999998</v>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A2">
+        <v>1.5901312641124601</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45296.610069444403</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
       </c>
       <c r="D2">
+        <v>456.12386666666703</v>
+      </c>
+      <c r="E2">
         <v>6443.8360000000002</v>
       </c>
-      <c r="E2">
-        <v>0.41422688193861201</v>
-      </c>
       <c r="F2">
-        <v>39.2335750636623</v>
+        <v>0.41311509484043002</v>
       </c>
       <c r="G2">
-        <v>54.145791666666703</v>
+        <v>38.916275041201203</v>
       </c>
       <c r="H2">
-        <v>5.5558661720727098E-2</v>
+        <v>54.664183908045999</v>
       </c>
       <c r="I2">
-        <v>7.3504151522309297E-2</v>
+        <v>7.0654292394224605E-2</v>
       </c>
       <c r="J2">
-        <v>1.5936578839561699</v>
+        <v>9.2553841251804506E-2</v>
+      </c>
+      <c r="K2">
+        <v>-1.0336055520613401</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A3" s="1">
-        <v>45590</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A3">
+        <v>1.3870902571252</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45590.473611111098</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
         <v>411.06707999999998</v>
       </c>
-      <c r="D3">
-        <v>3344.355</v>
-      </c>
       <c r="E3">
+        <v>5182.0039999999999</v>
+      </c>
+      <c r="F3">
         <v>0.35358594626280099</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>24.383175083471102</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>68.4775833333333</v>
       </c>
-      <c r="H3">
-        <v>0.30827126972012397</v>
-      </c>
       <c r="I3">
-        <v>0.31419620586510399</v>
+        <v>2.0998859841322499</v>
       </c>
       <c r="J3">
-        <v>1.3870902571252</v>
+        <v>2.1402455362209598</v>
+      </c>
+      <c r="K3">
+        <v>0.33046359994212099</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A4" s="1">
-        <v>45231</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>730.71659999999997</v>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A4">
+        <v>1.2690811021975701</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45231.505902777797</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
       </c>
       <c r="D4">
+        <v>714.04719999999998</v>
+      </c>
+      <c r="E4">
         <v>6744.4539999999997</v>
       </c>
-      <c r="E4">
-        <v>0.32268700082854701</v>
-      </c>
       <c r="F4">
-        <v>18.5265754025319</v>
+        <v>0.32300434886584101</v>
       </c>
       <c r="G4">
-        <v>67.036416666666696</v>
+        <v>18.581514226441701</v>
       </c>
       <c r="H4">
-        <v>2.11332013024744E-2</v>
+        <v>67.133880000000005</v>
       </c>
       <c r="I4">
-        <v>2.2090623667874398E-2</v>
+        <v>7.2729609680837304E-2</v>
       </c>
       <c r="J4">
-        <v>1.2677951483401999</v>
+        <v>7.5881613953076701E-2</v>
+      </c>
+      <c r="K4">
+        <v>-1.1198634405211101</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A5" s="1">
-        <v>45279</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>699.4171</v>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="B5" s="1">
+        <v>45279.458796296298</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
       </c>
       <c r="D5">
+        <v>743.79520000000002</v>
+      </c>
+      <c r="E5">
         <v>8053.1170000000002</v>
       </c>
-      <c r="E5">
-        <v>0.86567996287507698</v>
-      </c>
       <c r="F5">
-        <v>360.82578389464197</v>
+        <v>0.86743688694584598</v>
       </c>
       <c r="G5">
-        <v>58.517166666666697</v>
+        <v>363.04466107748698</v>
       </c>
       <c r="H5">
-        <v>1.73058886604297</v>
+        <v>58.592009009008997</v>
       </c>
       <c r="I5">
-        <v>2.1088768075705602</v>
+        <v>4.5489596822252896</v>
       </c>
       <c r="J5">
-        <v>2.5572975638008</v>
+        <v>5.5359116546346296</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A6" s="1">
-        <v>45505</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>752.10996</v>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A6">
+        <v>1.4983746072415201</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45569.462962963</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
       </c>
       <c r="D6">
-        <v>9327.6489999999994</v>
+        <v>395.82371999999998</v>
       </c>
       <c r="E6">
-        <v>0.39723668915869298</v>
+        <v>3225.154</v>
       </c>
       <c r="F6">
-        <v>34.6942253975892</v>
+        <v>0.38499526710283399</v>
       </c>
       <c r="G6">
-        <v>76.912333333333294</v>
+        <v>31.504646231116201</v>
       </c>
       <c r="H6">
-        <v>0.33865857049369802</v>
+        <v>75.438470588235305</v>
       </c>
       <c r="I6">
-        <v>0.29986232108031602</v>
+        <v>14.7789864366346</v>
       </c>
       <c r="J6">
-        <v>1.5402571956364199</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A7" s="1">
-        <v>45569</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>395.73576000000003</v>
-      </c>
-      <c r="D7">
-        <v>3225.154</v>
-      </c>
-      <c r="E7">
-        <v>0.38487369823224499</v>
-      </c>
-      <c r="F7">
-        <v>31.475139594695701</v>
-      </c>
-      <c r="G7">
-        <v>75.441000000000003</v>
-      </c>
-      <c r="H7">
-        <v>6.3222902982053197</v>
-      </c>
-      <c r="J7">
-        <v>1.4979676649140301</v>
+        <v>13.405106779878199</v>
+      </c>
+      <c r="K6">
+        <v>1.12727027775397</v>
       </c>
     </row>
   </sheetData>
@@ -9402,16 +9454,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:J11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9442,292 +9494,215 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A2" s="1">
-        <v>45442</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2">
-        <v>688.71222</v>
-      </c>
-      <c r="H2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I2" t="e">
-        <v>#NUM!</v>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A2">
+        <v>2.2638461049630898</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45484.417592592603</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2">
+        <v>2034.8627879999999</v>
+      </c>
+      <c r="E2">
+        <v>6961.3969999999999</v>
+      </c>
+      <c r="F2">
+        <v>0.25670942796431001</v>
+      </c>
+      <c r="G2">
+        <v>183.58876694917501</v>
+      </c>
+      <c r="H2">
+        <v>76.579041666666697</v>
+      </c>
+      <c r="I2">
+        <v>5.2363099452820601</v>
+      </c>
+      <c r="J2">
+        <v>4.6609674789689297</v>
+      </c>
+      <c r="K2">
+        <v>0.668476072734428</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A3" s="1">
-        <v>45484</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3">
-        <v>690.81389999999999</v>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A3">
+        <v>2.21129687400897</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45296.400694444397</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>6961.3969999999999</v>
+        <v>426.60744999999997</v>
       </c>
       <c r="E3">
-        <v>0.25670942796431001</v>
+        <v>3375.2420000000002</v>
       </c>
       <c r="F3">
-        <v>183.58876694917501</v>
+        <v>0.225012367816944</v>
       </c>
       <c r="G3">
-        <v>76.579041666666697</v>
+        <v>162.66603244559099</v>
       </c>
       <c r="H3">
-        <v>4.7455135401012898</v>
+        <v>54.871041666666699</v>
       </c>
       <c r="I3">
-        <v>4.2240976016608602</v>
+        <v>4.6033147560070597</v>
       </c>
       <c r="J3">
-        <v>2.2638461049630898</v>
+        <v>6.0054934004881702</v>
+      </c>
+      <c r="K3">
+        <v>0.77854869405477301</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A4" s="1">
-        <v>45590</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <v>548.14409999999998</v>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A4">
+        <v>2.0237147747062201</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45266.452662037002</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>8635.2430000000004</v>
+        <v>409.7124</v>
       </c>
       <c r="E4">
-        <v>1.4553017535786799E-3</v>
+        <v>4325.9719999999998</v>
       </c>
       <c r="F4">
-        <v>1.5389269136462</v>
+        <v>0.14071662604863699</v>
       </c>
       <c r="G4">
-        <v>69.716999999999999</v>
+        <v>105.61236663593399</v>
       </c>
       <c r="H4">
-        <v>47.996062389961097</v>
+        <v>62.968666666666699</v>
+      </c>
+      <c r="I4">
+        <v>5.7587643197985896</v>
       </c>
       <c r="J4">
-        <v>0.18721799491019001</v>
+        <v>6.4695823800006398</v>
+      </c>
+      <c r="K4">
+        <v>0.81087624729699004</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A5" s="1">
-        <v>45597</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <v>563.09195999999997</v>
-      </c>
-      <c r="H5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I5" t="e">
-        <v>#NUM!</v>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A5">
+        <v>2.6628273408915302</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45279.417939814797</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>444.28</v>
+      </c>
+      <c r="E5">
+        <v>3363.2</v>
+      </c>
+      <c r="F5">
+        <v>0.69658739105357004</v>
+      </c>
+      <c r="G5">
+        <v>460.07362929256902</v>
+      </c>
+      <c r="H5">
+        <v>59.392708333333303</v>
+      </c>
+      <c r="I5">
+        <v>1.9236150869142301</v>
+      </c>
+      <c r="J5">
+        <v>2.3061402301815401</v>
+      </c>
+      <c r="K5">
+        <v>0.36288571204037201</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A6" s="1">
-        <v>45296</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6">
-        <v>429.05880000000002</v>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A6">
+        <v>2.45769239868789</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45502.410763888904</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
       </c>
       <c r="D6">
-        <v>3375.2420000000002</v>
+        <v>1722.98714</v>
       </c>
       <c r="E6">
-        <v>0.225012367816944</v>
+        <v>6713.1440000000002</v>
       </c>
       <c r="F6">
-        <v>162.66603244559099</v>
+        <v>0.41694777291652502</v>
       </c>
       <c r="G6">
-        <v>54.871041666666699</v>
+        <v>286.87479906384101</v>
       </c>
       <c r="H6">
-        <v>0.425674054587034</v>
+        <v>76.361791666666704</v>
       </c>
       <c r="I6">
-        <v>0.55533520106256995</v>
+        <v>1.5113924672972501</v>
       </c>
       <c r="J6">
-        <v>2.21129687400897</v>
+        <v>1.3500727112072699</v>
+      </c>
+      <c r="K6">
+        <v>0.130357159032578</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A7" s="1">
-        <v>45266</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <v>409.7124</v>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A7">
+        <v>1.7445663101922899</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45569.336458333302</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
       </c>
       <c r="D7">
-        <v>4325.9719999999998</v>
+        <v>520.15418799999998</v>
       </c>
       <c r="E7">
-        <v>0.14071662604863699</v>
+        <v>8379.9380000000001</v>
       </c>
       <c r="F7">
-        <v>105.61236663593399</v>
+        <v>7.0018058078074194E-2</v>
       </c>
       <c r="G7">
-        <v>62.968666666666699</v>
+        <v>55.534940409272103</v>
       </c>
       <c r="H7">
-        <v>1.9954189154176001</v>
+        <v>75.600666666666697</v>
       </c>
       <c r="I7">
-        <v>2.2417182470070598</v>
+        <v>1.9735868782610999</v>
       </c>
       <c r="J7">
-        <v>2.0237147747062201</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A8" s="1">
-        <v>45279</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8">
-        <v>444.28</v>
-      </c>
-      <c r="D8">
-        <v>3363.2</v>
-      </c>
-      <c r="E8">
-        <v>0.69658739105357004</v>
-      </c>
-      <c r="F8">
-        <v>460.07362929256902</v>
-      </c>
-      <c r="G8">
-        <v>59.392708333333303</v>
-      </c>
-      <c r="H8">
-        <v>0.79918461724656098</v>
-      </c>
-      <c r="I8">
-        <v>0.95810841249484902</v>
-      </c>
-      <c r="J8">
-        <v>2.6628273408915302</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A9" s="1">
-        <v>45376</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>545.70809999999994</v>
-      </c>
-      <c r="D9">
-        <v>4021.9380000000001</v>
-      </c>
-      <c r="E9">
-        <v>0.140700754388522</v>
-      </c>
-      <c r="F9">
-        <v>105.53100859400401</v>
-      </c>
-      <c r="G9">
-        <v>62.832791666666701</v>
-      </c>
-      <c r="H9">
-        <v>0.58933237308338704</v>
-      </c>
-      <c r="I9">
-        <v>0.66357904524141798</v>
-      </c>
-      <c r="J9">
-        <v>2.0233800888523201</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A10" s="1">
-        <v>45502</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10">
-        <v>776.96429999999998</v>
-      </c>
-      <c r="D10">
-        <v>6713.1440000000002</v>
-      </c>
-      <c r="E10">
-        <v>0.41694777291652502</v>
-      </c>
-      <c r="F10">
-        <v>286.87479906384101</v>
-      </c>
-      <c r="G10">
-        <v>76.361791666666704</v>
-      </c>
-      <c r="H10">
-        <v>0.65114613390860798</v>
-      </c>
-      <c r="I10">
-        <v>0.58164549937857801</v>
-      </c>
-      <c r="J10">
-        <v>2.45769239868789</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A11" s="1">
-        <v>45569</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11">
-        <v>395.84652</v>
-      </c>
-      <c r="D11">
-        <v>8379.9380000000001</v>
-      </c>
-      <c r="E11">
-        <v>7.0018058078074194E-2</v>
-      </c>
-      <c r="F11">
-        <v>55.534940409272103</v>
-      </c>
-      <c r="G11">
-        <v>75.600666666666697</v>
-      </c>
-      <c r="H11">
-        <v>0.33165288386252301</v>
-      </c>
-      <c r="I11">
-        <v>0.30002456976414499</v>
-      </c>
-      <c r="J11">
-        <v>1.7445663101922899</v>
+        <v>1.78537435630409</v>
       </c>
     </row>
   </sheetData>
@@ -9738,16 +9713,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:J5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9778,133 +9753,145 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A2" s="1">
-        <v>45296</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2">
-        <v>650.67600000000004</v>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A2">
+        <v>1.1162597991251899</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45296.434953703698</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
       </c>
       <c r="D2">
+        <v>618.29094999999995</v>
+      </c>
+      <c r="E2">
         <v>4929.4979999999996</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.42599051773861102</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>13.0695248584331</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>55.262291666666698</v>
       </c>
-      <c r="H2">
-        <v>0.59619442027784597</v>
-      </c>
       <c r="I2">
-        <v>0.772252348942841</v>
+        <v>1.45678128745316</v>
       </c>
       <c r="J2">
-        <v>1.1162597991251899</v>
+        <v>1.8869729954993399</v>
+      </c>
+      <c r="K2">
+        <v>0.275765685014141</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A3" s="1">
-        <v>45590</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3">
-        <v>835.77359999999999</v>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A3">
+        <v>0.83364298367996603</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45590.382638888899</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>7282.4489999999996</v>
+        <v>921.71709999999996</v>
       </c>
       <c r="E3">
+        <v>4210.08</v>
+      </c>
+      <c r="F3">
         <v>0.35046535211951502</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>6.8177800097671497</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>68.263083333333299</v>
       </c>
-      <c r="H3">
-        <v>2.1767630223752299</v>
-      </c>
       <c r="I3">
-        <v>2.22687990873807</v>
+        <v>42.888077344183998</v>
       </c>
       <c r="J3">
-        <v>0.83364298367996603</v>
+        <v>43.875514596877601</v>
+      </c>
+      <c r="K3">
+        <v>1.6422222231553301</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A4" s="1">
-        <v>45231</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4">
-        <v>402.31270000000001</v>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A4">
+        <v>0.88643327723876397</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45231.413888888899</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
       </c>
       <c r="D4">
+        <v>434.69794999999999</v>
+      </c>
+      <c r="E4">
         <v>17383.669999999998</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.36326953896331998</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>7.6989815209433896</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>67.299833333333297</v>
       </c>
-      <c r="H4">
-        <v>0.32657792786206402</v>
-      </c>
       <c r="I4">
-        <v>0.33977184565730401</v>
+        <v>0.80706235080412003</v>
       </c>
       <c r="J4">
-        <v>0.88643327723876397</v>
+        <v>0.83966808868068499</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A5" s="1">
-        <v>45569</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5">
-        <v>547.30542000000003</v>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A5">
+        <v>0.97707971959916795</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45569.400115740696</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
       </c>
       <c r="D5">
+        <v>555.11051999999995</v>
+      </c>
+      <c r="E5">
         <v>14306.2</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.386909393539067</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>9.4859257207413101</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>75.319166666666703</v>
       </c>
-      <c r="H5">
-        <v>1.0342626178979999</v>
-      </c>
       <c r="I5">
-        <v>0.93977831967298397</v>
+        <v>7.8376760318942296</v>
       </c>
       <c r="J5">
-        <v>0.97707971959916795</v>
+        <v>7.12167092180563</v>
+      </c>
+      <c r="K5">
+        <v>0.85258190192095995</v>
       </c>
     </row>
   </sheetData>
@@ -9915,16 +9902,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:J11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9955,289 +9942,285 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A2" s="1">
-        <v>45296</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2">
-        <v>644.81269999999995</v>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A2">
+        <v>2.20683808773562</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45296.650231481501</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
       </c>
       <c r="D2">
+        <v>612.31027500000005</v>
+      </c>
+      <c r="E2">
         <v>7115.5159999999996</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.28772677954446901</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>161.004527140063</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>57.347416666666703</v>
       </c>
-      <c r="H2">
-        <v>0.93227266845144696</v>
-      </c>
       <c r="I2">
-        <v>1.1610877322831099</v>
+        <v>2.2976376979999702</v>
       </c>
       <c r="J2">
-        <v>2.20683808773562</v>
+        <v>2.8615651135737599</v>
+      </c>
+      <c r="K2">
+        <v>0.45660363252434699</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A3" s="1">
-        <v>45442</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3">
-        <v>645.07506000000001</v>
-      </c>
-      <c r="H3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I3" t="e">
-        <v>#NUM!</v>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A3">
+        <v>2.0309945857151401</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45590.509490740696</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>509.79309000000001</v>
+      </c>
+      <c r="E3">
+        <v>9416.6620000000003</v>
+      </c>
+      <c r="F3">
+        <v>0.21002135752523299</v>
+      </c>
+      <c r="G3">
+        <v>107.397602315806</v>
+      </c>
+      <c r="H3">
+        <v>68.863500000000002</v>
+      </c>
+      <c r="I3">
+        <v>28.964352921548802</v>
+      </c>
+      <c r="J3">
+        <v>29.329684647404299</v>
+      </c>
+      <c r="K3">
+        <v>1.46730739347396</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A4" s="1">
-        <v>45484</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4">
-        <v>20605.830000000002</v>
-      </c>
-      <c r="H4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I4" t="e">
-        <v>#NUM!</v>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A4">
+        <v>1.8044538113953601</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45597.442013888904</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>709.25940000000003</v>
+      </c>
+      <c r="E4">
+        <v>9416.6620000000003</v>
+      </c>
+      <c r="F4">
+        <v>0.14001852958251401</v>
+      </c>
+      <c r="G4">
+        <v>63.7461281387246</v>
+      </c>
+      <c r="H4">
+        <v>69.199291666666696</v>
+      </c>
+      <c r="I4">
+        <v>13183.643157193201</v>
+      </c>
+      <c r="J4">
+        <v>13271.8369261322</v>
+      </c>
+      <c r="K4">
+        <v>4.12293103678092</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A5" s="1">
-        <v>45590</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5">
-        <v>502.29234000000002</v>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A5">
+        <v>1.1421668183018401</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45618.515393518501</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>11548.536</v>
+        <v>2030.428296</v>
       </c>
       <c r="E5">
-        <v>0.21002135752523299</v>
+        <v>9416.6620000000003</v>
       </c>
       <c r="F5">
-        <v>107.397602315806</v>
+        <v>4.2821005642011099E-2</v>
       </c>
       <c r="G5">
-        <v>68.863500000000002</v>
+        <v>13.8728860259441</v>
       </c>
       <c r="H5">
-        <v>2.9986991093865498</v>
+        <v>65.772230769230802</v>
       </c>
       <c r="I5">
-        <v>3.0365221508306601</v>
+        <v>345.58511102516297</v>
       </c>
       <c r="J5">
-        <v>2.0309945857151401</v>
+        <v>369.30611714530801</v>
+      </c>
+      <c r="K5">
+        <v>2.5673865013158799</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A6" s="1">
-        <v>45597</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6">
-        <v>608.31299999999999</v>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A6">
+        <v>1.4499582859448901</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45266.611111111102</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
       </c>
       <c r="D6">
+        <v>615.23294999999996</v>
+      </c>
+      <c r="E6">
+        <v>10319.43</v>
+      </c>
+      <c r="F6">
+        <v>7.4268725880109507E-2</v>
+      </c>
+      <c r="G6">
+        <v>28.181122381291299</v>
+      </c>
+      <c r="H6">
+        <v>63.182749999999999</v>
+      </c>
+      <c r="I6">
+        <v>2.9840551192787101</v>
+      </c>
+      <c r="J6">
+        <v>3.3393862336951301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A7">
+        <v>1.96604947122087</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45331.457060185203</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>504.21780863999999</v>
+      </c>
+      <c r="E7">
+        <v>12721.81</v>
+      </c>
+      <c r="F7">
+        <v>0.18695286733230901</v>
+      </c>
+      <c r="G7">
+        <v>92.480351387484305</v>
+      </c>
+      <c r="H7">
+        <v>56.771625</v>
+      </c>
+      <c r="I7">
+        <v>10.1233281358362</v>
+      </c>
+      <c r="J7">
+        <v>12.744682901726801</v>
+      </c>
+      <c r="K7">
+        <v>1.10532903433306</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A8">
+        <v>1.8159109638656199</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45502.5288194444</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>2747.5827119999999</v>
+      </c>
+      <c r="E8">
         <v>9416.6620000000003</v>
       </c>
-      <c r="E6">
-        <v>0.14001852958251401</v>
-      </c>
-      <c r="F6">
-        <v>63.7461281387246</v>
-      </c>
-      <c r="G6">
-        <v>69.199291666666696</v>
-      </c>
-      <c r="H6">
-        <v>2256.79613620903</v>
-      </c>
-      <c r="J6">
-        <v>1.8044538113953601</v>
+      <c r="F8">
+        <v>0.117907274695669</v>
+      </c>
+      <c r="G8">
+        <v>65.450197871718402</v>
+      </c>
+      <c r="H8">
+        <v>74.329666666666697</v>
+      </c>
+      <c r="I8">
+        <v>47.814199417273002</v>
+      </c>
+      <c r="J8">
+        <v>44.159388507899898</v>
+      </c>
+      <c r="K8">
+        <v>1.6450230509194299</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A7" s="1">
-        <v>45231</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7">
-        <v>698.6585</v>
-      </c>
-      <c r="D7">
-        <v>11130.56</v>
-      </c>
-      <c r="E7">
-        <v>8.2976287770757301E-2</v>
-      </c>
-      <c r="F7">
-        <v>32.522982093317097</v>
-      </c>
-      <c r="G7">
-        <v>68.278565217391304</v>
-      </c>
-      <c r="H7">
-        <v>0.33341510601558799</v>
-      </c>
-      <c r="I7">
-        <v>0.34109151672638899</v>
-      </c>
-      <c r="J7">
-        <v>1.5121903600245801</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A8" s="1">
-        <v>45266</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8">
-        <v>595.43700000000001</v>
-      </c>
-      <c r="D8">
-        <v>10319.43</v>
-      </c>
-      <c r="E8">
-        <v>7.4268725880109507E-2</v>
-      </c>
-      <c r="F8">
-        <v>28.181122381291299</v>
-      </c>
-      <c r="G8">
-        <v>63.182749999999999</v>
-      </c>
-      <c r="H8">
-        <v>0.38300537388112299</v>
-      </c>
-      <c r="I8">
-        <v>0.42861234858122599</v>
-      </c>
-      <c r="J8">
-        <v>1.4499582859448901</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A9" s="1">
-        <v>45331</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9">
-        <v>433.461546</v>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A9">
+        <v>2.1665711356348201</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45569.486458333296</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>10290.9</v>
+        <v>1103.890144</v>
       </c>
       <c r="E9">
-        <v>0.18695286733230901</v>
+        <v>9416.6620000000003</v>
       </c>
       <c r="F9">
-        <v>92.480351387484305</v>
+        <v>0.26756115791951901</v>
       </c>
       <c r="G9">
-        <v>56.771625</v>
+        <v>146.747643377652</v>
       </c>
       <c r="H9">
-        <v>5.1700820436274597</v>
+        <v>75.326458333333306</v>
       </c>
       <c r="I9">
-        <v>6.5088333933078397</v>
+        <v>3.6052078189927501</v>
       </c>
       <c r="J9">
-        <v>1.96604947122087</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A10" s="1">
-        <v>45502</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10">
-        <v>667.35563999999999</v>
-      </c>
-      <c r="D10">
-        <v>9438.768</v>
-      </c>
-      <c r="E10">
-        <v>0.142858205716412</v>
-      </c>
-      <c r="F10">
-        <v>65.450197871718402</v>
-      </c>
-      <c r="G10">
-        <v>74.173434782608695</v>
-      </c>
-      <c r="H10">
-        <v>23.488344169076299</v>
-      </c>
-      <c r="J10">
-        <v>1.8159109638656199</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A11" s="1">
-        <v>45569</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11">
-        <v>395.63819999999998</v>
-      </c>
-      <c r="D11">
-        <v>10445.418</v>
-      </c>
-      <c r="E11">
-        <v>0.26756115791951901</v>
-      </c>
-      <c r="F11">
-        <v>146.747643377652</v>
-      </c>
-      <c r="G11">
-        <v>75.326458333333306</v>
-      </c>
-      <c r="H11">
-        <v>1.0288636078548099</v>
-      </c>
-      <c r="I11">
-        <v>0.93487253220809396</v>
-      </c>
-      <c r="J11">
-        <v>2.1665711356348201</v>
+        <v>3.27585671914813</v>
+      </c>
+      <c r="K9">
+        <v>0.51532489814205995</v>
       </c>
     </row>
   </sheetData>
@@ -10248,16 +10231,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:J5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" activeCellId="1" sqref="A1:A1048576 K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10288,127 +10271,148 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A2" s="1">
-        <v>45590</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2">
-        <v>411.13853999999998</v>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A2">
+        <v>-0.70444482698631605</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45590.492476851898</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
       </c>
       <c r="D2">
-        <v>19886.63</v>
+        <v>505.04641199999998</v>
       </c>
       <c r="E2">
+        <v>12559.68</v>
+      </c>
+      <c r="F2">
         <v>3.0144859170837299E-2</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.19749457616861299</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>67.998583333333301</v>
       </c>
-      <c r="H2">
-        <v>16.1343103460324</v>
-      </c>
       <c r="I2">
-        <v>16.5829663340247</v>
+        <v>204.408460187423</v>
+      </c>
+      <c r="J2">
+        <v>210.092563052218</v>
+      </c>
+      <c r="K2">
+        <v>2.3224106793333701</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A3" s="1">
-        <v>45296</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A3">
+        <v>-0.427984615686272</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45296.649884259299</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3">
         <v>637.03409999999997</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>9416.6620000000003</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>3.9374423084510397E-2</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.37326337992833297</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>52.158749999999998</v>
       </c>
-      <c r="H3">
-        <v>4.36213642925469</v>
-      </c>
       <c r="I3">
-        <v>5.99346173557774</v>
+        <v>9.6792073185934395</v>
+      </c>
+      <c r="J3">
+        <v>13.298978524756</v>
+      </c>
+      <c r="K3">
+        <v>1.1238182847190901</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A4" s="1">
-        <v>45502</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4">
-        <v>647.25275999999997</v>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A4">
+        <v>0.489735658561678</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45502.510416666701</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
       </c>
       <c r="D4">
+        <v>718.57919000000004</v>
+      </c>
+      <c r="E4">
         <v>20938.13</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>9.2340088456400696E-2</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>3.0884150388744702</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>76.433750000000003</v>
       </c>
-      <c r="H4">
-        <v>0.47263363728687002</v>
-      </c>
       <c r="I4">
-        <v>0.42169129089072499</v>
+        <v>3.53500894211804</v>
       </c>
       <c r="J4">
-        <v>0.489735658561678</v>
+        <v>3.1539915200898601</v>
+      </c>
+      <c r="K4">
+        <v>0.49886052133811898</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A5" s="1">
-        <v>45279</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5">
-        <v>801.09990000000005</v>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A5">
+        <v>2.01966151161424</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45279.534722222197</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
       </c>
       <c r="D5">
+        <v>811.21124999999995</v>
+      </c>
+      <c r="E5">
         <v>7747.7939999999999</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.38613206590049598</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>104.63127357915801</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>57.410541666666703</v>
       </c>
-      <c r="H5">
-        <v>2.1870162654264998E-2</v>
-      </c>
       <c r="I5">
-        <v>2.7201304818480699E-2</v>
+        <v>9.3657584724838594E-2</v>
       </c>
       <c r="J5">
-        <v>2.01966151161424</v>
+        <v>0.116487862981952</v>
+      </c>
+      <c r="K5">
+        <v>-0.93371932197318797</v>
       </c>
     </row>
   </sheetData>
@@ -10419,16 +10423,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:J7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10459,197 +10463,180 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A2" s="1">
-        <v>45296</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2">
-        <v>679.72839999999997</v>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A2">
+        <v>1.4174733368758401</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45296.551157407397</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
       </c>
       <c r="D2">
+        <v>669.22050000000002</v>
+      </c>
+      <c r="E2">
         <v>8812.9509999999991</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.242294433819637</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>26.1500989699855</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>57.088374999999999</v>
       </c>
-      <c r="H2">
-        <v>0.24390358452308999</v>
-      </c>
       <c r="I2">
-        <v>0.30520205545490398</v>
+        <v>1.7502448346720501</v>
       </c>
       <c r="J2">
-        <v>1.4174733368758401</v>
+        <v>2.19012083047377</v>
+      </c>
+      <c r="K2">
+        <v>0.34046807582660699</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A3" s="1">
-        <v>45590</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3">
-        <v>441.74369999999999</v>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A3">
+        <v>1.27952656840493</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45590.450462963003</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
       </c>
       <c r="D3">
-        <v>2526.8760000000002</v>
+        <v>441.72498000000002</v>
       </c>
       <c r="E3">
-        <v>0.218316630467253</v>
+        <v>2233.951</v>
       </c>
       <c r="F3">
+        <v>0.16002503851161501</v>
+      </c>
+      <c r="G3">
         <v>19.033846755006099</v>
       </c>
-      <c r="G3">
-        <v>69.479695652173902</v>
-      </c>
       <c r="H3">
-        <v>1.9939050567780701</v>
+        <v>69.406999999999996</v>
       </c>
       <c r="I3">
-        <v>1.99799058223319</v>
+        <v>7.6800051194760899</v>
       </c>
       <c r="J3">
-        <v>1.27952656840493</v>
+        <v>7.7052219258119203</v>
+      </c>
+      <c r="K3">
+        <v>0.88678515178480999</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A4" s="1">
-        <v>45231</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4">
-        <v>719.91600000000005</v>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A4">
+        <v>0.60666256556119902</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45231.5222222222</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
       </c>
       <c r="D4">
+        <v>744.31614999999999</v>
+      </c>
+      <c r="E4">
         <v>4485.2950000000001</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.13055244711888001</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>4.0426166984303</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>68.842375000000004</v>
       </c>
-      <c r="H4">
-        <v>0.46872140092199499</v>
-      </c>
       <c r="I4">
-        <v>0.47478024802958502</v>
+        <v>3.6775252589669298</v>
       </c>
       <c r="J4">
-        <v>0.60666256556119902</v>
+        <v>3.7250621609188102</v>
+      </c>
+      <c r="K4">
+        <v>0.57113352431083098</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A5" s="1">
-        <v>45279</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5">
-        <v>418.92230000000001</v>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A5">
+        <v>2.8626748394097299</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45279.418749999997</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
       </c>
       <c r="D5">
+        <v>452.6567</v>
+      </c>
+      <c r="E5">
         <v>9377.6460000000006</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.73138680186451299</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>728.91156257831699</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>60.173708333333302</v>
       </c>
-      <c r="H5">
-        <v>0.23444114467744401</v>
-      </c>
       <c r="I5">
-        <v>0.27708508441848401</v>
+        <v>0.58631953021781402</v>
       </c>
       <c r="J5">
-        <v>2.8626748394097299</v>
+        <v>0.69296879073905904</v>
+      </c>
+      <c r="K5">
+        <v>-0.15928632428432901</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A6" s="1">
-        <v>45505</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6">
-        <v>642.23753999999997</v>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A6">
+        <v>1.52582427682962</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45569.448379629597</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>3474.2550000000001</v>
+        <v>373.09719000000001</v>
       </c>
       <c r="E6">
-        <v>0.26661213979770598</v>
+        <v>1201.4880000000001</v>
       </c>
       <c r="F6">
-        <v>35.070620539330598</v>
+        <v>0.26345251809384701</v>
       </c>
       <c r="G6">
-        <v>76.782291666666694</v>
+        <v>33.5601796390159</v>
       </c>
       <c r="H6">
-        <v>4.0239547132744997</v>
+        <v>76.006291666666698</v>
       </c>
       <c r="I6">
-        <v>3.5702893922979699</v>
+        <v>18.702897913160601</v>
       </c>
       <c r="J6">
-        <v>1.54494345035321</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A7" s="1">
-        <v>45569</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7">
-        <v>365.72465999999997</v>
-      </c>
-      <c r="D7">
-        <v>1201.4880000000001</v>
-      </c>
-      <c r="E7">
-        <v>0.26345251809384701</v>
-      </c>
-      <c r="F7">
-        <v>33.5601796390159</v>
-      </c>
-      <c r="G7">
-        <v>76.006291666666698</v>
-      </c>
-      <c r="H7">
-        <v>2.6424089665535599</v>
-      </c>
-      <c r="I7">
-        <v>2.3742812408469902</v>
-      </c>
-      <c r="J7">
-        <v>1.52582427682962</v>
+        <v>16.805097252834202</v>
       </c>
     </row>
   </sheetData>
@@ -10660,16 +10647,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:J9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10700,240 +10687,264 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A2" s="1">
-        <v>45296</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2">
-        <v>699.58140000000003</v>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A2">
+        <v>2.21964731557483</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45296.691319444399</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
       </c>
       <c r="D2">
+        <v>680.57703333333302</v>
+      </c>
+      <c r="E2">
         <v>4167.0529999999999</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.304619300450722</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>165.823972739732</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>52.267458333333302</v>
       </c>
-      <c r="H2">
-        <v>1.3297639505519001</v>
-      </c>
       <c r="I2">
-        <v>1.82328254299512</v>
+        <v>3.2423941808893599</v>
       </c>
       <c r="J2">
-        <v>2.21964731557483</v>
+        <v>4.4457519735520696</v>
+      </c>
+      <c r="K2">
+        <v>0.64794522995038195</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A3" s="1">
-        <v>45590</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3">
-        <v>380.19384000000002</v>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A3">
+        <v>1.93082107397803</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45590.536805555603</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>385.73862000000003</v>
       </c>
       <c r="E3">
+        <v>11406.38</v>
+      </c>
+      <c r="F3">
         <v>0.189070453385662</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>85.274871565359604</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>67.770875000000004</v>
       </c>
+      <c r="I3">
+        <v>2.2494895291891299</v>
+      </c>
       <c r="J3">
-        <v>1.93082107397803</v>
+        <v>2.3214288357792698</v>
+      </c>
+      <c r="K3">
+        <v>0.36575537475554798</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A4" s="1">
-        <v>45597</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4">
-        <v>365.95895999999999</v>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A4">
+        <v>1.7498332898101401</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45597.512847222199</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>366.03865999999999</v>
       </c>
       <c r="E4">
+        <v>3957.6080000000002</v>
+      </c>
+      <c r="F4">
         <v>0.14022503226824601</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>56.212550380179103</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>68.742208333333295</v>
       </c>
+      <c r="I4">
+        <v>5.98707457535708</v>
+      </c>
       <c r="J4">
-        <v>1.7498332898101401</v>
+        <v>6.0757335254178502</v>
+      </c>
+      <c r="K4">
+        <v>0.78359871795927805</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A5" s="1">
-        <v>45231</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5">
-        <v>721.23059999999998</v>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A5">
+        <v>1.41438658720066</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45618.559143518498</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>2687.3130000000001</v>
-      </c>
-      <c r="E5">
-        <v>0.1019830414486</v>
+        <v>2122.394256</v>
       </c>
       <c r="F5">
-        <v>36.054074208547597</v>
+        <v>8.0595708464144294E-2</v>
       </c>
       <c r="G5">
-        <v>65.837708333333296</v>
+        <v>25.9648959876038</v>
       </c>
       <c r="H5">
-        <v>1.82495889091172</v>
-      </c>
-      <c r="I5">
-        <v>1.9477536276551799</v>
-      </c>
-      <c r="J5">
-        <v>1.55695434828742</v>
+        <v>56.772214285714298</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A6" s="1">
-        <v>45266</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6">
-        <v>739.46839999999997</v>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A6">
+        <v>1.5008062130991799</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45266.638425925899</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
       </c>
       <c r="D6">
+        <v>711.255675</v>
+      </c>
+      <c r="E6">
         <v>3986.5630000000001</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>9.2948582820242806E-2</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>31.6815348320814</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>57.605125000000001</v>
       </c>
-      <c r="H6">
-        <v>0.21060279927259001</v>
-      </c>
       <c r="I6">
-        <v>0.26097334154129898</v>
-      </c>
-      <c r="J6">
-        <v>1.5008062130991799</v>
+        <v>1.7493497646667899</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A7" s="1">
-        <v>45331</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7">
-        <v>447.77111400000001</v>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A7">
+        <v>2.1287362422670499</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45331.513657407399</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
       </c>
       <c r="D7">
+        <v>464.2354962</v>
+      </c>
+      <c r="E7">
         <v>3393.52</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.26214009253193299</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>134.504322807786</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>55.680374999999998</v>
       </c>
-      <c r="H7">
-        <v>36.698976971219601</v>
-      </c>
-      <c r="J7">
-        <v>2.1287362422670499</v>
+      <c r="I7">
+        <v>247.73184212307299</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A8" s="1">
-        <v>45502</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8">
-        <v>719.93502000000001</v>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A8">
+        <v>1.78970531724707</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45502.6175925926</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
       </c>
       <c r="D8">
+        <v>703.29944999999998</v>
+      </c>
+      <c r="E8">
         <v>5518.3209999999999</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.14969712289074899</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>61.617676426121797</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>77.678708333333304</v>
       </c>
-      <c r="H8">
-        <v>2.54253644329191</v>
-      </c>
       <c r="I8">
-        <v>2.2231410310497299</v>
+        <v>18.435644843616998</v>
       </c>
       <c r="J8">
-        <v>1.78970531724707</v>
+        <v>16.119744750891499</v>
+      </c>
+      <c r="K8">
+        <v>1.2073581606603301</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A9" s="1">
-        <v>45569</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9">
-        <v>396.4812</v>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A9">
+        <v>1.94544135577539</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45569.557407407403</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>8222.7630000000008</v>
+        <v>403.84739999999999</v>
       </c>
       <c r="E9">
+        <v>8906.6890000000003</v>
+      </c>
+      <c r="F9">
         <v>0.19368252554686899</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>88.194470217674905</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>76.782666666666699</v>
       </c>
-      <c r="H9">
-        <v>0.488676963637731</v>
-      </c>
       <c r="I9">
-        <v>0.43358295603590602</v>
+        <v>3.5288640506226399</v>
       </c>
       <c r="J9">
-        <v>1.94544135577539</v>
+        <v>3.1310158251127902</v>
+      </c>
+      <c r="K9">
+        <v>0.49568526267976798</v>
       </c>
     </row>
   </sheetData>

--- a/04_Output/rC_k600_edited.xlsx
+++ b/04_Output/rC_k600_edited.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Howley_Bradford_Streams\Howley_Bradford_Streams\04_Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4F5157-8968-46A8-86BA-FC6CF7258591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{160862AA-2FCF-4C1F-B213-2723D55E6F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="10" windowWidth="19095" windowHeight="10070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="10980" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="13" sheetId="1" r:id="rId1"/>
@@ -18,17 +18,16 @@
     <sheet name="3" sheetId="3" r:id="rId3"/>
     <sheet name="5" sheetId="4" r:id="rId4"/>
     <sheet name="5a" sheetId="5" r:id="rId5"/>
-    <sheet name="6" sheetId="6" r:id="rId6"/>
-    <sheet name="6a" sheetId="7" r:id="rId7"/>
-    <sheet name="7" sheetId="8" r:id="rId8"/>
-    <sheet name="9" sheetId="9" r:id="rId9"/>
+    <sheet name="6a" sheetId="6" r:id="rId6"/>
+    <sheet name="7" sheetId="7" r:id="rId7"/>
+    <sheet name="9" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="19">
   <si>
     <t>logQ</t>
   </si>
@@ -76,9 +75,6 @@
   </si>
   <si>
     <t>5a</t>
-  </si>
-  <si>
-    <t>6</t>
   </si>
   <si>
     <t>6a</t>
@@ -237,20 +233,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'13'!$A$2:$A$4</c:f>
@@ -258,13 +240,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.47429845344238097</c:v>
+                  <c:v>0.46461108423501202</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.100881407272675</c:v>
+                  <c:v>8.9854859730025299E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2956195890375901</c:v>
+                  <c:v>2.2924137793734398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -290,7 +272,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4367-4226-B2CE-D6F83FC215CE}"/>
+              <c16:uniqueId val="{00000000-144B-4C9A-B372-6C0CD0AFAD09}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -302,11 +284,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1452312607"/>
-        <c:axId val="1452313087"/>
+        <c:axId val="1259939424"/>
+        <c:axId val="1259940864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1452312607"/>
+        <c:axId val="1259939424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -363,12 +345,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1452313087"/>
+        <c:crossAx val="1259940864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1452313087"/>
+        <c:axId val="1259940864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -425,7 +407,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1452312607"/>
+        <c:crossAx val="1259939424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -569,51 +551,51 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'15'!$A$2:$A$7</c:f>
+              <c:f>'15'!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.5364385574572501</c:v>
+                  <c:v>1.4881172315497</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6768239255734401</c:v>
+                  <c:v>1.6248134307019</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1028312072387401</c:v>
+                  <c:v>1.0657730654139801</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.9322257640588401</c:v>
+                  <c:v>0.32469510041389998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1111055589692098</c:v>
+                  <c:v>2.8474221206701502</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7653911789886501</c:v>
+                  <c:v>2.0477630034810299</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.71108095362448</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'15'!$K$2:$K$7</c:f>
+              <c:f>'15'!$K$2:$K$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.843095617468262</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>1.52962388841246</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.1261592525806399</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>1.48120094839522</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>1.97991814613576</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.3699845090321801</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -621,7 +603,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FF8C-4C0F-9996-4425D376B47F}"/>
+              <c16:uniqueId val="{00000000-0643-4EE6-86A8-BF5F816ED79C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -633,11 +615,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1660840591"/>
-        <c:axId val="1452299167"/>
+        <c:axId val="1259942304"/>
+        <c:axId val="1259946144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1660840591"/>
+        <c:axId val="1259942304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -694,12 +676,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1452299167"/>
+        <c:crossAx val="1259946144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1452299167"/>
+        <c:axId val="1259946144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -756,7 +738,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1660840591"/>
+        <c:crossAx val="1259942304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -858,17 +840,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="8.0539370078740152E-2"/>
-          <c:y val="0.16708333333333336"/>
-          <c:w val="0.8825717410323709"/>
-          <c:h val="0.77736111111111106"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -908,6 +880,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'3'!$A$2:$A$6</c:f>
@@ -915,16 +901,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.5901312641124601</c:v>
+                  <c:v>1.5793165496351</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3870902571252</c:v>
+                  <c:v>1.37477885123213</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2690811021975701</c:v>
+                  <c:v>1.25618350175535</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5649973413878699</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4983746072415201</c:v>
+                  <c:v>1.4878939378143801</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -936,16 +925,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>-1.0336055520613401</c:v>
+                  <c:v>-1.03354745556387</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.33046359994212099</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.1198634405211101</c:v>
+                  <c:v>-1.12029744567433</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.74248057710500204</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.12727027775397</c:v>
+                  <c:v>1.1271483962406099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -953,7 +945,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BFFC-4A28-9A71-0FBE058ECBA4}"/>
+              <c16:uniqueId val="{00000000-DD05-4558-BF3C-7FD0340DF3EA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -965,11 +957,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="656774592"/>
-        <c:axId val="656780352"/>
+        <c:axId val="1259917824"/>
+        <c:axId val="1259927904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="656774592"/>
+        <c:axId val="1259917824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1026,12 +1018,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="656780352"/>
+        <c:crossAx val="1259927904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="656780352"/>
+        <c:axId val="1259927904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1088,7 +1080,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="656774592"/>
+        <c:crossAx val="1259917824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1230,67 +1222,62 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'5'!$A$2:$A$7</c:f>
+              <c:f>'5'!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.2638461049630898</c:v>
+                  <c:v>0.65191006424436304</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.21129687400897</c:v>
+                  <c:v>2.3118762106125899</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0237147747062201</c:v>
+                  <c:v>0.10187461910508699</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6628273408915302</c:v>
+                  <c:v>2.2556512174496599</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.45769239868789</c:v>
+                  <c:v>2.0552944308616801</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7445663101922899</c:v>
+                  <c:v>2.7379731820837798</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5189014562496901</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7573193687705799</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'5'!$K$2:$K$7</c:f>
+              <c:f>'5'!$K$2:$K$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
+                <c:ptCount val="8"/>
+                <c:pt idx="1">
                   <c:v>0.668476072734428</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>0.77854869405477301</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>0.81087624729699004</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>0.36288571204037201</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>0.130357159032578</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.25172929262244598</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1298,7 +1285,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5C4A-49F4-82FF-2314A56BD659}"/>
+              <c16:uniqueId val="{00000000-EE9F-477F-86E1-6F5BB4C0CCB1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1310,11 +1297,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1594994287"/>
-        <c:axId val="1666648751"/>
+        <c:axId val="247897008"/>
+        <c:axId val="247914288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1594994287"/>
+        <c:axId val="247897008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1371,12 +1358,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1666648751"/>
+        <c:crossAx val="247914288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1666648751"/>
+        <c:axId val="247914288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1433,7 +1420,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1594994287"/>
+        <c:crossAx val="247897008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1603,10 +1590,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.275765685014141</c:v>
+                  <c:v>0.22131219790422901</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.6422222231553301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-7.5892351724544505E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.85258190192095995</c:v>
@@ -1617,7 +1607,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-513F-4586-9D8E-27EDF04981B9}"/>
+              <c16:uniqueId val="{00000000-9BB6-4D35-BD9F-FD500DD1F31B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1629,11 +1619,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1666637231"/>
-        <c:axId val="1666644431"/>
+        <c:axId val="247897968"/>
+        <c:axId val="247924368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1666637231"/>
+        <c:axId val="247897968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1690,12 +1680,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1666644431"/>
+        <c:crossAx val="247924368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1666644431"/>
+        <c:axId val="247924368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1752,7 +1742,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1666637231"/>
+        <c:crossAx val="247897968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1863,7 +1853,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'6'!$K$1</c:f>
+              <c:f>'6a'!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1894,79 +1884,41 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'6'!$A$2:$A$9</c:f>
+              <c:f>'6a'!$A$2:$A$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.20683808773562</c:v>
+                  <c:v>-2.3790966063830399</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0309945857151401</c:v>
+                  <c:v>-1.9416178515821101</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8044538113953601</c:v>
+                  <c:v>-0.422218509888519</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1421668183018401</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.4499582859448901</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.96604947122087</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.8159109638656199</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.1665711356348201</c:v>
+                  <c:v>2.0917819347309599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'6'!$K$2:$K$9</c:f>
+              <c:f>'6a'!$K$2:$K$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.45660363252434699</c:v>
-                </c:pt>
+                <c:ptCount val="4"/>
                 <c:pt idx="1">
-                  <c:v>1.46730739347396</c:v>
+                  <c:v>1.1238182847190901</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.12293103678092</c:v>
+                  <c:v>0.49886052133811898</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5673865013158799</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.10532903433306</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.6450230509194299</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.51532489814205995</c:v>
+                  <c:v>-0.93371932197318797</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1974,7 +1926,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CDC2-416B-A158-81B77391BDE7}"/>
+              <c16:uniqueId val="{00000000-D3C1-46C8-9A75-8E737F710921}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1986,11 +1938,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1666636271"/>
-        <c:axId val="1666658831"/>
+        <c:axId val="247898928"/>
+        <c:axId val="247904688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1666636271"/>
+        <c:axId val="247898928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2047,12 +1999,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1666658831"/>
+        <c:crossAx val="247904688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1666658831"/>
+        <c:axId val="247904688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2109,7 +2061,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1666636271"/>
+        <c:crossAx val="247898928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2220,7 +2172,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'6a'!$K$1</c:f>
+              <c:f>'7'!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2251,58 +2203,50 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'6a'!$A$2:$A$5</c:f>
+              <c:f>'7'!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>-0.70444482698631605</c:v>
+                  <c:v>1.4483457453600399</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.427984615686272</c:v>
+                  <c:v>1.32722727332793</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.489735658561678</c:v>
+                  <c:v>0.73522198120371995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.01966151161424</c:v>
+                  <c:v>2.7199681572404799</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5438688305191599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'6a'!$K$2:$K$5</c:f>
+              <c:f>'7'!$K$2:$K$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.3224106793333701</c:v>
+                  <c:v>0.34046807582660699</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1238182847190901</c:v>
+                  <c:v>0.75177500699751398</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.49886052133811898</c:v>
+                  <c:v>0.57113352431083098</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.93371932197318797</c:v>
+                  <c:v>-0.15928632428432901</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.22544103011981</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2310,7 +2254,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7A7D-4CE3-821E-3DB0F37F1119}"/>
+              <c16:uniqueId val="{00000000-F4F9-4988-989B-5D0F0F10081E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2322,11 +2266,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1666663631"/>
-        <c:axId val="1666661231"/>
+        <c:axId val="247925328"/>
+        <c:axId val="247922448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1666663631"/>
+        <c:axId val="247925328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2383,12 +2327,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1666661231"/>
+        <c:crossAx val="247922448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1666661231"/>
+        <c:axId val="247922448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2445,7 +2389,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1666663631"/>
+        <c:crossAx val="247925328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2556,7 +2500,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'7'!$K$1</c:f>
+              <c:f>'9'!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2587,47 +2531,76 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'7'!$A$2:$A$6</c:f>
+              <c:f>'9'!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.4174733368758401</c:v>
+                  <c:v>2.1524333526343802</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.27952656840493</c:v>
+                  <c:v>1.87062750523785</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.60666256556119902</c:v>
+                  <c:v>1.69403875911316</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8626748394097299</c:v>
+                  <c:v>1.3383778507114601</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.52582427682962</c:v>
+                  <c:v>1.45106574211743</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.14396940161106</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0637289235462299</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.73291751991694</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.88489030406534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'7'!$K$2:$K$6</c:f>
+              <c:f>'9'!$K$2:$K$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.34046807582660699</c:v>
+                  <c:v>0.64794522995038195</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.88678515178480999</c:v>
+                  <c:v>0.36575537475554798</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.57113352431083098</c:v>
+                  <c:v>0.78359871795927805</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.15928632428432901</c:v>
+                <c:pt idx="7">
+                  <c:v>1.2073581606603301</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.49568526267976798</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2635,7 +2608,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DF21-4B0C-9D22-2B89C64B5268}"/>
+              <c16:uniqueId val="{00000000-C81A-4CAF-90D4-95F66A8DBF9A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2647,11 +2620,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1661088671"/>
-        <c:axId val="1661088191"/>
+        <c:axId val="247925328"/>
+        <c:axId val="247900848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1661088671"/>
+        <c:axId val="247925328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2708,12 +2681,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1661088191"/>
+        <c:crossAx val="247900848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1661088191"/>
+        <c:axId val="247900848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2770,344 +2743,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1661088671"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'9'!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>log_K600</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'9'!$A$2:$A$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2.21964731557483</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.93082107397803</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.7498332898101401</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.41438658720066</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.5008062130991799</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.1287362422670499</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.78970531724707</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.94544135577539</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'9'!$K$2:$K$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.64794522995038195</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.36575537475554798</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.78359871795927805</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.2073581606603301</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.49568526267976798</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6446-4082-96AC-804B3FDD3254}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="654426720"/>
-        <c:axId val="654426240"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="654426720"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="654426240"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="654426240"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="654426720"/>
+        <c:crossAx val="247925328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3483,46 +3119,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -7136,522 +6732,6 @@
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8172,14 +7252,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>53975</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>60325</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>53975</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8187,7 +7267,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FACEF18-7CAD-8B4A-1CAD-0CFFC3468D12}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84C0505B-AE13-1E8B-60EC-83C8C1931449}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8212,23 +7292,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>11112</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>11112</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2CF58A4-FC84-5703-806B-FA3FC56D86B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4BF2CB3-90D3-D14A-06FE-87E39FC9477E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8253,23 +7333,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>168275</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69937280-4E9A-78CF-9685-D9CB385D6F98}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEFA9521-7BFC-2E8A-A026-B197539F834D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8294,23 +7374,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>73025</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>73025</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>98425</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25D16480-95EB-30E7-821A-215637D84512}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAD051A8-4678-C81A-671D-3102EC828013}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8335,23 +7415,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>46037</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>46037</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD954EF3-8186-5186-A6EF-1636373915FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AD182FE-6C27-4859-76A1-98E3657C91D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8376,23 +7456,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>46037</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>149225</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>46037</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8DEFB90-887B-27B9-65AA-8CFBE62DE0E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{997F5A47-D00B-DB16-3810-03729250DFA7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8417,23 +7497,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>4762</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>4762</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C1BE5C9-8856-0082-A461-D50A9A57B909}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26339C37-0922-6A0D-6FE6-C60D03ABD462}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8458,64 +7538,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>568325</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>568325</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEECE9C2-6001-4309-BF7E-5BEF1AA70642}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>34925</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>168275</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>34925</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15880E42-38B9-A88F-B5F8-C541BA36B06B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31B1AAEB-58F2-313A-825E-1AFEF24C9FB0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8817,13 +7856,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" activeCellId="1" sqref="A1:A1048576 K1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8858,9 +7901,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.47429845344238097</v>
+        <v>0.46461108423501202</v>
       </c>
       <c r="B2" s="1">
         <v>45331.546296296299</v>
@@ -8878,7 +7921,7 @@
         <v>5.3458550098918499E-2</v>
       </c>
       <c r="G2">
-        <v>2.9805640124349799</v>
+        <v>2.91481559359605</v>
       </c>
       <c r="H2">
         <v>58.711833333333303</v>
@@ -8893,9 +7936,9 @@
         <v>3.4720682359536399</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.100881407272675</v>
+        <v>8.9854859730025299E-2</v>
       </c>
       <c r="B3" s="1">
         <v>45231.643750000003</v>
@@ -8913,7 +7956,7 @@
         <v>3.67414206545583E-2</v>
       </c>
       <c r="G3">
-        <v>1.26148301458118</v>
+        <v>1.2298576863642501</v>
       </c>
       <c r="H3">
         <v>68.241833333333304</v>
@@ -8928,9 +7971,9 @@
         <v>1.19247311371887</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2.2956195890375901</v>
+        <v>2.2924137793734398</v>
       </c>
       <c r="B4" s="1">
         <v>45279.638888888898</v>
@@ -8948,7 +7991,7 @@
         <v>0.33558506980650299</v>
       </c>
       <c r="G4">
-        <v>197.52387140350299</v>
+        <v>196.071187605879</v>
       </c>
       <c r="H4">
         <v>58.136791666666703</v>
@@ -8972,18 +8015,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9018,9 +8062,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1.5364385574572501</v>
+        <v>1.4881172315497</v>
       </c>
       <c r="B2" s="1">
         <v>45296.476041666698</v>
@@ -9038,7 +8082,7 @@
         <v>0.215852248068133</v>
       </c>
       <c r="G2">
-        <v>34.390505339251298</v>
+        <v>30.7692727491814</v>
       </c>
       <c r="H2">
         <v>53.767708333333303</v>
@@ -9049,10 +8093,13 @@
       <c r="J2">
         <v>6.9677990541449004</v>
       </c>
+      <c r="K2">
+        <v>0.843095617468262</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1.6768239255734401</v>
+        <v>1.6248134307019</v>
       </c>
       <c r="B3" s="1">
         <v>45484.508796296301</v>
@@ -9070,7 +8117,7 @@
         <v>0.23609790544256401</v>
       </c>
       <c r="G3">
-        <v>47.514255157747101</v>
+        <v>42.151538502354697</v>
       </c>
       <c r="H3">
         <v>76.441249999999997</v>
@@ -9085,9 +8132,9 @@
         <v>1.52962388841246</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1.1028312072387401</v>
+        <v>1.0657730654139801</v>
       </c>
       <c r="B4" s="1">
         <v>45590.410069444399</v>
@@ -9105,7 +8152,7 @@
         <v>0.16324969531057901</v>
       </c>
       <c r="G4">
-        <v>12.671592764002201</v>
+        <v>11.635178903259201</v>
       </c>
       <c r="H4">
         <v>69.349500000000006</v>
@@ -9113,116 +8160,133 @@
       <c r="I4">
         <v>133.14792377377401</v>
       </c>
-      <c r="J4">
-        <v>133.70857261285099</v>
-      </c>
-      <c r="K4">
-        <v>2.1261592525806399</v>
-      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2.9322257640588401</v>
+        <v>0.32469510041389998</v>
       </c>
       <c r="B5" s="1">
-        <v>45279.458796296298</v>
+        <v>45639.483333333301</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5">
-        <v>743.79520000000002</v>
+        <v>660.91974000000005</v>
       </c>
       <c r="E5">
-        <v>3992.6460000000002</v>
+        <v>4022.2620000000002</v>
       </c>
       <c r="F5">
-        <v>0.52826006985347296</v>
+        <v>0.10027404488375399</v>
       </c>
       <c r="G5">
-        <v>855.51132713685695</v>
+        <v>2.1120057702817201</v>
       </c>
       <c r="H5">
-        <v>57.950125</v>
+        <v>55.5208333333333</v>
       </c>
       <c r="I5">
-        <v>24.594500550219902</v>
-      </c>
-      <c r="J5">
-        <v>30.283143073723501</v>
-      </c>
-      <c r="K5">
-        <v>1.48120094839522</v>
+        <v>81.783855367661999</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2.1111055589692098</v>
+        <v>2.8474221206701502</v>
       </c>
       <c r="B6" s="1">
-        <v>45502.467245370397</v>
+        <v>45279.458796296298</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6">
-        <v>801.76949999999999</v>
+        <v>743.79520000000002</v>
       </c>
       <c r="E6">
-        <v>4010.9160000000002</v>
+        <v>3992.6460000000002</v>
       </c>
       <c r="F6">
-        <v>0.31201786247728303</v>
+        <v>0.52826006985347296</v>
       </c>
       <c r="G6">
-        <v>129.15331535889499</v>
+        <v>703.75601642858101</v>
       </c>
       <c r="H6">
-        <v>76.383166666666696</v>
+        <v>57.950125</v>
       </c>
       <c r="I6">
-        <v>106.92166975523401</v>
+        <v>24.594500550219902</v>
       </c>
       <c r="J6">
-        <v>95.481261028916606</v>
+        <v>30.283143073723501</v>
       </c>
       <c r="K6">
-        <v>1.97991814613576</v>
+        <v>1.48120094839522</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1.7653911789886501</v>
+        <v>2.0477630034810299</v>
       </c>
       <c r="B7" s="1">
-        <v>45569.420833333301</v>
+        <v>45502.467245370397</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="D7">
+        <v>801.76949999999999</v>
+      </c>
+      <c r="E7">
+        <v>4010.9160000000002</v>
+      </c>
+      <c r="F7">
+        <v>0.31201786247728303</v>
+      </c>
+      <c r="G7">
+        <v>111.625393657806</v>
+      </c>
+      <c r="H7">
+        <v>76.383166666666696</v>
+      </c>
+      <c r="I7">
+        <v>106.92166975523401</v>
+      </c>
+      <c r="J7">
+        <v>95.481261028916606</v>
+      </c>
+      <c r="K7">
+        <v>1.97991814613576</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1.71108095362448</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45569.420833333301</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8">
         <v>693.87467000000004</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>6443.8360000000002</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>0.24996315545078601</v>
       </c>
-      <c r="G7">
-        <v>58.262776767551102</v>
-      </c>
-      <c r="H7">
+      <c r="G8">
+        <v>51.413947959121103</v>
+      </c>
+      <c r="H8">
         <v>76.3036666666667</v>
       </c>
-      <c r="I7">
+      <c r="I8">
         <v>262.11659900540798</v>
-      </c>
-      <c r="J7">
-        <v>234.41451998769301</v>
-      </c>
-      <c r="K7">
-        <v>2.3699845090321801</v>
       </c>
     </row>
   </sheetData>
@@ -9237,12 +8301,15 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9277,9 +8344,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1.5901312641124601</v>
+        <v>1.5793165496351</v>
       </c>
       <c r="B2" s="1">
         <v>45296.610069444403</v>
@@ -9294,27 +8361,27 @@
         <v>6443.8360000000002</v>
       </c>
       <c r="F2">
-        <v>0.41311509484043002</v>
+        <v>0.41275390512325399</v>
       </c>
       <c r="G2">
-        <v>38.916275041201203</v>
+        <v>37.959156180096699</v>
       </c>
       <c r="H2">
-        <v>54.664183908045999</v>
+        <v>54.832595600676797</v>
       </c>
       <c r="I2">
-        <v>7.0654292394224605E-2</v>
+        <v>7.08810643150279E-2</v>
       </c>
       <c r="J2">
-        <v>9.2553841251804506E-2</v>
+        <v>9.2566223204358505E-2</v>
       </c>
       <c r="K2">
-        <v>-1.0336055520613401</v>
+        <v>-1.03354745556387</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1.3870902571252</v>
+        <v>1.37477885123213</v>
       </c>
       <c r="B3" s="1">
         <v>45590.473611111098</v>
@@ -9332,7 +8399,7 @@
         <v>0.35358594626280099</v>
       </c>
       <c r="G3">
-        <v>24.383175083471102</v>
+        <v>23.701664767073499</v>
       </c>
       <c r="H3">
         <v>68.4775833333333</v>
@@ -9347,9 +8414,9 @@
         <v>0.33046359994212099</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1.2690811021975701</v>
+        <v>1.25618350175535</v>
       </c>
       <c r="B4" s="1">
         <v>45231.505902777797</v>
@@ -9364,25 +8431,28 @@
         <v>6744.4539999999997</v>
       </c>
       <c r="F4">
-        <v>0.32300434886584101</v>
+        <v>0.32324005414038398</v>
       </c>
       <c r="G4">
-        <v>18.581514226441701</v>
+        <v>18.037797280416001</v>
       </c>
       <c r="H4">
-        <v>67.133880000000005</v>
+        <v>67.208513227513194</v>
       </c>
       <c r="I4">
-        <v>7.2729609680837304E-2</v>
+        <v>7.2748120805359598E-2</v>
       </c>
       <c r="J4">
-        <v>7.5881613953076701E-2</v>
+        <v>7.5805820769404397E-2</v>
       </c>
       <c r="K4">
-        <v>-1.1198634405211101</v>
+        <v>-1.12029744567433</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2.5649973413878699</v>
+      </c>
       <c r="B5" s="1">
         <v>45279.458796296298</v>
       </c>
@@ -9396,24 +8466,27 @@
         <v>8053.1170000000002</v>
       </c>
       <c r="F5">
-        <v>0.86743688694584598</v>
+        <v>0.86871579907905805</v>
       </c>
       <c r="G5">
-        <v>363.04466107748698</v>
+        <v>367.28005212000801</v>
       </c>
       <c r="H5">
-        <v>58.592009009008997</v>
+        <v>58.628998122065703</v>
       </c>
       <c r="I5">
-        <v>4.5489596822252896</v>
+        <v>4.5445777434500201</v>
       </c>
       <c r="J5">
-        <v>5.5359116546346296</v>
+        <v>5.5268868956812396</v>
+      </c>
+      <c r="K5">
+        <v>0.74248057710500204</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1.4983746072415201</v>
+        <v>1.4878939378143801</v>
       </c>
       <c r="B6" s="1">
         <v>45569.462962963</v>
@@ -9428,22 +8501,22 @@
         <v>3225.154</v>
       </c>
       <c r="F6">
-        <v>0.38499526710283399</v>
+        <v>0.38510332832113497</v>
       </c>
       <c r="G6">
-        <v>31.504646231116201</v>
+        <v>30.753456706913699</v>
       </c>
       <c r="H6">
-        <v>75.438470588235305</v>
+        <v>75.436222222222199</v>
       </c>
       <c r="I6">
-        <v>14.7789864366346</v>
+        <v>14.774839406053101</v>
       </c>
       <c r="J6">
-        <v>13.405106779878199</v>
+        <v>13.401345264296401</v>
       </c>
       <c r="K6">
-        <v>1.12727027775397</v>
+        <v>1.1271483962406099</v>
       </c>
     </row>
   </sheetData>
@@ -9455,15 +8528,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="B2" sqref="B2:K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9498,211 +8574,272 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2.2638461049630898</v>
+        <v>0.65191006424436304</v>
       </c>
       <c r="B2" s="1">
-        <v>45484.417592592603</v>
+        <v>45660.411574074104</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
       </c>
       <c r="D2">
-        <v>2034.8627879999999</v>
+        <v>552.81111999999996</v>
       </c>
       <c r="E2">
-        <v>6961.3969999999999</v>
+        <v>3976.076</v>
       </c>
       <c r="F2">
-        <v>0.25670942796431001</v>
+        <v>5.2566523314864196E-3</v>
       </c>
       <c r="G2">
-        <v>183.58876694917501</v>
+        <v>4.4865247123645799</v>
       </c>
       <c r="H2">
-        <v>76.579041666666697</v>
+        <v>59.112299999999998</v>
       </c>
       <c r="I2">
-        <v>5.2363099452820601</v>
-      </c>
-      <c r="J2">
-        <v>4.6609674789689297</v>
-      </c>
-      <c r="K2">
-        <v>0.668476072734428</v>
+        <v>3181.07011696172</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2.21129687400897</v>
+        <v>2.3118762106125899</v>
       </c>
       <c r="B3" s="1">
-        <v>45296.400694444397</v>
+        <v>45484.417592592603</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
       </c>
       <c r="D3">
-        <v>426.60744999999997</v>
+        <v>2034.8627879999999</v>
       </c>
       <c r="E3">
-        <v>3375.2420000000002</v>
+        <v>6961.3969999999999</v>
       </c>
       <c r="F3">
-        <v>0.225012367816944</v>
+        <v>0.25670942796431001</v>
       </c>
       <c r="G3">
-        <v>162.66603244559099</v>
+        <v>205.05776079028001</v>
       </c>
       <c r="H3">
-        <v>54.871041666666699</v>
+        <v>76.579041666666697</v>
       </c>
       <c r="I3">
-        <v>4.6033147560070597</v>
+        <v>5.2363099452820601</v>
       </c>
       <c r="J3">
-        <v>6.0054934004881702</v>
+        <v>4.6609674789689297</v>
       </c>
       <c r="K3">
-        <v>0.77854869405477301</v>
+        <v>0.668476072734428</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2.0237147747062201</v>
+        <v>0.10187461910508699</v>
       </c>
       <c r="B4" s="1">
-        <v>45266.452662037002</v>
+        <v>45590.352199074099</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
       </c>
       <c r="D4">
-        <v>409.7124</v>
+        <v>551.09719199999995</v>
       </c>
       <c r="E4">
-        <v>4325.9719999999998</v>
+        <v>8635.2430000000004</v>
       </c>
       <c r="F4">
-        <v>0.14071662604863699</v>
+        <v>1.4553017535786799E-3</v>
       </c>
       <c r="G4">
-        <v>105.61236663593399</v>
+        <v>1.2643712705619401</v>
       </c>
       <c r="H4">
-        <v>62.968666666666699</v>
+        <v>69.716999999999999</v>
       </c>
       <c r="I4">
-        <v>5.7587643197985896</v>
-      </c>
-      <c r="J4">
-        <v>6.4695823800006398</v>
-      </c>
-      <c r="K4">
-        <v>0.81087624729699004</v>
+        <v>339.75341828418198</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2.6628273408915302</v>
+        <v>2.2556512174496599</v>
       </c>
       <c r="B5" s="1">
-        <v>45279.417939814797</v>
+        <v>45296.400694444397</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
       </c>
       <c r="D5">
-        <v>444.28</v>
+        <v>426.60744999999997</v>
       </c>
       <c r="E5">
-        <v>3363.2</v>
+        <v>3375.2420000000002</v>
       </c>
       <c r="F5">
-        <v>0.69658739105357004</v>
+        <v>0.225012367816944</v>
       </c>
       <c r="G5">
-        <v>460.07362929256902</v>
+        <v>180.157031589773</v>
       </c>
       <c r="H5">
-        <v>59.392708333333303</v>
+        <v>54.871041666666699</v>
       </c>
       <c r="I5">
-        <v>1.9236150869142301</v>
+        <v>4.6033147560070597</v>
       </c>
       <c r="J5">
-        <v>2.3061402301815401</v>
+        <v>6.0054934004881702</v>
       </c>
       <c r="K5">
-        <v>0.36288571204037201</v>
+        <v>0.77854869405477301</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2.45769239868789</v>
+        <v>2.0552944308616801</v>
       </c>
       <c r="B6" s="1">
-        <v>45502.410763888904</v>
+        <v>45266.452662037002</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6">
-        <v>1722.98714</v>
+        <v>409.7124</v>
       </c>
       <c r="E6">
-        <v>6713.1440000000002</v>
+        <v>4325.9719999999998</v>
       </c>
       <c r="F6">
-        <v>0.41694777291652502</v>
+        <v>0.14071662604863699</v>
       </c>
       <c r="G6">
-        <v>286.87479906384101</v>
+        <v>113.57805595483499</v>
       </c>
       <c r="H6">
-        <v>76.361791666666704</v>
+        <v>62.968666666666699</v>
       </c>
       <c r="I6">
-        <v>1.5113924672972501</v>
+        <v>5.7587643197985896</v>
       </c>
       <c r="J6">
-        <v>1.3500727112072699</v>
+        <v>6.4695823800006398</v>
       </c>
       <c r="K6">
-        <v>0.130357159032578</v>
+        <v>0.81087624729699004</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1.7445663101922899</v>
+        <v>2.7379731820837798</v>
       </c>
       <c r="B7" s="1">
-        <v>45569.336458333302</v>
+        <v>45279.417939814797</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
       <c r="D7">
+        <v>444.28</v>
+      </c>
+      <c r="E7">
+        <v>3363.2</v>
+      </c>
+      <c r="F7">
+        <v>0.69658739105357004</v>
+      </c>
+      <c r="G7">
+        <v>546.98218540899597</v>
+      </c>
+      <c r="H7">
+        <v>59.392708333333303</v>
+      </c>
+      <c r="I7">
+        <v>1.9236150869142301</v>
+      </c>
+      <c r="J7">
+        <v>2.3061402301815401</v>
+      </c>
+      <c r="K7">
+        <v>0.36288571204037201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2.5189014562496901</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45502.410763888904</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>1722.98714</v>
+      </c>
+      <c r="E8">
+        <v>6713.1440000000002</v>
+      </c>
+      <c r="F8">
+        <v>0.41694777291652502</v>
+      </c>
+      <c r="G8">
+        <v>330.29458691777899</v>
+      </c>
+      <c r="H8">
+        <v>76.361791666666704</v>
+      </c>
+      <c r="I8">
+        <v>1.5113924672972501</v>
+      </c>
+      <c r="J8">
+        <v>1.3500727112072699</v>
+      </c>
+      <c r="K8">
+        <v>0.130357159032578</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1.7573193687705799</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45569.336458333302</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9">
         <v>520.15418799999998</v>
       </c>
-      <c r="E7">
+      <c r="E9">
         <v>8379.9380000000001</v>
       </c>
-      <c r="F7">
+      <c r="F9">
         <v>7.0018058078074194E-2</v>
       </c>
-      <c r="G7">
-        <v>55.534940409272103</v>
-      </c>
-      <c r="H7">
+      <c r="G9">
+        <v>57.189904163000598</v>
+      </c>
+      <c r="H9">
         <v>75.600666666666697</v>
       </c>
-      <c r="I7">
+      <c r="I9">
         <v>1.9735868782610999</v>
       </c>
-      <c r="J7">
+      <c r="J9">
         <v>1.78537435630409</v>
+      </c>
+      <c r="K9">
+        <v>0.25172929262244598</v>
       </c>
     </row>
   </sheetData>
@@ -9717,12 +8854,12 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="K1" activeCellId="1" sqref="A1:A1048576 K1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9757,7 +8894,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1.1162597991251899</v>
       </c>
@@ -9771,7 +8908,7 @@
         <v>618.29094999999995</v>
       </c>
       <c r="E2">
-        <v>4929.4979999999996</v>
+        <v>5480.4530000000004</v>
       </c>
       <c r="F2">
         <v>0.42599051773861102</v>
@@ -9783,16 +8920,16 @@
         <v>55.262291666666698</v>
       </c>
       <c r="I2">
-        <v>1.45678128745316</v>
+        <v>1.2851116692374001</v>
       </c>
       <c r="J2">
-        <v>1.8869729954993399</v>
+        <v>1.6646088448126199</v>
       </c>
       <c r="K2">
-        <v>0.275765685014141</v>
+        <v>0.22131219790422901</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.83364298367996603</v>
       </c>
@@ -9827,7 +8964,7 @@
         <v>1.6422222231553301</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.88643327723876397</v>
       </c>
@@ -9858,8 +8995,11 @@
       <c r="J4">
         <v>0.83966808868068499</v>
       </c>
+      <c r="K4">
+        <v>-7.5892351724544505E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.97707971959916795</v>
       </c>
@@ -9903,15 +9043,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9946,281 +9086,141 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2.20683808773562</v>
+        <v>-2.3790966063830399</v>
       </c>
       <c r="B2" s="1">
-        <v>45296.650231481501</v>
+        <v>45590.492476851898</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
       </c>
       <c r="D2">
-        <v>612.31027500000005</v>
+        <v>505.04641199999998</v>
       </c>
       <c r="E2">
-        <v>7115.5159999999996</v>
+        <v>12559.68</v>
       </c>
       <c r="F2">
-        <v>0.28772677954446901</v>
+        <v>3.0144859170837299E-2</v>
       </c>
       <c r="G2">
-        <v>161.004527140063</v>
+        <v>4.1773743295078604E-3</v>
       </c>
       <c r="H2">
-        <v>57.347416666666703</v>
+        <v>67.998583333333301</v>
       </c>
       <c r="I2">
-        <v>2.2976376979999702</v>
+        <v>204.408460187423</v>
       </c>
       <c r="J2">
-        <v>2.8615651135737599</v>
-      </c>
-      <c r="K2">
-        <v>0.45660363252434699</v>
+        <v>210.092563052218</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2.0309945857151401</v>
+        <v>-1.9416178515821101</v>
       </c>
       <c r="B3" s="1">
-        <v>45590.509490740696</v>
+        <v>45296.649884259299</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
       </c>
       <c r="D3">
-        <v>509.79309000000001</v>
+        <v>637.03409999999997</v>
       </c>
       <c r="E3">
         <v>9416.6620000000003</v>
       </c>
       <c r="F3">
-        <v>0.21002135752523299</v>
+        <v>3.9374423084510397E-2</v>
       </c>
       <c r="G3">
-        <v>107.397602315806</v>
+        <v>1.14388442944727E-2</v>
       </c>
       <c r="H3">
-        <v>68.863500000000002</v>
+        <v>52.158749999999998</v>
       </c>
       <c r="I3">
-        <v>28.964352921548802</v>
+        <v>9.6792073185934395</v>
       </c>
       <c r="J3">
-        <v>29.329684647404299</v>
+        <v>13.298978524756</v>
       </c>
       <c r="K3">
-        <v>1.46730739347396</v>
+        <v>1.1238182847190901</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1.8044538113953601</v>
+        <v>-0.422218509888519</v>
       </c>
       <c r="B4" s="1">
-        <v>45597.442013888904</v>
+        <v>45502.510416666701</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
       </c>
       <c r="D4">
-        <v>709.25940000000003</v>
+        <v>718.57919000000004</v>
       </c>
       <c r="E4">
-        <v>9416.6620000000003</v>
+        <v>20938.13</v>
       </c>
       <c r="F4">
-        <v>0.14001852958251401</v>
+        <v>9.2340088456400696E-2</v>
       </c>
       <c r="G4">
-        <v>63.7461281387246</v>
+        <v>0.37825222391160501</v>
       </c>
       <c r="H4">
-        <v>69.199291666666696</v>
+        <v>76.433750000000003</v>
       </c>
       <c r="I4">
-        <v>13183.643157193201</v>
+        <v>3.53500894211804</v>
       </c>
       <c r="J4">
-        <v>13271.8369261322</v>
+        <v>3.1539915200898601</v>
       </c>
       <c r="K4">
-        <v>4.12293103678092</v>
+        <v>0.49886052133811898</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1.1421668183018401</v>
+        <v>2.0917819347309599</v>
       </c>
       <c r="B5" s="1">
-        <v>45618.515393518501</v>
+        <v>45279.534722222197</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
       </c>
       <c r="D5">
-        <v>2030.428296</v>
+        <v>811.21124999999995</v>
       </c>
       <c r="E5">
-        <v>9416.6620000000003</v>
+        <v>7747.7939999999999</v>
       </c>
       <c r="F5">
-        <v>4.2821005642011099E-2</v>
+        <v>0.38613206590049598</v>
       </c>
       <c r="G5">
-        <v>13.8728860259441</v>
+        <v>123.53270029118001</v>
       </c>
       <c r="H5">
-        <v>65.772230769230802</v>
+        <v>57.410541666666703</v>
       </c>
       <c r="I5">
-        <v>345.58511102516297</v>
+        <v>9.3657584724838594E-2</v>
       </c>
       <c r="J5">
-        <v>369.30611714530801</v>
+        <v>0.116487862981952</v>
       </c>
       <c r="K5">
-        <v>2.5673865013158799</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A6">
-        <v>1.4499582859448901</v>
-      </c>
-      <c r="B6" s="1">
-        <v>45266.611111111102</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6">
-        <v>615.23294999999996</v>
-      </c>
-      <c r="E6">
-        <v>10319.43</v>
-      </c>
-      <c r="F6">
-        <v>7.4268725880109507E-2</v>
-      </c>
-      <c r="G6">
-        <v>28.181122381291299</v>
-      </c>
-      <c r="H6">
-        <v>63.182749999999999</v>
-      </c>
-      <c r="I6">
-        <v>2.9840551192787101</v>
-      </c>
-      <c r="J6">
-        <v>3.3393862336951301</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A7">
-        <v>1.96604947122087</v>
-      </c>
-      <c r="B7" s="1">
-        <v>45331.457060185203</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7">
-        <v>504.21780863999999</v>
-      </c>
-      <c r="E7">
-        <v>12721.81</v>
-      </c>
-      <c r="F7">
-        <v>0.18695286733230901</v>
-      </c>
-      <c r="G7">
-        <v>92.480351387484305</v>
-      </c>
-      <c r="H7">
-        <v>56.771625</v>
-      </c>
-      <c r="I7">
-        <v>10.1233281358362</v>
-      </c>
-      <c r="J7">
-        <v>12.744682901726801</v>
-      </c>
-      <c r="K7">
-        <v>1.10532903433306</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A8">
-        <v>1.8159109638656199</v>
-      </c>
-      <c r="B8" s="1">
-        <v>45502.5288194444</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8">
-        <v>2747.5827119999999</v>
-      </c>
-      <c r="E8">
-        <v>9416.6620000000003</v>
-      </c>
-      <c r="F8">
-        <v>0.117907274695669</v>
-      </c>
-      <c r="G8">
-        <v>65.450197871718402</v>
-      </c>
-      <c r="H8">
-        <v>74.329666666666697</v>
-      </c>
-      <c r="I8">
-        <v>47.814199417273002</v>
-      </c>
-      <c r="J8">
-        <v>44.159388507899898</v>
-      </c>
-      <c r="K8">
-        <v>1.6450230509194299</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A9">
-        <v>2.1665711356348201</v>
-      </c>
-      <c r="B9" s="1">
-        <v>45569.486458333296</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9">
-        <v>1103.890144</v>
-      </c>
-      <c r="E9">
-        <v>9416.6620000000003</v>
-      </c>
-      <c r="F9">
-        <v>0.26756115791951901</v>
-      </c>
-      <c r="G9">
-        <v>146.747643377652</v>
-      </c>
-      <c r="H9">
-        <v>75.326458333333306</v>
-      </c>
-      <c r="I9">
-        <v>3.6052078189927501</v>
-      </c>
-      <c r="J9">
-        <v>3.27585671914813</v>
-      </c>
-      <c r="K9">
-        <v>0.51532489814205995</v>
+        <v>-0.93371932197318797</v>
       </c>
     </row>
   </sheetData>
@@ -10232,15 +9232,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K1" activeCellId="1" sqref="A1:A1048576 K1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10275,144 +9275,179 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>-0.70444482698631605</v>
+        <v>1.4483457453600399</v>
       </c>
       <c r="B2" s="1">
-        <v>45590.492476851898</v>
+        <v>45296.551157407397</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
       </c>
       <c r="D2">
-        <v>505.04641199999998</v>
+        <v>669.22050000000002</v>
       </c>
       <c r="E2">
-        <v>12559.68</v>
+        <v>8812.9509999999991</v>
       </c>
       <c r="F2">
-        <v>3.0144859170837299E-2</v>
+        <v>0.242294433819637</v>
       </c>
       <c r="G2">
-        <v>0.19749457616861299</v>
+        <v>28.076679556897801</v>
       </c>
       <c r="H2">
-        <v>67.998583333333301</v>
+        <v>57.088374999999999</v>
       </c>
       <c r="I2">
-        <v>204.408460187423</v>
+        <v>1.7502448346720501</v>
       </c>
       <c r="J2">
-        <v>210.092563052218</v>
+        <v>2.19012083047377</v>
       </c>
       <c r="K2">
-        <v>2.3224106793333701</v>
+        <v>0.34046807582660699</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>-0.427984615686272</v>
+        <v>1.32722727332793</v>
       </c>
       <c r="B3" s="1">
-        <v>45296.649884259299</v>
+        <v>45590.450462963003</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
       <c r="D3">
-        <v>637.03409999999997</v>
+        <v>441.72498000000002</v>
       </c>
       <c r="E3">
-        <v>9416.6620000000003</v>
+        <v>2233.951</v>
       </c>
       <c r="F3">
-        <v>3.9374423084510397E-2</v>
+        <v>0.218316630467253</v>
       </c>
       <c r="G3">
-        <v>0.37326337992833297</v>
+        <v>21.243558809611699</v>
       </c>
       <c r="H3">
-        <v>52.158749999999998</v>
+        <v>69.479695652173902</v>
       </c>
       <c r="I3">
-        <v>9.6792073185934395</v>
+        <v>5.6348978171871398</v>
       </c>
       <c r="J3">
-        <v>13.298978524756</v>
+        <v>5.6464437623618604</v>
       </c>
       <c r="K3">
-        <v>1.1238182847190901</v>
+        <v>0.75177500699751398</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.489735658561678</v>
+        <v>0.73522198120371995</v>
       </c>
       <c r="B4" s="1">
-        <v>45502.510416666701</v>
+        <v>45231.5222222222</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
       </c>
       <c r="D4">
-        <v>718.57919000000004</v>
+        <v>744.31614999999999</v>
       </c>
       <c r="E4">
-        <v>20938.13</v>
+        <v>4485.2950000000001</v>
       </c>
       <c r="F4">
-        <v>9.2340088456400696E-2</v>
+        <v>0.13055244711888001</v>
       </c>
       <c r="G4">
-        <v>3.0884150388744702</v>
+        <v>5.4352807434147303</v>
       </c>
       <c r="H4">
-        <v>76.433750000000003</v>
+        <v>68.842375000000004</v>
       </c>
       <c r="I4">
-        <v>3.53500894211804</v>
+        <v>3.6775252589669298</v>
       </c>
       <c r="J4">
-        <v>3.1539915200898601</v>
+        <v>3.7250621609188102</v>
       </c>
       <c r="K4">
-        <v>0.49886052133811898</v>
+        <v>0.57113352431083098</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2.01966151161424</v>
+        <v>2.7199681572404799</v>
       </c>
       <c r="B5" s="1">
-        <v>45279.534722222197</v>
+        <v>45279.418749999997</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
       </c>
       <c r="D5">
-        <v>811.21124999999995</v>
+        <v>452.6567</v>
       </c>
       <c r="E5">
-        <v>7747.7939999999999</v>
+        <v>9377.6460000000006</v>
       </c>
       <c r="F5">
-        <v>0.38613206590049598</v>
+        <v>0.73138680186451299</v>
       </c>
       <c r="G5">
-        <v>104.63127357915801</v>
+        <v>524.76898242925904</v>
       </c>
       <c r="H5">
-        <v>57.410541666666703</v>
+        <v>60.173708333333302</v>
       </c>
       <c r="I5">
-        <v>9.3657584724838594E-2</v>
+        <v>0.58631953021781402</v>
       </c>
       <c r="J5">
-        <v>0.116487862981952</v>
+        <v>0.69296879073905904</v>
       </c>
       <c r="K5">
-        <v>-0.93371932197318797</v>
+        <v>-0.15928632428432901</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1.5438688305191599</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45569.448379629597</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>373.09719000000001</v>
+      </c>
+      <c r="E6">
+        <v>1201.4880000000001</v>
+      </c>
+      <c r="F6">
+        <v>0.26345251809384701</v>
+      </c>
+      <c r="G6">
+        <v>34.983948943721103</v>
+      </c>
+      <c r="H6">
+        <v>76.006291666666698</v>
+      </c>
+      <c r="I6">
+        <v>18.702897913160601</v>
+      </c>
+      <c r="J6">
+        <v>16.805097252834202</v>
+      </c>
+      <c r="K6">
+        <v>1.22544103011981</v>
       </c>
     </row>
   </sheetData>
@@ -10424,15 +9459,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10467,369 +9502,154 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1.4174733368758401</v>
+        <v>2.1524333526343802</v>
       </c>
       <c r="B2" s="1">
-        <v>45296.551157407397</v>
+        <v>45296.691319444399</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
       <c r="D2">
-        <v>669.22050000000002</v>
+        <v>680.57703333333302</v>
       </c>
       <c r="E2">
-        <v>8812.9509999999991</v>
+        <v>4167.0529999999999</v>
       </c>
       <c r="F2">
-        <v>0.242294433819637</v>
+        <v>0.304619300450722</v>
       </c>
       <c r="G2">
-        <v>26.1500989699855</v>
+        <v>142.04742084130001</v>
       </c>
       <c r="H2">
-        <v>57.088374999999999</v>
+        <v>52.267458333333302</v>
       </c>
       <c r="I2">
-        <v>1.7502448346720501</v>
+        <v>3.2423941808893599</v>
       </c>
       <c r="J2">
-        <v>2.19012083047377</v>
+        <v>4.4457519735520696</v>
       </c>
       <c r="K2">
-        <v>0.34046807582660699</v>
+        <v>0.64794522995038195</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1.27952656840493</v>
+        <v>1.87062750523785</v>
       </c>
       <c r="B3" s="1">
-        <v>45590.450462963003</v>
+        <v>45590.536805555603</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="D3">
-        <v>441.72498000000002</v>
+        <v>385.73862000000003</v>
       </c>
       <c r="E3">
-        <v>2233.951</v>
+        <v>11406.38</v>
       </c>
       <c r="F3">
-        <v>0.16002503851161501</v>
+        <v>0.189070453385662</v>
       </c>
       <c r="G3">
-        <v>19.033846755006099</v>
+        <v>74.238212294659803</v>
       </c>
       <c r="H3">
-        <v>69.406999999999996</v>
+        <v>67.770875000000004</v>
       </c>
       <c r="I3">
-        <v>7.6800051194760899</v>
+        <v>2.2494895291891299</v>
       </c>
       <c r="J3">
-        <v>7.7052219258119203</v>
+        <v>2.3214288357792698</v>
       </c>
       <c r="K3">
-        <v>0.88678515178480999</v>
+        <v>0.36575537475554798</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.60666256556119902</v>
+        <v>1.69403875911316</v>
       </c>
       <c r="B4" s="1">
-        <v>45231.5222222222</v>
+        <v>45597.512847222199</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
       <c r="D4">
-        <v>744.31614999999999</v>
+        <v>366.03865999999999</v>
       </c>
       <c r="E4">
-        <v>4485.2950000000001</v>
+        <v>3957.6080000000002</v>
       </c>
       <c r="F4">
-        <v>0.13055244711888001</v>
+        <v>0.14022503226824601</v>
       </c>
       <c r="G4">
-        <v>4.0426166984303</v>
+        <v>49.435480428423404</v>
       </c>
       <c r="H4">
-        <v>68.842375000000004</v>
+        <v>68.742208333333295</v>
       </c>
       <c r="I4">
-        <v>3.6775252589669298</v>
+        <v>5.98707457535708</v>
       </c>
       <c r="J4">
-        <v>3.7250621609188102</v>
+        <v>6.0757335254178502</v>
       </c>
       <c r="K4">
-        <v>0.57113352431083098</v>
+        <v>0.78359871795927805</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2.8626748394097299</v>
+        <v>1.3383778507114601</v>
       </c>
       <c r="B5" s="1">
-        <v>45279.418749999997</v>
+        <v>45618.559143518498</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
       <c r="D5">
-        <v>452.6567</v>
+        <v>2122.394256</v>
       </c>
       <c r="E5">
-        <v>9377.6460000000006</v>
+        <v>3764.232</v>
       </c>
       <c r="F5">
-        <v>0.73138680186451299</v>
+        <v>7.67954910734997E-2</v>
       </c>
       <c r="G5">
-        <v>728.91156257831699</v>
+        <v>21.7960527708121</v>
       </c>
       <c r="H5">
-        <v>60.173708333333302</v>
+        <v>56.827624999999998</v>
       </c>
       <c r="I5">
-        <v>0.58631953021781402</v>
+        <v>324.26597590544202</v>
       </c>
       <c r="J5">
-        <v>0.69296879073905904</v>
-      </c>
-      <c r="K5">
-        <v>-0.15928632428432901</v>
+        <v>407.81890792954698</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1.52582427682962</v>
+        <v>1.45106574211743</v>
       </c>
       <c r="B6" s="1">
-        <v>45569.448379629597</v>
+        <v>45266.638425925899</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6">
-        <v>373.09719000000001</v>
-      </c>
-      <c r="E6">
-        <v>1201.4880000000001</v>
-      </c>
-      <c r="F6">
-        <v>0.26345251809384701</v>
-      </c>
-      <c r="G6">
-        <v>33.5601796390159</v>
-      </c>
-      <c r="H6">
-        <v>76.006291666666698</v>
-      </c>
-      <c r="I6">
-        <v>18.702897913160601</v>
-      </c>
-      <c r="J6">
-        <v>16.805097252834202</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:K9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A2">
-        <v>2.21964731557483</v>
-      </c>
-      <c r="B2" s="1">
-        <v>45296.691319444399</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2">
-        <v>680.57703333333302</v>
-      </c>
-      <c r="E2">
-        <v>4167.0529999999999</v>
-      </c>
-      <c r="F2">
-        <v>0.304619300450722</v>
-      </c>
-      <c r="G2">
-        <v>165.823972739732</v>
-      </c>
-      <c r="H2">
-        <v>52.267458333333302</v>
-      </c>
-      <c r="I2">
-        <v>3.2423941808893599</v>
-      </c>
-      <c r="J2">
-        <v>4.4457519735520696</v>
-      </c>
-      <c r="K2">
-        <v>0.64794522995038195</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A3">
-        <v>1.93082107397803</v>
-      </c>
-      <c r="B3" s="1">
-        <v>45590.536805555603</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3">
-        <v>385.73862000000003</v>
-      </c>
-      <c r="E3">
-        <v>11406.38</v>
-      </c>
-      <c r="F3">
-        <v>0.189070453385662</v>
-      </c>
-      <c r="G3">
-        <v>85.274871565359604</v>
-      </c>
-      <c r="H3">
-        <v>67.770875000000004</v>
-      </c>
-      <c r="I3">
-        <v>2.2494895291891299</v>
-      </c>
-      <c r="J3">
-        <v>2.3214288357792698</v>
-      </c>
-      <c r="K3">
-        <v>0.36575537475554798</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A4">
-        <v>1.7498332898101401</v>
-      </c>
-      <c r="B4" s="1">
-        <v>45597.512847222199</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4">
-        <v>366.03865999999999</v>
-      </c>
-      <c r="E4">
-        <v>3957.6080000000002</v>
-      </c>
-      <c r="F4">
-        <v>0.14022503226824601</v>
-      </c>
-      <c r="G4">
-        <v>56.212550380179103</v>
-      </c>
-      <c r="H4">
-        <v>68.742208333333295</v>
-      </c>
-      <c r="I4">
-        <v>5.98707457535708</v>
-      </c>
-      <c r="J4">
-        <v>6.0757335254178502</v>
-      </c>
-      <c r="K4">
-        <v>0.78359871795927805</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A5">
-        <v>1.41438658720066</v>
-      </c>
-      <c r="B5" s="1">
-        <v>45618.559143518498</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5">
-        <v>2122.394256</v>
-      </c>
-      <c r="F5">
-        <v>8.0595708464144294E-2</v>
-      </c>
-      <c r="G5">
-        <v>25.9648959876038</v>
-      </c>
-      <c r="H5">
-        <v>56.772214285714298</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A6">
-        <v>1.5008062130991799</v>
-      </c>
-      <c r="B6" s="1">
-        <v>45266.638425925899</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6">
         <v>711.255675</v>
       </c>
       <c r="E6">
@@ -10839,7 +9659,7 @@
         <v>9.2948582820242806E-2</v>
       </c>
       <c r="G6">
-        <v>31.6815348320814</v>
+        <v>28.253076286296299</v>
       </c>
       <c r="H6">
         <v>57.605125000000001</v>
@@ -10847,103 +9667,132 @@
       <c r="I6">
         <v>1.7493497646667899</v>
       </c>
+      <c r="J6">
+        <v>2.16774731953429</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2.1287362422670499</v>
+        <v>1.14396940161106</v>
       </c>
       <c r="B7" s="1">
+        <v>45639.595601851797</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>335.75364000000002</v>
+      </c>
+      <c r="F7">
+        <v>5.5228227659252498E-2</v>
+      </c>
+      <c r="G7">
+        <v>13.9305865099121</v>
+      </c>
+      <c r="H7">
+        <v>51.593166666666697</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2.0637289235462299</v>
+      </c>
+      <c r="B8" s="1">
         <v>45331.513657407399</v>
       </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7">
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
         <v>464.2354962</v>
       </c>
-      <c r="E7">
-        <v>3393.52</v>
-      </c>
-      <c r="F7">
+      <c r="E8">
+        <v>3784.3</v>
+      </c>
+      <c r="F8">
         <v>0.26214009253193299</v>
       </c>
-      <c r="G7">
-        <v>134.504322807786</v>
-      </c>
-      <c r="H7">
+      <c r="G8">
+        <v>115.805430012386</v>
+      </c>
+      <c r="H8">
         <v>55.680374999999998</v>
       </c>
-      <c r="I7">
-        <v>247.73184212307299</v>
+      <c r="I8">
+        <v>134.29547670046</v>
+      </c>
+      <c r="J8">
+        <v>172.539893863929</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A8">
-        <v>1.78970531724707</v>
-      </c>
-      <c r="B8" s="1">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1.73291751991694</v>
+      </c>
+      <c r="B9" s="1">
         <v>45502.6175925926</v>
       </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8">
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9">
         <v>703.29944999999998</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>5518.3209999999999</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>0.14969712289074899</v>
       </c>
-      <c r="G8">
-        <v>61.617676426121797</v>
-      </c>
-      <c r="H8">
+      <c r="G9">
+        <v>54.065163403678802</v>
+      </c>
+      <c r="H9">
         <v>77.678708333333304</v>
       </c>
-      <c r="I8">
+      <c r="I9">
         <v>18.435644843616998</v>
       </c>
-      <c r="J8">
+      <c r="J9">
         <v>16.119744750891499</v>
       </c>
-      <c r="K8">
+      <c r="K9">
         <v>1.2073581606603301</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A9">
-        <v>1.94544135577539</v>
-      </c>
-      <c r="B9" s="1">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1.88489030406534</v>
+      </c>
+      <c r="B10" s="1">
         <v>45569.557407407403</v>
       </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9">
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10">
         <v>403.84739999999999</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>8906.6890000000003</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>0.19368252554686899</v>
       </c>
-      <c r="G9">
-        <v>88.194470217674905</v>
-      </c>
-      <c r="H9">
+      <c r="G10">
+        <v>76.716769043187597</v>
+      </c>
+      <c r="H10">
         <v>76.782666666666699</v>
       </c>
-      <c r="I9">
+      <c r="I10">
         <v>3.5288640506226399</v>
       </c>
-      <c r="J9">
+      <c r="J10">
         <v>3.1310158251127902</v>
       </c>
-      <c r="K9">
+      <c r="K10">
         <v>0.49568526267976798</v>
       </c>
     </row>

--- a/04_Output/rC_k600_edited.xlsx
+++ b/04_Output/rC_k600_edited.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Howley_Bradford_Streams\Howley_Bradford_Streams\04_Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samanthahowley\Desktop\Howley_Bradford_Streams\04_Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{160862AA-2FCF-4C1F-B213-2723D55E6F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{99FA9754-C732-4131-AA8D-6FE7F24A4234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="10980" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="13" sheetId="1" r:id="rId1"/>
@@ -18,16 +18,17 @@
     <sheet name="3" sheetId="3" r:id="rId3"/>
     <sheet name="5" sheetId="4" r:id="rId4"/>
     <sheet name="5a" sheetId="5" r:id="rId5"/>
-    <sheet name="6a" sheetId="6" r:id="rId6"/>
-    <sheet name="7" sheetId="7" r:id="rId7"/>
-    <sheet name="9" sheetId="8" r:id="rId8"/>
+    <sheet name="6" sheetId="6" r:id="rId6"/>
+    <sheet name="6a" sheetId="7" r:id="rId7"/>
+    <sheet name="7" sheetId="8" r:id="rId8"/>
+    <sheet name="9" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="20">
   <si>
     <t>logQ</t>
   </si>
@@ -75,6 +76,9 @@
   </si>
   <si>
     <t>5a</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
   <si>
     <t>6a</t>
@@ -233,19 +237,33 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'13'!$A$2:$A$4</c:f>
+              <c:f>'13'!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
+                <c:ptCount val="7"/>
+                <c:pt idx="3">
                   <c:v>0.46461108423501202</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>8.9854859730025299E-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
                   <c:v>2.2924137793734398</c:v>
                 </c:pt>
               </c:numCache>
@@ -253,17 +271,29 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'13'!$K$2:$K$4</c:f>
+              <c:f>'13'!$K$2:$K$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>3.4720682359536399</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1.19247311371887</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
                   <c:v>0.47387400561080101</c:v>
                 </c:pt>
               </c:numCache>
@@ -272,7 +302,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-144B-4C9A-B372-6C0CD0AFAD09}"/>
+              <c16:uniqueId val="{00000000-5F30-4998-92EE-971047270A4A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -284,11 +314,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1259939424"/>
-        <c:axId val="1259940864"/>
+        <c:axId val="459264208"/>
+        <c:axId val="459263728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1259939424"/>
+        <c:axId val="459264208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -345,12 +375,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1259940864"/>
+        <c:crossAx val="459263728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1259940864"/>
+        <c:axId val="459263728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -407,7 +437,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1259939424"/>
+        <c:crossAx val="459264208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -603,7 +633,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0643-4EE6-86A8-BF5F816ED79C}"/>
+              <c16:uniqueId val="{00000000-A7E7-4E56-A252-E3595AC3E4B2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -615,11 +645,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1259942304"/>
-        <c:axId val="1259946144"/>
+        <c:axId val="639803648"/>
+        <c:axId val="639806528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1259942304"/>
+        <c:axId val="639803648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -676,12 +706,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1259946144"/>
+        <c:crossAx val="639806528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1259946144"/>
+        <c:axId val="639806528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -738,7 +768,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1259942304"/>
+        <c:crossAx val="639803648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -880,26 +910,12 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'3'!$A$2:$A$6</c:f>
+              <c:f>'3'!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1.5793165496351</c:v>
                 </c:pt>
@@ -909,10 +925,10 @@
                 <c:pt idx="2">
                   <c:v>1.25618350175535</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>2.5649973413878699</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>1.4878939378143801</c:v>
                 </c:pt>
               </c:numCache>
@@ -920,10 +936,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'3'!$K$2:$K$6</c:f>
+              <c:f>'3'!$K$2:$K$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>-1.03354745556387</c:v>
                 </c:pt>
@@ -934,9 +950,12 @@
                   <c:v>-1.12029744567433</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.74248057710500204</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>1.1271483962406099</c:v>
                 </c:pt>
               </c:numCache>
@@ -945,7 +964,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DD05-4558-BF3C-7FD0340DF3EA}"/>
+              <c16:uniqueId val="{00000000-2EC6-444D-84D7-1914502D375B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -957,11 +976,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1259917824"/>
-        <c:axId val="1259927904"/>
+        <c:axId val="639805568"/>
+        <c:axId val="547831872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1259917824"/>
+        <c:axId val="639805568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1018,12 +1037,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1259927904"/>
+        <c:crossAx val="547831872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1259927904"/>
+        <c:axId val="547831872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1080,7 +1099,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1259917824"/>
+        <c:crossAx val="639805568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1222,34 +1241,48 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'5'!$A$2:$A$9</c:f>
+              <c:f>'5'!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.65191006424436304</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2.3118762106125899</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.10187461910508699</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>2.2556512174496599</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>2.0552944308616801</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>2.7379731820837798</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>2.5189014562496901</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
                   <c:v>1.7573193687705799</c:v>
                 </c:pt>
               </c:numCache>
@@ -1257,27 +1290,30 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'5'!$K$2:$K$9</c:f>
+              <c:f>'5'!$K$2:$K$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.668476072734428</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>0.77854869405477301</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.81087624729699004</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>0.36288571204037201</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>0.130357159032578</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.25172929262244598</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1285,7 +1321,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EE9F-477F-86E1-6F5BB4C0CCB1}"/>
+              <c16:uniqueId val="{00000000-126E-4213-8583-FC496C76D4B4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1297,11 +1333,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="247897008"/>
-        <c:axId val="247914288"/>
+        <c:axId val="649846032"/>
+        <c:axId val="649844592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="247897008"/>
+        <c:axId val="649846032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1358,12 +1394,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247914288"/>
+        <c:crossAx val="649844592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="247914288"/>
+        <c:axId val="649844592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1420,7 +1456,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247897008"/>
+        <c:crossAx val="649846032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1607,7 +1643,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9BB6-4D35-BD9F-FD500DD1F31B}"/>
+              <c16:uniqueId val="{00000000-E77E-431B-AE7A-DEE24D4E1B15}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1619,11 +1655,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="247897968"/>
-        <c:axId val="247924368"/>
+        <c:axId val="651608848"/>
+        <c:axId val="651609328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="247897968"/>
+        <c:axId val="651608848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1680,12 +1716,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247924368"/>
+        <c:crossAx val="651609328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="247924368"/>
+        <c:axId val="651609328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1742,7 +1778,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247897968"/>
+        <c:crossAx val="651608848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1799,6 +1835,369 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'6'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>log_K600</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'6'!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>2.1881156237595101</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0110110910579002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7828434038411201</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.89797448535591495</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4257957424157901</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9456017881402901</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7943904616036399</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1475703153380201</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'6'!$K$2:$K$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45660363252434699</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3537318581898601</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2177340865537001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.55887757311658</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.45795944678799999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5341-4A7E-851E-2D5A6757C2BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="652806736"/>
+        <c:axId val="652808656"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="652806736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="652808656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="652808656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="652806736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1911,9 +2310,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="1">
-                  <c:v>1.1238182847190901</c:v>
-                </c:pt>
                 <c:pt idx="2">
                   <c:v>0.49886052133811898</c:v>
                 </c:pt>
@@ -1926,7 +2322,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D3C1-46C8-9A75-8E737F710921}"/>
+              <c16:uniqueId val="{00000000-47B3-4E25-8D1E-3E049AC097D6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1938,11 +2334,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="247898928"/>
-        <c:axId val="247904688"/>
+        <c:axId val="651608368"/>
+        <c:axId val="651608848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="247898928"/>
+        <c:axId val="651608368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1999,12 +2395,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247904688"/>
+        <c:crossAx val="651608848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="247904688"/>
+        <c:axId val="651608848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2061,335 +2457,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247898928"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'7'!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>log_K600</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'7'!$A$2:$A$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.4483457453600399</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.32722727332793</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.73522198120371995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.7199681572404799</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.5438688305191599</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'7'!$K$2:$K$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.34046807582660699</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.75177500699751398</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.57113352431083098</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.15928632428432901</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.22544103011981</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F4F9-4988-989B-5D0F0F10081E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="247925328"/>
-        <c:axId val="247922448"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="247925328"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="247922448"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="247922448"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="247925328"/>
+        <c:crossAx val="651608368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2500,7 +2568,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'9'!$K$1</c:f>
+              <c:f>'7'!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2547,60 +2615,45 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'9'!$A$2:$A$10</c:f>
+              <c:f>'7'!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.1524333526343802</c:v>
+                  <c:v>1.4483457453600399</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.87062750523785</c:v>
+                  <c:v>1.32722727332793</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.69403875911316</c:v>
+                  <c:v>0.73522198120371995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3383778507114601</c:v>
+                  <c:v>2.7199681572404799</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.45106574211743</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.14396940161106</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.0637289235462299</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.73291751991694</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.88489030406534</c:v>
+                  <c:v>1.5438688305191599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'9'!$K$2:$K$10</c:f>
+              <c:f>'7'!$K$2:$K$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.64794522995038195</c:v>
+                  <c:v>0.34046807582660699</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36575537475554798</c:v>
+                  <c:v>0.75177500699751398</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.78359871795927805</c:v>
+                  <c:v>0.57113352431083098</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.2073581606603301</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.49568526267976798</c:v>
+                <c:pt idx="3">
+                  <c:v>-0.15928632428432901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2608,7 +2661,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C81A-4CAF-90D4-95F66A8DBF9A}"/>
+              <c16:uniqueId val="{00000000-D05D-4EB0-870A-D03C3C3EB548}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2620,11 +2673,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="247925328"/>
-        <c:axId val="247900848"/>
+        <c:axId val="651610768"/>
+        <c:axId val="538824736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="247925328"/>
+        <c:axId val="651610768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2681,12 +2734,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247900848"/>
+        <c:crossAx val="538824736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="247900848"/>
+        <c:axId val="538824736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2743,7 +2796,353 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247925328"/>
+        <c:crossAx val="651610768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'9'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>log_K600</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'9'!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="1">
+                  <c:v>2.1524333526343802</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.87062750523785</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.69403875911316</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3383778507114601</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.45106574211743</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.14396940161106</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0637289235462299</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.73291751991694</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.88489030406534</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'9'!$K$2:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.64794522995038195</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36575537475554798</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78359871795927805</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33600865788138401</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2073581606603301</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.49568526267976798</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4D21-4942-8C97-E1BEF1A2FFD1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="538827136"/>
+        <c:axId val="538825696"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="538827136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="538825696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="538825696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="538827136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3119,6 +3518,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -7247,27 +7686,543 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>595312</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>595312</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84C0505B-AE13-1E8B-60EC-83C8C1931449}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25CABF62-461D-A50F-D184-861ED0AA5A3B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7292,23 +8247,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4BF2CB3-90D3-D14A-06FE-87E39FC9477E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{346DA5D5-4C78-C12C-BD9D-1E6E3E7EA599}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7333,23 +8288,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEFA9521-7BFC-2E8A-A026-B197539F834D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CEEC149-E1BB-E2F9-2AAA-196984463878}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7374,23 +8329,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAD051A8-4678-C81A-671D-3102EC828013}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BD9A5BC-F6C7-31CD-04DB-04FEDC50F81B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7416,22 +8371,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>700087</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>700087</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AD182FE-6C27-4859-76A1-98E3657C91D1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8702A357-300E-E35A-2697-79779FEBB139}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7456,23 +8411,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>300037</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>300037</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{997F5A47-D00B-DB16-3810-03729250DFA7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F2E1600-E969-409E-E711-1963F213ECBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7497,23 +8452,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>700087</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>700087</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26339C37-0922-6A0D-6FE6-C60D03ABD462}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0A648B3-A2FB-C131-F7F1-AEA0250FD37B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7538,23 +8493,64 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>700087</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>700087</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31B1AAEB-58F2-313A-825E-1AFEF24C9FB0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DE290D3-04F7-1046-A610-13BB23DE581E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>347662</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>347662</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89DFA9EB-0323-B6FE-B572-841DBCB9018B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7854,7 +8850,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K1" activeCellId="1" sqref="A1:A1048576 K1:K1048576"/>
@@ -7862,8 +8858,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -7902,107 +8897,187 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0.46461108423501202</v>
-      </c>
       <c r="B2" s="1">
-        <v>45331.546296296299</v>
+        <v>45442.611111111102</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="D2">
-        <v>841.73281919999999</v>
-      </c>
-      <c r="E2">
-        <v>2525.2719999999999</v>
-      </c>
-      <c r="F2">
-        <v>5.3458550098918499E-2</v>
-      </c>
-      <c r="G2">
-        <v>2.91481559359605</v>
-      </c>
-      <c r="H2">
-        <v>58.711833333333303</v>
-      </c>
-      <c r="I2">
-        <v>2442.33913134876</v>
-      </c>
-      <c r="J2">
-        <v>2965.2972577307</v>
-      </c>
-      <c r="K2">
-        <v>3.4720682359536399</v>
+        <v>749.64344000000006</v>
+      </c>
+      <c r="I2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K2" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>8.9854859730025299E-2</v>
-      </c>
       <c r="B3" s="1">
-        <v>45231.643750000003</v>
+        <v>45590.559143518498</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3">
-        <v>861.60841666666704</v>
-      </c>
-      <c r="E3">
-        <v>4695.2049999999999</v>
-      </c>
-      <c r="F3">
-        <v>3.67414206545583E-2</v>
-      </c>
-      <c r="G3">
-        <v>1.2298576863642501</v>
-      </c>
-      <c r="H3">
-        <v>68.241833333333304</v>
-      </c>
-      <c r="I3">
-        <v>15.2165979978598</v>
-      </c>
-      <c r="J3">
-        <v>15.5766160020993</v>
-      </c>
-      <c r="K3">
-        <v>1.19247311371887</v>
+        <v>380.73329999999999</v>
+      </c>
+      <c r="I3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K3" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2.2924137793734398</v>
-      </c>
       <c r="B4" s="1">
-        <v>45279.638888888898</v>
+        <v>45639.626736111102</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4">
+        <v>350.53264000000001</v>
+      </c>
+      <c r="I4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K4" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.46461108423501202</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45331.546296296299</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>841.73281919999999</v>
+      </c>
+      <c r="E5">
+        <v>2525.2719999999999</v>
+      </c>
+      <c r="F5">
+        <v>5.3458550098918499E-2</v>
+      </c>
+      <c r="G5">
+        <v>2.91481559359605</v>
+      </c>
+      <c r="H5">
+        <v>58.711833333333303</v>
+      </c>
+      <c r="I5">
+        <v>2442.33913134876</v>
+      </c>
+      <c r="J5">
+        <v>2965.2972577307</v>
+      </c>
+      <c r="K5">
+        <v>3.4720682359536399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>45569.592476851903</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>410.82921599999997</v>
+      </c>
+      <c r="I6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K6" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>8.9854859730025299E-2</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45231.643750000003</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>861.60841666666704</v>
+      </c>
+      <c r="E7">
+        <v>4695.2049999999999</v>
+      </c>
+      <c r="F7">
+        <v>3.67414206545583E-2</v>
+      </c>
+      <c r="G7">
+        <v>1.2298576863642501</v>
+      </c>
+      <c r="H7">
+        <v>68.241833333333304</v>
+      </c>
+      <c r="I7">
+        <v>15.2165979978598</v>
+      </c>
+      <c r="J7">
+        <v>15.5766160020993</v>
+      </c>
+      <c r="K7">
+        <v>1.19247311371887</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2.2924137793734398</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45279.638888888898</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8">
         <v>682.46505000000002</v>
       </c>
-      <c r="E4">
+      <c r="E8">
         <v>4360.4979999999996</v>
       </c>
-      <c r="F4">
+      <c r="F8">
         <v>0.33558506980650299</v>
       </c>
-      <c r="G4">
+      <c r="G8">
         <v>196.071187605879</v>
       </c>
-      <c r="H4">
+      <c r="H8">
         <v>58.136791666666703</v>
       </c>
-      <c r="I4">
+      <c r="I8">
         <v>2.4264211253232499</v>
       </c>
-      <c r="J4">
+      <c r="J8">
         <v>2.9776524490128899</v>
       </c>
-      <c r="K4">
+      <c r="K8">
         <v>0.47387400561080101</v>
       </c>
     </row>
@@ -8018,14 +9093,10 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -8160,6 +9231,9 @@
       <c r="I4">
         <v>133.14792377377401</v>
       </c>
+      <c r="J4">
+        <v>133.70857261285099</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -8189,6 +9263,9 @@
       <c r="I5">
         <v>81.783855367661999</v>
       </c>
+      <c r="J5">
+        <v>105.39584487075901</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -8287,6 +9364,9 @@
       </c>
       <c r="I8">
         <v>262.11659900540798</v>
+      </c>
+      <c r="J8">
+        <v>234.41451998769301</v>
       </c>
     </row>
   </sheetData>
@@ -8298,10 +9378,257 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1.5793165496351</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45296.610069444403</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>456.12386666666703</v>
+      </c>
+      <c r="E2">
+        <v>6443.8360000000002</v>
+      </c>
+      <c r="F2">
+        <v>0.41275390512325399</v>
+      </c>
+      <c r="G2">
+        <v>37.959156180096699</v>
+      </c>
+      <c r="H2">
+        <v>54.832595600676797</v>
+      </c>
+      <c r="I2">
+        <v>7.08810643150279E-2</v>
+      </c>
+      <c r="J2">
+        <v>9.2566223204358505E-2</v>
+      </c>
+      <c r="K2">
+        <v>-1.03354745556387</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1.37477885123213</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45590.473611111098</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>411.06707999999998</v>
+      </c>
+      <c r="E3">
+        <v>5182.0039999999999</v>
+      </c>
+      <c r="F3">
+        <v>0.35358594626280099</v>
+      </c>
+      <c r="G3">
+        <v>23.701664767073499</v>
+      </c>
+      <c r="H3">
+        <v>68.4775833333333</v>
+      </c>
+      <c r="I3">
+        <v>2.0998859841322499</v>
+      </c>
+      <c r="J3">
+        <v>2.1402455362209598</v>
+      </c>
+      <c r="K3">
+        <v>0.33046359994212099</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1.25618350175535</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45231.505902777797</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>714.04719999999998</v>
+      </c>
+      <c r="E4">
+        <v>6744.4539999999997</v>
+      </c>
+      <c r="F4">
+        <v>0.32324005414038398</v>
+      </c>
+      <c r="G4">
+        <v>18.037797280416001</v>
+      </c>
+      <c r="H4">
+        <v>67.208513227513194</v>
+      </c>
+      <c r="I4">
+        <v>7.2748120805359598E-2</v>
+      </c>
+      <c r="J4">
+        <v>7.5805820769404397E-2</v>
+      </c>
+      <c r="K4">
+        <v>-1.12029744567433</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>45639.526967592603</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>365.80829999999997</v>
+      </c>
+      <c r="I5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K5" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2.5649973413878699</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45279.458796296298</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>743.79520000000002</v>
+      </c>
+      <c r="E6">
+        <v>8053.1170000000002</v>
+      </c>
+      <c r="F6">
+        <v>0.86871579907905805</v>
+      </c>
+      <c r="G6">
+        <v>367.28005212000801</v>
+      </c>
+      <c r="H6">
+        <v>58.628998122065703</v>
+      </c>
+      <c r="I6">
+        <v>4.5445777434500201</v>
+      </c>
+      <c r="J6">
+        <v>5.5268868956812396</v>
+      </c>
+      <c r="K6">
+        <v>0.74248057710500204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1.4878939378143801</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45569.462962963</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>395.82371999999998</v>
+      </c>
+      <c r="E7">
+        <v>3225.154</v>
+      </c>
+      <c r="F7">
+        <v>0.38510332832113497</v>
+      </c>
+      <c r="G7">
+        <v>30.753456706913699</v>
+      </c>
+      <c r="H7">
+        <v>75.436222222222199</v>
+      </c>
+      <c r="I7">
+        <v>14.774839406053101</v>
+      </c>
+      <c r="J7">
+        <v>13.401345264296401</v>
+      </c>
+      <c r="K7">
+        <v>1.1271483962406099</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8346,500 +9673,341 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1.5793165496351</v>
+        <v>0.65191006424436304</v>
       </c>
       <c r="B2" s="1">
-        <v>45296.610069444403</v>
+        <v>45660.411574074104</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2">
-        <v>456.12386666666703</v>
+        <v>552.81111999999996</v>
       </c>
       <c r="E2">
-        <v>6443.8360000000002</v>
+        <v>3976.076</v>
       </c>
       <c r="F2">
-        <v>0.41275390512325399</v>
+        <v>5.2566523314864196E-3</v>
       </c>
       <c r="G2">
-        <v>37.959156180096699</v>
+        <v>4.4865247123645799</v>
       </c>
       <c r="H2">
-        <v>54.832595600676797</v>
+        <v>59.112299999999998</v>
       </c>
       <c r="I2">
-        <v>7.08810643150279E-2</v>
-      </c>
-      <c r="J2">
-        <v>9.2566223204358505E-2</v>
-      </c>
-      <c r="K2">
-        <v>-1.03354745556387</v>
+        <v>3181.07011696172</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1.37477885123213</v>
-      </c>
       <c r="B3" s="1">
-        <v>45590.473611111098</v>
+        <v>45442.334837962997</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>411.06707999999998</v>
-      </c>
-      <c r="E3">
-        <v>5182.0039999999999</v>
-      </c>
-      <c r="F3">
-        <v>0.35358594626280099</v>
-      </c>
-      <c r="G3">
-        <v>23.701664767073499</v>
-      </c>
-      <c r="H3">
-        <v>68.4775833333333</v>
-      </c>
-      <c r="I3">
-        <v>2.0998859841322499</v>
-      </c>
-      <c r="J3">
-        <v>2.1402455362209598</v>
-      </c>
-      <c r="K3">
-        <v>0.33046359994212099</v>
+        <v>998.80616181818198</v>
+      </c>
+      <c r="I3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K3" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1.25618350175535</v>
+        <v>2.3118762106125899</v>
       </c>
       <c r="B4" s="1">
-        <v>45231.505902777797</v>
+        <v>45484.417592592603</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>714.04719999999998</v>
+        <v>2034.8627879999999</v>
       </c>
       <c r="E4">
-        <v>6744.4539999999997</v>
+        <v>6961.3969999999999</v>
       </c>
       <c r="F4">
-        <v>0.32324005414038398</v>
+        <v>0.25670942796431001</v>
       </c>
       <c r="G4">
-        <v>18.037797280416001</v>
+        <v>205.05776079028001</v>
       </c>
       <c r="H4">
-        <v>67.208513227513194</v>
+        <v>76.579041666666697</v>
       </c>
       <c r="I4">
-        <v>7.2748120805359598E-2</v>
+        <v>5.2363099452820601</v>
       </c>
       <c r="J4">
-        <v>7.5805820769404397E-2</v>
+        <v>4.6609674789689297</v>
       </c>
       <c r="K4">
-        <v>-1.12029744567433</v>
+        <v>0.668476072734428</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2.5649973413878699</v>
+        <v>0.10187461910508699</v>
       </c>
       <c r="B5" s="1">
-        <v>45279.458796296298</v>
+        <v>45590.352199074099</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>743.79520000000002</v>
+        <v>551.09719199999995</v>
       </c>
       <c r="E5">
-        <v>8053.1170000000002</v>
+        <v>8635.2430000000004</v>
       </c>
       <c r="F5">
-        <v>0.86871579907905805</v>
+        <v>1.4553017535786799E-3</v>
       </c>
       <c r="G5">
-        <v>367.28005212000801</v>
+        <v>1.2643712705619401</v>
       </c>
       <c r="H5">
-        <v>58.628998122065703</v>
+        <v>69.716999999999999</v>
       </c>
       <c r="I5">
-        <v>4.5445777434500201</v>
-      </c>
-      <c r="J5">
-        <v>5.5268868956812396</v>
-      </c>
-      <c r="K5">
-        <v>0.74248057710500204</v>
+        <v>339.75341828418198</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1.4878939378143801</v>
-      </c>
       <c r="B6" s="1">
-        <v>45569.462962963</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6">
-        <v>395.82371999999998</v>
-      </c>
-      <c r="E6">
-        <v>3225.154</v>
-      </c>
-      <c r="F6">
-        <v>0.38510332832113497</v>
-      </c>
-      <c r="G6">
-        <v>30.753456706913699</v>
-      </c>
-      <c r="H6">
-        <v>75.436222222222199</v>
-      </c>
-      <c r="I6">
-        <v>14.774839406053101</v>
-      </c>
-      <c r="J6">
-        <v>13.401345264296401</v>
-      </c>
-      <c r="K6">
-        <v>1.1271483962406099</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:K9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0.65191006424436304</v>
-      </c>
-      <c r="B2" s="1">
-        <v>45660.411574074104</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2">
-        <v>552.81111999999996</v>
-      </c>
-      <c r="E2">
-        <v>3976.076</v>
-      </c>
-      <c r="F2">
-        <v>5.2566523314864196E-3</v>
-      </c>
-      <c r="G2">
-        <v>4.4865247123645799</v>
-      </c>
-      <c r="H2">
-        <v>59.112299999999998</v>
-      </c>
-      <c r="I2">
-        <v>3181.07011696172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2.3118762106125899</v>
-      </c>
-      <c r="B3" s="1">
-        <v>45484.417592592603</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3">
-        <v>2034.8627879999999</v>
-      </c>
-      <c r="E3">
-        <v>6961.3969999999999</v>
-      </c>
-      <c r="F3">
-        <v>0.25670942796431001</v>
-      </c>
-      <c r="G3">
-        <v>205.05776079028001</v>
-      </c>
-      <c r="H3">
-        <v>76.579041666666697</v>
-      </c>
-      <c r="I3">
-        <v>5.2363099452820601</v>
-      </c>
-      <c r="J3">
-        <v>4.6609674789689297</v>
-      </c>
-      <c r="K3">
-        <v>0.668476072734428</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0.10187461910508699</v>
-      </c>
-      <c r="B4" s="1">
-        <v>45590.352199074099</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4">
-        <v>551.09719199999995</v>
-      </c>
-      <c r="E4">
-        <v>8635.2430000000004</v>
-      </c>
-      <c r="F4">
-        <v>1.4553017535786799E-3</v>
-      </c>
-      <c r="G4">
-        <v>1.2643712705619401</v>
-      </c>
-      <c r="H4">
-        <v>69.716999999999999</v>
-      </c>
-      <c r="I4">
-        <v>339.75341828418198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2.2556512174496599</v>
-      </c>
-      <c r="B5" s="1">
-        <v>45296.400694444397</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5">
-        <v>426.60744999999997</v>
-      </c>
-      <c r="E5">
-        <v>3375.2420000000002</v>
-      </c>
-      <c r="F5">
-        <v>0.225012367816944</v>
-      </c>
-      <c r="G5">
-        <v>180.157031589773</v>
-      </c>
-      <c r="H5">
-        <v>54.871041666666699</v>
-      </c>
-      <c r="I5">
-        <v>4.6033147560070597</v>
-      </c>
-      <c r="J5">
-        <v>6.0054934004881702</v>
-      </c>
-      <c r="K5">
-        <v>0.77854869405477301</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2.0552944308616801</v>
-      </c>
-      <c r="B6" s="1">
-        <v>45266.452662037002</v>
+        <v>45597.357986111099</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6">
-        <v>409.7124</v>
-      </c>
-      <c r="E6">
-        <v>4325.9719999999998</v>
-      </c>
-      <c r="F6">
-        <v>0.14071662604863699</v>
-      </c>
-      <c r="G6">
-        <v>113.57805595483499</v>
-      </c>
-      <c r="H6">
-        <v>62.968666666666699</v>
-      </c>
-      <c r="I6">
-        <v>5.7587643197985896</v>
-      </c>
-      <c r="J6">
-        <v>6.4695823800006398</v>
-      </c>
-      <c r="K6">
-        <v>0.81087624729699004</v>
+        <v>628.45452</v>
+      </c>
+      <c r="I6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J6" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2.7379731820837798</v>
+        <v>2.2556512174496599</v>
       </c>
       <c r="B7" s="1">
-        <v>45279.417939814797</v>
+        <v>45296.400694444397</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
       <c r="D7">
-        <v>444.28</v>
+        <v>426.60744999999997</v>
       </c>
       <c r="E7">
-        <v>3363.2</v>
+        <v>3375.2420000000002</v>
       </c>
       <c r="F7">
-        <v>0.69658739105357004</v>
+        <v>0.225012367816944</v>
       </c>
       <c r="G7">
-        <v>546.98218540899597</v>
+        <v>180.157031589773</v>
       </c>
       <c r="H7">
-        <v>59.392708333333303</v>
+        <v>54.871041666666699</v>
       </c>
       <c r="I7">
-        <v>1.9236150869142301</v>
+        <v>4.6033147560070597</v>
       </c>
       <c r="J7">
-        <v>2.3061402301815401</v>
+        <v>6.0054934004881702</v>
       </c>
       <c r="K7">
-        <v>0.36288571204037201</v>
+        <v>0.77854869405477301</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2.5189014562496901</v>
-      </c>
       <c r="B8" s="1">
-        <v>45502.410763888904</v>
+        <v>45618.398726851898</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8">
-        <v>1722.98714</v>
-      </c>
-      <c r="E8">
-        <v>6713.1440000000002</v>
-      </c>
-      <c r="F8">
-        <v>0.41694777291652502</v>
-      </c>
-      <c r="G8">
-        <v>330.29458691777899</v>
-      </c>
-      <c r="H8">
-        <v>76.361791666666704</v>
-      </c>
-      <c r="I8">
-        <v>1.5113924672972501</v>
-      </c>
-      <c r="J8">
-        <v>1.3500727112072699</v>
-      </c>
-      <c r="K8">
-        <v>0.130357159032578</v>
+        <v>3118.5123840000001</v>
+      </c>
+      <c r="I8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K8" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1.7573193687705799</v>
+        <v>2.0552944308616801</v>
       </c>
       <c r="B9" s="1">
-        <v>45569.336458333302</v>
+        <v>45266.452662037002</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
       </c>
       <c r="D9">
+        <v>409.7124</v>
+      </c>
+      <c r="E9">
+        <v>4325.9719999999998</v>
+      </c>
+      <c r="F9">
+        <v>0.14071662604863699</v>
+      </c>
+      <c r="G9">
+        <v>113.57805595483499</v>
+      </c>
+      <c r="H9">
+        <v>62.968666666666699</v>
+      </c>
+      <c r="I9">
+        <v>5.7587643197985896</v>
+      </c>
+      <c r="J9">
+        <v>6.4695823800006398</v>
+      </c>
+      <c r="K9">
+        <v>0.81087624729699004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>45635.392824074101</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>2329.1665200000002</v>
+      </c>
+      <c r="I10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J10" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2.7379731820837798</v>
+      </c>
+      <c r="B11" s="1">
+        <v>45279.417939814797</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>444.28</v>
+      </c>
+      <c r="E11">
+        <v>3363.2</v>
+      </c>
+      <c r="F11">
+        <v>0.69658739105357004</v>
+      </c>
+      <c r="G11">
+        <v>546.98218540899597</v>
+      </c>
+      <c r="H11">
+        <v>59.392708333333303</v>
+      </c>
+      <c r="I11">
+        <v>1.9236150869142301</v>
+      </c>
+      <c r="J11">
+        <v>2.3061402301815401</v>
+      </c>
+      <c r="K11">
+        <v>0.36288571204037201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2.5189014562496901</v>
+      </c>
+      <c r="B12" s="1">
+        <v>45502.410763888904</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <v>1722.98714</v>
+      </c>
+      <c r="E12">
+        <v>6713.1440000000002</v>
+      </c>
+      <c r="F12">
+        <v>0.41694777291652502</v>
+      </c>
+      <c r="G12">
+        <v>330.29458691777899</v>
+      </c>
+      <c r="H12">
+        <v>76.361791666666704</v>
+      </c>
+      <c r="I12">
+        <v>1.5113924672972501</v>
+      </c>
+      <c r="J12">
+        <v>1.3500727112072699</v>
+      </c>
+      <c r="K12">
+        <v>0.130357159032578</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1.7573193687705799</v>
+      </c>
+      <c r="B13" s="1">
+        <v>45569.336458333302</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13">
         <v>520.15418799999998</v>
       </c>
-      <c r="E9">
+      <c r="E13">
         <v>8379.9380000000001</v>
       </c>
-      <c r="F9">
+      <c r="F13">
         <v>7.0018058078074194E-2</v>
       </c>
-      <c r="G9">
+      <c r="G13">
         <v>57.189904163000598</v>
       </c>
-      <c r="H9">
+      <c r="H13">
         <v>75.600666666666697</v>
       </c>
-      <c r="I9">
+      <c r="I13">
         <v>1.9735868782610999</v>
       </c>
-      <c r="J9">
+      <c r="J13">
         <v>1.78537435630409</v>
-      </c>
-      <c r="K9">
-        <v>0.25172929262244598</v>
       </c>
     </row>
   </sheetData>
@@ -8854,7 +10022,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" activeCellId="1" sqref="A1:A1048576 K1:K1048576"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9043,13 +10211,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -9087,140 +10258,354 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>-2.3790966063830399</v>
-      </c>
       <c r="B2" s="1">
-        <v>45590.492476851898</v>
+        <v>45660.526851851901</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
       </c>
       <c r="D2">
-        <v>505.04641199999998</v>
-      </c>
-      <c r="E2">
-        <v>12559.68</v>
-      </c>
-      <c r="F2">
-        <v>3.0144859170837299E-2</v>
-      </c>
-      <c r="G2">
-        <v>4.1773743295078604E-3</v>
-      </c>
-      <c r="H2">
-        <v>67.998583333333301</v>
-      </c>
-      <c r="I2">
-        <v>204.408460187423</v>
-      </c>
-      <c r="J2">
-        <v>210.092563052218</v>
+        <v>350.63274000000001</v>
+      </c>
+      <c r="I2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K2" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>-1.9416178515821101</v>
+        <v>2.1881156237595101</v>
       </c>
       <c r="B3" s="1">
-        <v>45296.649884259299</v>
+        <v>45296.650231481501</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
       </c>
       <c r="D3">
-        <v>637.03409999999997</v>
+        <v>612.31027500000005</v>
       </c>
       <c r="E3">
-        <v>9416.6620000000003</v>
+        <v>7115.5159999999996</v>
       </c>
       <c r="F3">
-        <v>3.9374423084510397E-2</v>
+        <v>0.28772677954446901</v>
       </c>
       <c r="G3">
-        <v>1.14388442944727E-2</v>
+        <v>154.21109599694901</v>
       </c>
       <c r="H3">
-        <v>52.158749999999998</v>
+        <v>57.347416666666703</v>
       </c>
       <c r="I3">
-        <v>9.6792073185934395</v>
+        <v>2.2976376979999702</v>
       </c>
       <c r="J3">
-        <v>13.298978524756</v>
+        <v>2.8615651135737599</v>
       </c>
       <c r="K3">
-        <v>1.1238182847190901</v>
+        <v>0.45660363252434699</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>-0.422218509888519</v>
-      </c>
       <c r="B4" s="1">
-        <v>45502.510416666701</v>
+        <v>45442.515972222202</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
       </c>
       <c r="D4">
-        <v>718.57919000000004</v>
-      </c>
-      <c r="E4">
-        <v>20938.13</v>
-      </c>
-      <c r="F4">
-        <v>9.2340088456400696E-2</v>
-      </c>
-      <c r="G4">
-        <v>0.37825222391160501</v>
-      </c>
-      <c r="H4">
-        <v>76.433750000000003</v>
-      </c>
-      <c r="I4">
-        <v>3.53500894211804</v>
-      </c>
-      <c r="J4">
-        <v>3.1539915200898601</v>
-      </c>
-      <c r="K4">
-        <v>0.49886052133811898</v>
+        <v>664.44209999999998</v>
+      </c>
+      <c r="I4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K4" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2.0917819347309599</v>
-      </c>
       <c r="B5" s="1">
-        <v>45279.534722222197</v>
+        <v>45484.550925925898</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
       </c>
       <c r="D5">
-        <v>811.21124999999995</v>
-      </c>
-      <c r="E5">
-        <v>7747.7939999999999</v>
-      </c>
-      <c r="F5">
-        <v>0.38613206590049598</v>
-      </c>
-      <c r="G5">
-        <v>123.53270029118001</v>
-      </c>
-      <c r="H5">
-        <v>57.410541666666703</v>
-      </c>
-      <c r="I5">
-        <v>9.3657584724838594E-2</v>
-      </c>
-      <c r="J5">
-        <v>0.116487862981952</v>
-      </c>
-      <c r="K5">
-        <v>-0.93371932197318797</v>
+        <v>20118.913499999999</v>
+      </c>
+      <c r="I5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K5" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2.0110110910579002</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45590.509490740696</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>509.79309000000001</v>
+      </c>
+      <c r="E6">
+        <v>11548.536</v>
+      </c>
+      <c r="F6">
+        <v>0.21002135752523299</v>
+      </c>
+      <c r="G6">
+        <v>102.567811979203</v>
+      </c>
+      <c r="H6">
+        <v>68.863500000000002</v>
+      </c>
+      <c r="I6">
+        <v>22.2991493012617</v>
+      </c>
+      <c r="J6">
+        <v>22.580411814579598</v>
+      </c>
+      <c r="K6">
+        <v>1.3537318581898601</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1.7828434038411201</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45597.442013888904</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>709.25940000000003</v>
+      </c>
+      <c r="E7">
+        <v>10979.754000000001</v>
+      </c>
+      <c r="F7">
+        <v>0.14001852958251401</v>
+      </c>
+      <c r="G7">
+        <v>60.651759447890001</v>
+      </c>
+      <c r="H7">
+        <v>69.199291666666696</v>
+      </c>
+      <c r="I7">
+        <v>421.43671804285498</v>
+      </c>
+      <c r="J7">
+        <v>424.25597612579298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.89797448535591495</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45618.515393518501</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>2030.428296</v>
+      </c>
+      <c r="E8">
+        <v>6021.7740000000003</v>
+      </c>
+      <c r="F8">
+        <v>2.7241964743670001E-2</v>
+      </c>
+      <c r="G8">
+        <v>7.90632177280263</v>
+      </c>
+      <c r="H8">
+        <v>65.922749999999994</v>
+      </c>
+      <c r="I8">
+        <v>2295.3783163940302</v>
+      </c>
+      <c r="J8">
+        <v>2445.9494519847299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1.4257957424157901</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45266.611111111102</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>615.23294999999996</v>
+      </c>
+      <c r="E9">
+        <v>10319.43</v>
+      </c>
+      <c r="F9">
+        <v>7.4268725880109507E-2</v>
+      </c>
+      <c r="G9">
+        <v>26.6560468121497</v>
+      </c>
+      <c r="H9">
+        <v>63.182749999999999</v>
+      </c>
+      <c r="I9">
+        <v>2.9840551192787101</v>
+      </c>
+      <c r="J9">
+        <v>3.3393862336951301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>45639.551041666702</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>526.36743999999999</v>
+      </c>
+      <c r="I10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K10" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1.9456017881402901</v>
+      </c>
+      <c r="B11" s="1">
+        <v>45331.457060185203</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11">
+        <v>504.21780863999999</v>
+      </c>
+      <c r="E11">
+        <v>10290.9</v>
+      </c>
+      <c r="F11">
+        <v>0.18695286733230901</v>
+      </c>
+      <c r="G11">
+        <v>88.227056082267893</v>
+      </c>
+      <c r="H11">
+        <v>56.771625</v>
+      </c>
+      <c r="I11">
+        <v>13.1137942790288</v>
+      </c>
+      <c r="J11">
+        <v>16.5095063088059</v>
+      </c>
+      <c r="K11">
+        <v>1.2177340865537001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1.7943904616036399</v>
+      </c>
+      <c r="B12" s="1">
+        <v>45502.5288194444</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12">
+        <v>2747.5827119999999</v>
+      </c>
+      <c r="E12">
+        <v>9438.768</v>
+      </c>
+      <c r="F12">
+        <v>0.142858205716412</v>
+      </c>
+      <c r="G12">
+        <v>62.286002893812302</v>
+      </c>
+      <c r="H12">
+        <v>74.173434782608695</v>
+      </c>
+      <c r="I12">
+        <v>39.106608651406603</v>
+      </c>
+      <c r="J12">
+        <v>36.214089711696197</v>
+      </c>
+      <c r="K12">
+        <v>1.55887757311658</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2.1475703153380201</v>
+      </c>
+      <c r="B13" s="1">
+        <v>45569.486458333296</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13">
+        <v>1103.890144</v>
+      </c>
+      <c r="E13">
+        <v>10445.418</v>
+      </c>
+      <c r="F13">
+        <v>0.26756115791951901</v>
+      </c>
+      <c r="G13">
+        <v>140.465708905252</v>
+      </c>
+      <c r="H13">
+        <v>75.326458333333306</v>
+      </c>
+      <c r="I13">
+        <v>3.1591107613680198</v>
+      </c>
+      <c r="J13">
+        <v>2.8705125290258402</v>
+      </c>
+      <c r="K13">
+        <v>0.45795944678799999</v>
       </c>
     </row>
   </sheetData>
@@ -9232,10 +10617,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" activeCellId="1" sqref="A1:A1048576 K1:K1048576"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9277,177 +10662,136 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1.4483457453600399</v>
+        <v>-2.3790966063830399</v>
       </c>
       <c r="B2" s="1">
-        <v>45296.551157407397</v>
+        <v>45590.492476851898</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
       </c>
       <c r="D2">
-        <v>669.22050000000002</v>
+        <v>505.04641199999998</v>
       </c>
       <c r="E2">
-        <v>8812.9509999999991</v>
+        <v>12559.68</v>
       </c>
       <c r="F2">
-        <v>0.242294433819637</v>
+        <v>3.0144859170837299E-2</v>
       </c>
       <c r="G2">
-        <v>28.076679556897801</v>
+        <v>4.1773743295078604E-3</v>
       </c>
       <c r="H2">
-        <v>57.088374999999999</v>
+        <v>67.998583333333301</v>
       </c>
       <c r="I2">
-        <v>1.7502448346720501</v>
+        <v>204.408460187423</v>
       </c>
       <c r="J2">
-        <v>2.19012083047377</v>
-      </c>
-      <c r="K2">
-        <v>0.34046807582660699</v>
+        <v>210.092563052218</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1.32722727332793</v>
+        <v>-1.9416178515821101</v>
       </c>
       <c r="B3" s="1">
-        <v>45590.450462963003</v>
+        <v>45296.649884259299</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
       <c r="D3">
-        <v>441.72498000000002</v>
+        <v>637.03409999999997</v>
       </c>
       <c r="E3">
-        <v>2233.951</v>
+        <v>1245.8230000000001</v>
       </c>
       <c r="F3">
-        <v>0.218316630467253</v>
+        <v>3.9374423084510397E-2</v>
       </c>
       <c r="G3">
-        <v>21.243558809611699</v>
+        <v>1.14388442944727E-2</v>
       </c>
       <c r="H3">
-        <v>69.479695652173902</v>
+        <v>52.158749999999998</v>
       </c>
       <c r="I3">
-        <v>5.6348978171871398</v>
+        <v>201.152535994288</v>
       </c>
       <c r="J3">
-        <v>5.6464437623618604</v>
-      </c>
-      <c r="K3">
-        <v>0.75177500699751398</v>
+        <v>276.37834053305301</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.73522198120371995</v>
+        <v>-0.422218509888519</v>
       </c>
       <c r="B4" s="1">
-        <v>45231.5222222222</v>
+        <v>45502.510416666701</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
       </c>
       <c r="D4">
-        <v>744.31614999999999</v>
+        <v>718.57919000000004</v>
       </c>
       <c r="E4">
-        <v>4485.2950000000001</v>
+        <v>20938.13</v>
       </c>
       <c r="F4">
-        <v>0.13055244711888001</v>
+        <v>9.2340088456400696E-2</v>
       </c>
       <c r="G4">
-        <v>5.4352807434147303</v>
+        <v>0.37825222391160501</v>
       </c>
       <c r="H4">
-        <v>68.842375000000004</v>
+        <v>76.433750000000003</v>
       </c>
       <c r="I4">
-        <v>3.6775252589669298</v>
+        <v>3.53500894211804</v>
       </c>
       <c r="J4">
-        <v>3.7250621609188102</v>
+        <v>3.1539915200898601</v>
       </c>
       <c r="K4">
-        <v>0.57113352431083098</v>
+        <v>0.49886052133811898</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2.7199681572404799</v>
+        <v>2.0917819347309599</v>
       </c>
       <c r="B5" s="1">
-        <v>45279.418749999997</v>
+        <v>45279.534722222197</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
       </c>
       <c r="D5">
-        <v>452.6567</v>
+        <v>811.21124999999995</v>
       </c>
       <c r="E5">
-        <v>9377.6460000000006</v>
+        <v>7747.7939999999999</v>
       </c>
       <c r="F5">
-        <v>0.73138680186451299</v>
+        <v>0.38613206590049598</v>
       </c>
       <c r="G5">
-        <v>524.76898242925904</v>
+        <v>123.53270029118001</v>
       </c>
       <c r="H5">
-        <v>60.173708333333302</v>
+        <v>57.410541666666703</v>
       </c>
       <c r="I5">
-        <v>0.58631953021781402</v>
+        <v>9.3657584724838594E-2</v>
       </c>
       <c r="J5">
-        <v>0.69296879073905904</v>
+        <v>0.116487862981952</v>
       </c>
       <c r="K5">
-        <v>-0.15928632428432901</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1.5438688305191599</v>
-      </c>
-      <c r="B6" s="1">
-        <v>45569.448379629597</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6">
-        <v>373.09719000000001</v>
-      </c>
-      <c r="E6">
-        <v>1201.4880000000001</v>
-      </c>
-      <c r="F6">
-        <v>0.26345251809384701</v>
-      </c>
-      <c r="G6">
-        <v>34.983948943721103</v>
-      </c>
-      <c r="H6">
-        <v>76.006291666666698</v>
-      </c>
-      <c r="I6">
-        <v>18.702897913160601</v>
-      </c>
-      <c r="J6">
-        <v>16.805097252834202</v>
-      </c>
-      <c r="K6">
-        <v>1.22544103011981</v>
+        <v>-0.93371932197318797</v>
       </c>
     </row>
   </sheetData>
@@ -9459,13 +10803,16 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -9504,295 +10851,545 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2.1524333526343802</v>
+        <v>1.4483457453600399</v>
       </c>
       <c r="B2" s="1">
-        <v>45296.691319444399</v>
+        <v>45296.551157407397</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
       <c r="D2">
-        <v>680.57703333333302</v>
+        <v>669.22050000000002</v>
       </c>
       <c r="E2">
-        <v>4167.0529999999999</v>
+        <v>8812.9509999999991</v>
       </c>
       <c r="F2">
-        <v>0.304619300450722</v>
+        <v>0.242294433819637</v>
       </c>
       <c r="G2">
-        <v>142.04742084130001</v>
+        <v>28.076679556897801</v>
       </c>
       <c r="H2">
-        <v>52.267458333333302</v>
+        <v>57.088374999999999</v>
       </c>
       <c r="I2">
-        <v>3.2423941808893599</v>
+        <v>1.7502448346720501</v>
       </c>
       <c r="J2">
-        <v>4.4457519735520696</v>
+        <v>2.19012083047377</v>
       </c>
       <c r="K2">
-        <v>0.64794522995038195</v>
+        <v>0.34046807582660699</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1.87062750523785</v>
+        <v>1.32722727332793</v>
       </c>
       <c r="B3" s="1">
-        <v>45590.536805555603</v>
+        <v>45590.450462963003</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="D3">
-        <v>385.73862000000003</v>
+        <v>441.72498000000002</v>
       </c>
       <c r="E3">
-        <v>11406.38</v>
+        <v>2233.951</v>
       </c>
       <c r="F3">
-        <v>0.189070453385662</v>
+        <v>0.218316630467253</v>
       </c>
       <c r="G3">
-        <v>74.238212294659803</v>
+        <v>21.243558809611699</v>
       </c>
       <c r="H3">
-        <v>67.770875000000004</v>
+        <v>69.479695652173902</v>
       </c>
       <c r="I3">
-        <v>2.2494895291891299</v>
+        <v>5.6348978171871398</v>
       </c>
       <c r="J3">
-        <v>2.3214288357792698</v>
+        <v>5.6464437623618604</v>
       </c>
       <c r="K3">
-        <v>0.36575537475554798</v>
+        <v>0.75177500699751398</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1.69403875911316</v>
+        <v>0.73522198120371995</v>
       </c>
       <c r="B4" s="1">
-        <v>45597.512847222199</v>
+        <v>45231.5222222222</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
       <c r="D4">
-        <v>366.03865999999999</v>
+        <v>744.31614999999999</v>
       </c>
       <c r="E4">
-        <v>3957.6080000000002</v>
+        <v>4485.2950000000001</v>
       </c>
       <c r="F4">
-        <v>0.14022503226824601</v>
+        <v>0.13055244711888001</v>
       </c>
       <c r="G4">
-        <v>49.435480428423404</v>
+        <v>5.4352807434147303</v>
       </c>
       <c r="H4">
-        <v>68.742208333333295</v>
+        <v>68.842375000000004</v>
       </c>
       <c r="I4">
-        <v>5.98707457535708</v>
+        <v>3.6775252589669298</v>
       </c>
       <c r="J4">
-        <v>6.0757335254178502</v>
+        <v>3.7250621609188102</v>
       </c>
       <c r="K4">
-        <v>0.78359871795927805</v>
+        <v>0.57113352431083098</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1.3383778507114601</v>
+        <v>2.7199681572404799</v>
       </c>
       <c r="B5" s="1">
-        <v>45618.559143518498</v>
+        <v>45279.418749999997</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
       <c r="D5">
-        <v>2122.394256</v>
+        <v>452.6567</v>
       </c>
       <c r="E5">
-        <v>3764.232</v>
+        <v>9377.6460000000006</v>
       </c>
       <c r="F5">
-        <v>7.67954910734997E-2</v>
+        <v>0.73138680186451299</v>
       </c>
       <c r="G5">
-        <v>21.7960527708121</v>
+        <v>524.76898242925904</v>
       </c>
       <c r="H5">
-        <v>56.827624999999998</v>
+        <v>60.173708333333302</v>
       </c>
       <c r="I5">
-        <v>324.26597590544202</v>
+        <v>0.58631953021781402</v>
       </c>
       <c r="J5">
-        <v>407.81890792954698</v>
+        <v>0.69296879073905904</v>
+      </c>
+      <c r="K5">
+        <v>-0.15928632428432901</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1.45106574211743</v>
+        <v>1.5438688305191599</v>
       </c>
       <c r="B6" s="1">
-        <v>45266.638425925899</v>
+        <v>45569.448379629597</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6">
-        <v>711.255675</v>
+        <v>373.09719000000001</v>
       </c>
       <c r="E6">
-        <v>3986.5630000000001</v>
+        <v>1077.366</v>
       </c>
       <c r="F6">
-        <v>9.2948582820242806E-2</v>
+        <v>0.26345251809384701</v>
       </c>
       <c r="G6">
-        <v>28.253076286296299</v>
+        <v>34.983948943721103</v>
       </c>
       <c r="H6">
-        <v>57.605125000000001</v>
+        <v>76.006291666666698</v>
       </c>
       <c r="I6">
-        <v>1.7493497646667899</v>
+        <v>22.574804511993101</v>
       </c>
       <c r="J6">
-        <v>2.16774731953429</v>
+        <v>20.284117843621001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="1">
+        <v>45660.5559027778</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2">
+        <v>335.25396000000001</v>
+      </c>
+      <c r="I2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K2" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2.1524333526343802</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45296.691319444399</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>680.57703333333302</v>
+      </c>
+      <c r="E3">
+        <v>4167.0529999999999</v>
+      </c>
+      <c r="F3">
+        <v>0.304619300450722</v>
+      </c>
+      <c r="G3">
+        <v>142.04742084130001</v>
+      </c>
+      <c r="H3">
+        <v>52.267458333333302</v>
+      </c>
+      <c r="I3">
+        <v>3.2423941808893599</v>
+      </c>
+      <c r="J3">
+        <v>4.4457519735520696</v>
+      </c>
+      <c r="K3">
+        <v>0.64794522995038195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1.87062750523785</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45590.536805555603</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>385.73862000000003</v>
+      </c>
+      <c r="E4">
+        <v>11406.38</v>
+      </c>
+      <c r="F4">
+        <v>0.189070453385662</v>
+      </c>
+      <c r="G4">
+        <v>74.238212294659803</v>
+      </c>
+      <c r="H4">
+        <v>67.770875000000004</v>
+      </c>
+      <c r="I4">
+        <v>2.2494895291891299</v>
+      </c>
+      <c r="J4">
+        <v>2.3214288357792698</v>
+      </c>
+      <c r="K4">
+        <v>0.36575537475554798</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1.69403875911316</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45597.512847222199</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>366.03865999999999</v>
+      </c>
+      <c r="E5">
+        <v>3957.6080000000002</v>
+      </c>
+      <c r="F5">
+        <v>0.14022503226824601</v>
+      </c>
+      <c r="G5">
+        <v>49.435480428423404</v>
+      </c>
+      <c r="H5">
+        <v>68.742208333333295</v>
+      </c>
+      <c r="I5">
+        <v>5.98707457535708</v>
+      </c>
+      <c r="J5">
+        <v>6.0757335254178502</v>
+      </c>
+      <c r="K5">
+        <v>0.78359871795927805</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1.3383778507114601</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45618.559143518498</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6">
+        <v>2122.394256</v>
+      </c>
+      <c r="E6">
+        <v>3764.232</v>
+      </c>
+      <c r="F6">
+        <v>7.67954910734997E-2</v>
+      </c>
+      <c r="G6">
+        <v>21.7960527708121</v>
+      </c>
+      <c r="H6">
+        <v>56.827624999999998</v>
+      </c>
+      <c r="I6">
+        <v>324.26597590544202</v>
+      </c>
+      <c r="J6">
+        <v>407.81890792954698</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1.14396940161106</v>
+        <v>1.45106574211743</v>
       </c>
       <c r="B7" s="1">
-        <v>45639.595601851797</v>
+        <v>45266.638425925899</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>335.75364000000002</v>
+        <v>711.255675</v>
+      </c>
+      <c r="E7">
+        <v>3986.5630000000001</v>
       </c>
       <c r="F7">
-        <v>5.5228227659252498E-2</v>
+        <v>9.2948582820242806E-2</v>
       </c>
       <c r="G7">
-        <v>13.9305865099121</v>
+        <v>28.253076286296299</v>
       </c>
       <c r="H7">
-        <v>51.593166666666697</v>
+        <v>57.605125000000001</v>
+      </c>
+      <c r="I7">
+        <v>1.7493497646667899</v>
+      </c>
+      <c r="J7">
+        <v>2.16774731953429</v>
+      </c>
+      <c r="K7">
+        <v>0.33600865788138401</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2.0637289235462299</v>
+        <v>1.14396940161106</v>
       </c>
       <c r="B8" s="1">
-        <v>45331.513657407399</v>
+        <v>45639.595601851797</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>464.2354962</v>
-      </c>
-      <c r="E8">
-        <v>3784.3</v>
+        <v>335.75364000000002</v>
       </c>
       <c r="F8">
-        <v>0.26214009253193299</v>
+        <v>5.5228227659252498E-2</v>
       </c>
       <c r="G8">
-        <v>115.805430012386</v>
+        <v>13.9305865099121</v>
       </c>
       <c r="H8">
-        <v>55.680374999999998</v>
-      </c>
-      <c r="I8">
-        <v>134.29547670046</v>
-      </c>
-      <c r="J8">
-        <v>172.539893863929</v>
+        <v>51.593166666666697</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1.73291751991694</v>
+        <v>2.0637289235462299</v>
       </c>
       <c r="B9" s="1">
-        <v>45502.6175925926</v>
+        <v>45331.513657407399</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>703.29944999999998</v>
+        <v>464.2354962</v>
       </c>
       <c r="E9">
-        <v>5518.3209999999999</v>
+        <v>3784.3</v>
       </c>
       <c r="F9">
-        <v>0.14969712289074899</v>
+        <v>0.26214009253193299</v>
       </c>
       <c r="G9">
-        <v>54.065163403678802</v>
+        <v>115.805430012386</v>
       </c>
       <c r="H9">
-        <v>77.678708333333304</v>
+        <v>55.680374999999998</v>
       </c>
       <c r="I9">
-        <v>18.435644843616998</v>
+        <v>134.29547670046</v>
       </c>
       <c r="J9">
-        <v>16.119744750891499</v>
-      </c>
-      <c r="K9">
-        <v>1.2073581606603301</v>
+        <v>172.539893863929</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>1.73291751991694</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45502.6175925926</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10">
+        <v>703.29944999999998</v>
+      </c>
+      <c r="E10">
+        <v>5518.3209999999999</v>
+      </c>
+      <c r="F10">
+        <v>0.14969712289074899</v>
+      </c>
+      <c r="G10">
+        <v>54.065163403678802</v>
+      </c>
+      <c r="H10">
+        <v>77.678708333333304</v>
+      </c>
+      <c r="I10">
+        <v>18.435644843616998</v>
+      </c>
+      <c r="J10">
+        <v>16.119744750891499</v>
+      </c>
+      <c r="K10">
+        <v>1.2073581606603301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>1.88489030406534</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B11" s="1">
         <v>45569.557407407403</v>
       </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10">
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11">
         <v>403.84739999999999</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>8906.6890000000003</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>0.19368252554686899</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <v>76.716769043187597</v>
       </c>
-      <c r="H10">
+      <c r="H11">
         <v>76.782666666666699</v>
       </c>
-      <c r="I10">
+      <c r="I11">
         <v>3.5288640506226399</v>
       </c>
-      <c r="J10">
+      <c r="J11">
         <v>3.1310158251127902</v>
       </c>
-      <c r="K10">
+      <c r="K11">
         <v>0.49568526267976798</v>
       </c>
     </row>

--- a/04_Output/rC_k600_edited.xlsx
+++ b/04_Output/rC_k600_edited.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samanthahowley\Desktop\Howley_Bradford_Streams\04_Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Howley_Bradford_Streams\Howley_Bradford_Streams\04_Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99FA9754-C732-4131-AA8D-6FE7F24A4234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF47E415-A592-4BAE-9C10-7537D35F68CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="21">
   <si>
     <t>logQ</t>
   </si>
@@ -54,10 +54,13 @@
     <t>Temp</t>
   </si>
   <si>
-    <t>KCO2_1d</t>
+    <t>KCO2_dh</t>
   </si>
   <si>
-    <t>k600_1d</t>
+    <t>k600_dh</t>
+  </si>
+  <si>
+    <t>KCO2_1d</t>
   </si>
   <si>
     <t>log_K600</t>
@@ -206,11 +209,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'13'!$K$1</c:f>
+              <c:f>'13'!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>log_K600</c:v>
+                  <c:v>k600_dh</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -237,64 +240,56 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'13'!$A$2:$A$8</c:f>
+              <c:f>'13'!$F$2:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.1803076333425399E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.2027430068846006E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6819055456292601E-2</c:v>
+                </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.46461108423501202</c:v>
+                  <c:v>0.173458550098919</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.2829882932493206E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.9854859730025299E-2</c:v>
+                  <c:v>9.6741420654558305E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.2924137793734398</c:v>
+                  <c:v>0.535585069806503</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'13'!$K$2:$K$8</c:f>
+              <c:f>'13'!$J$2:$J$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>6.7770495933372303E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.4720682359536399</c:v>
+                  <c:v>3.3803954304686301E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2.47946706179097E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.19247311371887</c:v>
+                  <c:v>2.3846125037819001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.47387400561080101</c:v>
+                  <c:v>4.16356543733956E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -302,7 +297,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5F30-4998-92EE-971047270A4A}"/>
+              <c16:uniqueId val="{00000000-05C2-4D98-902D-B837DF2C3DEC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -314,11 +309,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="459264208"/>
-        <c:axId val="459263728"/>
+        <c:axId val="2012233712"/>
+        <c:axId val="2012226512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="459264208"/>
+        <c:axId val="2012233712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -375,12 +370,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459263728"/>
+        <c:crossAx val="2012226512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="459263728"/>
+        <c:axId val="2012226512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -437,7 +432,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459264208"/>
+        <c:crossAx val="2012233712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -548,11 +543,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'15'!$K$1</c:f>
+              <c:f>'15'!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>log_K600</c:v>
+                  <c:v>k600_dh</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -581,51 +576,63 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'15'!$A$2:$A$8</c:f>
+              <c:f>'15'!$F$2:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.4881172315497</c:v>
+                  <c:v>0.19585224806813301</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6248134307019</c:v>
+                  <c:v>0.27757648176453398</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0657730654139801</c:v>
+                  <c:v>0.21609790544256399</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.32469510041389998</c:v>
+                  <c:v>0.14324969531057899</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.8474221206701502</c:v>
+                  <c:v>8.0274044883753906E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0477630034810299</c:v>
+                  <c:v>0.50826006985347305</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.71108095362448</c:v>
+                  <c:v>0.29201786247728301</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.22996315545078599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'15'!$K$2:$K$8</c:f>
+              <c:f>'15'!$J$2:$J$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.843095617468262</c:v>
+                  <c:v>6.2667295413507698E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.52962388841246</c:v>
+                  <c:v>0.52019852460231497</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33304642862635703</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90949515581084905</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.48120094839522</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.97991814613576</c:v>
+                  <c:v>0.44035281996381798</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.24132745720325</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.44145804581688</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -633,7 +640,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A7E7-4E56-A252-E3595AC3E4B2}"/>
+              <c16:uniqueId val="{00000000-52FB-4AA0-9C08-148FE4BD4C29}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -645,11 +652,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="639803648"/>
-        <c:axId val="639806528"/>
+        <c:axId val="2015832976"/>
+        <c:axId val="1851234176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="639803648"/>
+        <c:axId val="2015832976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -706,12 +713,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="639806528"/>
+        <c:crossAx val="1851234176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="639806528"/>
+        <c:axId val="1851234176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -768,7 +775,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="639803648"/>
+        <c:crossAx val="2015832976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -879,11 +886,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'3'!$K$1</c:f>
+              <c:f>'3'!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>log_K600</c:v>
+                  <c:v>k600_dh</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -912,51 +919,54 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'3'!$A$2:$A$7</c:f>
+              <c:f>'3'!$F$2:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.5793165496351</c:v>
+                  <c:v>0.422753905123254</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.37477885123213</c:v>
+                  <c:v>0.52458611330445803</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.25618350175535</c:v>
+                  <c:v>0.363585946262801</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32324005414038398</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5649973413878699</c:v>
+                  <c:v>0.11668969198078299</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4878939378143801</c:v>
+                  <c:v>0.87871579907905895</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.39510332832113498</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'3'!$K$2:$K$7</c:f>
+              <c:f>'3'!$J$2:$J$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>-1.03354745556387</c:v>
+                  <c:v>1.59196125458791E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33046359994212099</c:v>
+                  <c:v>2.0502892626264702E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.12029744567433</c:v>
+                  <c:v>3.1531697631642701E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.74248057710500204</c:v>
+                  <c:v>1.02097823373577E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1271483962406099</c:v>
+                  <c:v>0.200053915250054</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -964,7 +974,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2EC6-444D-84D7-1914502D375B}"/>
+              <c16:uniqueId val="{00000000-06C3-4119-B8FA-879C5F7DA353}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -976,11 +986,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="639805568"/>
-        <c:axId val="547831872"/>
+        <c:axId val="1695829728"/>
+        <c:axId val="1851070928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="639805568"/>
+        <c:axId val="1695829728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1037,12 +1047,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="547831872"/>
+        <c:crossAx val="1851070928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="547831872"/>
+        <c:axId val="1851070928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1099,7 +1109,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="639805568"/>
+        <c:crossAx val="1695829728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1210,11 +1220,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'5'!$K$1</c:f>
+              <c:f>'5'!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>log_K600</c:v>
+                  <c:v>k600_dh</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1241,79 +1251,83 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'5'!$A$2:$A$13</c:f>
+              <c:f>'5'!$F$2:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.65191006424436304</c:v>
+                  <c:v>5.9249035421147699E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22145740179592199</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3118762106125899</c:v>
+                  <c:v>3.8657298433478003E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10187461910508699</c:v>
+                  <c:v>0.31670942796431001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.6975516888096697E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.2556512174496599</c:v>
+                  <c:v>4.2176871323439502E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.285012367816944</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0552944308616801</c:v>
+                  <c:v>3.4511311120524399E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.20071662604863699</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.7379731820837798</c:v>
+                  <c:v>3.9109156854677397E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.5189014562496901</c:v>
+                  <c:v>0.75658739105356998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.7573193687705799</c:v>
+                  <c:v>0.47694777291652501</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.13001805807807401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'5'!$K$2:$K$13</c:f>
+              <c:f>'5'!$J$2:$J$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
+                <c:ptCount val="13"/>
                 <c:pt idx="2">
-                  <c:v>0.668476072734428</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.77854869405477301</c:v>
+                  <c:v>3.09288241918769E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9854762303598699E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.05761348096275E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.81087624729699004</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.36288571204037201</c:v>
+                  <c:v>5.6304595414703E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.7932408519058297E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.130357159032578</c:v>
+                  <c:v>6.6934508597743303E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.3454575425552002E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.2086852237835102E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1321,7 +1335,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-126E-4213-8583-FC496C76D4B4}"/>
+              <c16:uniqueId val="{00000000-C8BC-40D9-BD27-AF457848B125}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1333,11 +1347,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="649846032"/>
-        <c:axId val="649844592"/>
+        <c:axId val="1695831648"/>
+        <c:axId val="1851074080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="649846032"/>
+        <c:axId val="1695831648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1394,12 +1408,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="649844592"/>
+        <c:crossAx val="1851074080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="649844592"/>
+        <c:axId val="1851074080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1456,7 +1470,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="649846032"/>
+        <c:crossAx val="1695831648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1567,11 +1581,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'5a'!$K$1</c:f>
+              <c:f>'5a'!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>log_K600</c:v>
+                  <c:v>k600_dh</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1600,42 +1614,45 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'5a'!$A$2:$A$5</c:f>
+              <c:f>'5a'!$F$2:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.1162597991251899</c:v>
+                  <c:v>0.52599051773861105</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.83364298367996603</c:v>
+                  <c:v>0.52314207089952602</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.88643327723876397</c:v>
+                  <c:v>0.45046535211951499</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97707971959916795</c:v>
+                  <c:v>0.45326953896332001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.48690939353906698</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'5a'!$K$2:$K$5</c:f>
+              <c:f>'5a'!$J$2:$J$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.22131219790422901</c:v>
+                  <c:v>2.95461493180833E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6422222231553301</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-7.5892351724544505E-2</c:v>
+                  <c:v>0.26721608984758999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.85258190192095995</c:v>
+                  <c:v>1.27094099773852E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.114810057389193</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1643,7 +1660,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E77E-431B-AE7A-DEE24D4E1B15}"/>
+              <c16:uniqueId val="{00000000-D611-4BF2-90D3-CFF2A5F17F62}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1655,11 +1672,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="651608848"/>
-        <c:axId val="651609328"/>
+        <c:axId val="2025954576"/>
+        <c:axId val="1695824448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="651608848"/>
+        <c:axId val="2025954576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1716,12 +1733,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="651609328"/>
+        <c:crossAx val="1695824448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="651609328"/>
+        <c:axId val="1695824448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1778,7 +1795,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="651608848"/>
+        <c:crossAx val="2025954576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1889,11 +1906,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'6'!$K$1</c:f>
+              <c:f>'6'!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>log_K600</c:v>
+                  <c:v>k600_dh</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1920,85 +1937,86 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'6'!$A$2:$A$13</c:f>
+              <c:f>'6'!$F$2:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.12874386448073599</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1881156237595101</c:v>
+                  <c:v>0.44772677954446899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.39908982793172199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.9138536458891403E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0110110910579002</c:v>
+                  <c:v>0.146682711547242</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7828434038411201</c:v>
+                  <c:v>0.37002135752523302</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.89797448535591495</c:v>
+                  <c:v>0.30001852958251402</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4257957424157901</c:v>
+                  <c:v>0.18724196474367</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.234268725880109</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.9456017881402901</c:v>
+                  <c:v>0.14840614156752799</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.7943904616036399</c:v>
+                  <c:v>0.34695286733230901</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.1475703153380201</c:v>
+                  <c:v>0.30285820571641198</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.42756115791951899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'6'!$K$2:$K$13</c:f>
+              <c:f>'6'!$J$2:$J$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5.3629011796996397E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.45660363252434699</c:v>
+                  <c:v>3.4306204774390801E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1.93832495193451E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.3537318581898601</c:v>
+                  <c:v>1.19519645480923E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19759869761570001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.2177340865537001</c:v>
+                  <c:v>1.0333831699921499E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.55887757311658</c:v>
+                  <c:v>9.9277292154952998E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.45795944678799999</c:v>
+                  <c:v>0.215449086397794</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.20015690036934E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2006,7 +2024,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5341-4A7E-851E-2D5A6757C2BD}"/>
+              <c16:uniqueId val="{00000000-46BB-44B7-9925-8556D74D6609}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2018,11 +2036,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="652806736"/>
-        <c:axId val="652808656"/>
+        <c:axId val="25990448"/>
+        <c:axId val="25975568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="652806736"/>
+        <c:axId val="25990448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2079,12 +2097,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="652808656"/>
+        <c:crossAx val="25975568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="652808656"/>
+        <c:axId val="25975568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2141,7 +2159,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="652806736"/>
+        <c:crossAx val="25990448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2252,11 +2270,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'6a'!$K$1</c:f>
+              <c:f>'6a'!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>log_K600</c:v>
+                  <c:v>k600_dh</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2285,36 +2303,45 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'6a'!$A$2:$A$5</c:f>
+              <c:f>'6a'!$F$2:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>-2.3790966063830399</c:v>
+                  <c:v>0.306130731104437</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.9416178515821101</c:v>
+                  <c:v>0.23014485917083699</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.422218509888519</c:v>
+                  <c:v>0.239311089488986</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0917819347309599</c:v>
+                  <c:v>0.29234008845640103</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.58613206590049605</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'6a'!$K$2:$K$5</c:f>
+              <c:f>'6a'!$J$2:$J$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
+                <c:pt idx="1">
+                  <c:v>0.263883780252057</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.49886052133811898</c:v>
+                  <c:v>0.45369155806565797</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.93371932197318797</c:v>
+                  <c:v>1.21349939981598E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.87415413273145E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2322,7 +2349,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-47B3-4E25-8D1E-3E049AC097D6}"/>
+              <c16:uniqueId val="{00000000-8D3A-49A8-B29A-7424BCF91769}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2334,11 +2361,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="651608368"/>
-        <c:axId val="651608848"/>
+        <c:axId val="25984208"/>
+        <c:axId val="25990448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="651608368"/>
+        <c:axId val="25984208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2395,12 +2422,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="651608848"/>
+        <c:crossAx val="25990448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="651608848"/>
+        <c:axId val="25990448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2457,7 +2484,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="651608368"/>
+        <c:crossAx val="25984208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2568,11 +2595,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'7'!$K$1</c:f>
+              <c:f>'7'!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>log_K600</c:v>
+                  <c:v>k600_dh</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2599,61 +2626,50 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'7'!$A$2:$A$6</c:f>
+              <c:f>'7'!$F$2:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.4483457453600399</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.32722727332793</c:v>
+                  <c:v>0.23229443381963699</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.73522198120371995</c:v>
+                  <c:v>0.20831663046725299</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7199681572404799</c:v>
+                  <c:v>0.13055244711888001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5438688305191599</c:v>
+                  <c:v>0.72138680186451298</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.253452518093848</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'7'!$K$2:$K$6</c:f>
+              <c:f>'7'!$J$2:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.34046807582660699</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.75177500699751398</c:v>
+                  <c:v>2.2110586942343202E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.57113352431083098</c:v>
+                  <c:v>5.1376184809108202E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.15928632428432901</c:v>
+                  <c:v>2.02631658657456E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.11178428187733E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.22266258013392901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2661,7 +2677,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D05D-4EB0-870A-D03C3C3EB548}"/>
+              <c16:uniqueId val="{00000000-4B91-45E2-AC38-B02E9190F0DD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2673,11 +2689,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="651610768"/>
-        <c:axId val="538824736"/>
+        <c:axId val="25975088"/>
+        <c:axId val="25983248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="651610768"/>
+        <c:axId val="25975088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2734,12 +2750,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="538824736"/>
+        <c:crossAx val="25983248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="538824736"/>
+        <c:axId val="25983248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2796,7 +2812,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="651610768"/>
+        <c:crossAx val="25975088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2907,11 +2923,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'9'!$K$1</c:f>
+              <c:f>'9'!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>log_K600</c:v>
+                  <c:v>k600_dh</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2940,66 +2956,72 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'9'!$A$2:$A$11</c:f>
+              <c:f>'9'!$F$2:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5.0095874737204102E-2</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1524333526343802</c:v>
+                  <c:v>0.304619300450722</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.87062750523785</c:v>
+                  <c:v>0.201714359792356</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.69403875911316</c:v>
+                  <c:v>0.189070453385662</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3383778507114601</c:v>
+                  <c:v>0.14022503226824601</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.45106574211743</c:v>
+                  <c:v>7.67954910734997E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.14396940161106</c:v>
+                  <c:v>9.2948582820242806E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0637289235462299</c:v>
+                  <c:v>5.5228227659252498E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.73291751991694</c:v>
+                  <c:v>0.26214009253193299</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.88489030406534</c:v>
+                  <c:v>0.14969712289074899</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.19368252554686899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'9'!$K$2:$K$11</c:f>
+              <c:f>'9'!$J$2:$J$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.64794522995038195</c:v>
+                  <c:v>4.39929220295616E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.36575537475554798</c:v>
+                  <c:v>0.20696094168458201</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.78359871795927805</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.33600865788138401</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.2073581606603301</c:v>
+                  <c:v>1.8288066770139E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5498747068957698E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.3953767192955307E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.49568526267976798</c:v>
+                  <c:v>0.100544975455905</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5267627188960799E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3007,7 +3029,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4D21-4942-8C97-E1BEF1A2FFD1}"/>
+              <c16:uniqueId val="{00000000-2906-4865-BE95-052E0A54A88E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3019,11 +3041,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="538827136"/>
-        <c:axId val="538825696"/>
+        <c:axId val="25992848"/>
+        <c:axId val="25993328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="538827136"/>
+        <c:axId val="25992848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3080,12 +3102,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="538825696"/>
+        <c:crossAx val="25993328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="538825696"/>
+        <c:axId val="25993328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3142,7 +3164,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="538827136"/>
+        <c:crossAx val="25992848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8206,23 +8228,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>595312</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>595312</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25CABF62-461D-A50F-D184-861ED0AA5A3B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BFDC645-9837-383F-8518-59D0E732ECE5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8247,23 +8269,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{346DA5D5-4C78-C12C-BD9D-1E6E3E7EA599}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58F62F2E-5B7A-9320-00C4-A79CA3C97357}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8288,23 +8310,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CEEC149-E1BB-E2F9-2AAA-196984463878}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F0466E8-F623-D361-9842-973680E4868F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8330,22 +8352,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>742949</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BD9A5BC-F6C7-31CD-04DB-04FEDC50F81B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4BA7F5A-7F5B-4BE8-76F8-0DE7197C7247}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8370,23 +8392,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>700087</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>700087</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8702A357-300E-E35A-2697-79779FEBB139}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68818599-7184-3FB0-710A-ECA542063F19}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8411,23 +8433,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>300037</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>300037</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F2E1600-E969-409E-E711-1963F213ECBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C34B6459-D259-CA9D-5EDE-AF25B64ECB1A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8452,23 +8474,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>700087</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>700087</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0A648B3-A2FB-C131-F7F1-AEA0250FD37B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CAEF3A9-055F-D3D0-72D0-36A1C5B63DCA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8493,23 +8515,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>700087</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>700087</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DE290D3-04F7-1046-A610-13BB23DE581E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E719CF04-5CDB-DE1F-CB4A-14971AC8915F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8534,23 +8556,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>347662</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>347662</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89DFA9EB-0323-B6FE-B572-841DBCB9018B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AFD56C0-F0FE-0668-AC83-CB52F3538844}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8850,18 +8872,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" activeCellId="1" sqref="A1:A1048576 K1:K1048576"/>
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8895,76 +8917,130 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>-9.4602287968859097E-2</v>
+      </c>
       <c r="B2" s="1">
         <v>45442.611111111102</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>749.64344000000006</v>
       </c>
-      <c r="I2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K2" t="e">
-        <v>#NUM!</v>
+      <c r="E2">
+        <v>4081.7310000000002</v>
+      </c>
+      <c r="F2">
+        <v>2.1803076333425399E-2</v>
+      </c>
+      <c r="G2">
+        <v>0.80426230095528795</v>
+      </c>
+      <c r="H2">
+        <v>73.386250000000004</v>
+      </c>
+      <c r="I2">
+        <v>-7.2230120683586399E-3</v>
+      </c>
+      <c r="J2">
+        <v>6.7770495933372303E-3</v>
+      </c>
+      <c r="K2">
+        <v>7.2230120683586399E-3</v>
+      </c>
+      <c r="L2">
+        <v>-2.1689593362525699</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.94412255542288104</v>
+      </c>
       <c r="B3" s="1">
         <v>45590.559143518498</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>380.73329999999999</v>
       </c>
-      <c r="I3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K3" t="e">
-        <v>#NUM!</v>
+      <c r="E3">
+        <v>4180.3980000000001</v>
+      </c>
+      <c r="F3">
+        <v>9.2027430068846006E-2</v>
+      </c>
+      <c r="G3">
+        <v>8.7927060696889594</v>
+      </c>
+      <c r="H3">
+        <v>68.770458333333295</v>
+      </c>
+      <c r="I3">
+        <v>-3.33313008490599E-2</v>
+      </c>
+      <c r="J3">
+        <v>3.3803954304686301E-2</v>
+      </c>
+      <c r="K3">
+        <v>3.33313008490599E-2</v>
+      </c>
+      <c r="L3">
+        <v>-1.47103249403429</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.59219990094441599</v>
+      </c>
       <c r="B4" s="1">
         <v>45639.626736111102</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4">
         <v>350.53264000000001</v>
       </c>
-      <c r="I4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K4" t="e">
-        <v>#NUM!</v>
+      <c r="E4">
+        <v>1004.816</v>
+      </c>
+      <c r="F4">
+        <v>5.6819055456292601E-2</v>
+      </c>
+      <c r="G4">
+        <v>3.9102083694124099</v>
+      </c>
+      <c r="H4">
+        <v>56.352833333333301</v>
+      </c>
+      <c r="I4">
+        <v>-0.18731814069170799</v>
+      </c>
+      <c r="K4">
+        <v>0.18731814069170799</v>
+      </c>
+      <c r="L4">
+        <v>-0.62403865282487503</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.46461108423501202</v>
+        <v>1.4070280222368301</v>
       </c>
       <c r="B5" s="1">
         <v>45331.546296296299</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <v>841.73281919999999</v>
@@ -8973,53 +9049,71 @@
         <v>2525.2719999999999</v>
       </c>
       <c r="F5">
-        <v>5.3458550098918499E-2</v>
+        <v>0.173458550098919</v>
       </c>
       <c r="G5">
-        <v>2.91481559359605</v>
+        <v>25.528660174141699</v>
       </c>
       <c r="H5">
         <v>58.711833333333303</v>
       </c>
       <c r="I5">
-        <v>2442.33913134876</v>
-      </c>
-      <c r="J5">
-        <v>2965.2972577307</v>
+        <v>5.4401628671565296</v>
       </c>
       <c r="K5">
-        <v>3.4720682359536399</v>
+        <v>5.4401628671565296</v>
+      </c>
+      <c r="L5">
+        <v>0.81987416990127404</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.77272923925196801</v>
+      </c>
       <c r="B6" s="1">
         <v>45569.592476851903</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <v>410.82921599999997</v>
       </c>
-      <c r="I6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K6" t="e">
-        <v>#NUM!</v>
+      <c r="E6">
+        <v>4180.3980000000001</v>
+      </c>
+      <c r="F6">
+        <v>7.2829882932493206E-2</v>
+      </c>
+      <c r="G6">
+        <v>5.9255578069466397</v>
+      </c>
+      <c r="H6">
+        <v>75.485124999999996</v>
+      </c>
+      <c r="I6">
+        <v>-2.7360058733056799E-2</v>
+      </c>
+      <c r="J6">
+        <v>2.47946706179097E-2</v>
+      </c>
+      <c r="K6">
+        <v>2.7360058733056799E-2</v>
+      </c>
+      <c r="L6">
+        <v>-1.6056416566720999</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>8.9854859730025299E-2</v>
+        <v>1.0661612972879999</v>
       </c>
       <c r="B7" s="1">
         <v>45231.643750000003</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7">
         <v>861.60841666666704</v>
@@ -9028,33 +9122,36 @@
         <v>4695.2049999999999</v>
       </c>
       <c r="F7">
-        <v>3.67414206545583E-2</v>
+        <v>9.6741420654558305E-2</v>
       </c>
       <c r="G7">
-        <v>1.2298576863642501</v>
+        <v>11.645584669675101</v>
       </c>
       <c r="H7">
         <v>68.241833333333304</v>
       </c>
       <c r="I7">
-        <v>15.2165979978598</v>
+        <v>-2.3294976165444799E-2</v>
       </c>
       <c r="J7">
-        <v>15.5766160020993</v>
+        <v>2.3846125037819001E-2</v>
       </c>
       <c r="K7">
-        <v>1.19247311371887</v>
+        <v>2.3294976165444799E-2</v>
+      </c>
+      <c r="L7">
+        <v>-1.62258218314034</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2.2924137793734398</v>
+        <v>2.2314090687618999</v>
       </c>
       <c r="B8" s="1">
         <v>45279.638888888898</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8">
         <v>682.46505000000002</v>
@@ -9063,22 +9160,25 @@
         <v>4360.4979999999996</v>
       </c>
       <c r="F8">
-        <v>0.33558506980650299</v>
+        <v>0.535585069806503</v>
       </c>
       <c r="G8">
-        <v>196.071187605879</v>
+        <v>170.37625534230901</v>
       </c>
       <c r="H8">
         <v>58.136791666666703</v>
       </c>
       <c r="I8">
-        <v>2.4264211253232499</v>
+        <v>-3.3927945946732298E-2</v>
       </c>
       <c r="J8">
-        <v>2.9776524490128899</v>
+        <v>4.16356543733956E-2</v>
       </c>
       <c r="K8">
-        <v>0.47387400561080101</v>
+        <v>3.3927945946732298E-2</v>
+      </c>
+      <c r="L8">
+        <v>-1.38053460529363</v>
       </c>
     </row>
   </sheetData>
@@ -9090,15 +9190,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9132,16 +9235,19 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1.4881172315497</v>
+        <v>1.38566869103697</v>
       </c>
       <c r="B2" s="1">
         <v>45296.476041666698</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2">
         <v>638.45846666666705</v>
@@ -9150,223 +9256,288 @@
         <v>3992.6460000000002</v>
       </c>
       <c r="F2">
-        <v>0.215852248068133</v>
+        <v>0.19585224806813301</v>
       </c>
       <c r="G2">
-        <v>30.7692727491814</v>
+        <v>24.3034926825508</v>
       </c>
       <c r="H2">
         <v>53.767708333333303</v>
       </c>
       <c r="I2">
-        <v>5.2289212652668198</v>
+        <v>-4.7028100419962797E-2</v>
       </c>
       <c r="J2">
-        <v>6.9677990541449004</v>
+        <v>6.2667295413507698E-2</v>
       </c>
       <c r="K2">
-        <v>0.843095617468262</v>
+        <v>4.7028100419962797E-2</v>
+      </c>
+      <c r="L2">
+        <v>-1.2029590481169301</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1.6248134307019</v>
+        <v>1.91855663221169</v>
       </c>
       <c r="B3" s="1">
+        <v>45684.479050925896</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>351.12894</v>
+      </c>
+      <c r="E3">
+        <v>1052.144</v>
+      </c>
+      <c r="F3">
+        <v>0.27757648176453398</v>
+      </c>
+      <c r="G3">
+        <v>82.900401175148204</v>
+      </c>
+      <c r="H3">
+        <v>51.200333333333298</v>
+      </c>
+      <c r="I3">
+        <v>-0.37173427288938399</v>
+      </c>
+      <c r="J3">
+        <v>0.52019852460231497</v>
+      </c>
+      <c r="K3">
+        <v>0.37173427288938399</v>
+      </c>
+      <c r="L3">
+        <v>-0.28383088389328298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1.5367296105642001</v>
+      </c>
+      <c r="B4" s="1">
         <v>45484.508796296301</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3">
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
         <v>792.39509999999996</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>8306.5229999999992</v>
       </c>
-      <c r="F3">
-        <v>0.23609790544256401</v>
-      </c>
-      <c r="G3">
-        <v>42.151538502354697</v>
-      </c>
-      <c r="H3">
+      <c r="F4">
+        <v>0.21609790544256399</v>
+      </c>
+      <c r="G4">
+        <v>34.413560705227098</v>
+      </c>
+      <c r="H4">
         <v>76.441249999999997</v>
       </c>
-      <c r="I3">
-        <v>37.9449411668583</v>
-      </c>
-      <c r="J3">
-        <v>33.855083432652698</v>
-      </c>
-      <c r="K3">
-        <v>1.52962388841246</v>
+      <c r="I4">
+        <v>-0.37328004715152302</v>
+      </c>
+      <c r="J4">
+        <v>0.33304642862635703</v>
+      </c>
+      <c r="K4">
+        <v>0.37328004715152302</v>
+      </c>
+      <c r="L4">
+        <v>-0.47749521907417602</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1.0657730654139801</v>
-      </c>
-      <c r="B4" s="1">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.90988836207992196</v>
+      </c>
+      <c r="B5" s="1">
         <v>45590.410069444399</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4">
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
         <v>546.66366000000005</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>1413.367</v>
       </c>
-      <c r="F4">
-        <v>0.16324969531057901</v>
-      </c>
-      <c r="G4">
-        <v>11.635178903259201</v>
-      </c>
-      <c r="H4">
+      <c r="F5">
+        <v>0.14324969531057899</v>
+      </c>
+      <c r="G5">
+        <v>8.1262160020957896</v>
+      </c>
+      <c r="H5">
         <v>69.349500000000006</v>
       </c>
-      <c r="I4">
-        <v>133.14792377377401</v>
-      </c>
-      <c r="J4">
-        <v>133.70857261285099</v>
+      <c r="I5">
+        <v>0.90568158280436795</v>
+      </c>
+      <c r="J5">
+        <v>0.90949515581084905</v>
+      </c>
+      <c r="K5">
+        <v>0.90568158280436795</v>
+      </c>
+      <c r="L5">
+        <v>-4.1199609750822097E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0.32469510041389998</v>
-      </c>
-      <c r="B5" s="1">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2.3406710570227699E-2</v>
+      </c>
+      <c r="B6" s="1">
         <v>45639.483333333301</v>
       </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5">
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
         <v>660.91974000000005</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>4022.2620000000002</v>
       </c>
-      <c r="F5">
-        <v>0.10027404488375399</v>
-      </c>
-      <c r="G5">
-        <v>2.1120057702817201</v>
-      </c>
-      <c r="H5">
+      <c r="F6">
+        <v>8.0274044883753906E-2</v>
+      </c>
+      <c r="G6">
+        <v>1.05537477713385</v>
+      </c>
+      <c r="H6">
         <v>55.5208333333333</v>
       </c>
-      <c r="I5">
-        <v>81.783855367661999</v>
-      </c>
-      <c r="J5">
-        <v>105.39584487075901</v>
+      <c r="I6">
+        <v>-0.34169991599597399</v>
+      </c>
+      <c r="J6">
+        <v>0.44035281996381798</v>
+      </c>
+      <c r="K6">
+        <v>0.34169991599597399</v>
+      </c>
+      <c r="L6">
+        <v>-0.35619921814487299</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2.8474221206701502</v>
-      </c>
-      <c r="B6" s="1">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2.8438024043583199</v>
+      </c>
+      <c r="B7" s="1">
         <v>45279.458796296298</v>
       </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6">
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
         <v>743.79520000000002</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>3992.6460000000002</v>
       </c>
-      <c r="F6">
-        <v>0.52826006985347296</v>
-      </c>
-      <c r="G6">
-        <v>703.75601642858101</v>
-      </c>
-      <c r="H6">
+      <c r="F7">
+        <v>0.50826006985347305</v>
+      </c>
+      <c r="G7">
+        <v>697.91479401277002</v>
+      </c>
+      <c r="H7">
         <v>57.950125</v>
       </c>
-      <c r="I6">
-        <v>24.594500550219902</v>
-      </c>
-      <c r="J6">
-        <v>30.283143073723501</v>
-      </c>
-      <c r="K6">
-        <v>1.48120094839522</v>
+      <c r="I7">
+        <v>-0.54134552411126902</v>
+      </c>
+      <c r="K7">
+        <v>0.54134552411126902</v>
+      </c>
+      <c r="L7">
+        <v>-0.176162508860153</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2.0477630034810299</v>
-      </c>
-      <c r="B7" s="1">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1.99647912105049</v>
+      </c>
+      <c r="B8" s="1">
         <v>45502.467245370397</v>
       </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7">
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8">
         <v>801.76949999999999</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>4010.9160000000002</v>
       </c>
-      <c r="F7">
-        <v>0.31201786247728303</v>
-      </c>
-      <c r="G7">
-        <v>111.625393657806</v>
-      </c>
-      <c r="H7">
+      <c r="F8">
+        <v>0.29201786247728301</v>
+      </c>
+      <c r="G8">
+        <v>99.192565071371106</v>
+      </c>
+      <c r="H8">
         <v>76.383166666666696</v>
       </c>
-      <c r="I7">
-        <v>106.92166975523401</v>
-      </c>
-      <c r="J7">
-        <v>95.481261028916606</v>
-      </c>
-      <c r="K7">
-        <v>1.97991814613576</v>
+      <c r="I8">
+        <v>1.39006128539709</v>
+      </c>
+      <c r="J8">
+        <v>1.24132745720325</v>
+      </c>
+      <c r="K8">
+        <v>1.39006128539709</v>
+      </c>
+      <c r="L8">
+        <v>9.3886361754323994E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1.71108095362448</v>
-      </c>
-      <c r="B8" s="1">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1.6313244136241201</v>
+      </c>
+      <c r="B9" s="1">
         <v>45569.420833333301</v>
       </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8">
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9">
         <v>693.87467000000004</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>6443.8360000000002</v>
       </c>
-      <c r="F8">
-        <v>0.24996315545078601</v>
-      </c>
-      <c r="G8">
-        <v>51.413947959121103</v>
-      </c>
-      <c r="H8">
+      <c r="F9">
+        <v>0.22996315545078599</v>
+      </c>
+      <c r="G9">
+        <v>42.788239065963701</v>
+      </c>
+      <c r="H9">
         <v>76.3036666666667</v>
       </c>
-      <c r="I8">
-        <v>262.11659900540798</v>
-      </c>
-      <c r="J8">
-        <v>234.41451998769301</v>
+      <c r="I9">
+        <v>-2.7299788409758401</v>
+      </c>
+      <c r="J9">
+        <v>2.44145804581688</v>
+      </c>
+      <c r="K9">
+        <v>2.7299788409758401</v>
+      </c>
+      <c r="L9">
+        <v>0.38764926573799202</v>
       </c>
     </row>
   </sheetData>
@@ -9378,15 +9549,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9420,16 +9591,19 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1.5793165496351</v>
+        <v>1.8103990009162001</v>
       </c>
       <c r="B2" s="1">
         <v>45296.610069444403</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2">
         <v>456.12386666666703</v>
@@ -9438,182 +9612,247 @@
         <v>6443.8360000000002</v>
       </c>
       <c r="F2">
-        <v>0.41275390512325399</v>
+        <v>0.422753905123254</v>
       </c>
       <c r="G2">
-        <v>37.959156180096699</v>
+        <v>64.624768581672697</v>
       </c>
       <c r="H2">
         <v>54.832595600676797</v>
       </c>
       <c r="I2">
-        <v>7.08810643150279E-2</v>
+        <v>-1.2190181706383499E-3</v>
       </c>
       <c r="J2">
-        <v>9.2566223204358505E-2</v>
+        <v>1.59196125458791E-3</v>
       </c>
       <c r="K2">
-        <v>-1.03354745556387</v>
+        <v>1.2190181706383499E-3</v>
+      </c>
+      <c r="L2">
+        <v>-2.7980675063995002</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1.37477885123213</v>
+        <v>2.0932198129686301</v>
       </c>
       <c r="B3" s="1">
+        <v>45684.528587963003</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>329.19088799999997</v>
+      </c>
+      <c r="E3">
+        <v>5860.433</v>
+      </c>
+      <c r="F3">
+        <v>0.52458611330445803</v>
+      </c>
+      <c r="G3">
+        <v>123.942374733896</v>
+      </c>
+      <c r="H3">
+        <v>51.472428571428601</v>
+      </c>
+      <c r="I3">
+        <v>-1.47276608619273E-2</v>
+      </c>
+      <c r="J3">
+        <v>2.0502892626264702E-2</v>
+      </c>
+      <c r="K3">
+        <v>1.47276608619273E-2</v>
+      </c>
+      <c r="L3">
+        <v>-1.6881848627002201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1.6129383420109</v>
+      </c>
+      <c r="B4" s="1">
         <v>45590.473611111098</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3">
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
         <v>411.06707999999998</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>5182.0039999999999</v>
       </c>
-      <c r="F3">
-        <v>0.35358594626280099</v>
-      </c>
-      <c r="G3">
-        <v>23.701664767073499</v>
-      </c>
-      <c r="H3">
+      <c r="F4">
+        <v>0.363585946262801</v>
+      </c>
+      <c r="G4">
+        <v>41.014586930914497</v>
+      </c>
+      <c r="H4">
         <v>68.4775833333333</v>
       </c>
-      <c r="I3">
-        <v>2.0998859841322499</v>
-      </c>
-      <c r="J3">
-        <v>2.1402455362209598</v>
-      </c>
-      <c r="K3">
-        <v>0.33046359994212099</v>
+      <c r="I4">
+        <v>-3.0937090530974799E-2</v>
+      </c>
+      <c r="J4">
+        <v>3.1531697631642701E-2</v>
+      </c>
+      <c r="K4">
+        <v>3.0937090530974799E-2</v>
+      </c>
+      <c r="L4">
+        <v>-1.50125264668922</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1.25618350175535</v>
-      </c>
-      <c r="B4" s="1">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1.4589110779254</v>
+      </c>
+      <c r="B5" s="1">
         <v>45231.505902777797</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4">
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5">
         <v>714.04719999999998</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>6744.4539999999997</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>0.32324005414038398</v>
       </c>
-      <c r="G4">
-        <v>18.037797280416001</v>
-      </c>
-      <c r="H4">
+      <c r="G5">
+        <v>28.768093258691401</v>
+      </c>
+      <c r="H5">
         <v>67.208513227513194</v>
       </c>
-      <c r="I4">
-        <v>7.2748120805359598E-2</v>
-      </c>
-      <c r="J4">
-        <v>7.5805820769404397E-2</v>
-      </c>
-      <c r="K4">
-        <v>-1.12029744567433</v>
+      <c r="I5">
+        <v>-9.7979610448898605E-4</v>
+      </c>
+      <c r="J5">
+        <v>1.02097823373577E-3</v>
+      </c>
+      <c r="K5">
+        <v>9.7979610448898605E-4</v>
+      </c>
+      <c r="L5">
+        <v>-2.9909835165508998</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.13330872482825201</v>
+      </c>
+      <c r="B6" s="1">
         <v>45639.526967592603</v>
       </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5">
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6">
         <v>365.80829999999997</v>
       </c>
-      <c r="I5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K5" t="e">
-        <v>#NUM!</v>
+      <c r="E6">
+        <v>3344.355</v>
+      </c>
+      <c r="F6">
+        <v>0.11668969198078299</v>
+      </c>
+      <c r="G6">
+        <v>1.35927936760901</v>
+      </c>
+      <c r="H6">
+        <v>54.87</v>
+      </c>
+      <c r="I6">
+        <v>-0.11659482634669301</v>
+      </c>
+      <c r="K6">
+        <v>0.11659482634669301</v>
+      </c>
+      <c r="L6">
+        <v>-0.81784269721634195</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2.5649973413878699</v>
-      </c>
-      <c r="B6" s="1">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2.7704634593489401</v>
+      </c>
+      <c r="B7" s="1">
         <v>45279.458796296298</v>
       </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6">
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7">
         <v>743.79520000000002</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>8053.1170000000002</v>
       </c>
-      <c r="F6">
-        <v>0.86871579907905805</v>
-      </c>
-      <c r="G6">
-        <v>367.28005212000801</v>
-      </c>
-      <c r="H6">
+      <c r="F7">
+        <v>0.87871579907905895</v>
+      </c>
+      <c r="G7">
+        <v>589.47237797650905</v>
+      </c>
+      <c r="H7">
         <v>58.628998122065703</v>
       </c>
-      <c r="I6">
-        <v>4.5445777434500201</v>
-      </c>
-      <c r="J6">
-        <v>5.5268868956812396</v>
-      </c>
-      <c r="K6">
-        <v>0.74248057710500204</v>
+      <c r="I7">
+        <v>-0.16449777024491999</v>
+      </c>
+      <c r="J7">
+        <v>0.200053915250054</v>
+      </c>
+      <c r="K7">
+        <v>0.16449777024491999</v>
+      </c>
+      <c r="L7">
+        <v>-0.69885294463562198</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1.4878939378143801</v>
-      </c>
-      <c r="B7" s="1">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1.7220346442007499</v>
+      </c>
+      <c r="B8" s="1">
         <v>45569.462962963</v>
       </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7">
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8">
         <v>395.82371999999998</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>3225.154</v>
       </c>
-      <c r="F7">
-        <v>0.38510332832113497</v>
-      </c>
-      <c r="G7">
-        <v>30.753456706913699</v>
-      </c>
-      <c r="H7">
+      <c r="F8">
+        <v>0.39510332832113498</v>
+      </c>
+      <c r="G8">
+        <v>52.727192086974298</v>
+      </c>
+      <c r="H8">
         <v>75.436222222222199</v>
       </c>
-      <c r="I7">
-        <v>14.774839406053101</v>
-      </c>
-      <c r="J7">
-        <v>13.401345264296401</v>
-      </c>
-      <c r="K7">
-        <v>1.1271483962406099</v>
+      <c r="I8">
+        <v>-0.23707665961172</v>
+      </c>
+      <c r="K8">
+        <v>0.23707665961172</v>
+      </c>
+      <c r="L8">
+        <v>-0.66748557336798098</v>
       </c>
     </row>
   </sheetData>
@@ -9625,18 +9864,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9670,16 +9906,19 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.65191006424436304</v>
+        <v>1.5644463224313101</v>
       </c>
       <c r="B2" s="1">
         <v>45660.411574074104</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2">
         <v>552.81111999999996</v>
@@ -9688,326 +9927,466 @@
         <v>3976.076</v>
       </c>
       <c r="F2">
-        <v>5.2566523314864196E-3</v>
+        <v>5.9249035421147699E-2</v>
       </c>
       <c r="G2">
-        <v>4.4865247123645799</v>
+        <v>36.681435442351599</v>
       </c>
       <c r="H2">
-        <v>59.112299999999998</v>
+        <v>58.6762916666667</v>
       </c>
       <c r="I2">
-        <v>3181.07011696172</v>
+        <v>-0.69249876487298101</v>
+      </c>
+      <c r="K2">
+        <v>0.69249876487298101</v>
+      </c>
+      <c r="L2">
+        <v>-7.5028869195106498E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2.1455655389075199</v>
+      </c>
       <c r="B3" s="1">
+        <v>45684.409837963001</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>560.08052399999997</v>
+      </c>
+      <c r="E3">
+        <v>3223.9279999999999</v>
+      </c>
+      <c r="F3">
+        <v>0.22145740179592199</v>
+      </c>
+      <c r="G3">
+        <v>139.818789841654</v>
+      </c>
+      <c r="H3">
+        <v>53.0998181818182</v>
+      </c>
+      <c r="I3">
+        <v>-0.16229705182373</v>
+      </c>
+      <c r="K3">
+        <v>0.16229705182373</v>
+      </c>
+      <c r="L3">
+        <v>-0.65948973514438003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1.3763074219128699</v>
+      </c>
+      <c r="B4" s="1">
         <v>45442.334837962997</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3">
-        <v>998.80616181818198</v>
-      </c>
-      <c r="I3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K3" t="e">
-        <v>#NUM!</v>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>892.51250000000005</v>
+      </c>
+      <c r="E4">
+        <v>2142.973</v>
+      </c>
+      <c r="F4">
+        <v>3.8657298433478003E-2</v>
+      </c>
+      <c r="G4">
+        <v>23.785233645707201</v>
+      </c>
+      <c r="H4">
+        <v>72.257625000000004</v>
+      </c>
+      <c r="I4">
+        <v>-3.2356668078645297E-2</v>
+      </c>
+      <c r="J4">
+        <v>3.09288241918769E-2</v>
+      </c>
+      <c r="K4">
+        <v>3.2356668078645297E-2</v>
+      </c>
+      <c r="L4">
+        <v>-1.5096365900739599</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2.3118762106125899</v>
-      </c>
-      <c r="B4" s="1">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2.3032668856264</v>
+      </c>
+      <c r="B5" s="1">
         <v>45484.417592592603</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4">
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
         <v>2034.8627879999999</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>6961.3969999999999</v>
       </c>
-      <c r="F4">
-        <v>0.25670942796431001</v>
-      </c>
-      <c r="G4">
-        <v>205.05776079028001</v>
-      </c>
-      <c r="H4">
+      <c r="F5">
+        <v>0.31670942796431001</v>
+      </c>
+      <c r="G5">
+        <v>201.03278335540099</v>
+      </c>
+      <c r="H5">
         <v>76.579041666666697</v>
       </c>
-      <c r="I4">
-        <v>5.2363099452820601</v>
-      </c>
-      <c r="J4">
-        <v>4.6609674789689297</v>
-      </c>
-      <c r="K4">
-        <v>0.668476072734428</v>
+      <c r="I5">
+        <v>-5.60087554457162E-2</v>
+      </c>
+      <c r="J5">
+        <v>4.9854762303598699E-2</v>
+      </c>
+      <c r="K5">
+        <v>5.60087554457162E-2</v>
+      </c>
+      <c r="L5">
+        <v>-1.30229335002258</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0.10187461910508699</v>
-      </c>
-      <c r="B5" s="1">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1.5471916791810501</v>
+      </c>
+      <c r="B6" s="1">
         <v>45590.352199074099</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5">
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6">
         <v>551.09719199999995</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>8635.2430000000004</v>
       </c>
-      <c r="F5">
-        <v>1.4553017535786799E-3</v>
-      </c>
-      <c r="G5">
-        <v>1.2643712705619401</v>
-      </c>
-      <c r="H5">
-        <v>69.716999999999999</v>
-      </c>
-      <c r="I5">
-        <v>339.75341828418198</v>
+      <c r="F6">
+        <v>5.6975516888096697E-2</v>
+      </c>
+      <c r="G6">
+        <v>35.252642693858398</v>
+      </c>
+      <c r="H6">
+        <v>69.506833333333304</v>
+      </c>
+      <c r="I6">
+        <v>-2.05466990492898E-2</v>
+      </c>
+      <c r="J6">
+        <v>2.05761348096275E-2</v>
+      </c>
+      <c r="K6">
+        <v>2.05466990492898E-2</v>
+      </c>
+      <c r="L6">
+        <v>-1.6866362033590201</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1.41463921516754</v>
+      </c>
+      <c r="B7" s="1">
         <v>45597.357986111099</v>
       </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6">
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
         <v>628.45452</v>
       </c>
-      <c r="I6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J6" t="e">
-        <v>#NUM!</v>
+      <c r="E7">
+        <v>4564.3429999999998</v>
+      </c>
+      <c r="F7">
+        <v>4.2176871323439502E-2</v>
+      </c>
+      <c r="G7">
+        <v>25.980004093593902</v>
+      </c>
+      <c r="H7">
+        <v>69.6570416666667</v>
+      </c>
+      <c r="I7">
+        <v>1.6433163391097401</v>
+      </c>
+      <c r="K7">
+        <v>1.6433163391097401</v>
+      </c>
+      <c r="L7">
+        <v>0.215274774389667</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2.2556512174496599</v>
-      </c>
-      <c r="B7" s="1">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2.25677183450206</v>
+      </c>
+      <c r="B8" s="1">
         <v>45296.400694444397</v>
       </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7">
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8">
         <v>426.60744999999997</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>3375.2420000000002</v>
       </c>
-      <c r="F7">
-        <v>0.225012367816944</v>
-      </c>
-      <c r="G7">
-        <v>180.157031589773</v>
-      </c>
-      <c r="H7">
+      <c r="F8">
+        <v>0.285012367816944</v>
+      </c>
+      <c r="G8">
+        <v>180.62249394423401</v>
+      </c>
+      <c r="H8">
         <v>54.871041666666699</v>
       </c>
-      <c r="I7">
-        <v>4.6033147560070597</v>
-      </c>
-      <c r="J7">
-        <v>6.0054934004881702</v>
-      </c>
-      <c r="K7">
-        <v>0.77854869405477301</v>
+      <c r="I8">
+        <v>-4.31584480439927E-2</v>
+      </c>
+      <c r="J8">
+        <v>5.6304595414703E-2</v>
+      </c>
+      <c r="K8">
+        <v>4.31584480439927E-2</v>
+      </c>
+      <c r="L8">
+        <v>-1.24945615786977</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="1">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1.32621116564357</v>
+      </c>
+      <c r="B9" s="1">
         <v>45618.398726851898</v>
       </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8">
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9">
         <v>3118.5123840000001</v>
       </c>
-      <c r="I8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K8" t="e">
-        <v>#NUM!</v>
+      <c r="E9">
+        <v>2542.5239999999999</v>
+      </c>
+      <c r="F9">
+        <v>3.4511311120524399E-2</v>
+      </c>
+      <c r="G9">
+        <v>21.1939138978648</v>
+      </c>
+      <c r="H9">
+        <v>62.832875000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.56366732080101301</v>
+      </c>
+      <c r="K9">
+        <v>0.56366732080101301</v>
+      </c>
+      <c r="L9">
+        <v>-0.19744477820082099</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2.0552944308616801</v>
-      </c>
-      <c r="B9" s="1">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2.1022229180133301</v>
+      </c>
+      <c r="B10" s="1">
         <v>45266.452662037002</v>
       </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9">
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10">
         <v>409.7124</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>4325.9719999999998</v>
       </c>
-      <c r="F9">
-        <v>0.14071662604863699</v>
-      </c>
-      <c r="G9">
-        <v>113.57805595483499</v>
-      </c>
-      <c r="H9">
+      <c r="F10">
+        <v>0.20071662604863699</v>
+      </c>
+      <c r="G10">
+        <v>126.53856877099599</v>
+      </c>
+      <c r="H10">
         <v>62.968666666666699</v>
       </c>
-      <c r="I9">
-        <v>5.7587643197985896</v>
-      </c>
-      <c r="J9">
-        <v>6.4695823800006398</v>
-      </c>
-      <c r="K9">
-        <v>0.81087624729699004</v>
+      <c r="I10">
+        <v>-3.3764745220472098E-2</v>
+      </c>
+      <c r="J10">
+        <v>3.7932408519058297E-2</v>
+      </c>
+      <c r="K10">
+        <v>3.3764745220472098E-2</v>
+      </c>
+      <c r="L10">
+        <v>-1.42098958088467</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="1">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1.3813339579941699</v>
+      </c>
+      <c r="B11" s="1">
         <v>45635.392824074101</v>
       </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10">
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11">
         <v>2329.1665200000002</v>
       </c>
-      <c r="I10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J10" t="e">
-        <v>#NUM!</v>
+      <c r="E11">
+        <v>2353.895</v>
+      </c>
+      <c r="F11">
+        <v>3.9109156854677397E-2</v>
+      </c>
+      <c r="G11">
+        <v>24.062123859764501</v>
+      </c>
+      <c r="H11">
+        <v>56.872333333333302</v>
+      </c>
+      <c r="I11">
+        <v>2.152726136449</v>
+      </c>
+      <c r="K11">
+        <v>2.152726136449</v>
+      </c>
+      <c r="L11">
+        <v>0.43211514822866398</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2.7379731820837798</v>
-      </c>
-      <c r="B11" s="1">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2.6870902813892399</v>
+      </c>
+      <c r="B12" s="1">
         <v>45279.417939814797</v>
       </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11">
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12">
         <v>444.28</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>3363.2</v>
       </c>
-      <c r="F11">
-        <v>0.69658739105357004</v>
-      </c>
-      <c r="G11">
-        <v>546.98218540899597</v>
-      </c>
-      <c r="H11">
+      <c r="F12">
+        <v>0.75658739105356998</v>
+      </c>
+      <c r="G12">
+        <v>486.50833081461201</v>
+      </c>
+      <c r="H12">
         <v>59.392708333333303</v>
       </c>
-      <c r="I11">
-        <v>1.9236150869142301</v>
-      </c>
-      <c r="J11">
-        <v>2.3061402301815401</v>
-      </c>
-      <c r="K11">
-        <v>0.36288571204037201</v>
+      <c r="I12">
+        <v>-5.58319172827028E-2</v>
+      </c>
+      <c r="J12">
+        <v>6.6934508597743303E-2</v>
+      </c>
+      <c r="K12">
+        <v>5.58319172827028E-2</v>
+      </c>
+      <c r="L12">
+        <v>-1.1743499206535499</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2.5189014562496901</v>
-      </c>
-      <c r="B12" s="1">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2.4837232842553898</v>
+      </c>
+      <c r="B13" s="1">
         <v>45502.410763888904</v>
       </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12">
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13">
         <v>1722.98714</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>6713.1440000000002</v>
       </c>
-      <c r="F12">
-        <v>0.41694777291652502</v>
-      </c>
-      <c r="G12">
-        <v>330.29458691777899</v>
-      </c>
-      <c r="H12">
+      <c r="F13">
+        <v>0.47694777291652501</v>
+      </c>
+      <c r="G13">
+        <v>304.59536066895402</v>
+      </c>
+      <c r="H13">
         <v>76.361791666666704</v>
       </c>
-      <c r="I12">
-        <v>1.5113924672972501</v>
-      </c>
-      <c r="J12">
-        <v>1.3500727112072699</v>
-      </c>
-      <c r="K12">
-        <v>0.130357159032578</v>
+      <c r="I13">
+        <v>-2.6257155135099901E-2</v>
+      </c>
+      <c r="J13">
+        <v>2.3454575425552002E-2</v>
+      </c>
+      <c r="K13">
+        <v>2.6257155135099901E-2</v>
+      </c>
+      <c r="L13">
+        <v>-1.6297724242392599</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1.7573193687705799</v>
-      </c>
-      <c r="B13" s="1">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1.9108457971817301</v>
+      </c>
+      <c r="B14" s="1">
         <v>45569.336458333302</v>
       </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13">
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14">
         <v>520.15418799999998</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>8379.9380000000001</v>
       </c>
-      <c r="F13">
-        <v>7.0018058078074194E-2</v>
-      </c>
-      <c r="G13">
-        <v>57.189904163000598</v>
-      </c>
-      <c r="H13">
+      <c r="F14">
+        <v>0.13001805807807401</v>
+      </c>
+      <c r="G14">
+        <v>81.441506230339598</v>
+      </c>
+      <c r="H14">
         <v>75.600666666666697</v>
       </c>
-      <c r="I13">
-        <v>1.9735868782610999</v>
-      </c>
-      <c r="J13">
-        <v>1.78537435630409</v>
+      <c r="I14">
+        <v>-5.7577800276754597E-3</v>
+      </c>
+      <c r="J14">
+        <v>5.2086852237835102E-3</v>
+      </c>
+      <c r="K14">
+        <v>5.7577800276754597E-3</v>
+      </c>
+      <c r="L14">
+        <v>-2.2832718874712299</v>
       </c>
     </row>
   </sheetData>
@@ -10019,15 +10398,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10061,16 +10440,19 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1.1162597991251899</v>
+        <v>1.3708185978996801</v>
       </c>
       <c r="B2" s="1">
         <v>45296.434953703698</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2">
         <v>618.29094999999995</v>
@@ -10079,127 +10461,174 @@
         <v>5480.4530000000004</v>
       </c>
       <c r="F2">
-        <v>0.42599051773861102</v>
+        <v>0.52599051773861105</v>
       </c>
       <c r="G2">
-        <v>13.0695248584331</v>
+        <v>23.486515987919301</v>
       </c>
       <c r="H2">
         <v>55.262291666666698</v>
       </c>
       <c r="I2">
-        <v>1.2851116692374001</v>
+        <v>-2.2810224388765399E-2</v>
       </c>
       <c r="J2">
-        <v>1.6646088448126199</v>
+        <v>2.95461493180833E-2</v>
       </c>
       <c r="K2">
-        <v>0.22131219790422901</v>
+        <v>2.2810224388765399E-2</v>
+      </c>
+      <c r="L2">
+        <v>-1.5294991116990899</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.83364298367996603</v>
+        <v>1.36282116233381</v>
       </c>
       <c r="B3" s="1">
+        <v>45684.449305555601</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>438.31808999999998</v>
+      </c>
+      <c r="E3">
+        <v>4929.4979999999996</v>
+      </c>
+      <c r="F3">
+        <v>0.52314207089952602</v>
+      </c>
+      <c r="G3">
+        <v>23.057974912814998</v>
+      </c>
+      <c r="H3">
+        <v>52.702545454545501</v>
+      </c>
+      <c r="I3">
+        <v>-0.196505893268312</v>
+      </c>
+      <c r="J3">
+        <v>0.26721608984758999</v>
+      </c>
+      <c r="K3">
+        <v>0.196505893268312</v>
+      </c>
+      <c r="L3">
+        <v>-0.57313739529213903</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1.14244247106486</v>
+      </c>
+      <c r="B4" s="1">
         <v>45590.382638888899</v>
       </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3">
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4">
         <v>921.71709999999996</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>4210.08</v>
       </c>
-      <c r="F3">
-        <v>0.35046535211951502</v>
-      </c>
-      <c r="G3">
-        <v>6.8177800097671497</v>
-      </c>
-      <c r="H3">
+      <c r="F4">
+        <v>0.45046535211951499</v>
+      </c>
+      <c r="G4">
+        <v>13.881694135153399</v>
+      </c>
+      <c r="H4">
         <v>68.263083333333299</v>
       </c>
-      <c r="I3">
-        <v>42.888077344183998</v>
-      </c>
-      <c r="J3">
-        <v>43.875514596877601</v>
-      </c>
-      <c r="K3">
-        <v>1.6422222231553301</v>
+      <c r="I4">
+        <v>-0.62628271367326904</v>
+      </c>
+      <c r="K4">
+        <v>0.62628271367326904</v>
+      </c>
+      <c r="L4">
+        <v>-0.193343929569118</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0.88643327723876397</v>
-      </c>
-      <c r="B4" s="1">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1.1521339482850199</v>
+      </c>
+      <c r="B5" s="1">
         <v>45231.413888888899</v>
       </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4">
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5">
         <v>434.69794999999999</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>17383.669999999998</v>
       </c>
-      <c r="F4">
-        <v>0.36326953896331998</v>
-      </c>
-      <c r="G4">
-        <v>7.6989815209433896</v>
-      </c>
-      <c r="H4">
+      <c r="F5">
+        <v>0.45326953896332001</v>
+      </c>
+      <c r="G5">
+        <v>14.1949526530613</v>
+      </c>
+      <c r="H5">
         <v>67.299833333333297</v>
       </c>
-      <c r="I4">
-        <v>0.80706235080412003</v>
-      </c>
-      <c r="J4">
-        <v>0.83966808868068499</v>
-      </c>
-      <c r="K4">
-        <v>-7.5892351724544505E-2</v>
+      <c r="I5">
+        <v>-1.2215882003802799E-2</v>
+      </c>
+      <c r="J5">
+        <v>1.27094099773852E-2</v>
+      </c>
+      <c r="K5">
+        <v>1.2215882003802799E-2</v>
+      </c>
+      <c r="L5">
+        <v>-1.89587461069805</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0.97707971959916795</v>
-      </c>
-      <c r="B5" s="1">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1.25718073142374</v>
+      </c>
+      <c r="B6" s="1">
         <v>45569.400115740696</v>
       </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5">
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6">
         <v>555.11051999999995</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>14306.2</v>
       </c>
-      <c r="F5">
-        <v>0.386909393539067</v>
-      </c>
-      <c r="G5">
-        <v>9.4859257207413101</v>
-      </c>
-      <c r="H5">
+      <c r="F6">
+        <v>0.48690939353906698</v>
+      </c>
+      <c r="G6">
+        <v>18.0792633709287</v>
+      </c>
+      <c r="H6">
         <v>75.319166666666703</v>
       </c>
-      <c r="I5">
-        <v>7.8376760318942296</v>
-      </c>
-      <c r="J5">
-        <v>7.12167092180563</v>
-      </c>
-      <c r="K5">
-        <v>0.85258190192095995</v>
+      <c r="I6">
+        <v>-0.126352936677328</v>
+      </c>
+      <c r="J6">
+        <v>0.114810057389193</v>
+      </c>
+      <c r="K6">
+        <v>0.126352936677328</v>
+      </c>
+      <c r="L6">
+        <v>-0.94002006596844701</v>
       </c>
     </row>
   </sheetData>
@@ -10211,10 +10640,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="J27" sqref="J27:J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10222,7 +10651,7 @@
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10256,36 +10685,57 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.70019397293433605</v>
+      </c>
       <c r="B2" s="1">
         <v>45660.526851851901</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2">
         <v>350.63274000000001</v>
       </c>
-      <c r="I2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K2" t="e">
-        <v>#NUM!</v>
+      <c r="E2">
+        <v>7013.68</v>
+      </c>
+      <c r="F2">
+        <v>0.12874386448073599</v>
+      </c>
+      <c r="G2">
+        <v>5.0141113348335997</v>
+      </c>
+      <c r="H2">
+        <v>60.610833333333296</v>
+      </c>
+      <c r="I2">
+        <v>-4.5736234113293299E-2</v>
+      </c>
+      <c r="J2">
+        <v>5.3629011796996397E-2</v>
+      </c>
+      <c r="K2">
+        <v>4.5736234113293299E-2</v>
+      </c>
+      <c r="L2">
+        <v>-1.2706002055554</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2.1881156237595101</v>
+        <v>2.2740057658618702</v>
       </c>
       <c r="B3" s="1">
         <v>45296.650231481501</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3">
         <v>612.31027500000005</v>
@@ -10294,318 +10744,431 @@
         <v>7115.5159999999996</v>
       </c>
       <c r="F3">
-        <v>0.28772677954446901</v>
+        <v>0.44772677954446899</v>
       </c>
       <c r="G3">
-        <v>154.21109599694901</v>
+        <v>187.93417675073701</v>
       </c>
       <c r="H3">
         <v>57.347416666666703</v>
       </c>
       <c r="I3">
-        <v>2.2976376979999702</v>
+        <v>-2.7545495641895699E-2</v>
       </c>
       <c r="J3">
-        <v>2.8615651135737599</v>
+        <v>3.4306204774390801E-2</v>
       </c>
       <c r="K3">
-        <v>0.45660363252434699</v>
+        <v>2.7545495641895699E-2</v>
+      </c>
+      <c r="L3">
+        <v>-1.4646273244010499</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2.1285964316053398</v>
+      </c>
       <c r="B4" s="1">
+        <v>45684.584027777797</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <v>345.56297999999998</v>
+      </c>
+      <c r="E4">
+        <v>7013.68</v>
+      </c>
+      <c r="F4">
+        <v>0.39908982793172199</v>
+      </c>
+      <c r="G4">
+        <v>134.46102934551399</v>
+      </c>
+      <c r="H4">
+        <v>52.621866666666698</v>
+      </c>
+      <c r="I4">
+        <v>-1.4234468923206201E-2</v>
+      </c>
+      <c r="J4">
+        <v>1.93832495193451E-2</v>
+      </c>
+      <c r="K4">
+        <v>1.4234468923206201E-2</v>
+      </c>
+      <c r="L4">
+        <v>-1.71257341355879</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>-0.267984159791466</v>
+      </c>
+      <c r="B5" s="1">
         <v>45442.515972222202</v>
       </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4">
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5">
         <v>664.44209999999998</v>
       </c>
-      <c r="I4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K4" t="e">
-        <v>#NUM!</v>
+      <c r="E5">
+        <v>13636.37</v>
+      </c>
+      <c r="F5">
+        <v>5.9138536458891403E-2</v>
+      </c>
+      <c r="G5">
+        <v>0.53953030067585805</v>
+      </c>
+      <c r="H5">
+        <v>69.956999999999994</v>
+      </c>
+      <c r="I5">
+        <v>-1.2026837343753901E-2</v>
+      </c>
+      <c r="J5">
+        <v>1.19519645480923E-2</v>
+      </c>
+      <c r="K5">
+        <v>1.2026837343753901E-2</v>
+      </c>
+      <c r="L5">
+        <v>-1.92256070373071</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.87402491488739797</v>
+      </c>
+      <c r="B6" s="1">
         <v>45484.550925925898</v>
       </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5">
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6">
         <v>20118.913499999999</v>
       </c>
-      <c r="I5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K5" t="e">
-        <v>#NUM!</v>
+      <c r="E6">
+        <v>9438.768</v>
+      </c>
+      <c r="F6">
+        <v>0.146682711547242</v>
+      </c>
+      <c r="G6">
+        <v>7.4821242321530796</v>
+      </c>
+      <c r="H6">
+        <v>73.537000000000006</v>
+      </c>
+      <c r="I6">
+        <v>1.8467246153386201</v>
+      </c>
+      <c r="K6">
+        <v>1.8467246153386201</v>
+      </c>
+      <c r="L6">
+        <v>0.23755715312148601</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2.0110110910579002</v>
-      </c>
-      <c r="B6" s="1">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2.0336012675366701</v>
+      </c>
+      <c r="B7" s="1">
         <v>45590.509490740696</v>
       </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6">
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
         <v>509.79309000000001</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>11548.536</v>
       </c>
-      <c r="F6">
-        <v>0.21002135752523299</v>
-      </c>
-      <c r="G6">
-        <v>102.567811979203</v>
-      </c>
-      <c r="H6">
+      <c r="F7">
+        <v>0.37002135752523302</v>
+      </c>
+      <c r="G7">
+        <v>108.04415257551901</v>
+      </c>
+      <c r="H7">
         <v>68.863500000000002</v>
       </c>
-      <c r="I6">
-        <v>22.2991493012617</v>
-      </c>
-      <c r="J6">
-        <v>22.580411814579598</v>
-      </c>
-      <c r="K6">
-        <v>1.3537318581898601</v>
+      <c r="I7">
+        <v>-0.195137400329535</v>
+      </c>
+      <c r="J7">
+        <v>0.19759869761570001</v>
+      </c>
+      <c r="K7">
+        <v>0.195137400329535</v>
+      </c>
+      <c r="L7">
+        <v>-0.704215922198688</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1.7828434038411201</v>
-      </c>
-      <c r="B7" s="1">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1.76858300033389</v>
+      </c>
+      <c r="B8" s="1">
         <v>45597.442013888904</v>
       </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7">
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8">
         <v>709.25940000000003</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>10979.754000000001</v>
       </c>
-      <c r="F7">
-        <v>0.14001852958251401</v>
-      </c>
-      <c r="G7">
-        <v>60.651759447890001</v>
-      </c>
-      <c r="H7">
+      <c r="F8">
+        <v>0.30001852958251402</v>
+      </c>
+      <c r="G8">
+        <v>58.692552936783898</v>
+      </c>
+      <c r="H8">
         <v>69.199291666666696</v>
       </c>
-      <c r="I7">
-        <v>421.43671804285498</v>
-      </c>
-      <c r="J7">
-        <v>424.25597612579298</v>
+      <c r="I8">
+        <v>-2.4587062321850501</v>
+      </c>
+      <c r="K8">
+        <v>2.4587062321850501</v>
+      </c>
+      <c r="L8">
+        <v>0.393602239407076</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0.89797448535591495</v>
-      </c>
-      <c r="B8" s="1">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1.1818835069426701</v>
+      </c>
+      <c r="B9" s="1">
         <v>45618.515393518501</v>
       </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8">
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9">
         <v>2030.428296</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>6021.7740000000003</v>
       </c>
-      <c r="F8">
-        <v>2.7241964743670001E-2</v>
-      </c>
-      <c r="G8">
-        <v>7.90632177280263</v>
-      </c>
-      <c r="H8">
+      <c r="F9">
+        <v>0.18724196474367</v>
+      </c>
+      <c r="G9">
+        <v>15.2013972009324</v>
+      </c>
+      <c r="H9">
         <v>65.922749999999994</v>
       </c>
-      <c r="I8">
-        <v>2295.3783163940302</v>
-      </c>
-      <c r="J8">
-        <v>2445.9494519847299</v>
+      <c r="I9">
+        <v>-2.6054422986912802</v>
+      </c>
+      <c r="K9">
+        <v>2.6054422986912802</v>
+      </c>
+      <c r="L9">
+        <v>0.44347466248342199</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1.4257957424157901</v>
-      </c>
-      <c r="B9" s="1">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1.45544825395334</v>
+      </c>
+      <c r="B10" s="1">
         <v>45266.611111111102</v>
       </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9">
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10">
         <v>615.23294999999996</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>10319.43</v>
       </c>
-      <c r="F9">
-        <v>7.4268725880109507E-2</v>
-      </c>
-      <c r="G9">
-        <v>26.6560468121497</v>
-      </c>
-      <c r="H9">
+      <c r="F10">
+        <v>0.234268725880109</v>
+      </c>
+      <c r="G10">
+        <v>28.539624448278001</v>
+      </c>
+      <c r="H10">
         <v>63.182749999999999</v>
       </c>
-      <c r="I9">
-        <v>2.9840551192787101</v>
-      </c>
-      <c r="J9">
-        <v>3.3393862336951301</v>
+      <c r="I10">
+        <v>-9.2342488193686706E-3</v>
+      </c>
+      <c r="J10">
+        <v>1.0333831699921499E-2</v>
+      </c>
+      <c r="K10">
+        <v>9.2342488193686706E-3</v>
+      </c>
+      <c r="L10">
+        <v>-1.98573861579119</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="1">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.87959255255997504</v>
+      </c>
+      <c r="B11" s="1">
         <v>45639.551041666702</v>
       </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10">
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11">
         <v>526.36743999999999</v>
       </c>
-      <c r="I10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K10" t="e">
-        <v>#NUM!</v>
+      <c r="E11">
+        <v>1090.6469999999999</v>
+      </c>
+      <c r="F11">
+        <v>0.14840614156752799</v>
+      </c>
+      <c r="G11">
+        <v>7.5786622463844298</v>
+      </c>
+      <c r="H11">
+        <v>61.354750000000003</v>
+      </c>
+      <c r="I11">
+        <v>0.50225871766377705</v>
+      </c>
+      <c r="K11">
+        <v>0.50225871766377705</v>
+      </c>
+      <c r="L11">
+        <v>-0.235928324153202</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1.9456017881402901</v>
-      </c>
-      <c r="B11" s="1">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1.95257332203598</v>
+      </c>
+      <c r="B12" s="1">
         <v>45331.457060185203</v>
       </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11">
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12">
         <v>504.21780863999999</v>
       </c>
-      <c r="E11">
-        <v>10290.9</v>
-      </c>
-      <c r="F11">
-        <v>0.18695286733230901</v>
-      </c>
-      <c r="G11">
-        <v>88.227056082267893</v>
-      </c>
-      <c r="H11">
+      <c r="E12">
+        <v>12721.81</v>
+      </c>
+      <c r="F12">
+        <v>0.34695286733230901</v>
+      </c>
+      <c r="G12">
+        <v>89.654753749752999</v>
+      </c>
+      <c r="H12">
         <v>56.771625</v>
       </c>
-      <c r="I11">
-        <v>13.1137942790288</v>
-      </c>
-      <c r="J11">
-        <v>16.5095063088059</v>
-      </c>
-      <c r="K11">
-        <v>1.2177340865537001</v>
+      <c r="I12">
+        <v>-7.8857717580850806E-2</v>
+      </c>
+      <c r="J12">
+        <v>9.9277292154952998E-2</v>
+      </c>
+      <c r="K12">
+        <v>7.8857717580850806E-2</v>
+      </c>
+      <c r="L12">
+        <v>-1.0031500769787001</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1.7943904616036399</v>
-      </c>
-      <c r="B12" s="1">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1.78124699332156</v>
+      </c>
+      <c r="B13" s="1">
         <v>45502.5288194444</v>
       </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12">
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13">
         <v>2747.5827119999999</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>9438.768</v>
       </c>
-      <c r="F12">
-        <v>0.142858205716412</v>
-      </c>
-      <c r="G12">
-        <v>62.286002893812302</v>
-      </c>
-      <c r="H12">
-        <v>74.173434782608695</v>
-      </c>
-      <c r="I12">
-        <v>39.106608651406603</v>
-      </c>
-      <c r="J12">
-        <v>36.214089711696197</v>
-      </c>
-      <c r="K12">
-        <v>1.55887757311658</v>
+      <c r="F13">
+        <v>0.30285820571641198</v>
+      </c>
+      <c r="G13">
+        <v>60.429220662836499</v>
+      </c>
+      <c r="H13">
+        <v>74.329666666666697</v>
+      </c>
+      <c r="I13">
+        <v>-0.23328053058185999</v>
+      </c>
+      <c r="J13">
+        <v>0.215449086397794</v>
+      </c>
+      <c r="K13">
+        <v>0.23328053058185999</v>
+      </c>
+      <c r="L13">
+        <v>-0.666655343178018</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2.1475703153380201</v>
-      </c>
-      <c r="B13" s="1">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2.2177716434911199</v>
+      </c>
+      <c r="B14" s="1">
         <v>45569.486458333296</v>
       </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13">
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14">
         <v>1103.890144</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>10445.418</v>
       </c>
-      <c r="F13">
-        <v>0.26756115791951901</v>
-      </c>
-      <c r="G13">
-        <v>140.465708905252</v>
-      </c>
-      <c r="H13">
+      <c r="F14">
+        <v>0.42756115791951899</v>
+      </c>
+      <c r="G14">
+        <v>165.10934080357401</v>
+      </c>
+      <c r="H14">
         <v>75.326458333333306</v>
       </c>
-      <c r="I13">
-        <v>3.1591107613680198</v>
-      </c>
-      <c r="J13">
-        <v>2.8705125290258402</v>
-      </c>
-      <c r="K13">
-        <v>0.45795944678799999</v>
+      <c r="I14">
+        <v>-3.5218972221151799E-2</v>
+      </c>
+      <c r="J14">
+        <v>3.20015690036934E-2</v>
+      </c>
+      <c r="K14">
+        <v>3.5218972221151799E-2</v>
+      </c>
+      <c r="L14">
+        <v>-1.49482872815067</v>
       </c>
     </row>
   </sheetData>
@@ -10617,15 +11180,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="P10" sqref="P10:P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10659,139 +11222,195 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>-2.3790966063830399</v>
+        <v>1.5745170474306001</v>
       </c>
       <c r="B2" s="1">
+        <v>45684.6167824074</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>450.50428799999997</v>
+      </c>
+      <c r="E2">
+        <v>1244.816</v>
+      </c>
+      <c r="F2">
+        <v>0.306130731104437</v>
+      </c>
+      <c r="G2">
+        <v>37.541969059188197</v>
+      </c>
+      <c r="H2">
+        <v>49.510666666666701</v>
+      </c>
+      <c r="I2">
+        <v>-1.09548953548564</v>
+      </c>
+      <c r="K2">
+        <v>1.09548953548564</v>
+      </c>
+      <c r="L2">
+        <v>0.19972441886794701</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1.14348697820814</v>
+      </c>
+      <c r="B3" s="1">
         <v>45590.492476851898</v>
       </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2">
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3">
         <v>505.04641199999998</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>12559.68</v>
       </c>
-      <c r="F2">
-        <v>3.0144859170837299E-2</v>
-      </c>
-      <c r="G2">
-        <v>4.1773743295078604E-3</v>
-      </c>
-      <c r="H2">
+      <c r="F3">
+        <v>0.23014485917083699</v>
+      </c>
+      <c r="G3">
+        <v>13.9151207142201</v>
+      </c>
+      <c r="H3">
         <v>67.998583333333301</v>
       </c>
-      <c r="I2">
-        <v>204.408460187423</v>
-      </c>
-      <c r="J2">
-        <v>210.092563052218</v>
+      <c r="I3">
+        <v>-0.256744343569899</v>
+      </c>
+      <c r="J3">
+        <v>0.263883780252057</v>
+      </c>
+      <c r="K3">
+        <v>0.256744343569899</v>
+      </c>
+      <c r="L3">
+        <v>-0.57858730308616901</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>-1.9416178515821101</v>
-      </c>
-      <c r="B3" s="1">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1.2021752719157199</v>
+      </c>
+      <c r="B4" s="1">
         <v>45296.649884259299</v>
       </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3">
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4">
         <v>637.03409999999997</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>1245.8230000000001</v>
       </c>
-      <c r="F3">
-        <v>3.9374423084510397E-2</v>
-      </c>
-      <c r="G3">
-        <v>1.14388442944727E-2</v>
-      </c>
-      <c r="H3">
-        <v>52.158749999999998</v>
-      </c>
-      <c r="I3">
-        <v>201.152535994288</v>
-      </c>
-      <c r="J3">
-        <v>276.37834053305301</v>
+      <c r="F4">
+        <v>0.239311089488986</v>
+      </c>
+      <c r="G4">
+        <v>15.9285143794493</v>
+      </c>
+      <c r="H4">
+        <v>52.035692307692301</v>
+      </c>
+      <c r="I4">
+        <v>-0.32940698385238898</v>
+      </c>
+      <c r="J4">
+        <v>0.45369155806565797</v>
+      </c>
+      <c r="K4">
+        <v>0.32940698385238898</v>
+      </c>
+      <c r="L4">
+        <v>-0.34323930166766398</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>-0.422218509888519</v>
-      </c>
-      <c r="B4" s="1">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1.50592712199711</v>
+      </c>
+      <c r="B5" s="1">
         <v>45502.510416666701</v>
       </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4">
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5">
         <v>718.57919000000004</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>20938.13</v>
       </c>
-      <c r="F4">
-        <v>9.2340088456400696E-2</v>
-      </c>
-      <c r="G4">
-        <v>0.37825222391160501</v>
-      </c>
-      <c r="H4">
+      <c r="F5">
+        <v>0.29234008845640103</v>
+      </c>
+      <c r="G5">
+        <v>32.057313326349899</v>
+      </c>
+      <c r="H5">
         <v>76.433750000000003</v>
       </c>
-      <c r="I4">
-        <v>3.53500894211804</v>
-      </c>
-      <c r="J4">
-        <v>3.1539915200898601</v>
-      </c>
-      <c r="K4">
-        <v>0.49886052133811898</v>
+      <c r="I5">
+        <v>-1.36009599337228E-2</v>
+      </c>
+      <c r="J5">
+        <v>1.21349939981598E-2</v>
+      </c>
+      <c r="K5">
+        <v>1.36009599337228E-2</v>
+      </c>
+      <c r="L5">
+        <v>-1.91596043412947</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2.0917819347309599</v>
-      </c>
-      <c r="B5" s="1">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2.5567220175275498</v>
+      </c>
+      <c r="B6" s="1">
         <v>45279.534722222197</v>
       </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5">
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6">
         <v>811.21124999999995</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>7747.7939999999999</v>
       </c>
-      <c r="F5">
-        <v>0.38613206590049598</v>
-      </c>
-      <c r="G5">
-        <v>123.53270029118001</v>
-      </c>
-      <c r="H5">
+      <c r="F6">
+        <v>0.58613206590049605</v>
+      </c>
+      <c r="G6">
+        <v>360.34791830663801</v>
+      </c>
+      <c r="H6">
         <v>57.410541666666703</v>
       </c>
-      <c r="I5">
-        <v>9.3657584724838594E-2</v>
-      </c>
-      <c r="J5">
-        <v>0.116487862981952</v>
-      </c>
-      <c r="K5">
-        <v>-0.93371932197318797</v>
+      <c r="I6">
+        <v>-1.5068415282105301E-3</v>
+      </c>
+      <c r="J6">
+        <v>1.87415413273145E-3</v>
+      </c>
+      <c r="K6">
+        <v>1.5068415282105301E-3</v>
+      </c>
+      <c r="L6">
+        <v>-2.7271946950693202</v>
       </c>
     </row>
   </sheetData>
@@ -10803,10 +11422,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10814,7 +11433,7 @@
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10848,16 +11467,19 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1.4483457453600399</v>
+        <v>1.45642883673255</v>
       </c>
       <c r="B2" s="1">
         <v>45296.551157407397</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2">
         <v>669.22050000000002</v>
@@ -10866,159 +11488,197 @@
         <v>8812.9509999999991</v>
       </c>
       <c r="F2">
-        <v>0.242294433819637</v>
+        <v>0.23229443381963699</v>
       </c>
       <c r="G2">
-        <v>28.076679556897801</v>
+        <v>28.604136163398302</v>
       </c>
       <c r="H2">
         <v>57.088374999999999</v>
       </c>
       <c r="I2">
-        <v>1.7502448346720501</v>
+        <v>-1.7669774219275299E-2</v>
       </c>
       <c r="J2">
-        <v>2.19012083047377</v>
+        <v>2.2110586942343202E-2</v>
       </c>
       <c r="K2">
-        <v>0.34046807582660699</v>
+        <v>1.7669774219275299E-2</v>
+      </c>
+      <c r="L2">
+        <v>-1.65539972859101</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1.32722727332793</v>
-      </c>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
+        <v>45684.551504629599</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>395.99175600000001</v>
+      </c>
+      <c r="I3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L3" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1.31349058741088</v>
+      </c>
+      <c r="B4" s="1">
         <v>45590.450462963003</v>
       </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3">
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4">
         <v>441.72498000000002</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>2233.951</v>
       </c>
-      <c r="F3">
-        <v>0.218316630467253</v>
-      </c>
-      <c r="G3">
-        <v>21.243558809611699</v>
-      </c>
-      <c r="H3">
-        <v>69.479695652173902</v>
-      </c>
-      <c r="I3">
-        <v>5.6348978171871398</v>
-      </c>
-      <c r="J3">
-        <v>5.6464437623618604</v>
-      </c>
-      <c r="K3">
-        <v>0.75177500699751398</v>
+      <c r="F4">
+        <v>0.20831663046725299</v>
+      </c>
+      <c r="G4">
+        <v>20.582142817889899</v>
+      </c>
+      <c r="H4">
+        <v>69.406999999999996</v>
+      </c>
+      <c r="I4">
+        <v>-5.1208046458898503E-2</v>
+      </c>
+      <c r="J4">
+        <v>5.1376184809108202E-2</v>
+      </c>
+      <c r="K4">
+        <v>5.1208046458898503E-2</v>
+      </c>
+      <c r="L4">
+        <v>-1.28923814954167</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0.73522198120371995</v>
-      </c>
-      <c r="B4" s="1">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.70758523822296304</v>
+      </c>
+      <c r="B5" s="1">
         <v>45231.5222222222</v>
       </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4">
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5">
         <v>744.31614999999999</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>4485.2950000000001</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>0.13055244711888001</v>
       </c>
-      <c r="G4">
-        <v>5.4352807434147303</v>
-      </c>
-      <c r="H4">
+      <c r="G5">
+        <v>5.1001768803724898</v>
+      </c>
+      <c r="H5">
         <v>68.842375000000004</v>
       </c>
-      <c r="I4">
-        <v>3.6775252589669298</v>
-      </c>
-      <c r="J4">
-        <v>3.7250621609188102</v>
-      </c>
-      <c r="K4">
-        <v>0.57113352431083098</v>
+      <c r="I5">
+        <v>-2.00045800791511E-2</v>
+      </c>
+      <c r="J5">
+        <v>2.02631658657456E-2</v>
+      </c>
+      <c r="K5">
+        <v>2.00045800791511E-2</v>
+      </c>
+      <c r="L5">
+        <v>-1.6932927006039999</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2.7199681572404799</v>
-      </c>
-      <c r="B5" s="1">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2.9250980683261201</v>
+      </c>
+      <c r="B6" s="1">
         <v>45279.418749999997</v>
       </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5">
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6">
         <v>452.6567</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>9377.6460000000006</v>
       </c>
-      <c r="F5">
-        <v>0.73138680186451299</v>
-      </c>
-      <c r="G5">
-        <v>524.76898242925904</v>
-      </c>
-      <c r="H5">
+      <c r="F6">
+        <v>0.72138680186451298</v>
+      </c>
+      <c r="G6">
+        <v>841.58515909551397</v>
+      </c>
+      <c r="H6">
         <v>60.173708333333302</v>
       </c>
-      <c r="I5">
-        <v>0.58631953021781402</v>
-      </c>
-      <c r="J5">
-        <v>0.69296879073905904</v>
-      </c>
-      <c r="K5">
-        <v>-0.15928632428432901</v>
+      <c r="I6">
+        <v>-1.7867765253196301E-2</v>
+      </c>
+      <c r="J6">
+        <v>2.11178428187733E-2</v>
+      </c>
+      <c r="K6">
+        <v>1.7867765253196301E-2</v>
+      </c>
+      <c r="L6">
+        <v>-1.6753504469219</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1.5438688305191599</v>
-      </c>
-      <c r="B6" s="1">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1.5681700744090501</v>
+      </c>
+      <c r="B7" s="1">
         <v>45569.448379629597</v>
       </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6">
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7">
         <v>373.09719000000001</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>1077.366</v>
       </c>
-      <c r="F6">
-        <v>0.26345251809384701</v>
-      </c>
-      <c r="G6">
-        <v>34.983948943721103</v>
-      </c>
-      <c r="H6">
+      <c r="F7">
+        <v>0.253452518093848</v>
+      </c>
+      <c r="G7">
+        <v>36.997303685117799</v>
+      </c>
+      <c r="H7">
         <v>76.006291666666698</v>
       </c>
-      <c r="I6">
-        <v>22.574804511993101</v>
-      </c>
-      <c r="J6">
-        <v>20.284117843621001</v>
+      <c r="I7">
+        <v>-0.247807878923372</v>
+      </c>
+      <c r="J7">
+        <v>0.22266258013392901</v>
+      </c>
+      <c r="K7">
+        <v>0.247807878923372</v>
+      </c>
+      <c r="L7">
+        <v>-0.65235276279009202</v>
       </c>
     </row>
   </sheetData>
@@ -11030,10 +11690,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="T33" sqref="T33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11041,7 +11701,7 @@
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11075,36 +11735,57 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.84279273217053396</v>
+      </c>
       <c r="B2" s="1">
         <v>45660.5559027778</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2">
         <v>335.25396000000001</v>
       </c>
-      <c r="I2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K2" t="e">
-        <v>#NUM!</v>
+      <c r="E2">
+        <v>3393.52</v>
+      </c>
+      <c r="F2">
+        <v>5.0095874737204102E-2</v>
+      </c>
+      <c r="G2">
+        <v>6.9629412716540502</v>
+      </c>
+      <c r="H2">
+        <v>50.861624999999997</v>
+      </c>
+      <c r="I2">
+        <v>-3.1231054176536599E-2</v>
+      </c>
+      <c r="J2">
+        <v>4.39929220295616E-2</v>
+      </c>
+      <c r="K2">
+        <v>3.1231054176536599E-2</v>
+      </c>
+      <c r="L2">
+        <v>-1.35661719103134</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2.1524333526343802</v>
+        <v>2.2521605019698501</v>
       </c>
       <c r="B3" s="1">
         <v>45296.691319444399</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3">
         <v>680.57703333333302</v>
@@ -11116,281 +11797,340 @@
         <v>0.304619300450722</v>
       </c>
       <c r="G3">
-        <v>142.04742084130001</v>
+        <v>178.71479280859799</v>
       </c>
       <c r="H3">
         <v>52.267458333333302</v>
       </c>
       <c r="I3">
-        <v>3.2423941808893599</v>
-      </c>
-      <c r="J3">
-        <v>4.4457519735520696</v>
+        <v>-4.1153993632000299E-2</v>
       </c>
       <c r="K3">
-        <v>0.64794522995038195</v>
+        <v>4.1153993632000299E-2</v>
+      </c>
+      <c r="L3">
+        <v>-1.2485085953163499</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1.87062750523785</v>
+        <v>1.9298004039872101</v>
       </c>
       <c r="B4" s="1">
+        <v>45684.6496527778</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>365.76996000000003</v>
+      </c>
+      <c r="E4">
+        <v>3393.52</v>
+      </c>
+      <c r="F4">
+        <v>0.201714359792356</v>
+      </c>
+      <c r="G4">
+        <v>85.074695626684701</v>
+      </c>
+      <c r="H4">
+        <v>49.803125000000001</v>
+      </c>
+      <c r="I4">
+        <v>-0.14394321656484099</v>
+      </c>
+      <c r="J4">
+        <v>0.20696094168458201</v>
+      </c>
+      <c r="K4">
+        <v>0.14394321656484099</v>
+      </c>
+      <c r="L4">
+        <v>-0.68411160822132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1.87941370477432</v>
+      </c>
+      <c r="B5" s="1">
         <v>45590.536805555603</v>
       </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4">
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5">
         <v>385.73862000000003</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>11406.38</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>0.189070453385662</v>
       </c>
-      <c r="G4">
-        <v>74.238212294659803</v>
-      </c>
-      <c r="H4">
+      <c r="G5">
+        <v>75.755419030113302</v>
+      </c>
+      <c r="H5">
         <v>67.770875000000004</v>
       </c>
-      <c r="I4">
-        <v>2.2494895291891299</v>
-      </c>
-      <c r="J4">
-        <v>2.3214288357792698</v>
-      </c>
-      <c r="K4">
-        <v>0.36575537475554798</v>
+      <c r="I5">
+        <v>-1.7721333548753701E-2</v>
+      </c>
+      <c r="J5">
+        <v>1.8288066770139E-2</v>
+      </c>
+      <c r="K5">
+        <v>1.7721333548753701E-2</v>
+      </c>
+      <c r="L5">
+        <v>-1.7378322013270699</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1.69403875911316</v>
-      </c>
-      <c r="B5" s="1">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1.64584113116905</v>
+      </c>
+      <c r="B6" s="1">
         <v>45597.512847222199</v>
       </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5">
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6">
         <v>366.03865999999999</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>3957.6080000000002</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>0.14022503226824601</v>
       </c>
-      <c r="G5">
-        <v>49.435480428423404</v>
-      </c>
-      <c r="H5">
+      <c r="G6">
+        <v>44.242649916102501</v>
+      </c>
+      <c r="H6">
         <v>68.742208333333295</v>
       </c>
-      <c r="I5">
-        <v>5.98707457535708</v>
-      </c>
-      <c r="J5">
-        <v>6.0757335254178502</v>
-      </c>
-      <c r="K5">
-        <v>0.78359871795927805</v>
+      <c r="I6">
+        <v>-3.4980738563410198E-2</v>
+      </c>
+      <c r="J6">
+        <v>3.5498747068957698E-2</v>
+      </c>
+      <c r="K6">
+        <v>3.4980738563410198E-2</v>
+      </c>
+      <c r="L6">
+        <v>-1.4497869751319601</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1.3383778507114601</v>
-      </c>
-      <c r="B6" s="1">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1.1755615533525701</v>
+      </c>
+      <c r="B7" s="1">
         <v>45618.559143518498</v>
       </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6">
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7">
         <v>2122.394256</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>3764.232</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>7.67954910734997E-2</v>
       </c>
-      <c r="G6">
-        <v>21.7960527708121</v>
-      </c>
-      <c r="H6">
+      <c r="G7">
+        <v>14.9817157660029</v>
+      </c>
+      <c r="H7">
         <v>56.827624999999998</v>
       </c>
-      <c r="I6">
-        <v>324.26597590544202</v>
-      </c>
-      <c r="J6">
-        <v>407.81890792954698</v>
+      <c r="I7">
+        <v>-1.0375902024202499</v>
+      </c>
+      <c r="K7">
+        <v>1.0375902024202499</v>
+      </c>
+      <c r="L7">
+        <v>0.11559183749072301</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1.45106574211743</v>
-      </c>
-      <c r="B7" s="1">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1.3244402894665099</v>
+      </c>
+      <c r="B8" s="1">
         <v>45266.638425925899</v>
       </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7">
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8">
         <v>711.255675</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>3986.5630000000001</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>9.2948582820242806E-2</v>
       </c>
-      <c r="G7">
-        <v>28.253076286296299</v>
-      </c>
-      <c r="H7">
+      <c r="G8">
+        <v>21.107669694951699</v>
+      </c>
+      <c r="H8">
         <v>57.605125000000001</v>
       </c>
-      <c r="I7">
-        <v>1.7493497646667899</v>
-      </c>
-      <c r="J7">
-        <v>2.16774731953429</v>
-      </c>
-      <c r="K7">
-        <v>0.33600865788138401</v>
+      <c r="I8">
+        <v>-6.7749825617792999E-3</v>
+      </c>
+      <c r="J8">
+        <v>8.3953767192955307E-3</v>
+      </c>
+      <c r="K8">
+        <v>6.7749825617792999E-3</v>
+      </c>
+      <c r="L8">
+        <v>-2.0759598113257498</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1.14396940161106</v>
-      </c>
-      <c r="B8" s="1">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.91903067039514397</v>
+      </c>
+      <c r="B9" s="1">
         <v>45639.595601851797</v>
       </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8">
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9">
         <v>335.75364000000002</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>5.5228227659252498E-2</v>
       </c>
-      <c r="G8">
-        <v>13.9305865099121</v>
-      </c>
-      <c r="H8">
+      <c r="G9">
+        <v>8.2990937463643704</v>
+      </c>
+      <c r="H9">
         <v>51.593166666666697</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2.0637289235462299</v>
-      </c>
-      <c r="B9" s="1">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2.1348836283946802</v>
+      </c>
+      <c r="B10" s="1">
         <v>45331.513657407399</v>
       </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9">
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10">
         <v>464.2354962</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>3784.3</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>0.26214009253193299</v>
       </c>
-      <c r="G9">
-        <v>115.805430012386</v>
-      </c>
-      <c r="H9">
+      <c r="G10">
+        <v>136.42175379842601</v>
+      </c>
+      <c r="H10">
         <v>55.680374999999998</v>
       </c>
-      <c r="I9">
-        <v>134.29547670046</v>
-      </c>
-      <c r="J9">
-        <v>172.539893863929</v>
+      <c r="I10">
+        <v>-1.4668428620366101</v>
+      </c>
+      <c r="K10">
+        <v>1.4668428620366101</v>
+      </c>
+      <c r="L10">
+        <v>0.27521173323209103</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1.73291751991694</v>
-      </c>
-      <c r="B10" s="1">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1.6976786416304599</v>
+      </c>
+      <c r="B11" s="1">
         <v>45502.6175925926</v>
       </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10">
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11">
         <v>703.29944999999998</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>5518.3209999999999</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>0.14969712289074899</v>
       </c>
-      <c r="G10">
-        <v>54.065163403678802</v>
-      </c>
-      <c r="H10">
+      <c r="G11">
+        <v>49.851547193774898</v>
+      </c>
+      <c r="H11">
         <v>77.678708333333304</v>
       </c>
-      <c r="I10">
-        <v>18.435644843616998</v>
-      </c>
-      <c r="J10">
-        <v>16.119744750891499</v>
-      </c>
-      <c r="K10">
-        <v>1.2073581606603301</v>
+      <c r="I11">
+        <v>-0.11499012465521399</v>
+      </c>
+      <c r="J11">
+        <v>0.100544975455905</v>
+      </c>
+      <c r="K11">
+        <v>0.11499012465521399</v>
+      </c>
+      <c r="L11">
+        <v>-0.99763962756646996</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1.88489030406534</v>
-      </c>
-      <c r="B11" s="1">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1.8983149978362499</v>
+      </c>
+      <c r="B12" s="1">
         <v>45569.557407407403</v>
       </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11">
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12">
         <v>403.84739999999999</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>8906.6890000000003</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>0.19368252554686899</v>
       </c>
-      <c r="G11">
-        <v>76.716769043187597</v>
-      </c>
-      <c r="H11">
+      <c r="G12">
+        <v>79.125232260735004</v>
+      </c>
+      <c r="H12">
         <v>76.782666666666699</v>
       </c>
-      <c r="I11">
-        <v>3.5288640506226399</v>
-      </c>
-      <c r="J11">
-        <v>3.1310158251127902</v>
-      </c>
-      <c r="K11">
-        <v>0.49568526267976798</v>
+      <c r="I12">
+        <v>-2.8478304234839501E-2</v>
+      </c>
+      <c r="J12">
+        <v>2.5267627188960799E-2</v>
+      </c>
+      <c r="K12">
+        <v>2.8478304234839501E-2</v>
+      </c>
+      <c r="L12">
+        <v>-1.59743553952547</v>
       </c>
     </row>
   </sheetData>
